--- a/Input/data_main.xlsx
+++ b/Input/data_main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd1a17303fcb2a19/Documentos/RWTH/Semester 4 (SS25)/MA/W14_Modelle_Auswerten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Projekte\MA-Model_1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="11_AD4DB114E441178AC67DF4C99614D368683EDF28" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4633FB0-632B-4FED-8560-5B222B2168E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DBFACC-FCA5-41FD-9B5D-AF19EEEE7CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,14 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -147,10 +146,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,7 +414,7 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +970,7 @@
       <c r="D24">
         <v>0.2</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>-1</v>
       </c>
       <c r="F24">

--- a/Input/data_main.xlsx
+++ b/Input/data_main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Projekte\MA-Model_1\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\public\03 Studenten\00 Ausgeschieden\Ivan Guzman\05_Simulations\Abscheidermodell\MA\MA-Model_1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85F4644-59F4-4F08-8B4D-B179A4E9D6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2EDAB6-A449-43C8-B2AC-8439C17D4ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="22">
   <si>
     <t>exp</t>
   </si>
@@ -165,7 +163,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,7 +447,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2406,13 +2404,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A9A0D0-FB24-4EE6-8EDD-B3A2672E503C}">
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="J418" sqref="J418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7636,31 +7634,31 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B181">
-        <v>5.7759300000000005E-4</v>
+        <v>5.4408699999999996E-4</v>
       </c>
       <c r="C181">
-        <v>-6.204947411</v>
+        <v>741.13801620000004</v>
       </c>
       <c r="D181">
-        <v>0.655792135</v>
+        <v>0.29846209099999998</v>
       </c>
       <c r="E181">
-        <v>1.4356958E-2</v>
+        <v>3.9465617000000001E-2</v>
       </c>
       <c r="F181">
-        <v>9.6136919000000001E-2</v>
+        <v>9.8744905999999993E-2</v>
       </c>
       <c r="G181">
-        <v>9.5762568000000006E-2</v>
+        <v>9.1228983E-2</v>
       </c>
       <c r="H181">
-        <v>2.0295E-4</v>
+        <v>3.0308010000000001E-3</v>
       </c>
       <c r="I181">
-        <v>0.99640306899999997</v>
+        <v>0.98797599999999997</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7668,28 +7666,28 @@
         <v>18</v>
       </c>
       <c r="B182">
-        <v>5.4408699999999996E-4</v>
+        <v>4.5836E-4</v>
       </c>
       <c r="C182">
-        <v>741.13801620000004</v>
+        <v>755.30138320000003</v>
       </c>
       <c r="D182">
-        <v>0.29846209099999998</v>
+        <v>0.30222506500000001</v>
       </c>
       <c r="E182">
-        <v>3.9465617000000001E-2</v>
+        <v>4.5065751000000001E-2</v>
       </c>
       <c r="F182">
-        <v>9.8744905999999993E-2</v>
+        <v>9.9274654000000004E-2</v>
       </c>
       <c r="G182">
-        <v>9.1228983E-2</v>
+        <v>9.2706983000000007E-2</v>
       </c>
       <c r="H182">
-        <v>3.0308010000000001E-3</v>
+        <v>3.9105329999999999E-3</v>
       </c>
       <c r="I182">
-        <v>0.98797599999999997</v>
+        <v>0.98623582700000001</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -7697,28 +7695,28 @@
         <v>18</v>
       </c>
       <c r="B183">
-        <v>4.5836E-4</v>
+        <v>3.0230799999999999E-4</v>
       </c>
       <c r="C183">
-        <v>755.30138320000003</v>
+        <v>739.60166379999998</v>
       </c>
       <c r="D183">
-        <v>0.30222506500000001</v>
+        <v>0.296834975</v>
       </c>
       <c r="E183">
-        <v>4.5065751000000001E-2</v>
+        <v>3.5464901E-2</v>
       </c>
       <c r="F183">
-        <v>9.9274654000000004E-2</v>
+        <v>9.8679707000000005E-2</v>
       </c>
       <c r="G183">
-        <v>9.2706983000000007E-2</v>
+        <v>9.9475516E-2</v>
       </c>
       <c r="H183">
-        <v>3.9105329999999999E-3</v>
+        <v>4.4541729999999996E-3</v>
       </c>
       <c r="I183">
-        <v>0.98623582700000001</v>
+        <v>0.98470657900000003</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -7726,28 +7724,28 @@
         <v>18</v>
       </c>
       <c r="B184">
-        <v>3.0230799999999999E-4</v>
+        <v>2.0462099999999999E-4</v>
       </c>
       <c r="C184">
-        <v>739.60166379999998</v>
+        <v>743.10170100000005</v>
       </c>
       <c r="D184">
-        <v>0.296834975</v>
+        <v>0.29701893400000001</v>
       </c>
       <c r="E184">
-        <v>3.5464901E-2</v>
+        <v>3.6502927999999997E-2</v>
       </c>
       <c r="F184">
-        <v>9.8679707000000005E-2</v>
+        <v>0.100122249</v>
       </c>
       <c r="G184">
-        <v>9.9475516E-2</v>
+        <v>9.6633421999999997E-2</v>
       </c>
       <c r="H184">
-        <v>4.4541729999999996E-3</v>
+        <v>4.4652340000000002E-3</v>
       </c>
       <c r="I184">
-        <v>0.98470657900000003</v>
+        <v>0.98750888400000003</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -7755,28 +7753,28 @@
         <v>18</v>
       </c>
       <c r="B185">
-        <v>2.0462099999999999E-4</v>
+        <v>5.2193699999999999E-4</v>
       </c>
       <c r="C185">
-        <v>743.10170100000005</v>
+        <v>747.95694719999995</v>
       </c>
       <c r="D185">
-        <v>0.29701893400000001</v>
+        <v>0.40036071000000001</v>
       </c>
       <c r="E185">
-        <v>3.6502927999999997E-2</v>
+        <v>3.5911619999999998E-2</v>
       </c>
       <c r="F185">
-        <v>0.100122249</v>
+        <v>9.9201304000000004E-2</v>
       </c>
       <c r="G185">
-        <v>9.6633421999999997E-2</v>
+        <v>8.9501396999999996E-2</v>
       </c>
       <c r="H185">
-        <v>4.4652340000000002E-3</v>
+        <v>3.3852219999999998E-3</v>
       </c>
       <c r="I185">
-        <v>0.98750888400000003</v>
+        <v>0.98668524800000001</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -7784,28 +7782,28 @@
         <v>18</v>
       </c>
       <c r="B186">
-        <v>5.2193699999999999E-4</v>
+        <v>4.4927699999999999E-4</v>
       </c>
       <c r="C186">
-        <v>747.95694719999995</v>
+        <v>749.97402599999998</v>
       </c>
       <c r="D186">
-        <v>0.40036071000000001</v>
+        <v>0.399764919</v>
       </c>
       <c r="E186">
-        <v>3.5911619999999998E-2</v>
+        <v>3.8463404E-2</v>
       </c>
       <c r="F186">
-        <v>9.9201304000000004E-2</v>
+        <v>0.100488998</v>
       </c>
       <c r="G186">
-        <v>8.9501396999999996E-2</v>
+        <v>9.5001253999999993E-2</v>
       </c>
       <c r="H186">
-        <v>3.3852219999999998E-3</v>
+        <v>3.785549E-3</v>
       </c>
       <c r="I186">
-        <v>0.98668524800000001</v>
+        <v>0.98653263199999996</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -7813,28 +7811,28 @@
         <v>18</v>
       </c>
       <c r="B187">
-        <v>4.4927699999999999E-4</v>
+        <v>2.8546399999999998E-4</v>
       </c>
       <c r="C187">
-        <v>749.97402599999998</v>
+        <v>741.20640130000004</v>
       </c>
       <c r="D187">
-        <v>0.399764919</v>
+        <v>0.399049243</v>
       </c>
       <c r="E187">
-        <v>3.8463404E-2</v>
+        <v>3.5169270000000002E-2</v>
       </c>
       <c r="F187">
-        <v>0.100488998</v>
+        <v>0.100317848</v>
       </c>
       <c r="G187">
-        <v>9.5001253999999993E-2</v>
+        <v>0.106014196</v>
       </c>
       <c r="H187">
-        <v>3.785549E-3</v>
+        <v>3.901846E-3</v>
       </c>
       <c r="I187">
-        <v>0.98653263199999996</v>
+        <v>0.98884039400000001</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -7842,28 +7840,28 @@
         <v>18</v>
       </c>
       <c r="B188">
-        <v>2.8546399999999998E-4</v>
+        <v>2.4194099999999999E-4</v>
       </c>
       <c r="C188">
-        <v>741.20640130000004</v>
+        <v>750.20782199999996</v>
       </c>
       <c r="D188">
-        <v>0.399049243</v>
+        <v>0.40002338700000001</v>
       </c>
       <c r="E188">
-        <v>3.5169270000000002E-2</v>
+        <v>6.6916982E-2</v>
       </c>
       <c r="F188">
-        <v>0.100317848</v>
+        <v>0.101548492</v>
       </c>
       <c r="G188">
-        <v>0.106014196</v>
+        <v>0.106790285</v>
       </c>
       <c r="H188">
-        <v>3.901846E-3</v>
+        <v>5.2340670000000002E-3</v>
       </c>
       <c r="I188">
-        <v>0.98884039400000001</v>
+        <v>0.99171526700000001</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -7871,28 +7869,28 @@
         <v>18</v>
       </c>
       <c r="B189">
-        <v>2.4194099999999999E-4</v>
+        <v>6.5725699999999996E-4</v>
       </c>
       <c r="C189">
-        <v>750.20782199999996</v>
+        <v>748.36788460000002</v>
       </c>
       <c r="D189">
-        <v>0.40002338700000001</v>
+        <v>0.50333939500000002</v>
       </c>
       <c r="E189">
-        <v>6.6916982E-2</v>
+        <v>2.8484735000000001E-2</v>
       </c>
       <c r="F189">
-        <v>0.101548492</v>
+        <v>0.10785233700000001</v>
       </c>
       <c r="G189">
-        <v>0.106790285</v>
+        <v>9.2660582000000005E-2</v>
       </c>
       <c r="H189">
-        <v>5.2340670000000002E-3</v>
+        <v>1.528742E-3</v>
       </c>
       <c r="I189">
-        <v>0.99171526700000001</v>
+        <v>0.99108918400000001</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -7900,28 +7898,28 @@
         <v>18</v>
       </c>
       <c r="B190">
-        <v>6.5725699999999996E-4</v>
+        <v>5.2808399999999995E-4</v>
       </c>
       <c r="C190">
-        <v>748.36788460000002</v>
+        <v>758.12211019999995</v>
       </c>
       <c r="D190">
-        <v>0.50333939500000002</v>
+        <v>0.50035887499999998</v>
       </c>
       <c r="E190">
-        <v>2.8484735000000001E-2</v>
+        <v>4.2228937000000001E-2</v>
       </c>
       <c r="F190">
-        <v>0.10785233700000001</v>
+        <v>0.101835749</v>
       </c>
       <c r="G190">
-        <v>9.2660582000000005E-2</v>
+        <v>9.9396029999999996E-2</v>
       </c>
       <c r="H190">
-        <v>1.528742E-3</v>
+        <v>4.098722E-3</v>
       </c>
       <c r="I190">
-        <v>0.99108918400000001</v>
+        <v>0.99059449499999996</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -7929,28 +7927,28 @@
         <v>18</v>
       </c>
       <c r="B191">
-        <v>5.2808399999999995E-4</v>
+        <v>3.5915099999999999E-4</v>
       </c>
       <c r="C191">
-        <v>758.12211019999995</v>
+        <v>742.22614529999998</v>
       </c>
       <c r="D191">
-        <v>0.50035887499999998</v>
+        <v>0.49840438399999998</v>
       </c>
       <c r="E191">
-        <v>4.2228937000000001E-2</v>
+        <v>3.5165189999999999E-2</v>
       </c>
       <c r="F191">
-        <v>0.101835749</v>
+        <v>0.101006441</v>
       </c>
       <c r="G191">
-        <v>9.9396029999999996E-2</v>
+        <v>0.108600243</v>
       </c>
       <c r="H191">
-        <v>4.098722E-3</v>
+        <v>4.1920880000000001E-3</v>
       </c>
       <c r="I191">
-        <v>0.99059449499999996</v>
+        <v>0.99142264800000002</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -7958,28 +7956,28 @@
         <v>18</v>
       </c>
       <c r="B192">
-        <v>3.5915099999999999E-4</v>
+        <v>3.1127999999999999E-4</v>
       </c>
       <c r="C192">
-        <v>742.22614529999998</v>
+        <v>749.92972780000002</v>
       </c>
       <c r="D192">
-        <v>0.49840438399999998</v>
+        <v>0.49988101000000001</v>
       </c>
       <c r="E192">
-        <v>3.5165189999999999E-2</v>
+        <v>3.8919571E-2</v>
       </c>
       <c r="F192">
-        <v>0.101006441</v>
+        <v>0.10115942</v>
       </c>
       <c r="G192">
-        <v>0.108600243</v>
+        <v>0.10772396300000001</v>
       </c>
       <c r="H192">
-        <v>4.1920880000000001E-3</v>
+        <v>4.7552549999999999E-3</v>
       </c>
       <c r="I192">
-        <v>0.99142264800000002</v>
+        <v>0.99268671900000005</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -7987,28 +7985,28 @@
         <v>18</v>
       </c>
       <c r="B193">
-        <v>3.1127999999999999E-4</v>
+        <v>4.7841700000000002E-4</v>
       </c>
       <c r="C193">
-        <v>749.92972780000002</v>
+        <v>1001.588372</v>
       </c>
       <c r="D193">
-        <v>0.49988101000000001</v>
+        <v>0.30053032600000001</v>
       </c>
       <c r="E193">
-        <v>3.8919571E-2</v>
+        <v>4.2801569999999997E-2</v>
       </c>
       <c r="F193">
-        <v>0.10115942</v>
+        <v>0.104484702</v>
       </c>
       <c r="G193">
-        <v>0.10772396300000001</v>
+        <v>0.103238596</v>
       </c>
       <c r="H193">
-        <v>4.7552549999999999E-3</v>
+        <v>3.8517870000000002E-3</v>
       </c>
       <c r="I193">
-        <v>0.99268671900000005</v>
+        <v>0.98986619899999995</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -8016,28 +8014,28 @@
         <v>18</v>
       </c>
       <c r="B194">
-        <v>4.7841700000000002E-4</v>
+        <v>4.9956000000000002E-4</v>
       </c>
       <c r="C194">
-        <v>1001.588372</v>
+        <v>999.28890869999998</v>
       </c>
       <c r="D194">
-        <v>0.30053032600000001</v>
+        <v>0.29977596000000001</v>
       </c>
       <c r="E194">
-        <v>4.2801569999999997E-2</v>
+        <v>4.0141706999999999E-2</v>
       </c>
       <c r="F194">
-        <v>0.104484702</v>
+        <v>9.8945249999999998E-2</v>
       </c>
       <c r="G194">
-        <v>0.103238596</v>
+        <v>0.102442293</v>
       </c>
       <c r="H194">
-        <v>3.8517870000000002E-3</v>
+        <v>4.8277179999999999E-3</v>
       </c>
       <c r="I194">
-        <v>0.98986619899999995</v>
+        <v>0.98873874500000003</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -8045,28 +8043,28 @@
         <v>18</v>
       </c>
       <c r="B195">
-        <v>4.9956000000000002E-4</v>
+        <v>3.2126799999999999E-4</v>
       </c>
       <c r="C195">
-        <v>999.28890869999998</v>
+        <v>1004.324935</v>
       </c>
       <c r="D195">
-        <v>0.29977596000000001</v>
+        <v>0.30118348099999998</v>
       </c>
       <c r="E195">
-        <v>4.0141706999999999E-2</v>
+        <v>3.4455592E-2</v>
       </c>
       <c r="F195">
-        <v>9.8945249999999998E-2</v>
+        <v>9.9653783999999995E-2</v>
       </c>
       <c r="G195">
-        <v>0.102442293</v>
+        <v>0.10929739199999999</v>
       </c>
       <c r="H195">
-        <v>4.8277179999999999E-3</v>
+        <v>4.0556669999999998E-3</v>
       </c>
       <c r="I195">
-        <v>0.98873874500000003</v>
+        <v>0.98686360200000001</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -8074,28 +8072,28 @@
         <v>18</v>
       </c>
       <c r="B196">
-        <v>3.2126799999999999E-4</v>
+        <v>2.7020599999999999E-4</v>
       </c>
       <c r="C196">
-        <v>1004.324935</v>
+        <v>1000.556021</v>
       </c>
       <c r="D196">
-        <v>0.30118348099999998</v>
+        <v>0.29982659</v>
       </c>
       <c r="E196">
-        <v>3.4455592E-2</v>
+        <v>4.1210475000000003E-2</v>
       </c>
       <c r="F196">
-        <v>9.9653783999999995E-2</v>
+        <v>9.9315619999999993E-2</v>
       </c>
       <c r="G196">
-        <v>0.10929739199999999</v>
+        <v>0.107326958</v>
       </c>
       <c r="H196">
-        <v>4.0556669999999998E-3</v>
+        <v>4.9487639999999996E-3</v>
       </c>
       <c r="I196">
-        <v>0.98686360200000001</v>
+        <v>0.98819534399999998</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -8103,28 +8101,28 @@
         <v>18</v>
       </c>
       <c r="B197">
-        <v>2.7020599999999999E-4</v>
+        <v>4.9661200000000001E-4</v>
       </c>
       <c r="C197">
-        <v>1000.556021</v>
+        <v>1010.338929</v>
       </c>
       <c r="D197">
-        <v>0.29982659</v>
+        <v>0.40112509299999999</v>
       </c>
       <c r="E197">
-        <v>4.1210475000000003E-2</v>
+        <v>4.5082240000000003E-2</v>
       </c>
       <c r="F197">
-        <v>9.9315619999999993E-2</v>
+        <v>9.9887278999999995E-2</v>
       </c>
       <c r="G197">
-        <v>0.107326958</v>
+        <v>0.100575394</v>
       </c>
       <c r="H197">
-        <v>4.9487639999999996E-3</v>
+        <v>4.7595509999999999E-3</v>
       </c>
       <c r="I197">
-        <v>0.98819534399999998</v>
+        <v>0.98747095399999996</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -8132,28 +8130,28 @@
         <v>18</v>
       </c>
       <c r="B198">
-        <v>4.9661200000000001E-4</v>
+        <v>5.3819899999999995E-4</v>
       </c>
       <c r="C198">
-        <v>1010.338929</v>
+        <v>992.59872359999997</v>
       </c>
       <c r="D198">
-        <v>0.40112509299999999</v>
+        <v>0.400130769</v>
       </c>
       <c r="E198">
-        <v>4.5082240000000003E-2</v>
+        <v>4.503236E-2</v>
       </c>
       <c r="F198">
-        <v>9.9887278999999995E-2</v>
+        <v>9.9903381999999999E-2</v>
       </c>
       <c r="G198">
-        <v>0.100575394</v>
+        <v>0.10001264</v>
       </c>
       <c r="H198">
-        <v>4.7595509999999999E-3</v>
+        <v>4.8796849999999999E-3</v>
       </c>
       <c r="I198">
-        <v>0.98747095399999996</v>
+        <v>0.985533416</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -8161,28 +8159,28 @@
         <v>18</v>
       </c>
       <c r="B199">
-        <v>5.3819899999999995E-4</v>
+        <v>3.5480499999999998E-4</v>
       </c>
       <c r="C199">
-        <v>992.59872359999997</v>
+        <v>1005.667141</v>
       </c>
       <c r="D199">
-        <v>0.400130769</v>
+        <v>0.39987046199999998</v>
       </c>
       <c r="E199">
-        <v>4.503236E-2</v>
+        <v>4.3609781E-2</v>
       </c>
       <c r="F199">
-        <v>9.9903381999999999E-2</v>
+        <v>0.101610306</v>
       </c>
       <c r="G199">
-        <v>0.10001264</v>
+        <v>0.110734652</v>
       </c>
       <c r="H199">
-        <v>4.8796849999999999E-3</v>
+        <v>4.7589080000000001E-3</v>
       </c>
       <c r="I199">
-        <v>0.985533416</v>
+        <v>0.989342053</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -8190,28 +8188,28 @@
         <v>18</v>
       </c>
       <c r="B200">
-        <v>3.5480499999999998E-4</v>
+        <v>3.0498E-4</v>
       </c>
       <c r="C200">
-        <v>1005.667141</v>
+        <v>998.63277649999998</v>
       </c>
       <c r="D200">
-        <v>0.39987046199999998</v>
+        <v>0.39983951400000001</v>
       </c>
       <c r="E200">
-        <v>4.3609781E-2</v>
+        <v>3.8087335E-2</v>
       </c>
       <c r="F200">
-        <v>0.101610306</v>
+        <v>9.9653783999999995E-2</v>
       </c>
       <c r="G200">
-        <v>0.110734652</v>
+        <v>0.10964180599999999</v>
       </c>
       <c r="H200">
-        <v>4.7589080000000001E-3</v>
+        <v>4.5036140000000004E-3</v>
       </c>
       <c r="I200">
-        <v>0.989342053</v>
+        <v>0.99162905800000001</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -8219,28 +8217,28 @@
         <v>18</v>
       </c>
       <c r="B201">
-        <v>3.0498E-4</v>
+        <v>5.7161400000000002E-4</v>
       </c>
       <c r="C201">
-        <v>998.63277649999998</v>
+        <v>1012.474803</v>
       </c>
       <c r="D201">
-        <v>0.39983951400000001</v>
+        <v>0.49980213000000001</v>
       </c>
       <c r="E201">
-        <v>3.8087335E-2</v>
+        <v>4.6878808000000001E-2</v>
       </c>
       <c r="F201">
-        <v>9.9653783999999995E-2</v>
+        <v>0.101207729</v>
       </c>
       <c r="G201">
-        <v>0.10964180599999999</v>
+        <v>0.100384342</v>
       </c>
       <c r="H201">
-        <v>4.5036140000000004E-3</v>
+        <v>5.2465929999999999E-3</v>
       </c>
       <c r="I201">
-        <v>0.99162905800000001</v>
+        <v>0.99024710100000002</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -8248,28 +8246,28 @@
         <v>18</v>
       </c>
       <c r="B202">
-        <v>5.7161400000000002E-4</v>
+        <v>6.1787599999999995E-4</v>
       </c>
       <c r="C202">
-        <v>1012.474803</v>
+        <v>988.06688459999998</v>
       </c>
       <c r="D202">
-        <v>0.49980213000000001</v>
+        <v>0.500028205</v>
       </c>
       <c r="E202">
-        <v>4.6878808000000001E-2</v>
+        <v>4.9885762E-2</v>
       </c>
       <c r="F202">
-        <v>0.101207729</v>
+        <v>0.10050724599999999</v>
       </c>
       <c r="G202">
-        <v>0.100384342</v>
+        <v>9.9515904000000002E-2</v>
       </c>
       <c r="H202">
-        <v>5.2465929999999999E-3</v>
+        <v>5.6729110000000001E-3</v>
       </c>
       <c r="I202">
-        <v>0.99024710100000002</v>
+        <v>0.990479102</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -8277,28 +8275,28 @@
         <v>18</v>
       </c>
       <c r="B203">
-        <v>6.1787599999999995E-4</v>
+        <v>4.3410900000000001E-4</v>
       </c>
       <c r="C203">
-        <v>988.06688459999998</v>
+        <v>985.61116809999999</v>
       </c>
       <c r="D203">
-        <v>0.500028205</v>
+        <v>0.49784190099999998</v>
       </c>
       <c r="E203">
-        <v>4.9885762E-2</v>
+        <v>7.3446624000000002E-2</v>
       </c>
       <c r="F203">
-        <v>0.10050724599999999</v>
+        <v>0.102165862</v>
       </c>
       <c r="G203">
-        <v>9.9515904000000002E-2</v>
+        <v>0.110014009</v>
       </c>
       <c r="H203">
-        <v>5.6729110000000001E-3</v>
+        <v>6.4951770000000004E-3</v>
       </c>
       <c r="I203">
-        <v>0.990479102</v>
+        <v>0.99155329400000003</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -8306,28 +8304,28 @@
         <v>18</v>
       </c>
       <c r="B204">
-        <v>4.3410900000000001E-4</v>
+        <v>3.79055E-4</v>
       </c>
       <c r="C204">
-        <v>985.61116809999999</v>
+        <v>1001.503179</v>
       </c>
       <c r="D204">
-        <v>0.49784190099999998</v>
+        <v>0.49926978</v>
       </c>
       <c r="E204">
-        <v>7.3446624000000002E-2</v>
+        <v>6.1689590000000002E-2</v>
       </c>
       <c r="F204">
-        <v>0.102165862</v>
+        <v>0.100136876</v>
       </c>
       <c r="G204">
-        <v>0.110014009</v>
+        <v>0.10874370999999999</v>
       </c>
       <c r="H204">
-        <v>6.4951770000000004E-3</v>
+        <v>6.4439220000000004E-3</v>
       </c>
       <c r="I204">
-        <v>0.99155329400000003</v>
+        <v>0.99287321299999998</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -8335,28 +8333,28 @@
         <v>18</v>
       </c>
       <c r="B205">
-        <v>3.79055E-4</v>
+        <v>5.0153199999999995E-4</v>
       </c>
       <c r="C205">
-        <v>1001.503179</v>
+        <v>1249.4237989999999</v>
       </c>
       <c r="D205">
-        <v>0.49926978</v>
+        <v>0.29999452700000001</v>
       </c>
       <c r="E205">
-        <v>6.1689590000000002E-2</v>
+        <v>3.9067486999999998E-2</v>
       </c>
       <c r="F205">
-        <v>0.100136876</v>
+        <v>0.114388084</v>
       </c>
       <c r="G205">
-        <v>0.10874370999999999</v>
+        <v>0.109497229</v>
       </c>
       <c r="H205">
-        <v>6.4439220000000004E-3</v>
+        <v>5.5777639999999998E-3</v>
       </c>
       <c r="I205">
-        <v>0.99287321299999998</v>
+        <v>0.98667479800000002</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -8364,28 +8362,28 @@
         <v>18</v>
       </c>
       <c r="B206">
-        <v>5.0153199999999995E-4</v>
+        <v>5.0392299999999998E-4</v>
       </c>
       <c r="C206">
-        <v>1249.4237989999999</v>
+        <v>1251.817605</v>
       </c>
       <c r="D206">
-        <v>0.29999452700000001</v>
+        <v>0.29948034400000001</v>
       </c>
       <c r="E206">
-        <v>3.9067486999999998E-2</v>
+        <v>4.7531764999999997E-2</v>
       </c>
       <c r="F206">
-        <v>0.114388084</v>
+        <v>0.116908213</v>
       </c>
       <c r="G206">
-        <v>0.109497229</v>
+        <v>0.109779302</v>
       </c>
       <c r="H206">
-        <v>5.5777639999999998E-3</v>
+        <v>5.1495330000000004E-3</v>
       </c>
       <c r="I206">
-        <v>0.98667479800000002</v>
+        <v>0.982443187</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -8393,28 +8391,28 @@
         <v>18</v>
       </c>
       <c r="B207">
-        <v>5.0392299999999998E-4</v>
+        <v>3.4781999999999999E-4</v>
       </c>
       <c r="C207">
-        <v>1251.817605</v>
+        <v>1249.9720520000001</v>
       </c>
       <c r="D207">
-        <v>0.29948034400000001</v>
+        <v>0.29999618500000003</v>
       </c>
       <c r="E207">
-        <v>4.7531764999999997E-2</v>
+        <v>4.7035642000000003E-2</v>
       </c>
       <c r="F207">
-        <v>0.116908213</v>
+        <v>0.12437198100000001</v>
       </c>
       <c r="G207">
-        <v>0.109779302</v>
+        <v>0.10975439100000001</v>
       </c>
       <c r="H207">
-        <v>5.1495330000000004E-3</v>
+        <v>4.7517119999999999E-3</v>
       </c>
       <c r="I207">
-        <v>0.982443187</v>
+        <v>0.98241363800000003</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -8422,28 +8420,28 @@
         <v>18</v>
       </c>
       <c r="B208">
-        <v>3.4781999999999999E-4</v>
+        <v>2.7612200000000001E-4</v>
       </c>
       <c r="C208">
-        <v>1249.9720520000001</v>
+        <v>1249.905575</v>
       </c>
       <c r="D208">
-        <v>0.29999618500000003</v>
+        <v>0.300056612</v>
       </c>
       <c r="E208">
-        <v>4.7035642000000003E-2</v>
+        <v>4.5309544E-2</v>
       </c>
       <c r="F208">
-        <v>0.12437198100000001</v>
+        <v>0.11602254400000001</v>
       </c>
       <c r="G208">
-        <v>0.10975439100000001</v>
+        <v>0.111006706</v>
       </c>
       <c r="H208">
-        <v>4.7517119999999999E-3</v>
+        <v>4.7026159999999997E-3</v>
       </c>
       <c r="I208">
-        <v>0.98241363800000003</v>
+        <v>0.98415804799999995</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -8451,28 +8449,28 @@
         <v>18</v>
       </c>
       <c r="B209">
-        <v>2.7612200000000001E-4</v>
+        <v>5.4036500000000001E-4</v>
       </c>
       <c r="C209">
-        <v>1249.905575</v>
+        <v>1253.811344</v>
       </c>
       <c r="D209">
-        <v>0.300056612</v>
+        <v>0.40050686699999999</v>
       </c>
       <c r="E209">
-        <v>4.5309544E-2</v>
+        <v>4.6744597999999998E-2</v>
       </c>
       <c r="F209">
-        <v>0.11602254400000001</v>
+        <v>9.7560385999999999E-2</v>
       </c>
       <c r="G209">
-        <v>0.111006706</v>
+        <v>9.8130669000000004E-2</v>
       </c>
       <c r="H209">
-        <v>4.7026159999999997E-3</v>
+        <v>5.6639999999999998E-3</v>
       </c>
       <c r="I209">
-        <v>0.98415804799999995</v>
+        <v>0.98347370499999998</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -8480,28 +8478,28 @@
         <v>18</v>
       </c>
       <c r="B210">
-        <v>5.4036500000000001E-4</v>
+        <v>5.2480699999999996E-4</v>
       </c>
       <c r="C210">
-        <v>1253.811344</v>
+        <v>1254.113769</v>
       </c>
       <c r="D210">
-        <v>0.40050686699999999</v>
+        <v>0.401062998</v>
       </c>
       <c r="E210">
-        <v>4.6744597999999998E-2</v>
+        <v>3.7531783999999999E-2</v>
       </c>
       <c r="F210">
-        <v>9.7560385999999999E-2</v>
+        <v>9.9001610000000004E-2</v>
       </c>
       <c r="G210">
-        <v>9.8130669000000004E-2</v>
+        <v>0.104900016</v>
       </c>
       <c r="H210">
-        <v>5.6639999999999998E-3</v>
+        <v>4.7097579999999997E-3</v>
       </c>
       <c r="I210">
-        <v>0.98347370499999998</v>
+        <v>0.98383324299999997</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -8509,28 +8507,28 @@
         <v>18</v>
       </c>
       <c r="B211">
-        <v>5.2480699999999996E-4</v>
+        <v>3.9074900000000002E-4</v>
       </c>
       <c r="C211">
-        <v>1254.113769</v>
+        <v>1237.2419829999999</v>
       </c>
       <c r="D211">
-        <v>0.401062998</v>
+        <v>0.39881570100000002</v>
       </c>
       <c r="E211">
-        <v>3.7531783999999999E-2</v>
+        <v>4.2380693999999997E-2</v>
       </c>
       <c r="F211">
-        <v>9.9001610000000004E-2</v>
+        <v>0.100305958</v>
       </c>
       <c r="G211">
-        <v>0.104900016</v>
+        <v>0.10894643900000001</v>
       </c>
       <c r="H211">
-        <v>4.7097579999999997E-3</v>
+        <v>4.3491160000000001E-3</v>
       </c>
       <c r="I211">
-        <v>0.98383324299999997</v>
+        <v>0.98549623799999997</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -8538,28 +8536,28 @@
         <v>18</v>
       </c>
       <c r="B212">
-        <v>3.9074900000000002E-4</v>
+        <v>3.3084899999999998E-4</v>
       </c>
       <c r="C212">
-        <v>1237.2419829999999</v>
+        <v>1239.463207</v>
       </c>
       <c r="D212">
-        <v>0.39881570100000002</v>
+        <v>0.39911565100000002</v>
       </c>
       <c r="E212">
-        <v>4.2380693999999997E-2</v>
+        <v>4.8708187999999999E-2</v>
       </c>
       <c r="F212">
-        <v>0.100305958</v>
+        <v>9.8679549000000005E-2</v>
       </c>
       <c r="G212">
-        <v>0.10894643900000001</v>
+        <v>0.108711746</v>
       </c>
       <c r="H212">
-        <v>4.3491160000000001E-3</v>
+        <v>5.2396129999999997E-3</v>
       </c>
       <c r="I212">
-        <v>0.98549623799999997</v>
+        <v>0.98921470600000005</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -8567,28 +8565,28 @@
         <v>18</v>
       </c>
       <c r="B213">
-        <v>3.3084899999999998E-4</v>
+        <v>5.6678999999999996E-4</v>
       </c>
       <c r="C213">
-        <v>1239.463207</v>
+        <v>1252.344689</v>
       </c>
       <c r="D213">
-        <v>0.39911565100000002</v>
+        <v>0.50163681100000002</v>
       </c>
       <c r="E213">
-        <v>4.8708187999999999E-2</v>
+        <v>4.4913554000000001E-2</v>
       </c>
       <c r="F213">
-        <v>9.8679549000000005E-2</v>
+        <v>9.9782608999999994E-2</v>
       </c>
       <c r="G213">
-        <v>0.108711746</v>
+        <v>9.8336361999999997E-2</v>
       </c>
       <c r="H213">
-        <v>5.2396129999999997E-3</v>
+        <v>5.8243870000000003E-3</v>
       </c>
       <c r="I213">
-        <v>0.98921470600000005</v>
+        <v>0.98646613599999999</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -8596,28 +8594,28 @@
         <v>18</v>
       </c>
       <c r="B214">
-        <v>5.6678999999999996E-4</v>
+        <v>6.0097700000000004E-4</v>
       </c>
       <c r="C214">
-        <v>1252.344689</v>
+        <v>1240.9398490000001</v>
       </c>
       <c r="D214">
-        <v>0.50163681100000002</v>
+        <v>0.49942540800000002</v>
       </c>
       <c r="E214">
-        <v>4.4913554000000001E-2</v>
+        <v>4.4640606999999999E-2</v>
       </c>
       <c r="F214">
-        <v>9.9782608999999994E-2</v>
+        <v>9.9613526999999993E-2</v>
       </c>
       <c r="G214">
-        <v>9.8336361999999997E-2</v>
+        <v>9.8248176000000007E-2</v>
       </c>
       <c r="H214">
-        <v>5.8243870000000003E-3</v>
+        <v>5.5752400000000004E-3</v>
       </c>
       <c r="I214">
-        <v>0.98646613599999999</v>
+        <v>0.984129437</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -8625,28 +8623,28 @@
         <v>18</v>
       </c>
       <c r="B215">
-        <v>6.0097700000000004E-4</v>
+        <v>4.8327E-4</v>
       </c>
       <c r="C215">
-        <v>1240.9398490000001</v>
+        <v>1254.4076930000001</v>
       </c>
       <c r="D215">
-        <v>0.49942540800000002</v>
+        <v>0.50056330999999998</v>
       </c>
       <c r="E215">
-        <v>4.4640606999999999E-2</v>
+        <v>5.5029842000000002E-2</v>
       </c>
       <c r="F215">
-        <v>9.9613526999999993E-2</v>
+        <v>0.100305958</v>
       </c>
       <c r="G215">
-        <v>9.8248176000000007E-2</v>
+        <v>0.102968558</v>
       </c>
       <c r="H215">
-        <v>5.5752400000000004E-3</v>
+        <v>5.593794E-3</v>
       </c>
       <c r="I215">
-        <v>0.984129437</v>
+        <v>0.98515882099999996</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -8654,28 +8652,28 @@
         <v>18</v>
       </c>
       <c r="B216">
-        <v>4.8327E-4</v>
+        <v>4.9274500000000005E-4</v>
       </c>
       <c r="C216">
-        <v>1254.4076930000001</v>
+        <v>750.25178530000005</v>
       </c>
       <c r="D216">
-        <v>0.50056330999999998</v>
+        <v>0.29988877800000002</v>
       </c>
       <c r="E216">
-        <v>5.5029842000000002E-2</v>
+        <v>3.6448479999999998E-2</v>
       </c>
       <c r="F216">
-        <v>0.100305958</v>
+        <v>0.10068796100000001</v>
       </c>
       <c r="G216">
-        <v>0.102968558</v>
+        <v>0.10019613600000001</v>
       </c>
       <c r="H216">
-        <v>5.593794E-3</v>
+        <v>2.8000159999999998E-3</v>
       </c>
       <c r="I216">
-        <v>0.98515882099999996</v>
+        <v>0.98938694400000005</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -8683,28 +8681,28 @@
         <v>18</v>
       </c>
       <c r="B217">
-        <v>4.9274500000000005E-4</v>
+        <v>3.2658299999999997E-4</v>
       </c>
       <c r="C217">
-        <v>750.25178530000005</v>
+        <v>741.61004530000002</v>
       </c>
       <c r="D217">
-        <v>0.29988877800000002</v>
+        <v>0.29819178499999999</v>
       </c>
       <c r="E217">
-        <v>3.6448479999999998E-2</v>
+        <v>3.5661086000000002E-2</v>
       </c>
       <c r="F217">
-        <v>0.10068796100000001</v>
+        <v>9.9746109999999999E-2</v>
       </c>
       <c r="G217">
-        <v>0.10019613600000001</v>
+        <v>0.10441104800000001</v>
       </c>
       <c r="H217">
-        <v>2.8000159999999998E-3</v>
+        <v>3.882159E-3</v>
       </c>
       <c r="I217">
-        <v>0.98938694400000005</v>
+        <v>0.98514950400000001</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8712,28 +8710,28 @@
         <v>18</v>
       </c>
       <c r="B218">
-        <v>3.2658299999999997E-4</v>
+        <v>2.25011E-4</v>
       </c>
       <c r="C218">
-        <v>741.61004530000002</v>
+        <v>745.82832010000004</v>
       </c>
       <c r="D218">
-        <v>0.29819178499999999</v>
+        <v>0.29830796199999998</v>
       </c>
       <c r="E218">
-        <v>3.5661086000000002E-2</v>
+        <v>3.2729743999999998E-2</v>
       </c>
       <c r="F218">
-        <v>9.9746109999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G218">
-        <v>0.10441104800000001</v>
+        <v>0.107690773</v>
       </c>
       <c r="H218">
-        <v>3.882159E-3</v>
+        <v>3.874639E-3</v>
       </c>
       <c r="I218">
-        <v>0.98514950400000001</v>
+        <v>0.98700713299999998</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -8741,28 +8739,28 @@
         <v>18</v>
       </c>
       <c r="B219">
-        <v>2.25011E-4</v>
+        <v>5.0822400000000005E-4</v>
       </c>
       <c r="C219">
-        <v>745.82832010000004</v>
+        <v>748.80639050000002</v>
       </c>
       <c r="D219">
-        <v>0.29830796199999998</v>
+        <v>0.39998064300000002</v>
       </c>
       <c r="E219">
-        <v>3.2729743999999998E-2</v>
+        <v>3.5481061000000001E-2</v>
       </c>
       <c r="F219">
-        <v>0.1</v>
+        <v>9.9344798999999998E-2</v>
       </c>
       <c r="G219">
-        <v>0.107690773</v>
+        <v>9.7909154999999998E-2</v>
       </c>
       <c r="H219">
-        <v>3.874639E-3</v>
+        <v>3.369688E-3</v>
       </c>
       <c r="I219">
-        <v>0.98700713299999998</v>
+        <v>0.98826965300000003</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8770,28 +8768,28 @@
         <v>18</v>
       </c>
       <c r="B220">
-        <v>5.0822400000000005E-4</v>
+        <v>3.85542E-4</v>
       </c>
       <c r="C220">
-        <v>748.80639050000002</v>
+        <v>761.34406550000006</v>
       </c>
       <c r="D220">
-        <v>0.39998064300000002</v>
+        <v>0.40142784199999998</v>
       </c>
       <c r="E220">
-        <v>3.5481061000000001E-2</v>
+        <v>3.7443071000000001E-2</v>
       </c>
       <c r="F220">
-        <v>9.9344798999999998E-2</v>
+        <v>0.10042588</v>
       </c>
       <c r="G220">
-        <v>9.7909154999999998E-2</v>
+        <v>0.104410629</v>
       </c>
       <c r="H220">
-        <v>3.369688E-3</v>
+        <v>3.9746800000000004E-3</v>
       </c>
       <c r="I220">
-        <v>0.98826965300000003</v>
+        <v>0.98687706100000006</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -8799,28 +8797,28 @@
         <v>18</v>
       </c>
       <c r="B221">
-        <v>3.85542E-4</v>
+        <v>2.7817599999999999E-4</v>
       </c>
       <c r="C221">
-        <v>761.34406550000006</v>
+        <v>751.40939949999995</v>
       </c>
       <c r="D221">
-        <v>0.40142784199999998</v>
+        <v>0.40073868600000001</v>
       </c>
       <c r="E221">
-        <v>3.7443071000000001E-2</v>
+        <v>4.8454603999999998E-2</v>
       </c>
       <c r="F221">
-        <v>0.10042588</v>
+        <v>9.9549550000000001E-2</v>
       </c>
       <c r="G221">
-        <v>0.104410629</v>
+        <v>0.108353029</v>
       </c>
       <c r="H221">
-        <v>3.9746800000000004E-3</v>
+        <v>4.6862479999999996E-3</v>
       </c>
       <c r="I221">
-        <v>0.98687706100000006</v>
+        <v>0.98996229499999999</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -8828,28 +8826,28 @@
         <v>18</v>
       </c>
       <c r="B222">
-        <v>2.7817599999999999E-4</v>
+        <v>5.7829300000000001E-4</v>
       </c>
       <c r="C222">
-        <v>751.40939949999995</v>
+        <v>750.87841040000001</v>
       </c>
       <c r="D222">
-        <v>0.40073868600000001</v>
+        <v>0.49932425499999999</v>
       </c>
       <c r="E222">
-        <v>4.8454603999999998E-2</v>
+        <v>3.3814474999999997E-2</v>
       </c>
       <c r="F222">
-        <v>9.9549550000000001E-2</v>
+        <v>9.8558559000000004E-2</v>
       </c>
       <c r="G222">
-        <v>0.108353029</v>
+        <v>9.9111609000000003E-2</v>
       </c>
       <c r="H222">
-        <v>4.6862479999999996E-3</v>
+        <v>2.534059E-3</v>
       </c>
       <c r="I222">
-        <v>0.98996229499999999</v>
+        <v>0.99008935399999998</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -8857,28 +8855,28 @@
         <v>18</v>
       </c>
       <c r="B223">
-        <v>5.7829300000000001E-4</v>
+        <v>4.49791E-4</v>
       </c>
       <c r="C223">
-        <v>750.87841040000001</v>
+        <v>757.14900309999996</v>
       </c>
       <c r="D223">
-        <v>0.49932425499999999</v>
+        <v>0.49965446800000002</v>
       </c>
       <c r="E223">
-        <v>3.3814474999999997E-2</v>
+        <v>4.3603258999999998E-2</v>
       </c>
       <c r="F223">
-        <v>9.8558559000000004E-2</v>
+        <v>0.101105651</v>
       </c>
       <c r="G223">
-        <v>9.9111609000000003E-2</v>
+        <v>0.10304944100000001</v>
       </c>
       <c r="H223">
-        <v>2.534059E-3</v>
+        <v>5.0428310000000002E-3</v>
       </c>
       <c r="I223">
-        <v>0.99008935399999998</v>
+        <v>0.99031891299999997</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8886,28 +8884,28 @@
         <v>18</v>
       </c>
       <c r="B224">
-        <v>4.49791E-4</v>
+        <v>3.38769E-4</v>
       </c>
       <c r="C224">
-        <v>757.14900309999996</v>
+        <v>750.05733190000001</v>
       </c>
       <c r="D224">
-        <v>0.49965446800000002</v>
+        <v>0.49989457599999998</v>
       </c>
       <c r="E224">
-        <v>4.3603258999999998E-2</v>
+        <v>3.8023349999999997E-2</v>
       </c>
       <c r="F224">
-        <v>0.101105651</v>
+        <v>9.9860770000000001E-2</v>
       </c>
       <c r="G224">
-        <v>0.10304944100000001</v>
+        <v>0.108397884</v>
       </c>
       <c r="H224">
-        <v>5.0428310000000002E-3</v>
+        <v>4.1389720000000003E-3</v>
       </c>
       <c r="I224">
-        <v>0.99031891299999997</v>
+        <v>0.99176721899999998</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -8915,28 +8913,28 @@
         <v>18</v>
       </c>
       <c r="B225">
-        <v>3.38769E-4</v>
+        <v>5.0523799999999998E-4</v>
       </c>
       <c r="C225">
-        <v>750.05733190000001</v>
+        <v>1001.364701</v>
       </c>
       <c r="D225">
-        <v>0.49989457599999998</v>
+        <v>0.30028363699999999</v>
       </c>
       <c r="E225">
-        <v>3.8023349999999997E-2</v>
+        <v>4.1271736000000003E-2</v>
       </c>
       <c r="F225">
-        <v>9.9860770000000001E-2</v>
+        <v>9.9262899000000002E-2</v>
       </c>
       <c r="G225">
-        <v>0.108397884</v>
+        <v>0.102398581</v>
       </c>
       <c r="H225">
-        <v>4.1389720000000003E-3</v>
+        <v>3.5941950000000001E-3</v>
       </c>
       <c r="I225">
-        <v>0.99176721899999998</v>
+        <v>0.98719923700000001</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8944,28 +8942,28 @@
         <v>18</v>
       </c>
       <c r="B226">
-        <v>5.0523799999999998E-4</v>
+        <v>3.7785800000000001E-4</v>
       </c>
       <c r="C226">
-        <v>1001.364701</v>
+        <v>999.67359969999995</v>
       </c>
       <c r="D226">
-        <v>0.30028363699999999</v>
+        <v>0.30006925000000001</v>
       </c>
       <c r="E226">
-        <v>4.1271736000000003E-2</v>
+        <v>3.6809690999999999E-2</v>
       </c>
       <c r="F226">
-        <v>9.9262899000000002E-2</v>
+        <v>0.10062244100000001</v>
       </c>
       <c r="G226">
-        <v>0.102398581</v>
+        <v>0.108183192</v>
       </c>
       <c r="H226">
-        <v>3.5941950000000001E-3</v>
+        <v>4.052745E-3</v>
       </c>
       <c r="I226">
-        <v>0.98719923700000001</v>
+        <v>0.98579144299999999</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8973,28 +8971,28 @@
         <v>18</v>
       </c>
       <c r="B227">
-        <v>3.7785800000000001E-4</v>
+        <v>2.8554999999999997E-4</v>
       </c>
       <c r="C227">
-        <v>999.67359969999995</v>
+        <v>999.08026859999995</v>
       </c>
       <c r="D227">
-        <v>0.30006925000000001</v>
+        <v>0.300038366</v>
       </c>
       <c r="E227">
-        <v>3.6809690999999999E-2</v>
+        <v>3.8511337E-2</v>
       </c>
       <c r="F227">
-        <v>0.10062244100000001</v>
+        <v>9.8918918999999994E-2</v>
       </c>
       <c r="G227">
-        <v>0.108183192</v>
+        <v>0.107811647</v>
       </c>
       <c r="H227">
-        <v>4.052745E-3</v>
+        <v>4.4658900000000001E-3</v>
       </c>
       <c r="I227">
-        <v>0.98579144299999999</v>
+        <v>0.98662200099999997</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -9002,28 +9000,28 @@
         <v>18</v>
       </c>
       <c r="B228">
-        <v>2.8554999999999997E-4</v>
+        <v>4.70111E-4</v>
       </c>
       <c r="C228">
-        <v>999.08026859999995</v>
+        <v>1010.098899</v>
       </c>
       <c r="D228">
-        <v>0.300038366</v>
+        <v>0.401582726</v>
       </c>
       <c r="E228">
-        <v>3.8511337E-2</v>
+        <v>4.3640801999999999E-2</v>
       </c>
       <c r="F228">
-        <v>9.8918918999999994E-2</v>
+        <v>0.100679771</v>
       </c>
       <c r="G228">
-        <v>0.107811647</v>
+        <v>0.101165298</v>
       </c>
       <c r="H228">
-        <v>4.4658900000000001E-3</v>
+        <v>4.5315859999999998E-3</v>
       </c>
       <c r="I228">
-        <v>0.98662200099999997</v>
+        <v>0.98634472399999995</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -9031,28 +9029,28 @@
         <v>18</v>
       </c>
       <c r="B229">
-        <v>4.70111E-4</v>
+        <v>4.27133E-4</v>
       </c>
       <c r="C229">
-        <v>1010.098899</v>
+        <v>993.20317799999998</v>
       </c>
       <c r="D229">
-        <v>0.401582726</v>
+        <v>0.39933699</v>
       </c>
       <c r="E229">
-        <v>4.3640801999999999E-2</v>
+        <v>4.1300086E-2</v>
       </c>
       <c r="F229">
-        <v>0.100679771</v>
+        <v>9.9426698999999993E-2</v>
       </c>
       <c r="G229">
-        <v>0.101165298</v>
+        <v>0.10437996400000001</v>
       </c>
       <c r="H229">
-        <v>4.5315859999999998E-3</v>
+        <v>4.844101E-3</v>
       </c>
       <c r="I229">
-        <v>0.98634472399999995</v>
+        <v>0.98551082499999998</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -9060,28 +9058,28 @@
         <v>18</v>
       </c>
       <c r="B230">
-        <v>4.27133E-4</v>
+        <v>3.3823700000000002E-4</v>
       </c>
       <c r="C230">
-        <v>993.20317799999998</v>
+        <v>1001.661291</v>
       </c>
       <c r="D230">
-        <v>0.39933699</v>
+        <v>0.40005315400000002</v>
       </c>
       <c r="E230">
-        <v>4.1300086E-2</v>
+        <v>4.5480125000000003E-2</v>
       </c>
       <c r="F230">
-        <v>9.9426698999999993E-2</v>
+        <v>0.10049139999999999</v>
       </c>
       <c r="G230">
-        <v>0.10437996400000001</v>
+        <v>0.108152225</v>
       </c>
       <c r="H230">
-        <v>4.844101E-3</v>
+        <v>4.7391259999999998E-3</v>
       </c>
       <c r="I230">
-        <v>0.98551082499999998</v>
+        <v>0.99014545200000004</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -9089,28 +9087,28 @@
         <v>18</v>
       </c>
       <c r="B231">
-        <v>3.3823700000000002E-4</v>
+        <v>5.7063399999999998E-4</v>
       </c>
       <c r="C231">
-        <v>1001.661291</v>
+        <v>1013.328994</v>
       </c>
       <c r="D231">
-        <v>0.40005315400000002</v>
+        <v>0.50041046</v>
       </c>
       <c r="E231">
-        <v>4.5480125000000003E-2</v>
+        <v>4.6042647999999999E-2</v>
       </c>
       <c r="F231">
-        <v>0.10049139999999999</v>
+        <v>0.10030303</v>
       </c>
       <c r="G231">
-        <v>0.108152225</v>
+        <v>0.100247435</v>
       </c>
       <c r="H231">
-        <v>4.7391259999999998E-3</v>
+        <v>4.7789879999999996E-3</v>
       </c>
       <c r="I231">
-        <v>0.99014545200000004</v>
+        <v>0.98886750099999998</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -9118,28 +9116,28 @@
         <v>18</v>
       </c>
       <c r="B232">
-        <v>5.7063399999999998E-4</v>
+        <v>5.2623700000000004E-4</v>
       </c>
       <c r="C232">
-        <v>1013.328994</v>
+        <v>1000.336847</v>
       </c>
       <c r="D232">
-        <v>0.50041046</v>
+        <v>0.49990065900000002</v>
       </c>
       <c r="E232">
-        <v>4.6042647999999999E-2</v>
+        <v>5.1275907000000003E-2</v>
       </c>
       <c r="F232">
-        <v>0.10030303</v>
+        <v>9.9017199E-2</v>
       </c>
       <c r="G232">
-        <v>0.100247435</v>
+        <v>9.9901226999999995E-2</v>
       </c>
       <c r="H232">
-        <v>4.7789879999999996E-3</v>
+        <v>6.2585510000000002E-3</v>
       </c>
       <c r="I232">
-        <v>0.98886750099999998</v>
+        <v>0.99008926200000003</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -9147,28 +9145,28 @@
         <v>18</v>
       </c>
       <c r="B233">
-        <v>5.2623700000000004E-4</v>
+        <v>3.8766700000000001E-4</v>
       </c>
       <c r="C233">
-        <v>1000.336847</v>
+        <v>1002.195121</v>
       </c>
       <c r="D233">
-        <v>0.49990065900000002</v>
+        <v>0.50011976599999997</v>
       </c>
       <c r="E233">
-        <v>5.1275907000000003E-2</v>
+        <v>5.4014270000000003E-2</v>
       </c>
       <c r="F233">
-        <v>9.9017199E-2</v>
+        <v>0.10037674000000001</v>
       </c>
       <c r="G233">
-        <v>9.9901226999999995E-2</v>
+        <v>0.108257747</v>
       </c>
       <c r="H233">
-        <v>6.2585510000000002E-3</v>
+        <v>5.4675629999999999E-3</v>
       </c>
       <c r="I233">
-        <v>0.99008926200000003</v>
+        <v>0.99169663200000002</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -9176,28 +9174,28 @@
         <v>18</v>
       </c>
       <c r="B234">
-        <v>3.8766700000000001E-4</v>
+        <v>4.8464800000000001E-4</v>
       </c>
       <c r="C234">
-        <v>1002.195121</v>
+        <v>1249.761606</v>
       </c>
       <c r="D234">
-        <v>0.50011976599999997</v>
+        <v>0.30006123899999998</v>
       </c>
       <c r="E234">
-        <v>5.4014270000000003E-2</v>
+        <v>3.8515338000000003E-2</v>
       </c>
       <c r="F234">
-        <v>0.10037674000000001</v>
+        <v>0.114226044</v>
       </c>
       <c r="G234">
-        <v>0.108257747</v>
+        <v>0.107851928</v>
       </c>
       <c r="H234">
-        <v>5.4675629999999999E-3</v>
+        <v>4.7985479999999997E-3</v>
       </c>
       <c r="I234">
-        <v>0.99169663200000002</v>
+        <v>0.98452897399999995</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -9205,28 +9203,28 @@
         <v>18</v>
       </c>
       <c r="B235">
-        <v>4.8464800000000001E-4</v>
+        <v>4.0982300000000002E-4</v>
       </c>
       <c r="C235">
-        <v>1249.761606</v>
+        <v>1249.8924549999999</v>
       </c>
       <c r="D235">
-        <v>0.30006123899999998</v>
+        <v>0.30000044100000001</v>
       </c>
       <c r="E235">
-        <v>3.8515338000000003E-2</v>
+        <v>3.9715410999999999E-2</v>
       </c>
       <c r="F235">
-        <v>0.114226044</v>
+        <v>0.121711712</v>
       </c>
       <c r="G235">
-        <v>0.107851928</v>
+        <v>0.113022656</v>
       </c>
       <c r="H235">
-        <v>4.7985479999999997E-3</v>
+        <v>4.3011409999999996E-3</v>
       </c>
       <c r="I235">
-        <v>0.98452897399999995</v>
+        <v>0.98190003000000003</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -9234,28 +9232,28 @@
         <v>18</v>
       </c>
       <c r="B236">
-        <v>4.0982300000000002E-4</v>
+        <v>3.1294599999999998E-4</v>
       </c>
       <c r="C236">
-        <v>1249.8924549999999</v>
+        <v>1250.3187680000001</v>
       </c>
       <c r="D236">
-        <v>0.30000044100000001</v>
+        <v>0.30003166100000001</v>
       </c>
       <c r="E236">
-        <v>3.9715410999999999E-2</v>
+        <v>4.9237347000000001E-2</v>
       </c>
       <c r="F236">
-        <v>0.121711712</v>
+        <v>0.13022932000000001</v>
       </c>
       <c r="G236">
-        <v>0.113022656</v>
+        <v>0.11181050300000001</v>
       </c>
       <c r="H236">
-        <v>4.3011409999999996E-3</v>
+        <v>4.6917E-3</v>
       </c>
       <c r="I236">
-        <v>0.98190003000000003</v>
+        <v>0.98279383200000003</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -9263,28 +9261,28 @@
         <v>18</v>
       </c>
       <c r="B237">
-        <v>3.1294599999999998E-4</v>
+        <v>5.2144500000000005E-4</v>
       </c>
       <c r="C237">
-        <v>1250.3187680000001</v>
+        <v>1249.007805</v>
       </c>
       <c r="D237">
-        <v>0.30003166100000001</v>
+        <v>0.40037684400000001</v>
       </c>
       <c r="E237">
-        <v>4.9237347000000001E-2</v>
+        <v>4.5546267000000001E-2</v>
       </c>
       <c r="F237">
-        <v>0.13022932000000001</v>
+        <v>0.10093366099999999</v>
       </c>
       <c r="G237">
-        <v>0.11181050300000001</v>
+        <v>9.4369333E-2</v>
       </c>
       <c r="H237">
-        <v>4.6917E-3</v>
+        <v>5.6432690000000002E-3</v>
       </c>
       <c r="I237">
-        <v>0.98279383200000003</v>
+        <v>0.98296254299999997</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -9292,28 +9290,28 @@
         <v>18</v>
       </c>
       <c r="B238">
-        <v>5.2144500000000005E-4</v>
+        <v>4.6947900000000002E-4</v>
       </c>
       <c r="C238">
-        <v>1249.007805</v>
+        <v>1250.1973379999999</v>
       </c>
       <c r="D238">
-        <v>0.40037684400000001</v>
+        <v>0.39994793499999998</v>
       </c>
       <c r="E238">
-        <v>4.5546267000000001E-2</v>
+        <v>3.7810668999999998E-2</v>
       </c>
       <c r="F238">
-        <v>0.10093366099999999</v>
+        <v>0.101228501</v>
       </c>
       <c r="G238">
-        <v>9.4369333E-2</v>
+        <v>9.1765380999999993E-2</v>
       </c>
       <c r="H238">
-        <v>5.6432690000000002E-3</v>
+        <v>4.8160690000000001E-3</v>
       </c>
       <c r="I238">
-        <v>0.98296254299999997</v>
+        <v>0.98386759899999998</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -9321,28 +9319,28 @@
         <v>18</v>
       </c>
       <c r="B239">
-        <v>4.6947900000000002E-4</v>
+        <v>3.4246299999999999E-4</v>
       </c>
       <c r="C239">
-        <v>1250.1973379999999</v>
+        <v>1198.505578</v>
       </c>
       <c r="D239">
-        <v>0.39994793499999998</v>
+        <v>0.39314682299999998</v>
       </c>
       <c r="E239">
-        <v>3.7810668999999998E-2</v>
+        <v>3.3905121000000003E-2</v>
       </c>
       <c r="F239">
-        <v>0.101228501</v>
+        <v>9.2956593000000004E-2</v>
       </c>
       <c r="G239">
-        <v>9.1765380999999993E-2</v>
+        <v>9.3838846000000004E-2</v>
       </c>
       <c r="H239">
-        <v>4.8160690000000001E-3</v>
+        <v>4.2162980000000003E-3</v>
       </c>
       <c r="I239">
-        <v>0.98386759899999998</v>
+        <v>0.98936708699999998</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -9350,28 +9348,28 @@
         <v>18</v>
       </c>
       <c r="B240">
-        <v>3.4246299999999999E-4</v>
+        <v>5.7827599999999996E-4</v>
       </c>
       <c r="C240">
-        <v>1198.505578</v>
+        <v>1252.670832</v>
       </c>
       <c r="D240">
-        <v>0.39314682299999998</v>
+        <v>0.49995556099999999</v>
       </c>
       <c r="E240">
-        <v>3.3905121000000003E-2</v>
+        <v>4.8558603999999998E-2</v>
       </c>
       <c r="F240">
-        <v>9.2956593000000004E-2</v>
+        <v>0.101048321</v>
       </c>
       <c r="G240">
-        <v>9.3838846000000004E-2</v>
+        <v>9.5985962999999994E-2</v>
       </c>
       <c r="H240">
-        <v>4.2162980000000003E-3</v>
+        <v>5.6972220000000001E-3</v>
       </c>
       <c r="I240">
-        <v>0.98936708699999998</v>
+        <v>0.98525604600000005</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -9379,28 +9377,28 @@
         <v>18</v>
       </c>
       <c r="B241">
-        <v>5.7827599999999996E-4</v>
+        <v>5.4361800000000005E-4</v>
       </c>
       <c r="C241">
-        <v>1252.670832</v>
+        <v>1286.2615000000001</v>
       </c>
       <c r="D241">
-        <v>0.49995556099999999</v>
+        <v>0.50145735700000005</v>
       </c>
       <c r="E241">
-        <v>4.8558603999999998E-2</v>
+        <v>4.8427867999999999E-2</v>
       </c>
       <c r="F241">
-        <v>0.101048321</v>
+        <v>0.107280917</v>
       </c>
       <c r="G241">
-        <v>9.5985962999999994E-2</v>
+        <v>0.101831532</v>
       </c>
       <c r="H241">
-        <v>5.6972220000000001E-3</v>
+        <v>5.7865140000000004E-3</v>
       </c>
       <c r="I241">
-        <v>0.98525604600000005</v>
+        <v>0.985941234</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -9408,57 +9406,57 @@
         <v>18</v>
       </c>
       <c r="B242">
-        <v>5.4361800000000005E-4</v>
+        <v>3.1115599999999999E-4</v>
       </c>
       <c r="C242">
-        <v>1286.2615000000001</v>
+        <v>573.86975240000004</v>
       </c>
       <c r="D242">
-        <v>0.50145735700000005</v>
+        <v>0.63610518599999999</v>
       </c>
       <c r="E242">
-        <v>4.8427867999999999E-2</v>
+        <v>4.8044137000000001E-2</v>
       </c>
       <c r="F242">
-        <v>0.107280917</v>
+        <v>9.1769041999999995E-2</v>
       </c>
       <c r="G242">
-        <v>0.101831532</v>
+        <v>0.10235364600000001</v>
       </c>
       <c r="H242">
-        <v>5.7865140000000004E-3</v>
+        <v>5.1285269999999999E-3</v>
       </c>
       <c r="I242">
-        <v>0.985941234</v>
+        <v>0.98919117599999995</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B243">
-        <v>3.1115599999999999E-4</v>
+        <v>4.84589E-4</v>
       </c>
       <c r="C243">
-        <v>573.86975240000004</v>
+        <v>750.29533819999995</v>
       </c>
       <c r="D243">
-        <v>0.63610518599999999</v>
+        <v>0.29996972900000002</v>
       </c>
       <c r="E243">
-        <v>4.8044137000000001E-2</v>
+        <v>2.7657220999999999E-2</v>
       </c>
       <c r="F243">
-        <v>9.1769041999999995E-2</v>
+        <v>0.100554197</v>
       </c>
       <c r="G243">
-        <v>0.10235364600000001</v>
+        <v>0.10192069600000001</v>
       </c>
       <c r="H243">
-        <v>5.1285269999999999E-3</v>
+        <v>1.4188569999999999E-3</v>
       </c>
       <c r="I243">
-        <v>0.98919117599999995</v>
+        <v>0.99056644900000002</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -9466,28 +9464,28 @@
         <v>19</v>
       </c>
       <c r="B244">
-        <v>4.84589E-4</v>
+        <v>4.84723E-4</v>
       </c>
       <c r="C244">
-        <v>750.29533819999995</v>
+        <v>750.47147089999999</v>
       </c>
       <c r="D244">
-        <v>0.29996972900000002</v>
+        <v>0.30086995999999999</v>
       </c>
       <c r="E244">
-        <v>2.7657220999999999E-2</v>
+        <v>2.9996608000000001E-2</v>
       </c>
       <c r="F244">
-        <v>0.100554197</v>
+        <v>9.9258353999999993E-2</v>
       </c>
       <c r="G244">
-        <v>0.10192069600000001</v>
+        <v>0.100728892</v>
       </c>
       <c r="H244">
-        <v>1.4188569999999999E-3</v>
+        <v>1.7062710000000001E-3</v>
       </c>
       <c r="I244">
-        <v>0.99056644900000002</v>
+        <v>0.991101699</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -9495,28 +9493,28 @@
         <v>19</v>
       </c>
       <c r="B245">
-        <v>4.84723E-4</v>
+        <v>4.2448600000000001E-4</v>
       </c>
       <c r="C245">
-        <v>750.47147089999999</v>
+        <v>747.03955099999996</v>
       </c>
       <c r="D245">
-        <v>0.30086995999999999</v>
+        <v>0.30027710699999999</v>
       </c>
       <c r="E245">
-        <v>2.9996608000000001E-2</v>
+        <v>3.3680896000000002E-2</v>
       </c>
       <c r="F245">
-        <v>9.9258353999999993E-2</v>
+        <v>9.9299103999999999E-2</v>
       </c>
       <c r="G245">
-        <v>0.100728892</v>
+        <v>0.101963254</v>
       </c>
       <c r="H245">
-        <v>1.7062710000000001E-3</v>
+        <v>3.3757090000000002E-3</v>
       </c>
       <c r="I245">
-        <v>0.991101699</v>
+        <v>0.99112325199999995</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -9524,28 +9522,28 @@
         <v>19</v>
       </c>
       <c r="B246">
-        <v>4.2448600000000001E-4</v>
+        <v>3.21245E-4</v>
       </c>
       <c r="C246">
-        <v>747.03955099999996</v>
+        <v>756.78465600000004</v>
       </c>
       <c r="D246">
-        <v>0.30027710699999999</v>
+        <v>0.30165437000000001</v>
       </c>
       <c r="E246">
-        <v>3.3680896000000002E-2</v>
+        <v>2.8404616000000001E-2</v>
       </c>
       <c r="F246">
-        <v>9.9299103999999999E-2</v>
+        <v>9.9951100000000001E-2</v>
       </c>
       <c r="G246">
-        <v>0.101963254</v>
+        <v>0.106520084</v>
       </c>
       <c r="H246">
-        <v>3.3757090000000002E-3</v>
+        <v>3.1225329999999998E-3</v>
       </c>
       <c r="I246">
-        <v>0.99112325199999995</v>
+        <v>0.99097389000000002</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -9553,28 +9551,28 @@
         <v>19</v>
       </c>
       <c r="B247">
-        <v>3.21245E-4</v>
+        <v>2.53766E-4</v>
       </c>
       <c r="C247">
-        <v>756.78465600000004</v>
+        <v>755.42369919999999</v>
       </c>
       <c r="D247">
-        <v>0.30165437000000001</v>
+        <v>0.30044469600000001</v>
       </c>
       <c r="E247">
-        <v>2.8404616000000001E-2</v>
+        <v>2.9515776000000001E-2</v>
       </c>
       <c r="F247">
         <v>9.9951100000000001E-2</v>
       </c>
       <c r="G247">
-        <v>0.106520084</v>
+        <v>0.110764391</v>
       </c>
       <c r="H247">
-        <v>3.1225329999999998E-3</v>
+        <v>2.7340929999999999E-3</v>
       </c>
       <c r="I247">
-        <v>0.99097389000000002</v>
+        <v>0.99178086700000001</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -9582,28 +9580,28 @@
         <v>19</v>
       </c>
       <c r="B248">
-        <v>2.53766E-4</v>
+        <v>2.18042E-4</v>
       </c>
       <c r="C248">
-        <v>755.42369919999999</v>
+        <v>753.95259580000004</v>
       </c>
       <c r="D248">
-        <v>0.30044469600000001</v>
+        <v>0.29925571200000001</v>
       </c>
       <c r="E248">
-        <v>2.9515776000000001E-2</v>
+        <v>4.0818380000000001E-2</v>
       </c>
       <c r="F248">
-        <v>9.9951100000000001E-2</v>
+        <v>0.100317848</v>
       </c>
       <c r="G248">
-        <v>0.110764391</v>
+        <v>0.112600636</v>
       </c>
       <c r="H248">
-        <v>2.7340929999999999E-3</v>
+        <v>2.82825E-3</v>
       </c>
       <c r="I248">
-        <v>0.99178086700000001</v>
+        <v>0.99264535200000004</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -9611,28 +9609,28 @@
         <v>19</v>
       </c>
       <c r="B249">
-        <v>2.18042E-4</v>
+        <v>2.04692E-4</v>
       </c>
       <c r="C249">
-        <v>753.95259580000004</v>
+        <v>762.58325360000003</v>
       </c>
       <c r="D249">
-        <v>0.29925571200000001</v>
+        <v>0.30026093500000001</v>
       </c>
       <c r="E249">
-        <v>4.0818380000000001E-2</v>
+        <v>2.8816622E-2</v>
       </c>
       <c r="F249">
-        <v>0.100317848</v>
+        <v>0.100309698</v>
       </c>
       <c r="G249">
-        <v>0.112600636</v>
+        <v>0.108112661</v>
       </c>
       <c r="H249">
-        <v>2.82825E-3</v>
+        <v>2.854695E-3</v>
       </c>
       <c r="I249">
-        <v>0.99264535200000004</v>
+        <v>0.99320856599999996</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -9640,28 +9638,28 @@
         <v>19</v>
       </c>
       <c r="B250">
-        <v>2.04692E-4</v>
+        <v>5.2550700000000004E-4</v>
       </c>
       <c r="C250">
-        <v>762.58325360000003</v>
+        <v>768.52866970000002</v>
       </c>
       <c r="D250">
-        <v>0.30026093500000001</v>
+        <v>0.40456734900000002</v>
       </c>
       <c r="E250">
-        <v>2.8816622E-2</v>
+        <v>3.485328E-2</v>
       </c>
       <c r="F250">
-        <v>0.100309698</v>
+        <v>0.100774246</v>
       </c>
       <c r="G250">
-        <v>0.108112661</v>
+        <v>0.100120453</v>
       </c>
       <c r="H250">
-        <v>2.854695E-3</v>
+        <v>2.4469600000000002E-3</v>
       </c>
       <c r="I250">
-        <v>0.99320856599999996</v>
+        <v>0.99278690800000002</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -9669,28 +9667,28 @@
         <v>19</v>
       </c>
       <c r="B251">
-        <v>5.2550700000000004E-4</v>
+        <v>5.3621300000000001E-4</v>
       </c>
       <c r="C251">
-        <v>768.52866970000002</v>
+        <v>751.51759530000004</v>
       </c>
       <c r="D251">
-        <v>0.40456734900000002</v>
+        <v>0.40080857199999997</v>
       </c>
       <c r="E251">
-        <v>3.485328E-2</v>
+        <v>3.6146741000000003E-2</v>
       </c>
       <c r="F251">
-        <v>0.100774246</v>
+        <v>9.9739201E-2</v>
       </c>
       <c r="G251">
-        <v>0.100120453</v>
+        <v>9.9449108999999994E-2</v>
       </c>
       <c r="H251">
-        <v>2.4469600000000002E-3</v>
+        <v>2.9335149999999998E-3</v>
       </c>
       <c r="I251">
-        <v>0.99278690800000002</v>
+        <v>0.99253777300000001</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -9698,28 +9696,28 @@
         <v>19</v>
       </c>
       <c r="B252">
-        <v>5.3621300000000001E-4</v>
+        <v>4.7342700000000001E-4</v>
       </c>
       <c r="C252">
-        <v>751.51759530000004</v>
+        <v>752.34008559999995</v>
       </c>
       <c r="D252">
-        <v>0.40080857199999997</v>
+        <v>0.39943406199999998</v>
       </c>
       <c r="E252">
-        <v>3.6146741000000003E-2</v>
+        <v>3.4894360999999999E-2</v>
       </c>
       <c r="F252">
-        <v>9.9739201E-2</v>
+        <v>0.100162999</v>
       </c>
       <c r="G252">
-        <v>9.9449108999999994E-2</v>
+        <v>0.103465405</v>
       </c>
       <c r="H252">
-        <v>2.9335149999999998E-3</v>
+        <v>4.1427199999999999E-3</v>
       </c>
       <c r="I252">
-        <v>0.99253777300000001</v>
+        <v>0.99251866600000005</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -9727,28 +9725,28 @@
         <v>19</v>
       </c>
       <c r="B253">
-        <v>4.7342700000000001E-4</v>
+        <v>3.60226E-4</v>
       </c>
       <c r="C253">
-        <v>752.34008559999995</v>
+        <v>755.76309070000002</v>
       </c>
       <c r="D253">
-        <v>0.39943406199999998</v>
+        <v>0.39901998599999999</v>
       </c>
       <c r="E253">
-        <v>3.4894360999999999E-2</v>
+        <v>3.1833512000000001E-2</v>
       </c>
       <c r="F253">
-        <v>0.100162999</v>
+        <v>0.100672372</v>
       </c>
       <c r="G253">
-        <v>0.103465405</v>
+        <v>0.110368597</v>
       </c>
       <c r="H253">
-        <v>4.1427199999999999E-3</v>
+        <v>3.9832790000000002E-3</v>
       </c>
       <c r="I253">
-        <v>0.99251866600000005</v>
+        <v>0.99258177199999997</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -9756,28 +9754,28 @@
         <v>19</v>
       </c>
       <c r="B254">
-        <v>3.60226E-4</v>
+        <v>2.6574900000000002E-4</v>
       </c>
       <c r="C254">
-        <v>755.76309070000002</v>
+        <v>753.58823219999999</v>
       </c>
       <c r="D254">
-        <v>0.39901998599999999</v>
+        <v>0.40128135700000001</v>
       </c>
       <c r="E254">
-        <v>3.1833512000000001E-2</v>
+        <v>4.7793125999999998E-2</v>
       </c>
       <c r="F254">
-        <v>0.100672372</v>
+        <v>9.9331702999999993E-2</v>
       </c>
       <c r="G254">
-        <v>0.110368597</v>
+        <v>0.10981632400000001</v>
       </c>
       <c r="H254">
-        <v>3.9832790000000002E-3</v>
+        <v>4.2538380000000002E-3</v>
       </c>
       <c r="I254">
-        <v>0.99258177199999997</v>
+        <v>0.99371483699999996</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9785,28 +9783,28 @@
         <v>19</v>
       </c>
       <c r="B255">
-        <v>2.6574900000000002E-4</v>
+        <v>2.40091E-4</v>
       </c>
       <c r="C255">
-        <v>753.58823219999999</v>
+        <v>749.54681210000001</v>
       </c>
       <c r="D255">
-        <v>0.40128135700000001</v>
+        <v>0.398708968</v>
       </c>
       <c r="E255">
-        <v>4.7793125999999998E-2</v>
+        <v>7.3278926999999994E-2</v>
       </c>
       <c r="F255">
-        <v>9.9331702999999993E-2</v>
+        <v>0.100154849</v>
       </c>
       <c r="G255">
-        <v>0.10981632400000001</v>
+        <v>0.109913707</v>
       </c>
       <c r="H255">
-        <v>4.2538380000000002E-3</v>
+        <v>5.260163E-3</v>
       </c>
       <c r="I255">
-        <v>0.99371483699999996</v>
+        <v>0.99472784000000003</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9814,28 +9812,28 @@
         <v>19</v>
       </c>
       <c r="B256">
-        <v>2.40091E-4</v>
+        <v>2.2167000000000001E-4</v>
       </c>
       <c r="C256">
-        <v>749.54681210000001</v>
+        <v>751.48936860000003</v>
       </c>
       <c r="D256">
-        <v>0.398708968</v>
+        <v>0.40003253100000002</v>
       </c>
       <c r="E256">
-        <v>7.3278926999999994E-2</v>
+        <v>7.0955006000000001E-2</v>
       </c>
       <c r="F256">
-        <v>0.100154849</v>
+        <v>9.9951100000000001E-2</v>
       </c>
       <c r="G256">
-        <v>0.109913707</v>
+        <v>0.11041532699999999</v>
       </c>
       <c r="H256">
-        <v>5.260163E-3</v>
+        <v>4.5576050000000002E-3</v>
       </c>
       <c r="I256">
-        <v>0.99472784000000003</v>
+        <v>0.99505433700000001</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -9843,28 +9841,28 @@
         <v>19</v>
       </c>
       <c r="B257">
-        <v>2.2167000000000001E-4</v>
+        <v>6.5489400000000005E-4</v>
       </c>
       <c r="C257">
-        <v>751.48936860000003</v>
+        <v>758.79075190000003</v>
       </c>
       <c r="D257">
-        <v>0.40003253100000002</v>
+        <v>0.50102734100000001</v>
       </c>
       <c r="E257">
-        <v>7.0955006000000001E-2</v>
+        <v>4.0853266999999999E-2</v>
       </c>
       <c r="F257">
-        <v>9.9951100000000001E-2</v>
+        <v>0.10293398500000001</v>
       </c>
       <c r="G257">
-        <v>0.11041532699999999</v>
+        <v>9.9028083000000003E-2</v>
       </c>
       <c r="H257">
-        <v>4.5576050000000002E-3</v>
+        <v>3.246844E-3</v>
       </c>
       <c r="I257">
-        <v>0.99505433700000001</v>
+        <v>0.99429216200000003</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -9872,28 +9870,28 @@
         <v>19</v>
       </c>
       <c r="B258">
-        <v>6.5489400000000005E-4</v>
+        <v>6.7796600000000001E-4</v>
       </c>
       <c r="C258">
-        <v>758.79075190000003</v>
+        <v>752.85933369999998</v>
       </c>
       <c r="D258">
-        <v>0.50102734100000001</v>
+        <v>0.49949943499999999</v>
       </c>
       <c r="E258">
-        <v>4.0853266999999999E-2</v>
+        <v>4.2382797999999999E-2</v>
       </c>
       <c r="F258">
-        <v>0.10293398500000001</v>
+        <v>9.9437653000000001E-2</v>
       </c>
       <c r="G258">
-        <v>9.9028083000000003E-2</v>
+        <v>9.7580385000000006E-2</v>
       </c>
       <c r="H258">
-        <v>3.246844E-3</v>
+        <v>3.6210349999999999E-3</v>
       </c>
       <c r="I258">
-        <v>0.99429216200000003</v>
+        <v>0.99436792399999996</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9901,28 +9899,28 @@
         <v>19</v>
       </c>
       <c r="B259">
-        <v>6.7796600000000001E-4</v>
+        <v>5.4967899999999997E-4</v>
       </c>
       <c r="C259">
-        <v>752.85933369999998</v>
+        <v>750.02556879999997</v>
       </c>
       <c r="D259">
-        <v>0.49949943499999999</v>
+        <v>0.50015754999999995</v>
       </c>
       <c r="E259">
-        <v>4.2382797999999999E-2</v>
+        <v>4.0361706999999997E-2</v>
       </c>
       <c r="F259">
-        <v>9.9437653000000001E-2</v>
+        <v>9.9543601999999995E-2</v>
       </c>
       <c r="G259">
-        <v>9.7580385000000006E-2</v>
+        <v>0.101830843</v>
       </c>
       <c r="H259">
-        <v>3.6210349999999999E-3</v>
+        <v>5.2321299999999998E-3</v>
       </c>
       <c r="I259">
-        <v>0.99436792399999996</v>
+        <v>0.99445781600000005</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9930,28 +9928,28 @@
         <v>19</v>
       </c>
       <c r="B260">
-        <v>5.4967899999999997E-4</v>
+        <v>3.9895000000000002E-4</v>
       </c>
       <c r="C260">
-        <v>750.02556879999997</v>
+        <v>747.2833243</v>
       </c>
       <c r="D260">
-        <v>0.50015754999999995</v>
+        <v>0.49934918099999998</v>
       </c>
       <c r="E260">
-        <v>4.0361706999999997E-2</v>
+        <v>4.7611008000000003E-2</v>
       </c>
       <c r="F260">
-        <v>9.9543601999999995E-2</v>
+        <v>9.8899756000000005E-2</v>
       </c>
       <c r="G260">
-        <v>0.101830843</v>
+        <v>0.111231076</v>
       </c>
       <c r="H260">
-        <v>5.2321299999999998E-3</v>
+        <v>6.0129739999999999E-3</v>
       </c>
       <c r="I260">
-        <v>0.99445781600000005</v>
+        <v>0.99463729099999998</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -9959,28 +9957,28 @@
         <v>19</v>
       </c>
       <c r="B261">
-        <v>3.9895000000000002E-4</v>
+        <v>3.54428E-4</v>
       </c>
       <c r="C261">
-        <v>747.2833243</v>
+        <v>708.87223819999997</v>
       </c>
       <c r="D261">
-        <v>0.49934918099999998</v>
+        <v>0.50286452199999998</v>
       </c>
       <c r="E261">
-        <v>4.7611008000000003E-2</v>
+        <v>7.4892011999999994E-2</v>
       </c>
       <c r="F261">
-        <v>9.8899756000000005E-2</v>
+        <v>8.2159738999999996E-2</v>
       </c>
       <c r="G261">
-        <v>0.111231076</v>
+        <v>0.108552304</v>
       </c>
       <c r="H261">
-        <v>6.0129739999999999E-3</v>
+        <v>5.5360440000000004E-3</v>
       </c>
       <c r="I261">
-        <v>0.99463729099999998</v>
+        <v>0.99583100800000002</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -9988,28 +9986,28 @@
         <v>19</v>
       </c>
       <c r="B262">
-        <v>3.54428E-4</v>
+        <v>3.3188100000000002E-4</v>
       </c>
       <c r="C262">
-        <v>708.87223819999997</v>
+        <v>729.45014560000004</v>
       </c>
       <c r="D262">
-        <v>0.50286452199999998</v>
+        <v>0.49958002400000001</v>
       </c>
       <c r="E262">
-        <v>7.4892011999999994E-2</v>
+        <v>6.5147737999999997E-2</v>
       </c>
       <c r="F262">
-        <v>8.2159738999999996E-2</v>
+        <v>9.5115089999999999E-2</v>
       </c>
       <c r="G262">
-        <v>0.108552304</v>
+        <v>0.111880279</v>
       </c>
       <c r="H262">
-        <v>5.5360440000000004E-3</v>
+        <v>5.0101080000000001E-3</v>
       </c>
       <c r="I262">
-        <v>0.99583100800000002</v>
+        <v>0.996508387</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -10017,28 +10015,28 @@
         <v>19</v>
       </c>
       <c r="B263">
-        <v>3.3188100000000002E-4</v>
+        <v>3.1751099999999998E-4</v>
       </c>
       <c r="C263">
-        <v>729.45014560000004</v>
+        <v>728.9659997</v>
       </c>
       <c r="D263">
-        <v>0.49958002400000001</v>
+        <v>0.50318848900000002</v>
       </c>
       <c r="E263">
-        <v>6.5147737999999997E-2</v>
+        <v>6.8701842999999999E-2</v>
       </c>
       <c r="F263">
-        <v>9.5115089999999999E-2</v>
+        <v>9.1274674E-2</v>
       </c>
       <c r="G263">
-        <v>0.111880279</v>
+        <v>0.110167457</v>
       </c>
       <c r="H263">
-        <v>5.0101080000000001E-3</v>
+        <v>5.2562650000000004E-3</v>
       </c>
       <c r="I263">
-        <v>0.996508387</v>
+        <v>0.99687620499999996</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -10046,28 +10044,28 @@
         <v>19</v>
       </c>
       <c r="B264">
-        <v>3.1751099999999998E-4</v>
+        <v>5.18681E-4</v>
       </c>
       <c r="C264">
-        <v>728.9659997</v>
+        <v>996.21660180000003</v>
       </c>
       <c r="D264">
-        <v>0.50318848900000002</v>
+        <v>0.29919042400000001</v>
       </c>
       <c r="E264">
-        <v>6.8701842999999999E-2</v>
+        <v>3.9886977999999997E-2</v>
       </c>
       <c r="F264">
-        <v>9.1274674E-2</v>
+        <v>0.101541219</v>
       </c>
       <c r="G264">
-        <v>0.110167457</v>
+        <v>0.102206272</v>
       </c>
       <c r="H264">
-        <v>5.2562650000000004E-3</v>
+        <v>4.1727020000000004E-3</v>
       </c>
       <c r="I264">
-        <v>0.99687620499999996</v>
+        <v>0.994965302</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -10075,28 +10073,28 @@
         <v>19</v>
       </c>
       <c r="B265">
-        <v>5.18681E-4</v>
+        <v>4.9001800000000005E-4</v>
       </c>
       <c r="C265">
-        <v>996.21660180000003</v>
+        <v>1000.756083</v>
       </c>
       <c r="D265">
-        <v>0.29919042400000001</v>
+        <v>0.30003544999999998</v>
       </c>
       <c r="E265">
-        <v>3.9886977999999997E-2</v>
+        <v>3.5557048000000001E-2</v>
       </c>
       <c r="F265">
-        <v>0.101541219</v>
+        <v>0.100403226</v>
       </c>
       <c r="G265">
-        <v>0.102206272</v>
+        <v>0.108222652</v>
       </c>
       <c r="H265">
-        <v>4.1727020000000004E-3</v>
+        <v>4.4175589999999997E-3</v>
       </c>
       <c r="I265">
-        <v>0.994965302</v>
+        <v>0.993392477</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -10104,28 +10102,28 @@
         <v>19</v>
       </c>
       <c r="B266">
-        <v>4.9001800000000005E-4</v>
+        <v>5.0937400000000005E-4</v>
       </c>
       <c r="C266">
-        <v>1000.756083</v>
+        <v>998.68517269999995</v>
       </c>
       <c r="D266">
-        <v>0.30003544999999998</v>
+        <v>0.29971783400000002</v>
       </c>
       <c r="E266">
-        <v>3.5557048000000001E-2</v>
+        <v>3.4331379000000002E-2</v>
       </c>
       <c r="F266">
-        <v>0.100403226</v>
+        <v>9.9578852999999995E-2</v>
       </c>
       <c r="G266">
-        <v>0.108222652</v>
+        <v>0.109312838</v>
       </c>
       <c r="H266">
-        <v>4.4175589999999997E-3</v>
+        <v>3.9639870000000004E-3</v>
       </c>
       <c r="I266">
-        <v>0.993392477</v>
+        <v>0.99214200100000005</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -10133,28 +10131,28 @@
         <v>19</v>
       </c>
       <c r="B267">
-        <v>5.0937400000000005E-4</v>
+        <v>3.65507E-4</v>
       </c>
       <c r="C267">
-        <v>998.68517269999995</v>
+        <v>1000.201091</v>
       </c>
       <c r="D267">
-        <v>0.29971783400000002</v>
+        <v>0.30000356700000003</v>
       </c>
       <c r="E267">
-        <v>3.4331379000000002E-2</v>
+        <v>5.1118615999999999E-2</v>
       </c>
       <c r="F267">
-        <v>9.9578852999999995E-2</v>
+        <v>9.9417563E-2</v>
       </c>
       <c r="G267">
-        <v>0.109312838</v>
+        <v>0.114449734</v>
       </c>
       <c r="H267">
-        <v>3.9639870000000004E-3</v>
+        <v>4.440495E-3</v>
       </c>
       <c r="I267">
-        <v>0.99214200100000005</v>
+        <v>0.99139601200000005</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -10162,28 +10160,28 @@
         <v>19</v>
       </c>
       <c r="B268">
-        <v>3.65507E-4</v>
+        <v>3.0124600000000002E-4</v>
       </c>
       <c r="C268">
-        <v>1000.201091</v>
+        <v>994.35409979999997</v>
       </c>
       <c r="D268">
-        <v>0.30000356700000003</v>
+        <v>0.29861169900000001</v>
       </c>
       <c r="E268">
-        <v>5.1118615999999999E-2</v>
+        <v>6.6413747999999995E-2</v>
       </c>
       <c r="F268">
-        <v>9.9417563E-2</v>
+        <v>0.100286738</v>
       </c>
       <c r="G268">
-        <v>0.114449734</v>
+        <v>0.115184302</v>
       </c>
       <c r="H268">
-        <v>4.440495E-3</v>
+        <v>4.7741210000000001E-3</v>
       </c>
       <c r="I268">
-        <v>0.99139601200000005</v>
+        <v>0.99192364499999996</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -10191,28 +10189,28 @@
         <v>19</v>
       </c>
       <c r="B269">
-        <v>3.0124600000000002E-4</v>
+        <v>2.8024199999999999E-4</v>
       </c>
       <c r="C269">
-        <v>994.35409979999997</v>
+        <v>999.58115050000004</v>
       </c>
       <c r="D269">
-        <v>0.29861169900000001</v>
+        <v>0.29985795599999998</v>
       </c>
       <c r="E269">
-        <v>6.6413747999999995E-2</v>
+        <v>6.6196255999999995E-2</v>
       </c>
       <c r="F269">
-        <v>0.100286738</v>
+        <v>0.100044803</v>
       </c>
       <c r="G269">
-        <v>0.115184302</v>
+        <v>0.114170378</v>
       </c>
       <c r="H269">
-        <v>4.7741210000000001E-3</v>
+        <v>5.0802019999999998E-3</v>
       </c>
       <c r="I269">
-        <v>0.99192364499999996</v>
+        <v>0.99246417200000003</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -10220,28 +10218,28 @@
         <v>19</v>
       </c>
       <c r="B270">
-        <v>2.8024199999999999E-4</v>
+        <v>2.7145000000000001E-4</v>
       </c>
       <c r="C270">
-        <v>999.58115050000004</v>
+        <v>999.85906839999996</v>
       </c>
       <c r="D270">
-        <v>0.29985795599999998</v>
+        <v>0.29980958600000002</v>
       </c>
       <c r="E270">
-        <v>6.6196255999999995E-2</v>
+        <v>6.1389894E-2</v>
       </c>
       <c r="F270">
-        <v>0.100044803</v>
+        <v>9.9560932000000005E-2</v>
       </c>
       <c r="G270">
-        <v>0.114170378</v>
+        <v>0.114551606</v>
       </c>
       <c r="H270">
-        <v>5.0802019999999998E-3</v>
+        <v>4.5869550000000002E-3</v>
       </c>
       <c r="I270">
-        <v>0.99246417200000003</v>
+        <v>0.99259509000000001</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -10249,28 +10247,28 @@
         <v>19</v>
       </c>
       <c r="B271">
-        <v>2.7145000000000001E-4</v>
+        <v>4.9716300000000001E-4</v>
       </c>
       <c r="C271">
-        <v>999.85906839999996</v>
+        <v>1014.236315</v>
       </c>
       <c r="D271">
-        <v>0.29980958600000002</v>
+        <v>0.39820402900000001</v>
       </c>
       <c r="E271">
-        <v>6.1389894E-2</v>
+        <v>3.9495048999999997E-2</v>
       </c>
       <c r="F271">
-        <v>9.9560932000000005E-2</v>
+        <v>0.100358423</v>
       </c>
       <c r="G271">
-        <v>0.114551606</v>
+        <v>0.107373751</v>
       </c>
       <c r="H271">
-        <v>4.5869550000000002E-3</v>
+        <v>4.343665E-3</v>
       </c>
       <c r="I271">
-        <v>0.99259509000000001</v>
+        <v>0.991975363</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -10278,28 +10276,28 @@
         <v>19</v>
       </c>
       <c r="B272">
-        <v>4.9716300000000001E-4</v>
+        <v>4.92466E-4</v>
       </c>
       <c r="C272">
-        <v>1014.236315</v>
+        <v>979.49115830000005</v>
       </c>
       <c r="D272">
-        <v>0.39820402900000001</v>
+        <v>0.39896216099999998</v>
       </c>
       <c r="E272">
-        <v>3.9495048999999997E-2</v>
+        <v>3.8421223999999997E-2</v>
       </c>
       <c r="F272">
-        <v>0.100358423</v>
+        <v>0.100026882</v>
       </c>
       <c r="G272">
-        <v>0.107373751</v>
+        <v>0.106738518</v>
       </c>
       <c r="H272">
-        <v>4.343665E-3</v>
+        <v>5.2485839999999997E-3</v>
       </c>
       <c r="I272">
-        <v>0.991975363</v>
+        <v>0.99094229899999997</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -10307,28 +10305,28 @@
         <v>19</v>
       </c>
       <c r="B273">
-        <v>4.92466E-4</v>
+        <v>5.3962499999999996E-4</v>
       </c>
       <c r="C273">
-        <v>979.49115830000005</v>
+        <v>1003.978828</v>
       </c>
       <c r="D273">
-        <v>0.39896216099999998</v>
+        <v>0.39933082600000003</v>
       </c>
       <c r="E273">
-        <v>3.8421223999999997E-2</v>
+        <v>4.0525404000000001E-2</v>
       </c>
       <c r="F273">
-        <v>0.100026882</v>
+        <v>0.100300179</v>
       </c>
       <c r="G273">
-        <v>0.106738518</v>
+        <v>0.108351713</v>
       </c>
       <c r="H273">
-        <v>5.2485839999999997E-3</v>
+        <v>4.9729479999999996E-3</v>
       </c>
       <c r="I273">
-        <v>0.99094229899999997</v>
+        <v>0.99122522000000002</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -10336,28 +10334,28 @@
         <v>19</v>
       </c>
       <c r="B274">
-        <v>5.3962499999999996E-4</v>
+        <v>4.2028999999999998E-4</v>
       </c>
       <c r="C274">
-        <v>1003.978828</v>
+        <v>1002.2878909999999</v>
       </c>
       <c r="D274">
-        <v>0.39933082600000003</v>
+        <v>0.40105601099999999</v>
       </c>
       <c r="E274">
-        <v>4.0525404000000001E-2</v>
+        <v>6.8845437999999995E-2</v>
       </c>
       <c r="F274">
-        <v>0.100300179</v>
+        <v>9.9964157999999997E-2</v>
       </c>
       <c r="G274">
-        <v>0.108351713</v>
+        <v>0.116344845</v>
       </c>
       <c r="H274">
-        <v>4.9729479999999996E-3</v>
+        <v>6.2521620000000003E-3</v>
       </c>
       <c r="I274">
-        <v>0.99122522000000002</v>
+        <v>0.99209757600000004</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -10365,28 +10363,28 @@
         <v>19</v>
       </c>
       <c r="B275">
-        <v>4.2028999999999998E-4</v>
+        <v>3.3060400000000002E-4</v>
       </c>
       <c r="C275">
-        <v>1002.2878909999999</v>
+        <v>1007.384867</v>
       </c>
       <c r="D275">
-        <v>0.40105601099999999</v>
+        <v>0.39966170000000001</v>
       </c>
       <c r="E275">
-        <v>6.8845437999999995E-2</v>
+        <v>4.3627777999999999E-2</v>
       </c>
       <c r="F275">
-        <v>9.9964157999999997E-2</v>
+        <v>9.9919355000000001E-2</v>
       </c>
       <c r="G275">
-        <v>0.116344845</v>
+        <v>0.11832458899999999</v>
       </c>
       <c r="H275">
-        <v>6.2521620000000003E-3</v>
+        <v>4.1135779999999997E-3</v>
       </c>
       <c r="I275">
-        <v>0.99209757600000004</v>
+        <v>0.99363840999999997</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -10394,28 +10392,28 @@
         <v>19</v>
       </c>
       <c r="B276">
-        <v>3.3060400000000002E-4</v>
+        <v>3.0584500000000001E-4</v>
       </c>
       <c r="C276">
-        <v>1007.384867</v>
+        <v>991.95712019999996</v>
       </c>
       <c r="D276">
-        <v>0.39966170000000001</v>
+        <v>0.401437606</v>
       </c>
       <c r="E276">
-        <v>4.3627777999999999E-2</v>
+        <v>3.6550775000000001E-2</v>
       </c>
       <c r="F276">
-        <v>9.9919355000000001E-2</v>
+        <v>9.8888888999999994E-2</v>
       </c>
       <c r="G276">
-        <v>0.11832458899999999</v>
+        <v>0.119888392</v>
       </c>
       <c r="H276">
-        <v>4.1135779999999997E-3</v>
+        <v>3.302452E-3</v>
       </c>
       <c r="I276">
-        <v>0.99363840999999997</v>
+        <v>0.99448096900000005</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -10423,28 +10421,28 @@
         <v>19</v>
       </c>
       <c r="B277">
-        <v>3.0584500000000001E-4</v>
+        <v>2.9125199999999998E-4</v>
       </c>
       <c r="C277">
-        <v>991.95712019999996</v>
+        <v>992.77990369999998</v>
       </c>
       <c r="D277">
-        <v>0.401437606</v>
+        <v>0.40070955899999999</v>
       </c>
       <c r="E277">
-        <v>3.6550775000000001E-2</v>
+        <v>5.3149543E-2</v>
       </c>
       <c r="F277">
-        <v>9.8888888999999994E-2</v>
+        <v>9.9856631000000001E-2</v>
       </c>
       <c r="G277">
-        <v>0.119888392</v>
+        <v>0.114329707</v>
       </c>
       <c r="H277">
-        <v>3.302452E-3</v>
+        <v>4.5419600000000003E-3</v>
       </c>
       <c r="I277">
-        <v>0.99448096900000005</v>
+        <v>0.99494026800000002</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -10452,28 +10450,28 @@
         <v>19</v>
       </c>
       <c r="B278">
-        <v>2.9125199999999998E-4</v>
+        <v>5.6804700000000002E-4</v>
       </c>
       <c r="C278">
-        <v>992.77990369999998</v>
+        <v>988.69508959999996</v>
       </c>
       <c r="D278">
-        <v>0.40070955899999999</v>
+        <v>0.50076906200000004</v>
       </c>
       <c r="E278">
-        <v>5.3149543E-2</v>
+        <v>4.2668380999999998E-2</v>
       </c>
       <c r="F278">
-        <v>9.9856631000000001E-2</v>
+        <v>0.101594982</v>
       </c>
       <c r="G278">
-        <v>0.114329707</v>
+        <v>0.103836703</v>
       </c>
       <c r="H278">
-        <v>4.5419600000000003E-3</v>
+        <v>4.9190639999999999E-3</v>
       </c>
       <c r="I278">
-        <v>0.99494026800000002</v>
+        <v>0.99451390799999995</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -10481,28 +10479,28 @@
         <v>19</v>
       </c>
       <c r="B279">
-        <v>5.6804700000000002E-4</v>
+        <v>5.8126300000000005E-4</v>
       </c>
       <c r="C279">
-        <v>988.69508959999996</v>
+        <v>998.7623251</v>
       </c>
       <c r="D279">
-        <v>0.50076906200000004</v>
+        <v>0.49977500800000002</v>
       </c>
       <c r="E279">
-        <v>4.2668380999999998E-2</v>
+        <v>4.4473360000000003E-2</v>
       </c>
       <c r="F279">
-        <v>0.101594982</v>
+        <v>9.9713261999999997E-2</v>
       </c>
       <c r="G279">
-        <v>0.103836703</v>
+        <v>0.10628235699999999</v>
       </c>
       <c r="H279">
-        <v>4.9190639999999999E-3</v>
+        <v>5.6523099999999998E-3</v>
       </c>
       <c r="I279">
-        <v>0.99451390799999995</v>
+        <v>0.99417366799999995</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -10510,28 +10508,28 @@
         <v>19</v>
       </c>
       <c r="B280">
-        <v>5.8126300000000005E-4</v>
+        <v>6.2164100000000003E-4</v>
       </c>
       <c r="C280">
-        <v>998.7623251</v>
+        <v>1003.32875</v>
       </c>
       <c r="D280">
-        <v>0.49977500800000002</v>
+        <v>0.499679392</v>
       </c>
       <c r="E280">
-        <v>4.4473360000000003E-2</v>
+        <v>4.0051691E-2</v>
       </c>
       <c r="F280">
-        <v>9.9713261999999997E-2</v>
+        <v>0.100053763</v>
       </c>
       <c r="G280">
-        <v>0.10628235699999999</v>
+        <v>0.110220675</v>
       </c>
       <c r="H280">
-        <v>5.6523099999999998E-3</v>
+        <v>4.2696440000000004E-3</v>
       </c>
       <c r="I280">
-        <v>0.99417366799999995</v>
+        <v>0.994216302</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -10539,28 +10537,28 @@
         <v>19</v>
       </c>
       <c r="B281">
-        <v>6.2164100000000003E-4</v>
+        <v>4.8212199999999998E-4</v>
       </c>
       <c r="C281">
-        <v>1003.32875</v>
+        <v>1008.333026</v>
       </c>
       <c r="D281">
-        <v>0.499679392</v>
+        <v>0.499367542</v>
       </c>
       <c r="E281">
-        <v>4.0051691E-2</v>
+        <v>6.9093981999999998E-2</v>
       </c>
       <c r="F281">
-        <v>0.100053763</v>
+        <v>9.9596773999999999E-2</v>
       </c>
       <c r="G281">
-        <v>0.110220675</v>
+        <v>0.116096568</v>
       </c>
       <c r="H281">
-        <v>4.2696440000000004E-3</v>
+        <v>6.6620250000000002E-3</v>
       </c>
       <c r="I281">
-        <v>0.994216302</v>
+        <v>0.99461357699999997</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -10568,28 +10566,28 @@
         <v>19</v>
       </c>
       <c r="B282">
-        <v>4.8212199999999998E-4</v>
+        <v>3.6832299999999999E-4</v>
       </c>
       <c r="C282">
-        <v>1008.333026</v>
+        <v>969.40650740000001</v>
       </c>
       <c r="D282">
-        <v>0.499367542</v>
+        <v>0.50092015999999995</v>
       </c>
       <c r="E282">
-        <v>6.9093981999999998E-2</v>
+        <v>3.8758915999999997E-2</v>
       </c>
       <c r="F282">
-        <v>9.9596773999999999E-2</v>
+        <v>9.9767024999999995E-2</v>
       </c>
       <c r="G282">
-        <v>0.116096568</v>
+        <v>0.122499317</v>
       </c>
       <c r="H282">
-        <v>6.6620250000000002E-3</v>
+        <v>2.5872970000000001E-3</v>
       </c>
       <c r="I282">
-        <v>0.99461357699999997</v>
+        <v>0.99508887700000004</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -10597,28 +10595,28 @@
         <v>19</v>
       </c>
       <c r="B283">
-        <v>3.6832299999999999E-4</v>
+        <v>3.2732300000000002E-4</v>
       </c>
       <c r="C283">
-        <v>969.40650740000001</v>
+        <v>1000.691121</v>
       </c>
       <c r="D283">
-        <v>0.50092015999999995</v>
+        <v>0.49992052799999998</v>
       </c>
       <c r="E283">
-        <v>3.8758915999999997E-2</v>
+        <v>4.0073879999999999E-2</v>
       </c>
       <c r="F283">
-        <v>9.9767024999999995E-2</v>
+        <v>9.9032257999999998E-2</v>
       </c>
       <c r="G283">
-        <v>0.122499317</v>
+        <v>0.12782097000000001</v>
       </c>
       <c r="H283">
-        <v>2.5872970000000001E-3</v>
+        <v>1.8682880000000001E-3</v>
       </c>
       <c r="I283">
-        <v>0.99508887700000004</v>
+        <v>0.99609652000000004</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -10626,28 +10624,28 @@
         <v>19</v>
       </c>
       <c r="B284">
-        <v>3.2732300000000002E-4</v>
+        <v>3.2196200000000002E-4</v>
       </c>
       <c r="C284">
-        <v>1000.691121</v>
+        <v>1018.928136</v>
       </c>
       <c r="D284">
-        <v>0.49992052799999998</v>
+        <v>0.49934297</v>
       </c>
       <c r="E284">
-        <v>4.0073879999999999E-2</v>
+        <v>6.0286174999999997E-2</v>
       </c>
       <c r="F284">
-        <v>9.9032257999999998E-2</v>
+        <v>9.9220429999999998E-2</v>
       </c>
       <c r="G284">
-        <v>0.12782097000000001</v>
+        <v>0.11676415800000001</v>
       </c>
       <c r="H284">
-        <v>1.8682880000000001E-3</v>
+        <v>4.6047639999999999E-3</v>
       </c>
       <c r="I284">
-        <v>0.99609652000000004</v>
+        <v>0.99665804300000005</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -10655,28 +10653,28 @@
         <v>19</v>
       </c>
       <c r="B285">
-        <v>3.2196200000000002E-4</v>
+        <v>4.8343099999999999E-4</v>
       </c>
       <c r="C285">
-        <v>1018.928136</v>
+        <v>1250.59456</v>
       </c>
       <c r="D285">
-        <v>0.49934297</v>
+        <v>0.30003924100000001</v>
       </c>
       <c r="E285">
-        <v>6.0286174999999997E-2</v>
+        <v>3.2509215000000001E-2</v>
       </c>
       <c r="F285">
-        <v>9.9220429999999998E-2</v>
+        <v>0.13263440900000001</v>
       </c>
       <c r="G285">
-        <v>0.11676415800000001</v>
+        <v>0.114784118</v>
       </c>
       <c r="H285">
-        <v>4.6047639999999999E-3</v>
+        <v>4.1342640000000003E-3</v>
       </c>
       <c r="I285">
-        <v>0.99665804300000005</v>
+        <v>0.99301957399999996</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10684,28 +10682,28 @@
         <v>19</v>
       </c>
       <c r="B286">
-        <v>4.8343099999999999E-4</v>
+        <v>4.7872600000000001E-4</v>
       </c>
       <c r="C286">
-        <v>1250.59456</v>
+        <v>1245.639717</v>
       </c>
       <c r="D286">
-        <v>0.30003924100000001</v>
+        <v>0.29903062699999999</v>
       </c>
       <c r="E286">
-        <v>3.2509215000000001E-2</v>
+        <v>3.2588632999999999E-2</v>
       </c>
       <c r="F286">
-        <v>0.13263440900000001</v>
+        <v>0.108181004</v>
       </c>
       <c r="G286">
-        <v>0.114784118</v>
+        <v>0.10958135099999999</v>
       </c>
       <c r="H286">
-        <v>4.1342640000000003E-3</v>
+        <v>3.4963289999999998E-3</v>
       </c>
       <c r="I286">
-        <v>0.99301957399999996</v>
+        <v>0.990807302</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -10713,28 +10711,28 @@
         <v>19</v>
       </c>
       <c r="B287">
-        <v>4.7872600000000001E-4</v>
+        <v>4.4455299999999998E-4</v>
       </c>
       <c r="C287">
-        <v>1245.639717</v>
+        <v>1249.8621929999999</v>
       </c>
       <c r="D287">
-        <v>0.29903062699999999</v>
+        <v>0.29980042600000001</v>
       </c>
       <c r="E287">
-        <v>3.2588632999999999E-2</v>
+        <v>3.1885854999999998E-2</v>
       </c>
       <c r="F287">
-        <v>0.108181004</v>
+        <v>0.107768817</v>
       </c>
       <c r="G287">
-        <v>0.10958135099999999</v>
+        <v>0.10856081200000001</v>
       </c>
       <c r="H287">
-        <v>3.4963289999999998E-3</v>
+        <v>3.8722560000000001E-3</v>
       </c>
       <c r="I287">
-        <v>0.990807302</v>
+        <v>0.98956896599999999</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -10742,28 +10740,28 @@
         <v>19</v>
       </c>
       <c r="B288">
-        <v>4.4455299999999998E-4</v>
+        <v>3.8442400000000002E-4</v>
       </c>
       <c r="C288">
-        <v>1249.8621929999999</v>
+        <v>1252.9574729999999</v>
       </c>
       <c r="D288">
-        <v>0.29980042600000001</v>
+        <v>0.300352656</v>
       </c>
       <c r="E288">
-        <v>3.1885854999999998E-2</v>
+        <v>3.7383800000000002E-2</v>
       </c>
       <c r="F288">
-        <v>0.107768817</v>
+        <v>0.107114695</v>
       </c>
       <c r="G288">
-        <v>0.10856081200000001</v>
+        <v>0.108928434</v>
       </c>
       <c r="H288">
-        <v>3.8722560000000001E-3</v>
+        <v>4.3279379999999999E-3</v>
       </c>
       <c r="I288">
-        <v>0.98956896599999999</v>
+        <v>0.989404171</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -10771,28 +10769,28 @@
         <v>19</v>
       </c>
       <c r="B289">
-        <v>3.8442400000000002E-4</v>
+        <v>3.2228600000000002E-4</v>
       </c>
       <c r="C289">
-        <v>1252.9574729999999</v>
+        <v>1247.514993</v>
       </c>
       <c r="D289">
-        <v>0.300352656</v>
+        <v>0.29982069500000003</v>
       </c>
       <c r="E289">
-        <v>3.7383800000000002E-2</v>
+        <v>4.3492595000000002E-2</v>
       </c>
       <c r="F289">
-        <v>0.107114695</v>
+        <v>0.107464158</v>
       </c>
       <c r="G289">
-        <v>0.108928434</v>
+        <v>0.110902872</v>
       </c>
       <c r="H289">
-        <v>4.3279379999999999E-3</v>
+        <v>4.3042109999999996E-3</v>
       </c>
       <c r="I289">
-        <v>0.989404171</v>
+        <v>0.99013368899999998</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -10800,28 +10798,28 @@
         <v>19</v>
       </c>
       <c r="B290">
-        <v>3.2228600000000002E-4</v>
+        <v>2.9366100000000002E-4</v>
       </c>
       <c r="C290">
-        <v>1247.514993</v>
+        <v>1250.6631729999999</v>
       </c>
       <c r="D290">
-        <v>0.29982069500000003</v>
+        <v>0.30012657700000001</v>
       </c>
       <c r="E290">
-        <v>4.3492595000000002E-2</v>
+        <v>6.1729950999999998E-2</v>
       </c>
       <c r="F290">
-        <v>0.107464158</v>
+        <v>0.101324444</v>
       </c>
       <c r="G290">
-        <v>0.110902872</v>
+        <v>0.115226499</v>
       </c>
       <c r="H290">
-        <v>4.3042109999999996E-3</v>
+        <v>4.4587519999999999E-3</v>
       </c>
       <c r="I290">
-        <v>0.99013368899999998</v>
+        <v>0.99126932899999998</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -10829,28 +10827,28 @@
         <v>19</v>
       </c>
       <c r="B291">
-        <v>2.9366100000000002E-4</v>
+        <v>2.7240599999999999E-4</v>
       </c>
       <c r="C291">
-        <v>1250.6631729999999</v>
+        <v>1242.8563799999999</v>
       </c>
       <c r="D291">
-        <v>0.30012657700000001</v>
+        <v>0.29883443599999998</v>
       </c>
       <c r="E291">
-        <v>6.1729950999999998E-2</v>
+        <v>6.6170259999999995E-2</v>
       </c>
       <c r="F291">
-        <v>0.101324444</v>
+        <v>9.9831111E-2</v>
       </c>
       <c r="G291">
-        <v>0.115226499</v>
+        <v>0.11349644</v>
       </c>
       <c r="H291">
-        <v>4.4587519999999999E-3</v>
+        <v>5.5628220000000003E-3</v>
       </c>
       <c r="I291">
-        <v>0.99126932899999998</v>
+        <v>0.99175836900000003</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -10858,28 +10856,28 @@
         <v>19</v>
       </c>
       <c r="B292">
-        <v>2.7240599999999999E-4</v>
+        <v>5.1822599999999999E-4</v>
       </c>
       <c r="C292">
-        <v>1242.8563799999999</v>
+        <v>1257.190092</v>
       </c>
       <c r="D292">
-        <v>0.29883443599999998</v>
+        <v>0.40103576400000002</v>
       </c>
       <c r="E292">
-        <v>6.6170259999999995E-2</v>
+        <v>3.7581605999999997E-2</v>
       </c>
       <c r="F292">
-        <v>9.9831111E-2</v>
+        <v>0.100017778</v>
       </c>
       <c r="G292">
-        <v>0.11349644</v>
+        <v>0.109166028</v>
       </c>
       <c r="H292">
-        <v>5.5628220000000003E-3</v>
+        <v>4.5036529999999998E-3</v>
       </c>
       <c r="I292">
-        <v>0.99175836900000003</v>
+        <v>0.99103746500000001</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10887,28 +10885,28 @@
         <v>19</v>
       </c>
       <c r="B293">
-        <v>5.1822599999999999E-4</v>
+        <v>5.0449399999999997E-4</v>
       </c>
       <c r="C293">
-        <v>1257.190092</v>
+        <v>1246.7277799999999</v>
       </c>
       <c r="D293">
-        <v>0.40103576400000002</v>
+        <v>0.40004508500000002</v>
       </c>
       <c r="E293">
-        <v>3.7581605999999997E-2</v>
+        <v>3.8170769E-2</v>
       </c>
       <c r="F293">
-        <v>0.100017778</v>
+        <v>0.100915556</v>
       </c>
       <c r="G293">
-        <v>0.109166028</v>
+        <v>0.109666481</v>
       </c>
       <c r="H293">
-        <v>4.5036529999999998E-3</v>
+        <v>4.3878149999999998E-3</v>
       </c>
       <c r="I293">
-        <v>0.99103746500000001</v>
+        <v>0.99068930200000005</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10916,28 +10914,28 @@
         <v>19</v>
       </c>
       <c r="B294">
-        <v>5.0449399999999997E-4</v>
+        <v>5.07009E-4</v>
       </c>
       <c r="C294">
-        <v>1246.7277799999999</v>
+        <v>1234.0728280000001</v>
       </c>
       <c r="D294">
-        <v>0.40004508500000002</v>
+        <v>0.39886264100000002</v>
       </c>
       <c r="E294">
-        <v>3.8170769E-2</v>
+        <v>4.0584954999999999E-2</v>
       </c>
       <c r="F294">
-        <v>0.100915556</v>
+        <v>0.102053333</v>
       </c>
       <c r="G294">
-        <v>0.109666481</v>
+        <v>0.109285695</v>
       </c>
       <c r="H294">
-        <v>4.3878149999999998E-3</v>
+        <v>4.8106420000000004E-3</v>
       </c>
       <c r="I294">
-        <v>0.99068930200000005</v>
+        <v>0.99073717500000003</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -10945,28 +10943,28 @@
         <v>19</v>
       </c>
       <c r="B295">
-        <v>5.07009E-4</v>
+        <v>4.29863E-4</v>
       </c>
       <c r="C295">
-        <v>1234.0728280000001</v>
+        <v>1231.823584</v>
       </c>
       <c r="D295">
-        <v>0.39886264100000002</v>
+        <v>0.39965901199999998</v>
       </c>
       <c r="E295">
-        <v>4.0584954999999999E-2</v>
+        <v>7.1105811000000005E-2</v>
       </c>
       <c r="F295">
-        <v>0.102053333</v>
+        <v>0.100177778</v>
       </c>
       <c r="G295">
-        <v>0.109285695</v>
+        <v>0.110949139</v>
       </c>
       <c r="H295">
-        <v>4.8106420000000004E-3</v>
+        <v>7.2893489999999997E-3</v>
       </c>
       <c r="I295">
-        <v>0.99073717500000003</v>
+        <v>0.99127968300000002</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -10974,28 +10972,28 @@
         <v>19</v>
       </c>
       <c r="B296">
-        <v>4.29863E-4</v>
+        <v>3.4672300000000001E-4</v>
       </c>
       <c r="C296">
-        <v>1231.823584</v>
+        <v>1250.9434040000001</v>
       </c>
       <c r="D296">
-        <v>0.39965901199999998</v>
+        <v>0.39999618199999998</v>
       </c>
       <c r="E296">
-        <v>7.1105811000000005E-2</v>
+        <v>6.9506928999999995E-2</v>
       </c>
       <c r="F296">
-        <v>0.100177778</v>
+        <v>0.110088889</v>
       </c>
       <c r="G296">
-        <v>0.110949139</v>
+        <v>0.110695898</v>
       </c>
       <c r="H296">
-        <v>7.2893489999999997E-3</v>
+        <v>6.4767380000000001E-3</v>
       </c>
       <c r="I296">
-        <v>0.99127968300000002</v>
+        <v>0.99251876100000003</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -11003,28 +11001,28 @@
         <v>19</v>
       </c>
       <c r="B297">
-        <v>3.4672300000000001E-4</v>
+        <v>3.13467E-4</v>
       </c>
       <c r="C297">
-        <v>1250.9434040000001</v>
+        <v>1271.3936630000001</v>
       </c>
       <c r="D297">
-        <v>0.39999618199999998</v>
+        <v>0.40056073800000003</v>
       </c>
       <c r="E297">
-        <v>6.9506928999999995E-2</v>
+        <v>7.1139833E-2</v>
       </c>
       <c r="F297">
-        <v>0.110088889</v>
+        <v>9.9716117000000007E-2</v>
       </c>
       <c r="G297">
-        <v>0.110695898</v>
+        <v>0.11312243299999999</v>
       </c>
       <c r="H297">
-        <v>6.4767380000000001E-3</v>
+        <v>5.9295399999999996E-3</v>
       </c>
       <c r="I297">
-        <v>0.99251876100000003</v>
+        <v>0.99374623100000004</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -11032,28 +11030,28 @@
         <v>19</v>
       </c>
       <c r="B298">
-        <v>3.13467E-4</v>
+        <v>3.0008900000000002E-4</v>
       </c>
       <c r="C298">
-        <v>1271.3936630000001</v>
+        <v>1191.6903709999999</v>
       </c>
       <c r="D298">
-        <v>0.40056073800000003</v>
+        <v>0.39697400300000002</v>
       </c>
       <c r="E298">
-        <v>7.1139833E-2</v>
+        <v>6.8165431999999998E-2</v>
       </c>
       <c r="F298">
-        <v>9.9716117000000007E-2</v>
+        <v>0.102087912</v>
       </c>
       <c r="G298">
-        <v>0.11312243299999999</v>
+        <v>0.11259936800000001</v>
       </c>
       <c r="H298">
-        <v>5.9295399999999996E-3</v>
+        <v>5.7108489999999996E-3</v>
       </c>
       <c r="I298">
-        <v>0.99374623100000004</v>
+        <v>0.99375427599999999</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -11061,28 +11059,28 @@
         <v>19</v>
       </c>
       <c r="B299">
-        <v>3.0008900000000002E-4</v>
+        <v>5.6569300000000003E-4</v>
       </c>
       <c r="C299">
-        <v>1191.6903709999999</v>
+        <v>1251.6605</v>
       </c>
       <c r="D299">
-        <v>0.39697400300000002</v>
+        <v>0.50014953600000001</v>
       </c>
       <c r="E299">
-        <v>6.8165431999999998E-2</v>
+        <v>6.9078813000000003E-2</v>
       </c>
       <c r="F299">
-        <v>0.102087912</v>
+        <v>9.9605373999999997E-2</v>
       </c>
       <c r="G299">
-        <v>0.11259936800000001</v>
+        <v>0.11520121999999999</v>
       </c>
       <c r="H299">
-        <v>5.7108489999999996E-3</v>
+        <v>7.5040259999999996E-3</v>
       </c>
       <c r="I299">
-        <v>0.99375427599999999</v>
+        <v>0.99166914900000003</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -11090,28 +11088,28 @@
         <v>19</v>
       </c>
       <c r="B300">
-        <v>5.6569300000000003E-4</v>
+        <v>5.6636299999999996E-4</v>
       </c>
       <c r="C300">
-        <v>1251.6605</v>
+        <v>1249.038305</v>
       </c>
       <c r="D300">
-        <v>0.50014953600000001</v>
+        <v>0.50009379399999998</v>
       </c>
       <c r="E300">
-        <v>6.9078813000000003E-2</v>
+        <v>5.5513298000000003E-2</v>
       </c>
       <c r="F300">
-        <v>9.9605373999999997E-2</v>
+        <v>9.9914310000000006E-2</v>
       </c>
       <c r="G300">
-        <v>0.11520121999999999</v>
+        <v>0.114298685</v>
       </c>
       <c r="H300">
-        <v>7.5040259999999996E-3</v>
+        <v>5.8367810000000001E-3</v>
       </c>
       <c r="I300">
-        <v>0.99166914900000003</v>
+        <v>0.99043759600000003</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -11119,28 +11117,28 @@
         <v>19</v>
       </c>
       <c r="B301">
-        <v>5.6636299999999996E-4</v>
+        <v>5.5780800000000002E-4</v>
       </c>
       <c r="C301">
-        <v>1249.038305</v>
+        <v>1261.536789</v>
       </c>
       <c r="D301">
-        <v>0.50009379399999998</v>
+        <v>0.49851990699999998</v>
       </c>
       <c r="E301">
-        <v>5.5513298000000003E-2</v>
+        <v>6.8876906000000002E-2</v>
       </c>
       <c r="F301">
-        <v>9.9914310000000006E-2</v>
+        <v>9.9290428999999999E-2</v>
       </c>
       <c r="G301">
-        <v>0.114298685</v>
+        <v>0.116313977</v>
       </c>
       <c r="H301">
-        <v>5.8367810000000001E-3</v>
+        <v>7.5142730000000001E-3</v>
       </c>
       <c r="I301">
-        <v>0.99043759600000003</v>
+        <v>0.99032521500000004</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -11148,28 +11146,28 @@
         <v>19</v>
       </c>
       <c r="B302">
-        <v>5.5780800000000002E-4</v>
+        <v>4.9915300000000001E-4</v>
       </c>
       <c r="C302">
-        <v>1261.536789</v>
+        <v>1258.8616609999999</v>
       </c>
       <c r="D302">
-        <v>0.49851990699999998</v>
+        <v>0.49927363899999999</v>
       </c>
       <c r="E302">
-        <v>6.8876906000000002E-2</v>
+        <v>6.1411471000000002E-2</v>
       </c>
       <c r="F302">
-        <v>9.9290428999999999E-2</v>
+        <v>0.10002475199999999</v>
       </c>
       <c r="G302">
-        <v>0.116313977</v>
+        <v>0.11773539500000001</v>
       </c>
       <c r="H302">
-        <v>7.5142730000000001E-3</v>
+        <v>6.0833199999999997E-3</v>
       </c>
       <c r="I302">
-        <v>0.99032521500000004</v>
+        <v>0.99133728399999999</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -11177,28 +11175,28 @@
         <v>19</v>
       </c>
       <c r="B303">
-        <v>4.9915300000000001E-4</v>
+        <v>4.11395E-4</v>
       </c>
       <c r="C303">
-        <v>1258.8616609999999</v>
+        <v>1267.5140690000001</v>
       </c>
       <c r="D303">
-        <v>0.49927363899999999</v>
+        <v>0.49920661399999999</v>
       </c>
       <c r="E303">
-        <v>6.1411471000000002E-2</v>
+        <v>4.8344787E-2</v>
       </c>
       <c r="F303">
-        <v>0.10002475199999999</v>
+        <v>0.100610561</v>
       </c>
       <c r="G303">
-        <v>0.11773539500000001</v>
+        <v>0.12562072899999999</v>
       </c>
       <c r="H303">
-        <v>6.0833199999999997E-3</v>
+        <v>3.9256580000000003E-3</v>
       </c>
       <c r="I303">
-        <v>0.99133728399999999</v>
+        <v>0.99312282299999999</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -11206,57 +11204,57 @@
         <v>19</v>
       </c>
       <c r="B304">
-        <v>4.11395E-4</v>
+        <v>3.53161E-4</v>
       </c>
       <c r="C304">
-        <v>1267.5140690000001</v>
+        <v>1232.3853429999999</v>
       </c>
       <c r="D304">
-        <v>0.49920661399999999</v>
+        <v>0.49958985500000003</v>
       </c>
       <c r="E304">
-        <v>4.8344787E-2</v>
+        <v>3.7024263000000002E-2</v>
       </c>
       <c r="F304">
-        <v>0.100610561</v>
+        <v>9.4669966999999994E-2</v>
       </c>
       <c r="G304">
-        <v>0.12562072899999999</v>
+        <v>0.11188050300000001</v>
       </c>
       <c r="H304">
-        <v>3.9256580000000003E-3</v>
+        <v>3.9132530000000002E-3</v>
       </c>
       <c r="I304">
-        <v>0.99312282299999999</v>
+        <v>0.99510318600000003</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B305">
-        <v>3.53161E-4</v>
+        <v>4.7270299999999999E-4</v>
       </c>
       <c r="C305">
-        <v>1232.3853429999999</v>
+        <v>750.31248900000003</v>
       </c>
       <c r="D305">
-        <v>0.49958985500000003</v>
+        <v>0.30055517599999998</v>
       </c>
       <c r="E305">
-        <v>3.7024263000000002E-2</v>
+        <v>3.0824668E-2</v>
       </c>
       <c r="F305">
-        <v>9.4669966999999994E-2</v>
+        <v>0.102416667</v>
       </c>
       <c r="G305">
-        <v>0.11188050300000001</v>
+        <v>9.8189598000000003E-2</v>
       </c>
       <c r="H305">
-        <v>3.9132530000000002E-3</v>
+        <v>2.336154E-3</v>
       </c>
       <c r="I305">
-        <v>0.99510318600000003</v>
+        <v>0.98786258500000002</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -11264,28 +11262,28 @@
         <v>20</v>
       </c>
       <c r="B306">
-        <v>4.7270299999999999E-4</v>
+        <v>4.6852800000000001E-4</v>
       </c>
       <c r="C306">
-        <v>750.31248900000003</v>
+        <v>750.3170867</v>
       </c>
       <c r="D306">
-        <v>0.30055517599999998</v>
+        <v>0.30032410799999998</v>
       </c>
       <c r="E306">
-        <v>3.0824668E-2</v>
+        <v>3.3418607000000003E-2</v>
       </c>
       <c r="F306">
-        <v>0.102416667</v>
+        <v>9.9704545000000006E-2</v>
       </c>
       <c r="G306">
-        <v>9.8189598000000003E-2</v>
+        <v>9.5314093000000003E-2</v>
       </c>
       <c r="H306">
-        <v>2.336154E-3</v>
+        <v>2.6393739999999999E-3</v>
       </c>
       <c r="I306">
-        <v>0.98786258500000002</v>
+        <v>0.98560889799999996</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -11293,28 +11291,28 @@
         <v>20</v>
       </c>
       <c r="B307">
-        <v>4.6852800000000001E-4</v>
+        <v>4.1679199999999998E-4</v>
       </c>
       <c r="C307">
-        <v>750.3170867</v>
+        <v>754.37698580000006</v>
       </c>
       <c r="D307">
-        <v>0.30032410799999998</v>
+        <v>0.30124453200000001</v>
       </c>
       <c r="E307">
-        <v>3.3418607000000003E-2</v>
+        <v>3.7811510999999999E-2</v>
       </c>
       <c r="F307">
-        <v>9.9704545000000006E-2</v>
+        <v>9.9689394000000001E-2</v>
       </c>
       <c r="G307">
-        <v>9.5314093000000003E-2</v>
+        <v>9.8369604999999999E-2</v>
       </c>
       <c r="H307">
-        <v>2.6393739999999999E-3</v>
+        <v>4.0049760000000004E-3</v>
       </c>
       <c r="I307">
-        <v>0.98560889799999996</v>
+        <v>0.98538658999999995</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -11322,28 +11320,28 @@
         <v>20</v>
       </c>
       <c r="B308">
-        <v>4.1679199999999998E-4</v>
+        <v>3.2306400000000002E-4</v>
       </c>
       <c r="C308">
-        <v>754.37698580000006</v>
+        <v>744.09487039999999</v>
       </c>
       <c r="D308">
-        <v>0.30124453200000001</v>
+        <v>0.29904739499999999</v>
       </c>
       <c r="E308">
-        <v>3.7811510999999999E-2</v>
+        <v>3.5929846000000001E-2</v>
       </c>
       <c r="F308">
-        <v>9.9689394000000001E-2</v>
+        <v>9.9371212E-2</v>
       </c>
       <c r="G308">
-        <v>9.8369604999999999E-2</v>
+        <v>9.9846620999999997E-2</v>
       </c>
       <c r="H308">
-        <v>4.0049760000000004E-3</v>
+        <v>4.6416679999999998E-3</v>
       </c>
       <c r="I308">
-        <v>0.98538658999999995</v>
+        <v>0.98586998599999998</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -11351,28 +11349,28 @@
         <v>20</v>
       </c>
       <c r="B309">
-        <v>3.2306400000000002E-4</v>
+        <v>2.6293600000000002E-4</v>
       </c>
       <c r="C309">
-        <v>744.09487039999999</v>
+        <v>747.96933249999995</v>
       </c>
       <c r="D309">
-        <v>0.29904739499999999</v>
+        <v>0.30047309999999999</v>
       </c>
       <c r="E309">
-        <v>3.5929846000000001E-2</v>
+        <v>3.3267286E-2</v>
       </c>
       <c r="F309">
-        <v>9.9371212E-2</v>
+        <v>9.8886364000000004E-2</v>
       </c>
       <c r="G309">
-        <v>9.9846620999999997E-2</v>
+        <v>0.10603617999999999</v>
       </c>
       <c r="H309">
-        <v>4.6416679999999998E-3</v>
+        <v>3.8548660000000002E-3</v>
       </c>
       <c r="I309">
-        <v>0.98586998599999998</v>
+        <v>0.98826711</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -11380,28 +11378,28 @@
         <v>20</v>
       </c>
       <c r="B310">
-        <v>2.6293600000000002E-4</v>
+        <v>2.2804999999999999E-4</v>
       </c>
       <c r="C310">
-        <v>747.96933249999995</v>
+        <v>758.92433210000002</v>
       </c>
       <c r="D310">
-        <v>0.30047309999999999</v>
+        <v>0.30166880499999998</v>
       </c>
       <c r="E310">
-        <v>3.3267286E-2</v>
+        <v>3.1315015000000002E-2</v>
       </c>
       <c r="F310">
-        <v>9.8886364000000004E-2</v>
+        <v>0.10002272700000001</v>
       </c>
       <c r="G310">
-        <v>0.10603617999999999</v>
+        <v>0.10724196799999999</v>
       </c>
       <c r="H310">
-        <v>3.8548660000000002E-3</v>
+        <v>3.3425960000000002E-3</v>
       </c>
       <c r="I310">
-        <v>0.98826711</v>
+        <v>0.99028785600000002</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -11409,28 +11407,28 @@
         <v>20</v>
       </c>
       <c r="B311">
-        <v>2.2804999999999999E-4</v>
+        <v>2.0938099999999999E-4</v>
       </c>
       <c r="C311">
-        <v>758.92433210000002</v>
+        <v>745.04190919999996</v>
       </c>
       <c r="D311">
-        <v>0.30166880499999998</v>
+        <v>0.29948566300000001</v>
       </c>
       <c r="E311">
-        <v>3.1315015000000002E-2</v>
+        <v>3.6314119999999998E-2</v>
       </c>
       <c r="F311">
-        <v>0.10002272700000001</v>
+        <v>9.9181818000000005E-2</v>
       </c>
       <c r="G311">
-        <v>0.10724196799999999</v>
+        <v>0.104573546</v>
       </c>
       <c r="H311">
-        <v>3.3425960000000002E-3</v>
+        <v>3.5955940000000001E-3</v>
       </c>
       <c r="I311">
-        <v>0.99028785600000002</v>
+        <v>0.99120372800000001</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -11438,28 +11436,28 @@
         <v>20</v>
       </c>
       <c r="B312">
-        <v>2.0938099999999999E-4</v>
+        <v>5.0179900000000004E-4</v>
       </c>
       <c r="C312">
-        <v>745.04190919999996</v>
+        <v>749.45385969999995</v>
       </c>
       <c r="D312">
-        <v>0.29948566300000001</v>
+        <v>0.39968498499999999</v>
       </c>
       <c r="E312">
-        <v>3.6314119999999998E-2</v>
+        <v>2.9392582E-2</v>
       </c>
       <c r="F312">
-        <v>9.9181818000000005E-2</v>
+        <v>9.880303E-2</v>
       </c>
       <c r="G312">
-        <v>0.104573546</v>
+        <v>0.100459284</v>
       </c>
       <c r="H312">
-        <v>3.5955940000000001E-3</v>
+        <v>1.5464509999999999E-3</v>
       </c>
       <c r="I312">
-        <v>0.99120372800000001</v>
+        <v>0.99086395800000004</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -11467,28 +11465,28 @@
         <v>20</v>
       </c>
       <c r="B313">
-        <v>5.0179900000000004E-4</v>
+        <v>5.1192700000000002E-4</v>
       </c>
       <c r="C313">
-        <v>749.45385969999995</v>
+        <v>739.33114939999996</v>
       </c>
       <c r="D313">
-        <v>0.39968498499999999</v>
+        <v>0.39811110900000002</v>
       </c>
       <c r="E313">
-        <v>2.9392582E-2</v>
+        <v>3.2175303000000002E-2</v>
       </c>
       <c r="F313">
-        <v>9.880303E-2</v>
+        <v>9.9893939000000001E-2</v>
       </c>
       <c r="G313">
-        <v>0.100459284</v>
+        <v>9.9352846999999994E-2</v>
       </c>
       <c r="H313">
-        <v>1.5464509999999999E-3</v>
+        <v>2.1924459999999998E-3</v>
       </c>
       <c r="I313">
-        <v>0.99086395800000004</v>
+        <v>0.99056325199999995</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -11496,28 +11494,28 @@
         <v>20</v>
       </c>
       <c r="B314">
-        <v>5.1192700000000002E-4</v>
+        <v>4.3557999999999997E-4</v>
       </c>
       <c r="C314">
-        <v>739.33114939999996</v>
+        <v>743.06403060000002</v>
       </c>
       <c r="D314">
-        <v>0.39811110900000002</v>
+        <v>0.40116832899999999</v>
       </c>
       <c r="E314">
-        <v>3.2175303000000002E-2</v>
+        <v>3.9693225999999998E-2</v>
       </c>
       <c r="F314">
-        <v>9.9893939000000001E-2</v>
+        <v>9.9325758E-2</v>
       </c>
       <c r="G314">
-        <v>9.9352846999999994E-2</v>
+        <v>0.10021440700000001</v>
       </c>
       <c r="H314">
-        <v>2.1924459999999998E-3</v>
+        <v>4.1192570000000003E-3</v>
       </c>
       <c r="I314">
-        <v>0.99056325199999995</v>
+        <v>0.99013368899999998</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -11525,28 +11523,28 @@
         <v>20</v>
       </c>
       <c r="B315">
-        <v>4.3557999999999997E-4</v>
+        <v>3.5768399999999999E-4</v>
       </c>
       <c r="C315">
-        <v>743.06403060000002</v>
+        <v>751.07995419999997</v>
       </c>
       <c r="D315">
-        <v>0.40116832899999999</v>
+        <v>0.39981008400000001</v>
       </c>
       <c r="E315">
-        <v>3.9693225999999998E-2</v>
+        <v>3.5477432000000003E-2</v>
       </c>
       <c r="F315">
-        <v>9.9325758E-2</v>
+        <v>9.9560605999999996E-2</v>
       </c>
       <c r="G315">
-        <v>0.10021440700000001</v>
+        <v>0.105138485</v>
       </c>
       <c r="H315">
-        <v>4.1192570000000003E-3</v>
+        <v>4.1910369999999999E-3</v>
       </c>
       <c r="I315">
-        <v>0.99013368899999998</v>
+        <v>0.990387617</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -11554,28 +11552,28 @@
         <v>20</v>
       </c>
       <c r="B316">
-        <v>3.5768399999999999E-4</v>
+        <v>2.76524E-4</v>
       </c>
       <c r="C316">
-        <v>751.07995419999997</v>
+        <v>745.80146830000001</v>
       </c>
       <c r="D316">
-        <v>0.39981008400000001</v>
+        <v>0.39963096399999998</v>
       </c>
       <c r="E316">
-        <v>3.5477432000000003E-2</v>
+        <v>4.1707279E-2</v>
       </c>
       <c r="F316">
-        <v>9.9560605999999996E-2</v>
+        <v>9.9643939000000001E-2</v>
       </c>
       <c r="G316">
-        <v>0.105138485</v>
+        <v>0.10851050399999999</v>
       </c>
       <c r="H316">
-        <v>4.1910369999999999E-3</v>
+        <v>4.3899830000000001E-3</v>
       </c>
       <c r="I316">
-        <v>0.990387617</v>
+        <v>0.99163968999999996</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -11583,28 +11581,28 @@
         <v>20</v>
       </c>
       <c r="B317">
-        <v>2.76524E-4</v>
+        <v>2.5828500000000002E-4</v>
       </c>
       <c r="C317">
-        <v>745.80146830000001</v>
+        <v>745.01879970000005</v>
       </c>
       <c r="D317">
-        <v>0.39963096399999998</v>
+        <v>0.39990617699999997</v>
       </c>
       <c r="E317">
-        <v>4.1707279E-2</v>
+        <v>6.2740635000000003E-2</v>
       </c>
       <c r="F317">
-        <v>9.9643939000000001E-2</v>
+        <v>9.9393939000000001E-2</v>
       </c>
       <c r="G317">
-        <v>0.10851050399999999</v>
+        <v>0.107568398</v>
       </c>
       <c r="H317">
-        <v>4.3899830000000001E-3</v>
+        <v>5.3020769999999997E-3</v>
       </c>
       <c r="I317">
-        <v>0.99163968999999996</v>
+        <v>0.992563843</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -11612,28 +11610,28 @@
         <v>20</v>
       </c>
       <c r="B318">
-        <v>2.5828500000000002E-4</v>
+        <v>2.3551900000000001E-4</v>
       </c>
       <c r="C318">
-        <v>745.01879970000005</v>
+        <v>743.46194760000003</v>
       </c>
       <c r="D318">
-        <v>0.39990617699999997</v>
+        <v>0.39852104300000002</v>
       </c>
       <c r="E318">
-        <v>6.2740635000000003E-2</v>
+        <v>5.7989448999999998E-2</v>
       </c>
       <c r="F318">
-        <v>9.9393939000000001E-2</v>
+        <v>0.100537879</v>
       </c>
       <c r="G318">
-        <v>0.107568398</v>
+        <v>0.108287201</v>
       </c>
       <c r="H318">
-        <v>5.3020769999999997E-3</v>
+        <v>4.8896870000000002E-3</v>
       </c>
       <c r="I318">
-        <v>0.992563843</v>
+        <v>0.99319614099999998</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -11641,28 +11639,28 @@
         <v>20</v>
       </c>
       <c r="B319">
-        <v>2.3551900000000001E-4</v>
+        <v>6.48955E-4</v>
       </c>
       <c r="C319">
-        <v>743.46194760000003</v>
+        <v>753.86420810000004</v>
       </c>
       <c r="D319">
-        <v>0.39852104300000002</v>
+        <v>0.49962082099999999</v>
       </c>
       <c r="E319">
-        <v>5.7989448999999998E-2</v>
+        <v>3.4657304E-2</v>
       </c>
       <c r="F319">
-        <v>0.100537879</v>
+        <v>9.9856060999999996E-2</v>
       </c>
       <c r="G319">
-        <v>0.108287201</v>
+        <v>9.9429778999999996E-2</v>
       </c>
       <c r="H319">
-        <v>4.8896870000000002E-3</v>
+        <v>2.5218459999999999E-3</v>
       </c>
       <c r="I319">
-        <v>0.99319614099999998</v>
+        <v>0.99216619299999997</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -11670,28 +11668,28 @@
         <v>20</v>
       </c>
       <c r="B320">
-        <v>6.48955E-4</v>
+        <v>6.1183099999999996E-4</v>
       </c>
       <c r="C320">
-        <v>753.86420810000004</v>
+        <v>750.71744000000001</v>
       </c>
       <c r="D320">
-        <v>0.49962082099999999</v>
+        <v>0.50033280999999996</v>
       </c>
       <c r="E320">
-        <v>3.4657304E-2</v>
+        <v>3.7521118999999999E-2</v>
       </c>
       <c r="F320">
-        <v>9.9856060999999996E-2</v>
+        <v>9.9666667E-2</v>
       </c>
       <c r="G320">
-        <v>9.9429778999999996E-2</v>
+        <v>9.8495864000000002E-2</v>
       </c>
       <c r="H320">
-        <v>2.5218459999999999E-3</v>
+        <v>3.1483090000000002E-3</v>
       </c>
       <c r="I320">
-        <v>0.99216619299999997</v>
+        <v>0.99218971899999997</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -11699,28 +11697,28 @@
         <v>20</v>
       </c>
       <c r="B321">
-        <v>6.1183099999999996E-4</v>
+        <v>5.1377200000000001E-4</v>
       </c>
       <c r="C321">
-        <v>750.71744000000001</v>
+        <v>749.4489112</v>
       </c>
       <c r="D321">
-        <v>0.50033280999999996</v>
+        <v>0.50024451299999995</v>
       </c>
       <c r="E321">
-        <v>3.7521118999999999E-2</v>
+        <v>4.4029801E-2</v>
       </c>
       <c r="F321">
-        <v>9.9666667E-2</v>
+        <v>9.9545455000000005E-2</v>
       </c>
       <c r="G321">
-        <v>9.8495864000000002E-2</v>
+        <v>0.100396349</v>
       </c>
       <c r="H321">
-        <v>3.1483090000000002E-3</v>
+        <v>4.5168609999999996E-3</v>
       </c>
       <c r="I321">
-        <v>0.99218971899999997</v>
+        <v>0.992159978</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -11728,28 +11726,28 @@
         <v>20</v>
       </c>
       <c r="B322">
-        <v>5.1377200000000001E-4</v>
+        <v>4.3876499999999998E-4</v>
       </c>
       <c r="C322">
-        <v>749.4489112</v>
+        <v>759.16214950000006</v>
       </c>
       <c r="D322">
-        <v>0.50024451299999995</v>
+        <v>0.49925901499999997</v>
       </c>
       <c r="E322">
-        <v>4.4029801E-2</v>
+        <v>3.9294586999999999E-2</v>
       </c>
       <c r="F322">
-        <v>9.9545455000000005E-2</v>
+        <v>9.8878787999999995E-2</v>
       </c>
       <c r="G322">
-        <v>0.100396349</v>
+        <v>0.10699968</v>
       </c>
       <c r="H322">
-        <v>4.5168609999999996E-3</v>
+        <v>3.5022679999999998E-3</v>
       </c>
       <c r="I322">
-        <v>0.992159978</v>
+        <v>0.99235687699999997</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -11757,28 +11755,28 @@
         <v>20</v>
       </c>
       <c r="B323">
-        <v>4.3876499999999998E-4</v>
+        <v>3.4390000000000001E-4</v>
       </c>
       <c r="C323">
-        <v>759.16214950000006</v>
+        <v>748.57460570000001</v>
       </c>
       <c r="D323">
-        <v>0.49925901499999997</v>
+        <v>0.50068191399999995</v>
       </c>
       <c r="E323">
-        <v>3.9294586999999999E-2</v>
+        <v>6.5830854999999994E-2</v>
       </c>
       <c r="F323">
-        <v>9.8878787999999995E-2</v>
+        <v>9.9530303000000001E-2</v>
       </c>
       <c r="G323">
-        <v>0.10699968</v>
+        <v>0.109581978</v>
       </c>
       <c r="H323">
-        <v>3.5022679999999998E-3</v>
+        <v>6.0148199999999997E-3</v>
       </c>
       <c r="I323">
-        <v>0.99235687699999997</v>
+        <v>0.99293062700000001</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -11786,28 +11784,28 @@
         <v>20</v>
       </c>
       <c r="B324">
-        <v>3.4390000000000001E-4</v>
+        <v>3.10771E-4</v>
       </c>
       <c r="C324">
-        <v>748.57460570000001</v>
+        <v>749.40084739999998</v>
       </c>
       <c r="D324">
-        <v>0.50068191399999995</v>
+        <v>0.50035387600000003</v>
       </c>
       <c r="E324">
-        <v>6.5830854999999994E-2</v>
+        <v>7.3258196999999997E-2</v>
       </c>
       <c r="F324">
-        <v>9.9530303000000001E-2</v>
+        <v>9.9515151999999996E-2</v>
       </c>
       <c r="G324">
-        <v>0.109581978</v>
+        <v>0.10888812</v>
       </c>
       <c r="H324">
-        <v>6.0148199999999997E-3</v>
+        <v>5.9274280000000002E-3</v>
       </c>
       <c r="I324">
-        <v>0.99293062700000001</v>
+        <v>0.99442496700000005</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -11815,28 +11813,28 @@
         <v>20</v>
       </c>
       <c r="B325">
-        <v>3.10771E-4</v>
+        <v>3.0146300000000002E-4</v>
       </c>
       <c r="C325">
-        <v>749.40084739999998</v>
+        <v>751.39547230000005</v>
       </c>
       <c r="D325">
-        <v>0.50035387600000003</v>
+        <v>0.49992013899999999</v>
       </c>
       <c r="E325">
-        <v>7.3258196999999997E-2</v>
+        <v>5.1725806999999999E-2</v>
       </c>
       <c r="F325">
-        <v>9.9515151999999996E-2</v>
+        <v>9.9931818000000006E-2</v>
       </c>
       <c r="G325">
-        <v>0.10888812</v>
+        <v>0.10817375999999999</v>
       </c>
       <c r="H325">
-        <v>5.9274280000000002E-3</v>
+        <v>4.7816960000000002E-3</v>
       </c>
       <c r="I325">
-        <v>0.99442496700000005</v>
+        <v>0.99468350800000005</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -11844,28 +11842,28 @@
         <v>20</v>
       </c>
       <c r="B326">
-        <v>3.0146300000000002E-4</v>
+        <v>4.7849500000000001E-4</v>
       </c>
       <c r="C326">
-        <v>751.39547230000005</v>
+        <v>1001.046873</v>
       </c>
       <c r="D326">
-        <v>0.49992013899999999</v>
+        <v>0.30004532699999997</v>
       </c>
       <c r="E326">
-        <v>5.1725806999999999E-2</v>
+        <v>4.0780660000000003E-2</v>
       </c>
       <c r="F326">
-        <v>9.9931818000000006E-2</v>
+        <v>0.10206818199999999</v>
       </c>
       <c r="G326">
-        <v>0.10817375999999999</v>
+        <v>0.103141573</v>
       </c>
       <c r="H326">
-        <v>4.7816960000000002E-3</v>
+        <v>3.8440789999999998E-3</v>
       </c>
       <c r="I326">
-        <v>0.99468350800000005</v>
+        <v>0.99123121199999997</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -11873,28 +11871,28 @@
         <v>20</v>
       </c>
       <c r="B327">
-        <v>4.7849500000000001E-4</v>
+        <v>5.0275999999999999E-4</v>
       </c>
       <c r="C327">
-        <v>1001.046873</v>
+        <v>999.40820970000004</v>
       </c>
       <c r="D327">
-        <v>0.30004532699999997</v>
+        <v>0.29920427599999999</v>
       </c>
       <c r="E327">
-        <v>4.0780660000000003E-2</v>
+        <v>4.1816536000000001E-2</v>
       </c>
       <c r="F327">
-        <v>0.10206818199999999</v>
+        <v>0.101492424</v>
       </c>
       <c r="G327">
-        <v>0.103141573</v>
+        <v>0.101860464</v>
       </c>
       <c r="H327">
-        <v>3.8440789999999998E-3</v>
+        <v>4.1493759999999998E-3</v>
       </c>
       <c r="I327">
-        <v>0.99123121199999997</v>
+        <v>0.98989876499999996</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -11902,28 +11900,28 @@
         <v>20</v>
       </c>
       <c r="B328">
-        <v>5.0275999999999999E-4</v>
+        <v>5.1740599999999999E-4</v>
       </c>
       <c r="C328">
-        <v>999.40820970000004</v>
+        <v>1011.391431</v>
       </c>
       <c r="D328">
-        <v>0.29920427599999999</v>
+        <v>0.30149447299999999</v>
       </c>
       <c r="E328">
-        <v>4.1816536000000001E-2</v>
+        <v>4.1015214000000001E-2</v>
       </c>
       <c r="F328">
-        <v>0.101492424</v>
+        <v>0.100515152</v>
       </c>
       <c r="G328">
-        <v>0.101860464</v>
+        <v>0.10246135300000001</v>
       </c>
       <c r="H328">
-        <v>4.1493759999999998E-3</v>
+        <v>4.8724179999999999E-3</v>
       </c>
       <c r="I328">
-        <v>0.98989876499999996</v>
+        <v>0.988913335</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -11931,28 +11929,28 @@
         <v>20</v>
       </c>
       <c r="B329">
-        <v>5.1740599999999999E-4</v>
+        <v>3.7951899999999998E-4</v>
       </c>
       <c r="C329">
-        <v>1011.391431</v>
+        <v>993.05769510000005</v>
       </c>
       <c r="D329">
-        <v>0.30149447299999999</v>
+        <v>0.29935602700000002</v>
       </c>
       <c r="E329">
-        <v>4.1015214000000001E-2</v>
+        <v>3.2089376000000003E-2</v>
       </c>
       <c r="F329">
-        <v>0.100515152</v>
+        <v>9.9776514999999996E-2</v>
       </c>
       <c r="G329">
-        <v>0.10246135300000001</v>
+        <v>0.107956841</v>
       </c>
       <c r="H329">
-        <v>4.8724179999999999E-3</v>
+        <v>3.8780709999999999E-3</v>
       </c>
       <c r="I329">
-        <v>0.988913335</v>
+        <v>0.98836410100000005</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -11960,28 +11958,28 @@
         <v>20</v>
       </c>
       <c r="B330">
-        <v>3.7951899999999998E-4</v>
+        <v>3.2461399999999998E-4</v>
       </c>
       <c r="C330">
-        <v>993.05769510000005</v>
+        <v>995.57592309999995</v>
       </c>
       <c r="D330">
-        <v>0.29935602700000002</v>
+        <v>0.298850589</v>
       </c>
       <c r="E330">
-        <v>3.2089376000000003E-2</v>
+        <v>7.0884645999999996E-2</v>
       </c>
       <c r="F330">
-        <v>9.9776514999999996E-2</v>
+        <v>0.100151515</v>
       </c>
       <c r="G330">
-        <v>0.107956841</v>
+        <v>0.109011937</v>
       </c>
       <c r="H330">
-        <v>3.8780709999999999E-3</v>
+        <v>5.6920829999999997E-3</v>
       </c>
       <c r="I330">
-        <v>0.98836410100000005</v>
+        <v>0.98900830399999995</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -11989,28 +11987,28 @@
         <v>20</v>
       </c>
       <c r="B331">
-        <v>3.2461399999999998E-4</v>
+        <v>2.92262E-4</v>
       </c>
       <c r="C331">
-        <v>995.57592309999995</v>
+        <v>1003.1418169999999</v>
       </c>
       <c r="D331">
-        <v>0.298850589</v>
+        <v>0.30029543199999997</v>
       </c>
       <c r="E331">
-        <v>7.0884645999999996E-2</v>
+        <v>7.4512727000000001E-2</v>
       </c>
       <c r="F331">
-        <v>0.100151515</v>
+        <v>9.9924241999999996E-2</v>
       </c>
       <c r="G331">
-        <v>0.109011937</v>
+        <v>0.108335639</v>
       </c>
       <c r="H331">
-        <v>5.6920829999999997E-3</v>
+        <v>5.7928260000000001E-3</v>
       </c>
       <c r="I331">
-        <v>0.98900830399999995</v>
+        <v>0.98964200499999999</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -12018,28 +12016,28 @@
         <v>20</v>
       </c>
       <c r="B332">
-        <v>2.92262E-4</v>
+        <v>2.7891199999999998E-4</v>
       </c>
       <c r="C332">
-        <v>1003.1418169999999</v>
+        <v>995.93863320000003</v>
       </c>
       <c r="D332">
-        <v>0.30029543199999997</v>
+        <v>0.29951224900000001</v>
       </c>
       <c r="E332">
-        <v>7.4512727000000001E-2</v>
+        <v>6.4799326000000004E-2</v>
       </c>
       <c r="F332">
-        <v>9.9924241999999996E-2</v>
+        <v>9.9962121000000001E-2</v>
       </c>
       <c r="G332">
-        <v>0.108335639</v>
+        <v>0.107322791</v>
       </c>
       <c r="H332">
-        <v>5.7928260000000001E-3</v>
+        <v>5.3573969999999999E-3</v>
       </c>
       <c r="I332">
-        <v>0.98964200499999999</v>
+        <v>0.98969678400000005</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -12047,28 +12045,28 @@
         <v>20</v>
       </c>
       <c r="B333">
-        <v>2.7891199999999998E-4</v>
+        <v>4.4690600000000001E-4</v>
       </c>
       <c r="C333">
-        <v>995.93863320000003</v>
+        <v>1000.564352</v>
       </c>
       <c r="D333">
-        <v>0.29951224900000001</v>
+        <v>0.40118413600000002</v>
       </c>
       <c r="E333">
-        <v>6.4799326000000004E-2</v>
+        <v>4.5435773999999998E-2</v>
       </c>
       <c r="F333">
-        <v>9.9962121000000001E-2</v>
+        <v>9.9530303000000001E-2</v>
       </c>
       <c r="G333">
-        <v>0.107322791</v>
+        <v>0.10055367599999999</v>
       </c>
       <c r="H333">
-        <v>5.3573969999999999E-3</v>
+        <v>4.5400780000000003E-3</v>
       </c>
       <c r="I333">
-        <v>0.98969678400000005</v>
+        <v>0.98875126400000002</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -12076,28 +12074,28 @@
         <v>20</v>
       </c>
       <c r="B334">
-        <v>4.4690600000000001E-4</v>
+        <v>4.50968E-4</v>
       </c>
       <c r="C334">
-        <v>1000.564352</v>
+        <v>995.72025629999996</v>
       </c>
       <c r="D334">
-        <v>0.40118413600000002</v>
+        <v>0.40014166899999998</v>
       </c>
       <c r="E334">
-        <v>4.5435773999999998E-2</v>
+        <v>4.2461959000000001E-2</v>
       </c>
       <c r="F334">
-        <v>9.9530303000000001E-2</v>
+        <v>9.9484848000000001E-2</v>
       </c>
       <c r="G334">
-        <v>0.10055367599999999</v>
+        <v>9.9674258000000002E-2</v>
       </c>
       <c r="H334">
-        <v>4.5400780000000003E-3</v>
+        <v>4.5790689999999998E-3</v>
       </c>
       <c r="I334">
-        <v>0.98875126400000002</v>
+        <v>0.98573369899999996</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -12105,28 +12103,28 @@
         <v>20</v>
       </c>
       <c r="B335">
-        <v>4.50968E-4</v>
+        <v>4.99166E-4</v>
       </c>
       <c r="C335">
-        <v>995.72025629999996</v>
+        <v>1002.9725089999999</v>
       </c>
       <c r="D335">
-        <v>0.40014166899999998</v>
+        <v>0.40072669900000002</v>
       </c>
       <c r="E335">
-        <v>4.2461959000000001E-2</v>
+        <v>4.6791843999999999E-2</v>
       </c>
       <c r="F335">
-        <v>9.9484848000000001E-2</v>
+        <v>9.9272727000000005E-2</v>
       </c>
       <c r="G335">
-        <v>9.9674258000000002E-2</v>
+        <v>0.100050923</v>
       </c>
       <c r="H335">
-        <v>4.5790689999999998E-3</v>
+        <v>5.6337239999999997E-3</v>
       </c>
       <c r="I335">
-        <v>0.98573369899999996</v>
+        <v>0.98658754900000001</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -12134,28 +12132,28 @@
         <v>20</v>
       </c>
       <c r="B336">
-        <v>4.99166E-4</v>
+        <v>4.3689199999999998E-4</v>
       </c>
       <c r="C336">
-        <v>1002.9725089999999</v>
+        <v>1003.970136</v>
       </c>
       <c r="D336">
-        <v>0.40072669900000002</v>
+        <v>0.39974975899999998</v>
       </c>
       <c r="E336">
-        <v>4.6791843999999999E-2</v>
+        <v>3.7030752E-2</v>
       </c>
       <c r="F336">
-        <v>9.9272727000000005E-2</v>
+        <v>0.100348485</v>
       </c>
       <c r="G336">
-        <v>0.100050923</v>
+        <v>0.108159581</v>
       </c>
       <c r="H336">
-        <v>5.6337239999999997E-3</v>
+        <v>4.310225E-3</v>
       </c>
       <c r="I336">
-        <v>0.98658754900000001</v>
+        <v>0.98847266899999997</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -12163,28 +12161,28 @@
         <v>20</v>
       </c>
       <c r="B337">
-        <v>4.3689199999999998E-4</v>
+        <v>3.6157600000000001E-4</v>
       </c>
       <c r="C337">
-        <v>1003.970136</v>
+        <v>1000.697795</v>
       </c>
       <c r="D337">
-        <v>0.39974975899999998</v>
+        <v>0.400765488</v>
       </c>
       <c r="E337">
-        <v>3.7030752E-2</v>
+        <v>6.5080570000000004E-2</v>
       </c>
       <c r="F337">
-        <v>0.100348485</v>
+        <v>9.9454545000000005E-2</v>
       </c>
       <c r="G337">
-        <v>0.108159581</v>
+        <v>0.109293213</v>
       </c>
       <c r="H337">
-        <v>4.310225E-3</v>
+        <v>5.8078820000000003E-3</v>
       </c>
       <c r="I337">
-        <v>0.98847266899999997</v>
+        <v>0.99057435599999999</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -12192,28 +12190,28 @@
         <v>20</v>
       </c>
       <c r="B338">
-        <v>3.6157600000000001E-4</v>
+        <v>3.40119E-4</v>
       </c>
       <c r="C338">
-        <v>1000.697795</v>
+        <v>1003.90345</v>
       </c>
       <c r="D338">
-        <v>0.400765488</v>
+        <v>0.40009669599999997</v>
       </c>
       <c r="E338">
-        <v>6.5080570000000004E-2</v>
+        <v>7.3524844000000006E-2</v>
       </c>
       <c r="F338">
-        <v>9.9454545000000005E-2</v>
+        <v>9.9954545000000006E-2</v>
       </c>
       <c r="G338">
-        <v>0.109293213</v>
+        <v>0.10913827299999999</v>
       </c>
       <c r="H338">
-        <v>5.8078820000000003E-3</v>
+        <v>6.1935929999999998E-3</v>
       </c>
       <c r="I338">
-        <v>0.99057435599999999</v>
+        <v>0.99147808299999995</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -12221,28 +12219,28 @@
         <v>20</v>
       </c>
       <c r="B339">
-        <v>3.40119E-4</v>
+        <v>3.23025E-4</v>
       </c>
       <c r="C339">
-        <v>1003.90345</v>
+        <v>1002.279227</v>
       </c>
       <c r="D339">
-        <v>0.40009669599999997</v>
+        <v>0.40044863800000002</v>
       </c>
       <c r="E339">
-        <v>7.3524844000000006E-2</v>
+        <v>7.6759078999999994E-2</v>
       </c>
       <c r="F339">
-        <v>9.9954545000000006E-2</v>
+        <v>9.9553030000000001E-2</v>
       </c>
       <c r="G339">
-        <v>0.10913827299999999</v>
+        <v>0.10835315500000001</v>
       </c>
       <c r="H339">
-        <v>6.1935929999999998E-3</v>
+        <v>6.2585180000000002E-3</v>
       </c>
       <c r="I339">
-        <v>0.99147808299999995</v>
+        <v>0.99185474900000004</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -12250,28 +12248,28 @@
         <v>20</v>
       </c>
       <c r="B340">
-        <v>3.23025E-4</v>
+        <v>5.6255699999999999E-4</v>
       </c>
       <c r="C340">
-        <v>1002.279227</v>
+        <v>1010.292857</v>
       </c>
       <c r="D340">
-        <v>0.40044863800000002</v>
+        <v>0.49986556300000001</v>
       </c>
       <c r="E340">
-        <v>7.6759078999999994E-2</v>
+        <v>4.3558463999999998E-2</v>
       </c>
       <c r="F340">
-        <v>9.9553030000000001E-2</v>
+        <v>9.9590909000000005E-2</v>
       </c>
       <c r="G340">
-        <v>0.10835315500000001</v>
+        <v>0.10062673599999999</v>
       </c>
       <c r="H340">
-        <v>6.2585180000000002E-3</v>
+        <v>4.3803920000000003E-3</v>
       </c>
       <c r="I340">
-        <v>0.99185474900000004</v>
+        <v>0.99084061700000003</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -12279,28 +12277,28 @@
         <v>20</v>
       </c>
       <c r="B341">
-        <v>5.6255699999999999E-4</v>
+        <v>5.7886999999999999E-4</v>
       </c>
       <c r="C341">
-        <v>1010.292857</v>
+        <v>1014.605545</v>
       </c>
       <c r="D341">
-        <v>0.49986556300000001</v>
+        <v>0.49958438500000002</v>
       </c>
       <c r="E341">
-        <v>4.3558463999999998E-2</v>
+        <v>4.4103181999999998E-2</v>
       </c>
       <c r="F341">
-        <v>9.9590909000000005E-2</v>
+        <v>9.9522727000000005E-2</v>
       </c>
       <c r="G341">
-        <v>0.10062673599999999</v>
+        <v>9.9812217999999994E-2</v>
       </c>
       <c r="H341">
-        <v>4.3803920000000003E-3</v>
+        <v>4.6229230000000001E-3</v>
       </c>
       <c r="I341">
-        <v>0.99084061700000003</v>
+        <v>0.99131149799999996</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -12308,28 +12306,28 @@
         <v>20</v>
       </c>
       <c r="B342">
-        <v>5.7886999999999999E-4</v>
+        <v>6.3783199999999996E-4</v>
       </c>
       <c r="C342">
-        <v>1014.605545</v>
+        <v>994.49367299999994</v>
       </c>
       <c r="D342">
-        <v>0.49958438500000002</v>
+        <v>0.49801411899999998</v>
       </c>
       <c r="E342">
-        <v>4.4103181999999998E-2</v>
+        <v>4.2463493999999997E-2</v>
       </c>
       <c r="F342">
-        <v>9.9522727000000005E-2</v>
+        <v>0.10050000000000001</v>
       </c>
       <c r="G342">
-        <v>9.9812217999999994E-2</v>
+        <v>0.100906723</v>
       </c>
       <c r="H342">
-        <v>4.6229230000000001E-3</v>
+        <v>5.2520650000000002E-3</v>
       </c>
       <c r="I342">
-        <v>0.99131149799999996</v>
+        <v>0.99132909899999999</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -12337,28 +12335,28 @@
         <v>20</v>
       </c>
       <c r="B343">
-        <v>6.3783199999999996E-4</v>
+        <v>5.2629499999999997E-4</v>
       </c>
       <c r="C343">
-        <v>994.49367299999994</v>
+        <v>1004.803104</v>
       </c>
       <c r="D343">
-        <v>0.49801411899999998</v>
+        <v>0.50003780099999995</v>
       </c>
       <c r="E343">
-        <v>4.2463493999999997E-2</v>
+        <v>4.5139868E-2</v>
       </c>
       <c r="F343">
-        <v>0.10050000000000001</v>
+        <v>9.9931818000000006E-2</v>
       </c>
       <c r="G343">
-        <v>0.100906723</v>
+        <v>0.101938865</v>
       </c>
       <c r="H343">
-        <v>5.2520650000000002E-3</v>
+        <v>5.8014349999999998E-3</v>
       </c>
       <c r="I343">
-        <v>0.99132909899999999</v>
+        <v>0.99130283799999996</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -12366,28 +12364,28 @@
         <v>20</v>
       </c>
       <c r="B344">
-        <v>5.2629499999999997E-4</v>
+        <v>4.5853300000000001E-4</v>
       </c>
       <c r="C344">
-        <v>1004.803104</v>
+        <v>996.67049940000004</v>
       </c>
       <c r="D344">
-        <v>0.50003780099999995</v>
+        <v>0.499705173</v>
       </c>
       <c r="E344">
-        <v>4.5139868E-2</v>
+        <v>4.4022573000000002E-2</v>
       </c>
       <c r="F344">
-        <v>9.9931818000000006E-2</v>
+        <v>0.10025000000000001</v>
       </c>
       <c r="G344">
-        <v>0.101938865</v>
+        <v>0.106222393</v>
       </c>
       <c r="H344">
-        <v>5.8014349999999998E-3</v>
+        <v>4.9997289999999996E-3</v>
       </c>
       <c r="I344">
-        <v>0.99130283799999996</v>
+        <v>0.99159978500000001</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -12395,28 +12393,28 @@
         <v>20</v>
       </c>
       <c r="B345">
-        <v>4.5853300000000001E-4</v>
+        <v>4.09391E-4</v>
       </c>
       <c r="C345">
-        <v>996.67049940000004</v>
+        <v>1000.777251</v>
       </c>
       <c r="D345">
-        <v>0.499705173</v>
+        <v>0.49964764900000003</v>
       </c>
       <c r="E345">
-        <v>4.4022573000000002E-2</v>
+        <v>6.8103606999999997E-2</v>
       </c>
       <c r="F345">
-        <v>0.10025000000000001</v>
+        <v>9.9886364000000005E-2</v>
       </c>
       <c r="G345">
-        <v>0.106222393</v>
+        <v>0.10792351</v>
       </c>
       <c r="H345">
-        <v>4.9997289999999996E-3</v>
+        <v>6.352903E-3</v>
       </c>
       <c r="I345">
-        <v>0.99159978500000001</v>
+        <v>0.99227546300000002</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -12424,28 +12422,28 @@
         <v>20</v>
       </c>
       <c r="B346">
-        <v>4.09391E-4</v>
+        <v>4.1426199999999999E-4</v>
       </c>
       <c r="C346">
-        <v>1000.777251</v>
+        <v>1006.62312</v>
       </c>
       <c r="D346">
-        <v>0.49964764900000003</v>
+        <v>0.50079021499999998</v>
       </c>
       <c r="E346">
-        <v>6.8103606999999997E-2</v>
+        <v>5.6538620999999997E-2</v>
       </c>
       <c r="F346">
-        <v>9.9886364000000005E-2</v>
+        <v>9.8943182000000005E-2</v>
       </c>
       <c r="G346">
-        <v>0.10792351</v>
+        <v>0.108647546</v>
       </c>
       <c r="H346">
-        <v>6.352903E-3</v>
+        <v>5.6487229999999996E-3</v>
       </c>
       <c r="I346">
-        <v>0.99227546300000002</v>
+        <v>0.99250849799999996</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -12453,28 +12451,28 @@
         <v>20</v>
       </c>
       <c r="B347">
-        <v>4.1426199999999999E-4</v>
+        <v>4.8616099999999998E-4</v>
       </c>
       <c r="C347">
-        <v>1006.62312</v>
+        <v>1250.1084519999999</v>
       </c>
       <c r="D347">
-        <v>0.50079021499999998</v>
+        <v>0.29988949399999998</v>
       </c>
       <c r="E347">
-        <v>5.6538620999999997E-2</v>
+        <v>4.0868091000000002E-2</v>
       </c>
       <c r="F347">
-        <v>9.8943182000000005E-2</v>
+        <v>0.11330303</v>
       </c>
       <c r="G347">
-        <v>0.108647546</v>
+        <v>0.102740609</v>
       </c>
       <c r="H347">
-        <v>5.6487229999999996E-3</v>
+        <v>5.0782980000000002E-3</v>
       </c>
       <c r="I347">
-        <v>0.99250849799999996</v>
+        <v>0.98356246000000003</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -12482,28 +12480,28 @@
         <v>20</v>
       </c>
       <c r="B348">
-        <v>4.8616099999999998E-4</v>
+        <v>4.9223300000000002E-4</v>
       </c>
       <c r="C348">
-        <v>1250.1084519999999</v>
+        <v>1249.8086189999999</v>
       </c>
       <c r="D348">
-        <v>0.29988949399999998</v>
+        <v>0.29991707200000001</v>
       </c>
       <c r="E348">
-        <v>4.0868091000000002E-2</v>
+        <v>3.9588467000000002E-2</v>
       </c>
       <c r="F348">
-        <v>0.11330303</v>
+        <v>0.10181818199999999</v>
       </c>
       <c r="G348">
-        <v>0.102740609</v>
+        <v>9.9979082999999996E-2</v>
       </c>
       <c r="H348">
-        <v>5.0782980000000002E-3</v>
+        <v>5.1697690000000003E-3</v>
       </c>
       <c r="I348">
-        <v>0.98356246000000003</v>
+        <v>0.98258305499999998</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -12511,28 +12509,28 @@
         <v>20</v>
       </c>
       <c r="B349">
-        <v>4.9223300000000002E-4</v>
+        <v>4.8966000000000005E-4</v>
       </c>
       <c r="C349">
-        <v>1249.8086189999999</v>
+        <v>1248.349074</v>
       </c>
       <c r="D349">
-        <v>0.29991707200000001</v>
+        <v>0.299807559</v>
       </c>
       <c r="E349">
-        <v>3.9588467000000002E-2</v>
+        <v>4.2113662000000003E-2</v>
       </c>
       <c r="F349">
-        <v>0.10181818199999999</v>
+        <v>9.8530303E-2</v>
       </c>
       <c r="G349">
-        <v>9.9979082999999996E-2</v>
+        <v>9.8520637999999994E-2</v>
       </c>
       <c r="H349">
-        <v>5.1697690000000003E-3</v>
+        <v>5.5747749999999997E-3</v>
       </c>
       <c r="I349">
-        <v>0.98258305499999998</v>
+        <v>0.98221806199999995</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -12540,28 +12538,28 @@
         <v>20</v>
       </c>
       <c r="B350">
-        <v>4.8966000000000005E-4</v>
+        <v>4.1326699999999999E-4</v>
       </c>
       <c r="C350">
-        <v>1248.349074</v>
+        <v>1251.8935570000001</v>
       </c>
       <c r="D350">
-        <v>0.299807559</v>
+        <v>0.30008244499999998</v>
       </c>
       <c r="E350">
-        <v>4.2113662000000003E-2</v>
+        <v>3.8818410999999997E-2</v>
       </c>
       <c r="F350">
-        <v>9.8530303E-2</v>
+        <v>0.10034090900000001</v>
       </c>
       <c r="G350">
-        <v>9.8520637999999994E-2</v>
+        <v>0.104997322</v>
       </c>
       <c r="H350">
-        <v>5.5747749999999997E-3</v>
+        <v>4.5492930000000003E-3</v>
       </c>
       <c r="I350">
-        <v>0.98221806199999995</v>
+        <v>0.98212610700000003</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -12569,28 +12567,28 @@
         <v>20</v>
       </c>
       <c r="B351">
-        <v>4.1326699999999999E-4</v>
+        <v>3.5472599999999998E-4</v>
       </c>
       <c r="C351">
-        <v>1251.8935570000001</v>
+        <v>1248.2643149999999</v>
       </c>
       <c r="D351">
-        <v>0.30008244499999998</v>
+        <v>0.299649999</v>
       </c>
       <c r="E351">
-        <v>3.8818410999999997E-2</v>
+        <v>3.805335E-2</v>
       </c>
       <c r="F351">
-        <v>0.10034090900000001</v>
+        <v>9.9136364000000005E-2</v>
       </c>
       <c r="G351">
-        <v>0.104997322</v>
+        <v>0.106645016</v>
       </c>
       <c r="H351">
-        <v>4.5492930000000003E-3</v>
+        <v>4.3322079999999997E-3</v>
       </c>
       <c r="I351">
-        <v>0.98212610700000003</v>
+        <v>0.98249646300000004</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -12598,28 +12596,28 @@
         <v>20</v>
       </c>
       <c r="B352">
-        <v>3.5472599999999998E-4</v>
+        <v>3.0862499999999998E-4</v>
       </c>
       <c r="C352">
-        <v>1248.2643149999999</v>
+        <v>1250.009063</v>
       </c>
       <c r="D352">
-        <v>0.299649999</v>
+        <v>0.300016848</v>
       </c>
       <c r="E352">
-        <v>3.805335E-2</v>
+        <v>4.267257E-2</v>
       </c>
       <c r="F352">
-        <v>9.9136364000000005E-2</v>
+        <v>0.10052272700000001</v>
       </c>
       <c r="G352">
-        <v>0.106645016</v>
+        <v>0.107568497</v>
       </c>
       <c r="H352">
-        <v>4.3322079999999997E-3</v>
+        <v>4.6496790000000003E-3</v>
       </c>
       <c r="I352">
-        <v>0.98249646300000004</v>
+        <v>0.98361751799999997</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -12627,28 +12625,28 @@
         <v>20</v>
       </c>
       <c r="B353">
-        <v>3.0862499999999998E-4</v>
+        <v>2.9086800000000001E-4</v>
       </c>
       <c r="C353">
-        <v>1250.009063</v>
+        <v>1253.2809540000001</v>
       </c>
       <c r="D353">
-        <v>0.300016848</v>
+        <v>0.30050387099999998</v>
       </c>
       <c r="E353">
-        <v>4.267257E-2</v>
+        <v>4.7419393999999997E-2</v>
       </c>
       <c r="F353">
-        <v>0.10052272700000001</v>
+        <v>0.100787879</v>
       </c>
       <c r="G353">
-        <v>0.107568497</v>
+        <v>0.10544677199999999</v>
       </c>
       <c r="H353">
-        <v>4.6496790000000003E-3</v>
+        <v>4.8263680000000002E-3</v>
       </c>
       <c r="I353">
-        <v>0.98361751799999997</v>
+        <v>0.98433838399999996</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -12656,28 +12654,28 @@
         <v>20</v>
       </c>
       <c r="B354">
-        <v>2.9086800000000001E-4</v>
+        <v>5.3141199999999999E-4</v>
       </c>
       <c r="C354">
-        <v>1253.2809540000001</v>
+        <v>1257.9297489999999</v>
       </c>
       <c r="D354">
-        <v>0.30050387099999998</v>
+        <v>0.40096458800000001</v>
       </c>
       <c r="E354">
-        <v>4.7419393999999997E-2</v>
+        <v>3.9940086E-2</v>
       </c>
       <c r="F354">
-        <v>0.100787879</v>
+        <v>0.100416667</v>
       </c>
       <c r="G354">
-        <v>0.10544677199999999</v>
+        <v>0.100374031</v>
       </c>
       <c r="H354">
-        <v>4.8263680000000002E-3</v>
+        <v>5.1835850000000001E-3</v>
       </c>
       <c r="I354">
-        <v>0.98433838399999996</v>
+        <v>0.98425697000000001</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -12685,28 +12683,28 @@
         <v>20</v>
       </c>
       <c r="B355">
-        <v>5.3141199999999999E-4</v>
+        <v>4.9130500000000004E-4</v>
       </c>
       <c r="C355">
-        <v>1257.9297489999999</v>
+        <v>1240.129111</v>
       </c>
       <c r="D355">
-        <v>0.40096458800000001</v>
+        <v>0.39783279599999999</v>
       </c>
       <c r="E355">
-        <v>3.9940086E-2</v>
+        <v>3.9921999999999999E-2</v>
       </c>
       <c r="F355">
-        <v>0.100416667</v>
+        <v>0.1</v>
       </c>
       <c r="G355">
-        <v>0.100374031</v>
+        <v>0.100867067</v>
       </c>
       <c r="H355">
-        <v>5.1835850000000001E-3</v>
+        <v>4.9464060000000004E-3</v>
       </c>
       <c r="I355">
-        <v>0.98425697000000001</v>
+        <v>0.98442629299999995</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -12714,28 +12712,28 @@
         <v>20</v>
       </c>
       <c r="B356">
-        <v>4.9130500000000004E-4</v>
+        <v>4.9682100000000005E-4</v>
       </c>
       <c r="C356">
-        <v>1240.129111</v>
+        <v>1252.8845659999999</v>
       </c>
       <c r="D356">
-        <v>0.39783279599999999</v>
+        <v>0.39957826800000001</v>
       </c>
       <c r="E356">
-        <v>3.9921999999999999E-2</v>
+        <v>3.5337199999999999E-2</v>
       </c>
       <c r="F356">
-        <v>0.1</v>
+        <v>0.10090909100000001</v>
       </c>
       <c r="G356">
-        <v>0.100867067</v>
+        <v>0.10193480000000001</v>
       </c>
       <c r="H356">
-        <v>4.9464060000000004E-3</v>
+        <v>5.1260159999999997E-3</v>
       </c>
       <c r="I356">
-        <v>0.98442629299999995</v>
+        <v>0.98454788800000004</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -12743,28 +12741,28 @@
         <v>20</v>
       </c>
       <c r="B357">
-        <v>4.9682100000000005E-4</v>
+        <v>4.6433100000000001E-4</v>
       </c>
       <c r="C357">
-        <v>1252.8845659999999</v>
+        <v>1255.424561</v>
       </c>
       <c r="D357">
-        <v>0.39957826800000001</v>
+        <v>0.39989443400000002</v>
       </c>
       <c r="E357">
-        <v>3.5337199999999999E-2</v>
+        <v>4.1705930000000002E-2</v>
       </c>
       <c r="F357">
-        <v>0.10090909100000001</v>
+        <v>0.100507576</v>
       </c>
       <c r="G357">
-        <v>0.10193480000000001</v>
+        <v>0.10475915299999999</v>
       </c>
       <c r="H357">
-        <v>5.1260159999999997E-3</v>
+        <v>4.4100290000000002E-3</v>
       </c>
       <c r="I357">
-        <v>0.98454788800000004</v>
+        <v>0.98489914300000003</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -12772,28 +12770,28 @@
         <v>20</v>
       </c>
       <c r="B358">
-        <v>4.6433100000000001E-4</v>
+        <v>4.0902799999999997E-4</v>
       </c>
       <c r="C358">
-        <v>1255.424561</v>
+        <v>1259.0346520000001</v>
       </c>
       <c r="D358">
-        <v>0.39989443400000002</v>
+        <v>0.40126719</v>
       </c>
       <c r="E358">
-        <v>4.1705930000000002E-2</v>
+        <v>6.0387098E-2</v>
       </c>
       <c r="F358">
-        <v>0.100507576</v>
+        <v>9.9689394000000001E-2</v>
       </c>
       <c r="G358">
-        <v>0.10475915299999999</v>
+        <v>0.10727930199999999</v>
       </c>
       <c r="H358">
-        <v>4.4100290000000002E-3</v>
+        <v>5.6627500000000002E-3</v>
       </c>
       <c r="I358">
-        <v>0.98489914300000003</v>
+        <v>0.98588494999999998</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -12801,28 +12799,28 @@
         <v>20</v>
       </c>
       <c r="B359">
-        <v>4.0902799999999997E-4</v>
+        <v>3.7444099999999999E-4</v>
       </c>
       <c r="C359">
-        <v>1259.0346520000001</v>
+        <v>1252.6941919999999</v>
       </c>
       <c r="D359">
-        <v>0.40126719</v>
+        <v>0.40043706899999998</v>
       </c>
       <c r="E359">
-        <v>6.0387098E-2</v>
+        <v>7.2278722000000004E-2</v>
       </c>
       <c r="F359">
-        <v>9.9689394000000001E-2</v>
+        <v>0.101833333</v>
       </c>
       <c r="G359">
-        <v>0.10727930199999999</v>
+        <v>0.10862016200000001</v>
       </c>
       <c r="H359">
-        <v>5.6627500000000002E-3</v>
+        <v>5.9900730000000003E-3</v>
       </c>
       <c r="I359">
-        <v>0.98588494999999998</v>
+        <v>0.98840415199999998</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -12830,28 +12828,28 @@
         <v>20</v>
       </c>
       <c r="B360">
-        <v>3.7444099999999999E-4</v>
+        <v>3.3825899999999999E-4</v>
       </c>
       <c r="C360">
-        <v>1252.6941919999999</v>
+        <v>1243.4681760000001</v>
       </c>
       <c r="D360">
-        <v>0.40043706899999998</v>
+        <v>0.39960972299999997</v>
       </c>
       <c r="E360">
-        <v>7.2278722000000004E-2</v>
+        <v>5.0731548000000001E-2</v>
       </c>
       <c r="F360">
-        <v>0.101833333</v>
+        <v>0.100325758</v>
       </c>
       <c r="G360">
-        <v>0.10862016200000001</v>
+        <v>0.109580419</v>
       </c>
       <c r="H360">
-        <v>5.9900730000000003E-3</v>
+        <v>3.6698569999999999E-3</v>
       </c>
       <c r="I360">
-        <v>0.98840415199999998</v>
+        <v>0.98971730400000002</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -12859,28 +12857,28 @@
         <v>20</v>
       </c>
       <c r="B361">
-        <v>3.3825899999999999E-4</v>
+        <v>5.5933100000000004E-4</v>
       </c>
       <c r="C361">
-        <v>1243.4681760000001</v>
+        <v>1247.756613</v>
       </c>
       <c r="D361">
-        <v>0.39960972299999997</v>
+        <v>0.499773087</v>
       </c>
       <c r="E361">
-        <v>5.0731548000000001E-2</v>
+        <v>4.3240530999999999E-2</v>
       </c>
       <c r="F361">
-        <v>0.100325758</v>
+        <v>9.8643939E-2</v>
       </c>
       <c r="G361">
-        <v>0.109580419</v>
+        <v>9.6250286000000004E-2</v>
       </c>
       <c r="H361">
-        <v>3.6698569999999999E-3</v>
+        <v>4.88815E-3</v>
       </c>
       <c r="I361">
-        <v>0.98971730400000002</v>
+        <v>0.98640674500000003</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -12888,28 +12886,28 @@
         <v>20</v>
       </c>
       <c r="B362">
-        <v>5.5933100000000004E-4</v>
+        <v>5.6149699999999999E-4</v>
       </c>
       <c r="C362">
-        <v>1247.756613</v>
+        <v>1255.361754</v>
       </c>
       <c r="D362">
-        <v>0.499773087</v>
+        <v>0.49969234000000001</v>
       </c>
       <c r="E362">
-        <v>4.3240530999999999E-2</v>
+        <v>4.6532391999999999E-2</v>
       </c>
       <c r="F362">
-        <v>9.8643939E-2</v>
+        <v>9.9621212000000001E-2</v>
       </c>
       <c r="G362">
-        <v>9.6250286000000004E-2</v>
+        <v>9.3758707999999996E-2</v>
       </c>
       <c r="H362">
-        <v>4.88815E-3</v>
+        <v>5.2424009999999998E-3</v>
       </c>
       <c r="I362">
-        <v>0.98640674500000003</v>
+        <v>0.98304668500000003</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -12917,28 +12915,28 @@
         <v>20</v>
       </c>
       <c r="B363">
-        <v>5.6149699999999999E-4</v>
+        <v>5.6852900000000002E-4</v>
       </c>
       <c r="C363">
-        <v>1255.361754</v>
+        <v>1247.2716989999999</v>
       </c>
       <c r="D363">
-        <v>0.49969234000000001</v>
+        <v>0.49999912200000002</v>
       </c>
       <c r="E363">
-        <v>4.6532391999999999E-2</v>
+        <v>4.8635330999999997E-2</v>
       </c>
       <c r="F363">
-        <v>9.9621212000000001E-2</v>
+        <v>9.9924241999999996E-2</v>
       </c>
       <c r="G363">
-        <v>9.3758707999999996E-2</v>
+        <v>9.3466701999999999E-2</v>
       </c>
       <c r="H363">
-        <v>5.2424009999999998E-3</v>
+        <v>5.4343639999999997E-3</v>
       </c>
       <c r="I363">
-        <v>0.98304668500000003</v>
+        <v>0.98324508799999999</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -12946,28 +12944,28 @@
         <v>20</v>
       </c>
       <c r="B364">
-        <v>5.6852900000000002E-4</v>
+        <v>5.5993099999999995E-4</v>
       </c>
       <c r="C364">
-        <v>1247.2716989999999</v>
+        <v>1251.188594</v>
       </c>
       <c r="D364">
-        <v>0.49999912200000002</v>
+        <v>0.50000105500000003</v>
       </c>
       <c r="E364">
-        <v>4.8635330999999997E-2</v>
+        <v>4.9490144999999999E-2</v>
       </c>
       <c r="F364">
-        <v>9.9924241999999996E-2</v>
+        <v>9.9689394000000001E-2</v>
       </c>
       <c r="G364">
-        <v>9.3466701999999999E-2</v>
+        <v>9.5530058000000001E-2</v>
       </c>
       <c r="H364">
-        <v>5.4343639999999997E-3</v>
+        <v>5.2874319999999999E-3</v>
       </c>
       <c r="I364">
-        <v>0.98324508799999999</v>
+        <v>0.98426534600000004</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -12975,28 +12973,28 @@
         <v>20</v>
       </c>
       <c r="B365">
-        <v>5.5993099999999995E-4</v>
+        <v>4.9463399999999998E-4</v>
       </c>
       <c r="C365">
-        <v>1251.188594</v>
+        <v>1225.5921599999999</v>
       </c>
       <c r="D365">
-        <v>0.50000105500000003</v>
+        <v>0.50235871200000004</v>
       </c>
       <c r="E365">
-        <v>4.9490144999999999E-2</v>
+        <v>3.7902236999999998E-2</v>
       </c>
       <c r="F365">
-        <v>9.9689394000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G365">
-        <v>9.5530058000000001E-2</v>
+        <v>0.104715946</v>
       </c>
       <c r="H365">
-        <v>5.2874319999999999E-3</v>
+        <v>4.980249E-3</v>
       </c>
       <c r="I365">
-        <v>0.98426534600000004</v>
+        <v>0.98562894400000001</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -13004,28 +13002,28 @@
         <v>20</v>
       </c>
       <c r="B366">
-        <v>4.9463399999999998E-4</v>
+        <v>4.6393200000000002E-4</v>
       </c>
       <c r="C366">
-        <v>1225.5921599999999</v>
+        <v>1249.5901799999999</v>
       </c>
       <c r="D366">
-        <v>0.50235871200000004</v>
+        <v>0.49960959599999999</v>
       </c>
       <c r="E366">
-        <v>3.7902236999999998E-2</v>
+        <v>4.5027570000000003E-2</v>
       </c>
       <c r="F366">
-        <v>0.1</v>
+        <v>0.100515152</v>
       </c>
       <c r="G366">
-        <v>0.104715946</v>
+        <v>0.105402013</v>
       </c>
       <c r="H366">
-        <v>4.980249E-3</v>
+        <v>4.013104E-3</v>
       </c>
       <c r="I366">
-        <v>0.98562894400000001</v>
+        <v>0.98823981100000002</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -13033,57 +13031,57 @@
         <v>20</v>
       </c>
       <c r="B367">
-        <v>4.6393200000000002E-4</v>
+        <v>3.34135E-4</v>
       </c>
       <c r="C367">
-        <v>1249.5901799999999</v>
+        <v>368.57260600000001</v>
       </c>
       <c r="D367">
-        <v>0.49960959599999999</v>
+        <v>0.58694023799999995</v>
       </c>
       <c r="E367">
-        <v>4.5027570000000003E-2</v>
+        <v>4.2935114000000003E-2</v>
       </c>
       <c r="F367">
-        <v>0.100515152</v>
+        <v>9.1810606000000003E-2</v>
       </c>
       <c r="G367">
-        <v>0.105402013</v>
+        <v>0.102427253</v>
       </c>
       <c r="H367">
-        <v>4.013104E-3</v>
+        <v>4.045992E-3</v>
       </c>
       <c r="I367">
-        <v>0.98823981100000002</v>
+        <v>0.989965023</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B368">
-        <v>3.34135E-4</v>
+        <v>4.2709099999999999E-4</v>
       </c>
       <c r="C368">
-        <v>368.57260600000001</v>
+        <v>751.75225309999996</v>
       </c>
       <c r="D368">
-        <v>0.58694023799999995</v>
+        <v>0.300595785</v>
       </c>
       <c r="E368">
-        <v>4.2935114000000003E-2</v>
+        <v>2.0250721999999999E-2</v>
       </c>
       <c r="F368">
-        <v>9.1810606000000003E-2</v>
+        <v>0.100183908</v>
       </c>
       <c r="G368">
-        <v>0.102427253</v>
+        <v>0.102772961</v>
       </c>
       <c r="H368">
-        <v>4.045992E-3</v>
+        <v>9.8061799999999994E-4</v>
       </c>
       <c r="I368">
-        <v>0.989965023</v>
+        <v>0.99171375900000003</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -13091,28 +13089,28 @@
         <v>21</v>
       </c>
       <c r="B369">
-        <v>4.2709099999999999E-4</v>
+        <v>4.3149099999999999E-4</v>
       </c>
       <c r="C369">
-        <v>751.75225309999996</v>
+        <v>749.9286955</v>
       </c>
       <c r="D369">
-        <v>0.300595785</v>
+        <v>0.30079881800000002</v>
       </c>
       <c r="E369">
-        <v>2.0250721999999999E-2</v>
+        <v>2.1508796E-2</v>
       </c>
       <c r="F369">
-        <v>0.100183908</v>
+        <v>9.9501915999999996E-2</v>
       </c>
       <c r="G369">
-        <v>0.102772961</v>
+        <v>0.10339688700000001</v>
       </c>
       <c r="H369">
-        <v>9.8061799999999994E-4</v>
+        <v>1.1176510000000001E-3</v>
       </c>
       <c r="I369">
-        <v>0.99171375900000003</v>
+        <v>0.991996027</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -13120,28 +13118,28 @@
         <v>21</v>
       </c>
       <c r="B370">
-        <v>4.3149099999999999E-4</v>
+        <v>3.9097999999999997E-4</v>
       </c>
       <c r="C370">
-        <v>749.9286955</v>
+        <v>750.86723619999998</v>
       </c>
       <c r="D370">
-        <v>0.30079881800000002</v>
+        <v>0.30092750000000001</v>
       </c>
       <c r="E370">
-        <v>2.1508796E-2</v>
+        <v>3.3229887E-2</v>
       </c>
       <c r="F370">
-        <v>9.9501915999999996E-2</v>
+        <v>9.9655172E-2</v>
       </c>
       <c r="G370">
-        <v>0.10339688700000001</v>
+        <v>0.100884113</v>
       </c>
       <c r="H370">
-        <v>1.1176510000000001E-3</v>
+        <v>3.2887580000000001E-3</v>
       </c>
       <c r="I370">
-        <v>0.991996027</v>
+        <v>0.99199386300000003</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -13149,28 +13147,28 @@
         <v>21</v>
       </c>
       <c r="B371">
-        <v>3.9097999999999997E-4</v>
+        <v>3.3918300000000001E-4</v>
       </c>
       <c r="C371">
-        <v>750.86723619999998</v>
+        <v>744.87780320000002</v>
       </c>
       <c r="D371">
-        <v>0.30092750000000001</v>
+        <v>0.29819463800000001</v>
       </c>
       <c r="E371">
-        <v>3.3229887E-2</v>
+        <v>2.8830732000000001E-2</v>
       </c>
       <c r="F371">
-        <v>9.9655172E-2</v>
+        <v>0.100306513</v>
       </c>
       <c r="G371">
-        <v>0.100884113</v>
+        <v>0.103947435</v>
       </c>
       <c r="H371">
-        <v>3.2887580000000001E-3</v>
+        <v>3.8472659999999998E-3</v>
       </c>
       <c r="I371">
-        <v>0.99199386300000003</v>
+        <v>0.99241965899999995</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -13178,28 +13176,28 @@
         <v>21</v>
       </c>
       <c r="B372">
-        <v>3.3918300000000001E-4</v>
+        <v>2.9627499999999998E-4</v>
       </c>
       <c r="C372">
-        <v>744.87780320000002</v>
+        <v>745.51124609999999</v>
       </c>
       <c r="D372">
-        <v>0.29819463800000001</v>
+        <v>0.29996649600000003</v>
       </c>
       <c r="E372">
-        <v>2.8830732000000001E-2</v>
+        <v>2.8150482000000001E-2</v>
       </c>
       <c r="F372">
-        <v>0.100306513</v>
+        <v>9.9601533000000006E-2</v>
       </c>
       <c r="G372">
-        <v>0.103947435</v>
+        <v>0.10510950099999999</v>
       </c>
       <c r="H372">
-        <v>3.8472659999999998E-3</v>
+        <v>3.0476829999999998E-3</v>
       </c>
       <c r="I372">
-        <v>0.99241965899999995</v>
+        <v>0.99309731899999998</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -13207,28 +13205,28 @@
         <v>21</v>
       </c>
       <c r="B373">
-        <v>2.9627499999999998E-4</v>
+        <v>2.7603600000000001E-4</v>
       </c>
       <c r="C373">
-        <v>745.51124609999999</v>
+        <v>749.80523919999996</v>
       </c>
       <c r="D373">
-        <v>0.29996649600000003</v>
+        <v>0.29922444599999998</v>
       </c>
       <c r="E373">
-        <v>2.8150482000000001E-2</v>
+        <v>2.8260444999999999E-2</v>
       </c>
       <c r="F373">
-        <v>9.9601533000000006E-2</v>
+        <v>0.100574713</v>
       </c>
       <c r="G373">
-        <v>0.10510950099999999</v>
+        <v>0.105832572</v>
       </c>
       <c r="H373">
-        <v>3.0476829999999998E-3</v>
+        <v>2.9285000000000001E-3</v>
       </c>
       <c r="I373">
-        <v>0.99309731899999998</v>
+        <v>0.99343774699999998</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -13236,28 +13234,28 @@
         <v>21</v>
       </c>
       <c r="B374">
-        <v>2.7603600000000001E-4</v>
+        <v>2.64763E-4</v>
       </c>
       <c r="C374">
-        <v>749.80523919999996</v>
+        <v>744.87172350000003</v>
       </c>
       <c r="D374">
-        <v>0.29922444599999998</v>
+        <v>0.29931229500000001</v>
       </c>
       <c r="E374">
-        <v>2.8260444999999999E-2</v>
+        <v>3.1558317000000002E-2</v>
       </c>
       <c r="F374">
-        <v>0.100574713</v>
+        <v>9.9777777999999998E-2</v>
       </c>
       <c r="G374">
-        <v>0.105832572</v>
+        <v>0.10425438300000001</v>
       </c>
       <c r="H374">
-        <v>2.9285000000000001E-3</v>
+        <v>3.2648999999999998E-3</v>
       </c>
       <c r="I374">
-        <v>0.99343774699999998</v>
+        <v>0.99349826600000002</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -13265,28 +13263,28 @@
         <v>21</v>
       </c>
       <c r="B375">
-        <v>2.64763E-4</v>
+        <v>4.6320699999999999E-4</v>
       </c>
       <c r="C375">
-        <v>744.87172350000003</v>
+        <v>747.19778589999999</v>
       </c>
       <c r="D375">
-        <v>0.29931229500000001</v>
+        <v>0.39906417700000002</v>
       </c>
       <c r="E375">
-        <v>3.1558317000000002E-2</v>
+        <v>2.7279082999999999E-2</v>
       </c>
       <c r="F375">
-        <v>9.9777777999999998E-2</v>
+        <v>0.100482759</v>
       </c>
       <c r="G375">
-        <v>0.10425438300000001</v>
+        <v>0.100653384</v>
       </c>
       <c r="H375">
-        <v>3.2648999999999998E-3</v>
+        <v>1.404778E-3</v>
       </c>
       <c r="I375">
-        <v>0.99349826600000002</v>
+        <v>0.99357271400000002</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -13294,28 +13292,28 @@
         <v>21</v>
       </c>
       <c r="B376">
-        <v>4.6320699999999999E-4</v>
+        <v>4.5498799999999997E-4</v>
       </c>
       <c r="C376">
-        <v>747.19778589999999</v>
+        <v>755.15652829999999</v>
       </c>
       <c r="D376">
-        <v>0.39906417700000002</v>
+        <v>0.39925735299999998</v>
       </c>
       <c r="E376">
-        <v>2.7279082999999999E-2</v>
+        <v>3.0386533E-2</v>
       </c>
       <c r="F376">
-        <v>0.100482759</v>
+        <v>0.10035249</v>
       </c>
       <c r="G376">
-        <v>0.100653384</v>
+        <v>9.8851866999999996E-2</v>
       </c>
       <c r="H376">
-        <v>1.404778E-3</v>
+        <v>1.5227610000000001E-3</v>
       </c>
       <c r="I376">
-        <v>0.99357271400000002</v>
+        <v>0.99359699599999995</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
@@ -13323,28 +13321,28 @@
         <v>21</v>
       </c>
       <c r="B377">
-        <v>4.5498799999999997E-4</v>
+        <v>4.3629200000000002E-4</v>
       </c>
       <c r="C377">
-        <v>755.15652829999999</v>
+        <v>745.24055940000005</v>
       </c>
       <c r="D377">
-        <v>0.39925735299999998</v>
+        <v>0.398908343</v>
       </c>
       <c r="E377">
-        <v>3.0386533E-2</v>
+        <v>3.6496613999999997E-2</v>
       </c>
       <c r="F377">
-        <v>0.10035249</v>
+        <v>0.100436782</v>
       </c>
       <c r="G377">
-        <v>9.8851866999999996E-2</v>
+        <v>0.100735436</v>
       </c>
       <c r="H377">
-        <v>1.5227610000000001E-3</v>
+        <v>3.8221209999999999E-3</v>
       </c>
       <c r="I377">
-        <v>0.99359699599999995</v>
+        <v>0.99372086100000001</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -13352,28 +13350,28 @@
         <v>21</v>
       </c>
       <c r="B378">
-        <v>4.3629200000000002E-4</v>
+        <v>3.9866700000000001E-4</v>
       </c>
       <c r="C378">
-        <v>745.24055940000005</v>
+        <v>745.24046180000005</v>
       </c>
       <c r="D378">
-        <v>0.398908343</v>
+        <v>0.39891339799999997</v>
       </c>
       <c r="E378">
-        <v>3.6496613999999997E-2</v>
+        <v>3.0948234000000002E-2</v>
       </c>
       <c r="F378">
-        <v>0.100436782</v>
+        <v>0.10051341</v>
       </c>
       <c r="G378">
-        <v>0.100735436</v>
+        <v>0.10731945</v>
       </c>
       <c r="H378">
-        <v>3.8221209999999999E-3</v>
+        <v>3.7149349999999999E-3</v>
       </c>
       <c r="I378">
-        <v>0.99372086100000001</v>
+        <v>0.994095269</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -13381,28 +13379,28 @@
         <v>21</v>
       </c>
       <c r="B379">
-        <v>3.9866700000000001E-4</v>
+        <v>3.3655799999999999E-4</v>
       </c>
       <c r="C379">
-        <v>745.24046180000005</v>
+        <v>754.245634</v>
       </c>
       <c r="D379">
-        <v>0.39891339799999997</v>
+        <v>0.40106589199999998</v>
       </c>
       <c r="E379">
-        <v>3.0948234000000002E-2</v>
+        <v>3.6833079999999997E-2</v>
       </c>
       <c r="F379">
-        <v>0.10051341</v>
+        <v>9.9639847000000004E-2</v>
       </c>
       <c r="G379">
-        <v>0.10731945</v>
+        <v>0.104447937</v>
       </c>
       <c r="H379">
-        <v>3.7149349999999999E-3</v>
+        <v>3.294225E-3</v>
       </c>
       <c r="I379">
-        <v>0.994095269</v>
+        <v>0.99475014500000003</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
@@ -13410,28 +13408,28 @@
         <v>21</v>
       </c>
       <c r="B380">
-        <v>3.3655799999999999E-4</v>
+        <v>3.0972699999999998E-4</v>
       </c>
       <c r="C380">
-        <v>754.245634</v>
+        <v>757.47458140000003</v>
       </c>
       <c r="D380">
-        <v>0.40106589199999998</v>
+        <v>0.39997719900000001</v>
       </c>
       <c r="E380">
-        <v>3.6833079999999997E-2</v>
+        <v>3.7491233999999998E-2</v>
       </c>
       <c r="F380">
-        <v>9.9639847000000004E-2</v>
+        <v>0.100306513</v>
       </c>
       <c r="G380">
-        <v>0.104447937</v>
+        <v>0.100064399</v>
       </c>
       <c r="H380">
-        <v>3.294225E-3</v>
+        <v>2.7043010000000001E-3</v>
       </c>
       <c r="I380">
-        <v>0.99475014500000003</v>
+        <v>0.99498883199999999</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -13439,28 +13437,28 @@
         <v>21</v>
       </c>
       <c r="B381">
-        <v>3.0972699999999998E-4</v>
+        <v>2.9860200000000003E-4</v>
       </c>
       <c r="C381">
-        <v>757.47458140000003</v>
+        <v>748.00222329999997</v>
       </c>
       <c r="D381">
-        <v>0.39997719900000001</v>
+        <v>0.399170462</v>
       </c>
       <c r="E381">
-        <v>3.7491233999999998E-2</v>
+        <v>3.4313367999999997E-2</v>
       </c>
       <c r="F381">
-        <v>0.100306513</v>
+        <v>0.10067433000000001</v>
       </c>
       <c r="G381">
-        <v>0.100064399</v>
+        <v>9.9761053000000002E-2</v>
       </c>
       <c r="H381">
-        <v>2.7043010000000001E-3</v>
+        <v>2.4267970000000001E-3</v>
       </c>
       <c r="I381">
-        <v>0.99498883199999999</v>
+        <v>0.99503560599999996</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -13468,28 +13466,28 @@
         <v>21</v>
       </c>
       <c r="B382">
-        <v>2.9860200000000003E-4</v>
+        <v>5.8556899999999998E-4</v>
       </c>
       <c r="C382">
-        <v>748.00222329999997</v>
+        <v>747.40174079999997</v>
       </c>
       <c r="D382">
-        <v>0.399170462</v>
+        <v>0.50132858499999999</v>
       </c>
       <c r="E382">
-        <v>3.4313367999999997E-2</v>
+        <v>3.9261512999999998E-2</v>
       </c>
       <c r="F382">
-        <v>0.10067433000000001</v>
+        <v>9.9984673999999996E-2</v>
       </c>
       <c r="G382">
-        <v>9.9761053000000002E-2</v>
+        <v>9.2089454000000001E-2</v>
       </c>
       <c r="H382">
-        <v>2.4267970000000001E-3</v>
+        <v>3.3600990000000001E-3</v>
       </c>
       <c r="I382">
-        <v>0.99503560599999996</v>
+        <v>0.99474722800000004</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -13497,28 +13495,28 @@
         <v>21</v>
       </c>
       <c r="B383">
-        <v>5.8556899999999998E-4</v>
+        <v>5.4085199999999998E-4</v>
       </c>
       <c r="C383">
-        <v>747.40174079999997</v>
+        <v>748.89055910000002</v>
       </c>
       <c r="D383">
-        <v>0.50132858499999999</v>
+        <v>0.50137097799999997</v>
       </c>
       <c r="E383">
-        <v>3.9261512999999998E-2</v>
+        <v>4.1191199999999997E-2</v>
       </c>
       <c r="F383">
-        <v>9.9984673999999996E-2</v>
+        <v>9.9793102999999994E-2</v>
       </c>
       <c r="G383">
-        <v>9.2089454000000001E-2</v>
+        <v>9.2783633000000004E-2</v>
       </c>
       <c r="H383">
-        <v>3.3600990000000001E-3</v>
+        <v>3.2737539999999998E-3</v>
       </c>
       <c r="I383">
-        <v>0.99474722800000004</v>
+        <v>0.99499758199999999</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -13526,28 +13524,28 @@
         <v>21</v>
       </c>
       <c r="B384">
-        <v>5.4085199999999998E-4</v>
+        <v>5.2526299999999999E-4</v>
       </c>
       <c r="C384">
-        <v>748.89055910000002</v>
+        <v>748.34487139999999</v>
       </c>
       <c r="D384">
-        <v>0.50137097799999997</v>
+        <v>0.49945460400000002</v>
       </c>
       <c r="E384">
-        <v>4.1191199999999997E-2</v>
+        <v>4.7282786E-2</v>
       </c>
       <c r="F384">
-        <v>9.9793102999999994E-2</v>
+        <v>0.100636015</v>
       </c>
       <c r="G384">
-        <v>9.2783633000000004E-2</v>
+        <v>9.3627264000000002E-2</v>
       </c>
       <c r="H384">
-        <v>3.2737539999999998E-3</v>
+        <v>5.5687200000000001E-3</v>
       </c>
       <c r="I384">
-        <v>0.99499758199999999</v>
+        <v>0.99508973199999995</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
@@ -13555,28 +13553,28 @@
         <v>21</v>
       </c>
       <c r="B385">
-        <v>5.2526299999999999E-4</v>
+        <v>4.62764E-4</v>
       </c>
       <c r="C385">
-        <v>748.34487139999999</v>
+        <v>745.87625549999996</v>
       </c>
       <c r="D385">
-        <v>0.49945460400000002</v>
+        <v>0.50061619400000001</v>
       </c>
       <c r="E385">
-        <v>4.7282786E-2</v>
+        <v>5.2233031999999999E-2</v>
       </c>
       <c r="F385">
-        <v>0.100636015</v>
+        <v>9.9946359999999998E-2</v>
       </c>
       <c r="G385">
-        <v>9.3627264000000002E-2</v>
+        <v>9.3554020000000002E-2</v>
       </c>
       <c r="H385">
-        <v>5.5687200000000001E-3</v>
+        <v>4.774291E-3</v>
       </c>
       <c r="I385">
-        <v>0.99508973199999995</v>
+        <v>0.99511269199999997</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
@@ -13584,28 +13582,28 @@
         <v>21</v>
       </c>
       <c r="B386">
-        <v>4.62764E-4</v>
+        <v>3.65235E-4</v>
       </c>
       <c r="C386">
-        <v>745.87625549999996</v>
+        <v>748.85713450000003</v>
       </c>
       <c r="D386">
-        <v>0.50061619400000001</v>
+        <v>0.50027888099999995</v>
       </c>
       <c r="E386">
-        <v>5.2233031999999999E-2</v>
+        <v>4.1933915000000002E-2</v>
       </c>
       <c r="F386">
-        <v>9.9946359999999998E-2</v>
+        <v>0.100091954</v>
       </c>
       <c r="G386">
-        <v>9.3554020000000002E-2</v>
+        <v>0.101548746</v>
       </c>
       <c r="H386">
-        <v>4.774291E-3</v>
+        <v>2.2790919999999999E-3</v>
       </c>
       <c r="I386">
-        <v>0.99511269199999997</v>
+        <v>0.99586489600000005</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
@@ -13613,28 +13611,28 @@
         <v>21</v>
       </c>
       <c r="B387">
-        <v>3.65235E-4</v>
+        <v>3.27277E-4</v>
       </c>
       <c r="C387">
-        <v>748.85713450000003</v>
+        <v>750.06051179999997</v>
       </c>
       <c r="D387">
-        <v>0.50027888099999995</v>
+        <v>0.49991671900000001</v>
       </c>
       <c r="E387">
-        <v>4.1933915000000002E-2</v>
+        <v>6.4726811999999995E-2</v>
       </c>
       <c r="F387">
-        <v>0.100091954</v>
+        <v>0.101077044</v>
       </c>
       <c r="G387">
-        <v>0.101548746</v>
+        <v>0.110354388</v>
       </c>
       <c r="H387">
-        <v>2.2790919999999999E-3</v>
+        <v>4.6329550000000002E-3</v>
       </c>
       <c r="I387">
-        <v>0.99586489600000005</v>
+        <v>0.99653643400000003</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
@@ -13642,28 +13640,28 @@
         <v>21</v>
       </c>
       <c r="B388">
-        <v>3.27277E-4</v>
+        <v>3.14875E-4</v>
       </c>
       <c r="C388">
-        <v>750.06051179999997</v>
+        <v>750.44533160000003</v>
       </c>
       <c r="D388">
-        <v>0.49991671900000001</v>
+        <v>0.50003056499999998</v>
       </c>
       <c r="E388">
-        <v>6.4726811999999995E-2</v>
+        <v>6.8702416000000002E-2</v>
       </c>
       <c r="F388">
-        <v>0.101077044</v>
+        <v>0.100322327</v>
       </c>
       <c r="G388">
-        <v>0.110354388</v>
+        <v>0.109727409</v>
       </c>
       <c r="H388">
-        <v>4.6329550000000002E-3</v>
+        <v>4.7772140000000001E-3</v>
       </c>
       <c r="I388">
-        <v>0.99653643400000003</v>
+        <v>0.99681794199999996</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
@@ -13671,28 +13669,28 @@
         <v>21</v>
       </c>
       <c r="B389">
-        <v>3.14875E-4</v>
+        <v>5.3314300000000003E-4</v>
       </c>
       <c r="C389">
-        <v>750.44533160000003</v>
+        <v>994.12307120000003</v>
       </c>
       <c r="D389">
-        <v>0.50003056499999998</v>
+        <v>0.298486943</v>
       </c>
       <c r="E389">
-        <v>6.8702416000000002E-2</v>
+        <v>3.7798134999999997E-2</v>
       </c>
       <c r="F389">
-        <v>0.100322327</v>
+        <v>0.10116352200000001</v>
       </c>
       <c r="G389">
-        <v>0.109727409</v>
+        <v>0.102955349</v>
       </c>
       <c r="H389">
-        <v>4.7772140000000001E-3</v>
+        <v>4.8347720000000002E-3</v>
       </c>
       <c r="I389">
-        <v>0.99681794199999996</v>
+        <v>0.994742711</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
@@ -13700,28 +13698,28 @@
         <v>21</v>
       </c>
       <c r="B390">
-        <v>5.3314300000000003E-4</v>
+        <v>5.1531000000000005E-4</v>
       </c>
       <c r="C390">
-        <v>994.12307120000003</v>
+        <v>1000.640437</v>
       </c>
       <c r="D390">
-        <v>0.298486943</v>
+        <v>0.29985018800000002</v>
       </c>
       <c r="E390">
-        <v>3.7798134999999997E-2</v>
+        <v>4.0141284999999999E-2</v>
       </c>
       <c r="F390">
-        <v>0.10116352200000001</v>
+        <v>0.100463836</v>
       </c>
       <c r="G390">
-        <v>0.102955349</v>
+        <v>0.10231591499999999</v>
       </c>
       <c r="H390">
-        <v>4.8347720000000002E-3</v>
+        <v>4.8363970000000001E-3</v>
       </c>
       <c r="I390">
-        <v>0.994742711</v>
+        <v>0.99331944100000003</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
@@ -13729,28 +13727,28 @@
         <v>21</v>
       </c>
       <c r="B391">
-        <v>5.1531000000000005E-4</v>
+        <v>4.7795299999999998E-4</v>
       </c>
       <c r="C391">
-        <v>1000.640437</v>
+        <v>1001.292163</v>
       </c>
       <c r="D391">
-        <v>0.29985018800000002</v>
+        <v>0.30006054700000001</v>
       </c>
       <c r="E391">
-        <v>4.0141284999999999E-2</v>
+        <v>3.3727591000000001E-2</v>
       </c>
       <c r="F391">
-        <v>0.100463836</v>
+        <v>0.100652516</v>
       </c>
       <c r="G391">
-        <v>0.10231591499999999</v>
+        <v>0.105785476</v>
       </c>
       <c r="H391">
-        <v>4.8363970000000001E-3</v>
+        <v>4.0215520000000003E-3</v>
       </c>
       <c r="I391">
-        <v>0.99331944100000003</v>
+        <v>0.99232384299999998</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -13758,28 +13756,28 @@
         <v>21</v>
       </c>
       <c r="B392">
-        <v>4.7795299999999998E-4</v>
+        <v>3.6146000000000003E-4</v>
       </c>
       <c r="C392">
-        <v>1001.292163</v>
+        <v>1000.37236</v>
       </c>
       <c r="D392">
-        <v>0.30006054700000001</v>
+        <v>0.29996759200000001</v>
       </c>
       <c r="E392">
-        <v>3.3727591000000001E-2</v>
+        <v>3.9639283999999997E-2</v>
       </c>
       <c r="F392">
-        <v>0.100652516</v>
+        <v>0.100157233</v>
       </c>
       <c r="G392">
-        <v>0.105785476</v>
+        <v>0.10970555</v>
       </c>
       <c r="H392">
-        <v>4.0215520000000003E-3</v>
+        <v>4.0673250000000001E-3</v>
       </c>
       <c r="I392">
-        <v>0.99232384299999998</v>
+        <v>0.99158943200000005</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
@@ -13787,28 +13785,28 @@
         <v>21</v>
       </c>
       <c r="B393">
-        <v>3.6146000000000003E-4</v>
+        <v>2.9615000000000002E-4</v>
       </c>
       <c r="C393">
-        <v>1000.37236</v>
+        <v>995.39708280000002</v>
       </c>
       <c r="D393">
-        <v>0.29996759200000001</v>
+        <v>0.29927169599999998</v>
       </c>
       <c r="E393">
-        <v>3.9639283999999997E-2</v>
+        <v>6.0865677E-2</v>
       </c>
       <c r="F393">
-        <v>0.100157233</v>
+        <v>9.9882075000000001E-2</v>
       </c>
       <c r="G393">
-        <v>0.10970555</v>
+        <v>0.109082656</v>
       </c>
       <c r="H393">
-        <v>4.0673250000000001E-3</v>
+        <v>4.7093439999999999E-3</v>
       </c>
       <c r="I393">
-        <v>0.99158943200000005</v>
+        <v>0.99186585699999996</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -13816,28 +13814,28 @@
         <v>21</v>
       </c>
       <c r="B394">
-        <v>2.9615000000000002E-4</v>
+        <v>2.6539199999999998E-4</v>
       </c>
       <c r="C394">
-        <v>995.39708280000002</v>
+        <v>1002.961609</v>
       </c>
       <c r="D394">
-        <v>0.29927169599999998</v>
+        <v>0.30087852900000001</v>
       </c>
       <c r="E394">
-        <v>6.0865677E-2</v>
+        <v>7.5760642000000003E-2</v>
       </c>
       <c r="F394">
-        <v>9.9882075000000001E-2</v>
+        <v>0.100110063</v>
       </c>
       <c r="G394">
-        <v>0.109082656</v>
+        <v>0.10911349100000001</v>
       </c>
       <c r="H394">
-        <v>4.7093439999999999E-3</v>
+        <v>5.1225200000000002E-3</v>
       </c>
       <c r="I394">
-        <v>0.99186585699999996</v>
+        <v>0.99228384400000003</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
@@ -13845,28 +13843,28 @@
         <v>21</v>
       </c>
       <c r="B395">
-        <v>2.6539199999999998E-4</v>
+        <v>2.54348E-4</v>
       </c>
       <c r="C395">
-        <v>1002.961609</v>
+        <v>908.35374130000002</v>
       </c>
       <c r="D395">
-        <v>0.30087852900000001</v>
+        <v>0.27718706700000001</v>
       </c>
       <c r="E395">
-        <v>7.5760642000000003E-2</v>
+        <v>3.6368708E-2</v>
       </c>
       <c r="F395">
-        <v>0.100110063</v>
+        <v>8.4229559999999995E-2</v>
       </c>
       <c r="G395">
-        <v>0.10911349100000001</v>
+        <v>0.103970942</v>
       </c>
       <c r="H395">
-        <v>5.1225200000000002E-3</v>
+        <v>3.6805710000000001E-3</v>
       </c>
       <c r="I395">
-        <v>0.99228384400000003</v>
+        <v>0.99263151500000002</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -13874,28 +13872,28 @@
         <v>21</v>
       </c>
       <c r="B396">
-        <v>2.54348E-4</v>
+        <v>5.5100500000000003E-4</v>
       </c>
       <c r="C396">
-        <v>908.35374130000002</v>
+        <v>1006.766158</v>
       </c>
       <c r="D396">
-        <v>0.27718706700000001</v>
+        <v>0.401205753</v>
       </c>
       <c r="E396">
-        <v>3.6368708E-2</v>
+        <v>4.0367198999999999E-2</v>
       </c>
       <c r="F396">
-        <v>8.4229559999999995E-2</v>
+        <v>0.102448899</v>
       </c>
       <c r="G396">
-        <v>0.103970942</v>
+        <v>0.10470025099999999</v>
       </c>
       <c r="H396">
-        <v>3.6805710000000001E-3</v>
+        <v>5.1399710000000001E-3</v>
       </c>
       <c r="I396">
-        <v>0.99263151500000002</v>
+        <v>0.99236459799999999</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
@@ -13903,28 +13901,28 @@
         <v>21</v>
       </c>
       <c r="B397">
-        <v>5.5100500000000003E-4</v>
+        <v>5.6732099999999997E-4</v>
       </c>
       <c r="C397">
-        <v>1006.766158</v>
+        <v>1006.784357</v>
       </c>
       <c r="D397">
-        <v>0.401205753</v>
+        <v>0.40160295099999999</v>
       </c>
       <c r="E397">
-        <v>4.0367198999999999E-2</v>
+        <v>4.0969556999999997E-2</v>
       </c>
       <c r="F397">
-        <v>0.102448899</v>
+        <v>0.10155660399999999</v>
       </c>
       <c r="G397">
-        <v>0.10470025099999999</v>
+        <v>0.105206543</v>
       </c>
       <c r="H397">
-        <v>5.1399710000000001E-3</v>
+        <v>5.2120939999999996E-3</v>
       </c>
       <c r="I397">
-        <v>0.99236459799999999</v>
+        <v>0.99234115599999995</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -13932,28 +13930,28 @@
         <v>21</v>
       </c>
       <c r="B398">
-        <v>5.6732099999999997E-4</v>
+        <v>5.3201699999999997E-4</v>
       </c>
       <c r="C398">
-        <v>1006.784357</v>
+        <v>999.29804360000003</v>
       </c>
       <c r="D398">
-        <v>0.40160295099999999</v>
+        <v>0.40022643899999999</v>
       </c>
       <c r="E398">
-        <v>4.0969556999999997E-2</v>
+        <v>3.5358458000000002E-2</v>
       </c>
       <c r="F398">
-        <v>0.10155660399999999</v>
+        <v>9.9803458999999997E-2</v>
       </c>
       <c r="G398">
-        <v>0.105206543</v>
+        <v>0.110609967</v>
       </c>
       <c r="H398">
-        <v>5.2120939999999996E-3</v>
+        <v>6.4256080000000002E-3</v>
       </c>
       <c r="I398">
-        <v>0.99234115599999995</v>
+        <v>0.99233894899999997</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -13961,28 +13959,28 @@
         <v>21</v>
       </c>
       <c r="B399">
-        <v>5.3201699999999997E-4</v>
+        <v>4.2268500000000001E-4</v>
       </c>
       <c r="C399">
-        <v>999.29804360000003</v>
+        <v>997.23747200000003</v>
       </c>
       <c r="D399">
-        <v>0.40022643899999999</v>
+        <v>0.39981734200000002</v>
       </c>
       <c r="E399">
-        <v>3.5358458000000002E-2</v>
+        <v>7.1620111E-2</v>
       </c>
       <c r="F399">
-        <v>9.9803458999999997E-2</v>
+        <v>0.100212264</v>
       </c>
       <c r="G399">
-        <v>0.110609967</v>
+        <v>0.113427005</v>
       </c>
       <c r="H399">
-        <v>6.4256080000000002E-3</v>
+        <v>6.2963369999999999E-3</v>
       </c>
       <c r="I399">
-        <v>0.99233894899999997</v>
+        <v>0.99256290000000003</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
@@ -13990,28 +13988,28 @@
         <v>21</v>
       </c>
       <c r="B400">
-        <v>4.2268500000000001E-4</v>
+        <v>3.2515300000000001E-4</v>
       </c>
       <c r="C400">
-        <v>997.23747200000003</v>
+        <v>995.68946860000005</v>
       </c>
       <c r="D400">
-        <v>0.39981734200000002</v>
+        <v>0.39902740599999997</v>
       </c>
       <c r="E400">
-        <v>7.1620111E-2</v>
+        <v>7.3646951000000002E-2</v>
       </c>
       <c r="F400">
-        <v>0.100212264</v>
+        <v>9.8632075E-2</v>
       </c>
       <c r="G400">
-        <v>0.113427005</v>
+        <v>0.11154404900000001</v>
       </c>
       <c r="H400">
-        <v>6.2963369999999999E-3</v>
+        <v>6.3693159999999999E-3</v>
       </c>
       <c r="I400">
-        <v>0.99256290000000003</v>
+        <v>0.99391332600000004</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
@@ -14019,28 +14017,28 @@
         <v>21</v>
       </c>
       <c r="B401">
-        <v>3.2515300000000001E-4</v>
+        <v>3.0033399999999997E-4</v>
       </c>
       <c r="C401">
-        <v>995.68946860000005</v>
+        <v>997.16356380000002</v>
       </c>
       <c r="D401">
-        <v>0.39902740599999997</v>
+        <v>0.399791332</v>
       </c>
       <c r="E401">
-        <v>7.3646951000000002E-2</v>
+        <v>7.0960326000000004E-2</v>
       </c>
       <c r="F401">
-        <v>9.8632075E-2</v>
+        <v>0.100825472</v>
       </c>
       <c r="G401">
-        <v>0.11154404900000001</v>
+        <v>0.11136420700000001</v>
       </c>
       <c r="H401">
-        <v>6.3693159999999999E-3</v>
+        <v>5.262877E-3</v>
       </c>
       <c r="I401">
-        <v>0.99391332600000004</v>
+        <v>0.99445461599999996</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -14048,28 +14046,28 @@
         <v>21</v>
       </c>
       <c r="B402">
-        <v>3.0033399999999997E-4</v>
+        <v>2.8682499999999999E-4</v>
       </c>
       <c r="C402">
-        <v>997.16356380000002</v>
+        <v>999.32264399999997</v>
       </c>
       <c r="D402">
-        <v>0.399791332</v>
+        <v>0.39983521399999999</v>
       </c>
       <c r="E402">
-        <v>7.0960326000000004E-2</v>
+        <v>6.7126547999999994E-2</v>
       </c>
       <c r="F402">
-        <v>0.100825472</v>
+        <v>0.10075471699999999</v>
       </c>
       <c r="G402">
-        <v>0.11136420700000001</v>
+        <v>0.110826652</v>
       </c>
       <c r="H402">
-        <v>5.262877E-3</v>
+        <v>5.168303E-3</v>
       </c>
       <c r="I402">
-        <v>0.99445461599999996</v>
+        <v>0.99493057399999996</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -14077,28 +14075,28 @@
         <v>21</v>
       </c>
       <c r="B403">
-        <v>2.8682499999999999E-4</v>
+        <v>6.5962200000000001E-4</v>
       </c>
       <c r="C403">
-        <v>999.32264399999997</v>
+        <v>1000.129858</v>
       </c>
       <c r="D403">
-        <v>0.39983521399999999</v>
+        <v>0.49965211700000001</v>
       </c>
       <c r="E403">
-        <v>6.7126547999999994E-2</v>
+        <v>4.2670694000000002E-2</v>
       </c>
       <c r="F403">
-        <v>0.10075471699999999</v>
+        <v>0.100966981</v>
       </c>
       <c r="G403">
-        <v>0.110826652</v>
+        <v>0.10375522299999999</v>
       </c>
       <c r="H403">
-        <v>5.168303E-3</v>
+        <v>5.4323920000000003E-3</v>
       </c>
       <c r="I403">
-        <v>0.99493057399999996</v>
+        <v>0.99410157700000001</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -14106,28 +14104,28 @@
         <v>21</v>
       </c>
       <c r="B404">
-        <v>6.5962200000000001E-4</v>
+        <v>6.4296000000000004E-4</v>
       </c>
       <c r="C404">
-        <v>1000.129858</v>
+        <v>1008.989706</v>
       </c>
       <c r="D404">
-        <v>0.49965211700000001</v>
+        <v>0.49918752599999999</v>
       </c>
       <c r="E404">
-        <v>4.2670694000000002E-2</v>
+        <v>4.1950378000000003E-2</v>
       </c>
       <c r="F404">
-        <v>0.100966981</v>
+        <v>0.10158805</v>
       </c>
       <c r="G404">
-        <v>0.10375522299999999</v>
+        <v>0.106407322</v>
       </c>
       <c r="H404">
-        <v>5.4323920000000003E-3</v>
+        <v>5.0709809999999996E-3</v>
       </c>
       <c r="I404">
-        <v>0.99410157700000001</v>
+        <v>0.99444200400000005</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -14135,28 +14133,28 @@
         <v>21</v>
       </c>
       <c r="B405">
-        <v>6.4296000000000004E-4</v>
+        <v>6.3665800000000002E-4</v>
       </c>
       <c r="C405">
-        <v>1008.989706</v>
+        <v>670.81586760000005</v>
       </c>
       <c r="D405">
-        <v>0.49918752599999999</v>
+        <v>0.53332581999999995</v>
       </c>
       <c r="E405">
-        <v>4.1950378000000003E-2</v>
+        <v>4.0856731E-2</v>
       </c>
       <c r="F405">
-        <v>0.10158805</v>
+        <v>9.7672956000000005E-2</v>
       </c>
       <c r="G405">
-        <v>0.106407322</v>
+        <v>0.104040328</v>
       </c>
       <c r="H405">
-        <v>5.0709809999999996E-3</v>
+        <v>5.1870780000000003E-3</v>
       </c>
       <c r="I405">
-        <v>0.99444200400000005</v>
+        <v>0.99443372299999999</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -14164,28 +14162,28 @@
         <v>21</v>
       </c>
       <c r="B406">
-        <v>6.3665800000000002E-4</v>
+        <v>6.3738399999999995E-4</v>
       </c>
       <c r="C406">
-        <v>670.81586760000005</v>
+        <v>991.47724219999998</v>
       </c>
       <c r="D406">
-        <v>0.53332581999999995</v>
+        <v>0.49974123100000001</v>
       </c>
       <c r="E406">
-        <v>4.0856731E-2</v>
+        <v>4.2100723E-2</v>
       </c>
       <c r="F406">
-        <v>9.7672956000000005E-2</v>
+        <v>0.1004</v>
       </c>
       <c r="G406">
-        <v>0.104040328</v>
+        <v>0.10597546100000001</v>
       </c>
       <c r="H406">
-        <v>5.1870780000000003E-3</v>
+        <v>4.8849749999999997E-3</v>
       </c>
       <c r="I406">
-        <v>0.99443372299999999</v>
+        <v>0.99429084300000004</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -14193,28 +14191,28 @@
         <v>21</v>
       </c>
       <c r="B407">
-        <v>6.3738399999999995E-4</v>
+        <v>6.19449E-4</v>
       </c>
       <c r="C407">
-        <v>991.47724219999998</v>
+        <v>1005.284654</v>
       </c>
       <c r="D407">
-        <v>0.49974123100000001</v>
+        <v>0.50026277399999997</v>
       </c>
       <c r="E407">
-        <v>4.2100723E-2</v>
+        <v>4.1591356000000003E-2</v>
       </c>
       <c r="F407">
-        <v>0.1004</v>
+        <v>9.9694117999999998E-2</v>
       </c>
       <c r="G407">
-        <v>0.10597546100000001</v>
+        <v>0.109977661</v>
       </c>
       <c r="H407">
-        <v>4.8849749999999997E-3</v>
+        <v>6.1397789999999997E-3</v>
       </c>
       <c r="I407">
-        <v>0.99429084300000004</v>
+        <v>0.99397318800000001</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -14222,28 +14220,28 @@
         <v>21</v>
       </c>
       <c r="B408">
-        <v>6.19449E-4</v>
+        <v>4.9860200000000001E-4</v>
       </c>
       <c r="C408">
-        <v>1005.284654</v>
+        <v>998.54342440000005</v>
       </c>
       <c r="D408">
-        <v>0.50026277399999997</v>
+        <v>0.50027971900000001</v>
       </c>
       <c r="E408">
-        <v>4.1591356000000003E-2</v>
+        <v>7.0967073000000006E-2</v>
       </c>
       <c r="F408">
-        <v>9.9694117999999998E-2</v>
+        <v>9.8839215999999994E-2</v>
       </c>
       <c r="G408">
-        <v>0.109977661</v>
+        <v>0.11422294400000001</v>
       </c>
       <c r="H408">
-        <v>6.1397789999999997E-3</v>
+        <v>6.5235550000000003E-3</v>
       </c>
       <c r="I408">
-        <v>0.99397318800000001</v>
+        <v>0.994195787</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
@@ -14251,28 +14249,28 @@
         <v>21</v>
       </c>
       <c r="B409">
-        <v>4.9860200000000001E-4</v>
+        <v>3.6904199999999998E-4</v>
       </c>
       <c r="C409">
-        <v>998.54342440000005</v>
+        <v>1003.336008</v>
       </c>
       <c r="D409">
-        <v>0.50027971900000001</v>
+        <v>0.50030577499999995</v>
       </c>
       <c r="E409">
-        <v>7.0967073000000006E-2</v>
+        <v>6.6469704000000004E-2</v>
       </c>
       <c r="F409">
-        <v>9.8839215999999994E-2</v>
+        <v>9.9137254999999994E-2</v>
       </c>
       <c r="G409">
-        <v>0.11422294400000001</v>
+        <v>0.116510979</v>
       </c>
       <c r="H409">
-        <v>6.5235550000000003E-3</v>
+        <v>5.614544E-3</v>
       </c>
       <c r="I409">
-        <v>0.994195787</v>
+        <v>0.99498788999999999</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
@@ -14280,28 +14278,28 @@
         <v>21</v>
       </c>
       <c r="B410">
-        <v>3.6904199999999998E-4</v>
+        <v>3.21902E-4</v>
       </c>
       <c r="C410">
-        <v>1003.336008</v>
+        <v>1000.303949</v>
       </c>
       <c r="D410">
-        <v>0.50030577499999995</v>
+        <v>0.50013415000000006</v>
       </c>
       <c r="E410">
-        <v>6.6469704000000004E-2</v>
+        <v>5.7089112999999997E-2</v>
       </c>
       <c r="F410">
-        <v>9.9137254999999994E-2</v>
+        <v>9.9231372999999998E-2</v>
       </c>
       <c r="G410">
-        <v>0.116510979</v>
+        <v>0.11521322000000001</v>
       </c>
       <c r="H410">
-        <v>5.614544E-3</v>
+        <v>4.8777610000000004E-3</v>
       </c>
       <c r="I410">
-        <v>0.99498788999999999</v>
+        <v>0.99550441999999995</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
@@ -14309,28 +14307,28 @@
         <v>21</v>
       </c>
       <c r="B411">
-        <v>3.21902E-4</v>
+        <v>3.0918599999999998E-4</v>
       </c>
       <c r="C411">
-        <v>1000.303949</v>
+        <v>1000.499368</v>
       </c>
       <c r="D411">
-        <v>0.50013415000000006</v>
+        <v>0.49975158200000003</v>
       </c>
       <c r="E411">
-        <v>5.7089112999999997E-2</v>
+        <v>5.5146272000000003E-2</v>
       </c>
       <c r="F411">
-        <v>9.9231372999999998E-2</v>
+        <v>9.9772549000000002E-2</v>
       </c>
       <c r="G411">
-        <v>0.11521322000000001</v>
+        <v>0.114309811</v>
       </c>
       <c r="H411">
-        <v>4.8777610000000004E-3</v>
+        <v>4.5973940000000003E-3</v>
       </c>
       <c r="I411">
-        <v>0.99550441999999995</v>
+        <v>0.996219729</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -14338,28 +14336,28 @@
         <v>21</v>
       </c>
       <c r="B412">
-        <v>3.0918599999999998E-4</v>
+        <v>4.85129E-4</v>
       </c>
       <c r="C412">
-        <v>1000.499368</v>
+        <v>1250.056002</v>
       </c>
       <c r="D412">
-        <v>0.49975158200000003</v>
+        <v>0.30007985999999998</v>
       </c>
       <c r="E412">
-        <v>5.5146272000000003E-2</v>
+        <v>3.1432143000000003E-2</v>
       </c>
       <c r="F412">
-        <v>9.9772549000000002E-2</v>
+        <v>0.122062745</v>
       </c>
       <c r="G412">
-        <v>0.114309811</v>
+        <v>0.11381099</v>
       </c>
       <c r="H412">
-        <v>4.5973940000000003E-3</v>
+        <v>4.0394979999999999E-3</v>
       </c>
       <c r="I412">
-        <v>0.996219729</v>
+        <v>0.99273382399999999</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -14367,28 +14365,28 @@
         <v>21</v>
       </c>
       <c r="B413">
-        <v>4.85129E-4</v>
+        <v>4.7428800000000001E-4</v>
       </c>
       <c r="C413">
-        <v>1250.056002</v>
+        <v>1250.0886849999999</v>
       </c>
       <c r="D413">
-        <v>0.30007985999999998</v>
+        <v>0.30001281800000001</v>
       </c>
       <c r="E413">
-        <v>3.1432143000000003E-2</v>
+        <v>3.3010744000000002E-2</v>
       </c>
       <c r="F413">
-        <v>0.122062745</v>
+        <v>0.121913725</v>
       </c>
       <c r="G413">
-        <v>0.11381099</v>
+        <v>0.11308117199999999</v>
       </c>
       <c r="H413">
-        <v>4.0394979999999999E-3</v>
+        <v>5.2047889999999996E-3</v>
       </c>
       <c r="I413">
-        <v>0.99273382399999999</v>
+        <v>0.99108814999999995</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -14396,28 +14394,28 @@
         <v>21</v>
       </c>
       <c r="B414">
-        <v>4.7428800000000001E-4</v>
+        <v>4.58329E-4</v>
       </c>
       <c r="C414">
-        <v>1250.0886849999999</v>
+        <v>1249.482696</v>
       </c>
       <c r="D414">
-        <v>0.30001281800000001</v>
+        <v>0.29983200300000001</v>
       </c>
       <c r="E414">
-        <v>3.3010744000000002E-2</v>
+        <v>3.3648738999999997E-2</v>
       </c>
       <c r="F414">
-        <v>0.121913725</v>
+        <v>0.11975686300000001</v>
       </c>
       <c r="G414">
-        <v>0.11308117199999999</v>
+        <v>0.113457661</v>
       </c>
       <c r="H414">
-        <v>5.2047889999999996E-3</v>
+        <v>4.0660840000000002E-3</v>
       </c>
       <c r="I414">
-        <v>0.99108814999999995</v>
+        <v>0.98981660100000002</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
@@ -14425,28 +14423,28 @@
         <v>21</v>
       </c>
       <c r="B415">
-        <v>4.58329E-4</v>
+        <v>3.9580799999999999E-4</v>
       </c>
       <c r="C415">
-        <v>1249.482696</v>
+        <v>1250.0364039999999</v>
       </c>
       <c r="D415">
-        <v>0.29983200300000001</v>
+        <v>0.29999587</v>
       </c>
       <c r="E415">
-        <v>3.3648738999999997E-2</v>
+        <v>4.6113999000000003E-2</v>
       </c>
       <c r="F415">
-        <v>0.11975686300000001</v>
+        <v>0.11867451</v>
       </c>
       <c r="G415">
-        <v>0.113457661</v>
+        <v>0.11548971800000001</v>
       </c>
       <c r="H415">
-        <v>4.0660840000000002E-3</v>
+        <v>4.2850120000000004E-3</v>
       </c>
       <c r="I415">
-        <v>0.98981660100000002</v>
+        <v>0.99005631800000005</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -14454,28 +14452,28 @@
         <v>21</v>
       </c>
       <c r="B416">
-        <v>3.9580799999999999E-4</v>
+        <v>3.3780799999999999E-4</v>
       </c>
       <c r="C416">
-        <v>1250.0364039999999</v>
+        <v>1250.049679</v>
       </c>
       <c r="D416">
-        <v>0.29999587</v>
+        <v>0.29984454500000002</v>
       </c>
       <c r="E416">
-        <v>4.6113999000000003E-2</v>
+        <v>7.0016203999999999E-2</v>
       </c>
       <c r="F416">
-        <v>0.11867451</v>
+        <v>0.115019608</v>
       </c>
       <c r="G416">
-        <v>0.11548971800000001</v>
+        <v>0.114565863</v>
       </c>
       <c r="H416">
-        <v>4.2850120000000004E-3</v>
+        <v>5.3526789999999999E-3</v>
       </c>
       <c r="I416">
-        <v>0.99005631800000005</v>
+        <v>0.99081266700000004</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -14483,28 +14481,28 @@
         <v>21</v>
       </c>
       <c r="B417">
-        <v>3.3780799999999999E-4</v>
+        <v>2.9499700000000002E-4</v>
       </c>
       <c r="C417">
-        <v>1250.049679</v>
+        <v>1250.1007279999999</v>
       </c>
       <c r="D417">
-        <v>0.29984454500000002</v>
+        <v>0.29999497400000003</v>
       </c>
       <c r="E417">
-        <v>7.0016203999999999E-2</v>
+        <v>5.1478729000000001E-2</v>
       </c>
       <c r="F417">
-        <v>0.115019608</v>
+        <v>0.106862745</v>
       </c>
       <c r="G417">
-        <v>0.114565863</v>
+        <v>0.113484838</v>
       </c>
       <c r="H417">
-        <v>5.3526789999999999E-3</v>
+        <v>4.5645210000000002E-3</v>
       </c>
       <c r="I417">
-        <v>0.99081266700000004</v>
+        <v>0.99148363799999994</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
@@ -14512,28 +14510,28 @@
         <v>21</v>
       </c>
       <c r="B418">
-        <v>2.9499700000000002E-4</v>
+        <v>2.7738399999999999E-4</v>
       </c>
       <c r="C418">
-        <v>1250.1007279999999</v>
+        <v>1250.2227909999999</v>
       </c>
       <c r="D418">
-        <v>0.29999497400000003</v>
+        <v>0.299965806</v>
       </c>
       <c r="E418">
-        <v>5.1478729000000001E-2</v>
+        <v>6.8609329999999996E-2</v>
       </c>
       <c r="F418">
-        <v>0.106862745</v>
+        <v>0.101176471</v>
       </c>
       <c r="G418">
-        <v>0.113484838</v>
+        <v>0.110792153</v>
       </c>
       <c r="H418">
-        <v>4.5645210000000002E-3</v>
+        <v>5.452546E-3</v>
       </c>
       <c r="I418">
-        <v>0.99148363799999994</v>
+        <v>0.99187573900000003</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
@@ -14541,28 +14539,28 @@
         <v>21</v>
       </c>
       <c r="B419">
-        <v>2.7738399999999999E-4</v>
+        <v>5.13668E-4</v>
       </c>
       <c r="C419">
-        <v>1250.2227909999999</v>
+        <v>1259.879786</v>
       </c>
       <c r="D419">
-        <v>0.299965806</v>
+        <v>0.40181292899999999</v>
       </c>
       <c r="E419">
-        <v>6.8609329999999996E-2</v>
+        <v>3.3861730999999999E-2</v>
       </c>
       <c r="F419">
-        <v>0.101176471</v>
+        <v>9.9427451E-2</v>
       </c>
       <c r="G419">
-        <v>0.110792153</v>
+        <v>0.108200269</v>
       </c>
       <c r="H419">
-        <v>5.452546E-3</v>
+        <v>3.8708610000000002E-3</v>
       </c>
       <c r="I419">
-        <v>0.99187573900000003</v>
+        <v>0.99125426999999999</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
@@ -14570,28 +14568,28 @@
         <v>21</v>
       </c>
       <c r="B420">
-        <v>5.13668E-4</v>
+        <v>5.3114999999999998E-4</v>
       </c>
       <c r="C420">
-        <v>1259.879786</v>
+        <v>1258.6502720000001</v>
       </c>
       <c r="D420">
-        <v>0.40181292899999999</v>
+        <v>0.40075802599999999</v>
       </c>
       <c r="E420">
-        <v>3.3861730999999999E-2</v>
+        <v>3.5328396999999997E-2</v>
       </c>
       <c r="F420">
-        <v>9.9427451E-2</v>
+        <v>0.10027451</v>
       </c>
       <c r="G420">
-        <v>0.108200269</v>
+        <v>0.10805416900000001</v>
       </c>
       <c r="H420">
-        <v>3.8708610000000002E-3</v>
+        <v>3.9593650000000003E-3</v>
       </c>
       <c r="I420">
-        <v>0.99125426999999999</v>
+        <v>0.99058527299999999</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
@@ -14599,28 +14597,28 @@
         <v>21</v>
       </c>
       <c r="B421">
-        <v>5.3114999999999998E-4</v>
+        <v>5.0897099999999999E-4</v>
       </c>
       <c r="C421">
-        <v>1258.6502720000001</v>
+        <v>1251.0658060000001</v>
       </c>
       <c r="D421">
-        <v>0.40075802599999999</v>
+        <v>0.39980108800000003</v>
       </c>
       <c r="E421">
-        <v>3.5328396999999997E-2</v>
+        <v>4.0676258999999999E-2</v>
       </c>
       <c r="F421">
-        <v>0.10027451</v>
+        <v>0.10095686299999999</v>
       </c>
       <c r="G421">
-        <v>0.10805416900000001</v>
+        <v>0.109044108</v>
       </c>
       <c r="H421">
-        <v>3.9593650000000003E-3</v>
+        <v>4.8234059999999997E-3</v>
       </c>
       <c r="I421">
-        <v>0.99058527299999999</v>
+        <v>0.99081887499999999</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
@@ -14628,28 +14626,28 @@
         <v>21</v>
       </c>
       <c r="B422">
-        <v>5.0897099999999999E-4</v>
+        <v>4.3509100000000003E-4</v>
       </c>
       <c r="C422">
-        <v>1251.0658060000001</v>
+        <v>1249.4375829999999</v>
       </c>
       <c r="D422">
-        <v>0.39980108800000003</v>
+        <v>0.3997909</v>
       </c>
       <c r="E422">
-        <v>4.0676258999999999E-2</v>
+        <v>6.4119865999999998E-2</v>
       </c>
       <c r="F422">
-        <v>0.10095686299999999</v>
+        <v>0.100964706</v>
       </c>
       <c r="G422">
-        <v>0.109044108</v>
+        <v>0.111962584</v>
       </c>
       <c r="H422">
-        <v>4.8234059999999997E-3</v>
+        <v>5.8763239999999996E-3</v>
       </c>
       <c r="I422">
-        <v>0.99081887499999999</v>
+        <v>0.99158783100000003</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
@@ -14657,28 +14655,28 @@
         <v>21</v>
       </c>
       <c r="B423">
-        <v>4.3509100000000003E-4</v>
+        <v>3.6169799999999998E-4</v>
       </c>
       <c r="C423">
-        <v>1249.4375829999999</v>
+        <v>1246.247363</v>
       </c>
       <c r="D423">
-        <v>0.3997909</v>
+        <v>0.39989279700000002</v>
       </c>
       <c r="E423">
-        <v>6.4119865999999998E-2</v>
+        <v>4.0492685E-2</v>
       </c>
       <c r="F423">
-        <v>0.100964706</v>
+        <v>9.9866667000000006E-2</v>
       </c>
       <c r="G423">
-        <v>0.111962584</v>
+        <v>0.115546248</v>
       </c>
       <c r="H423">
-        <v>5.8763239999999996E-3</v>
+        <v>3.957889E-3</v>
       </c>
       <c r="I423">
-        <v>0.99158783100000003</v>
+        <v>0.99266502300000004</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
@@ -14686,28 +14684,28 @@
         <v>21</v>
       </c>
       <c r="B424">
-        <v>3.6169799999999998E-4</v>
+        <v>3.3175099999999998E-4</v>
       </c>
       <c r="C424">
-        <v>1246.247363</v>
+        <v>1254.343349</v>
       </c>
       <c r="D424">
-        <v>0.39989279700000002</v>
+        <v>0.399759647</v>
       </c>
       <c r="E424">
-        <v>4.0492685E-2</v>
+        <v>3.7007920999999999E-2</v>
       </c>
       <c r="F424">
-        <v>9.9866667000000006E-2</v>
+        <v>0.100078431</v>
       </c>
       <c r="G424">
-        <v>0.115546248</v>
+        <v>0.116101996</v>
       </c>
       <c r="H424">
-        <v>3.957889E-3</v>
+        <v>3.572927E-3</v>
       </c>
       <c r="I424">
-        <v>0.99266502300000004</v>
+        <v>0.99376472100000002</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
@@ -14715,28 +14713,28 @@
         <v>21</v>
       </c>
       <c r="B425">
-        <v>3.3175099999999998E-4</v>
+        <v>3.0890699999999998E-4</v>
       </c>
       <c r="C425">
-        <v>1254.343349</v>
+        <v>1245.5923170000001</v>
       </c>
       <c r="D425">
-        <v>0.399759647</v>
+        <v>0.39975485500000002</v>
       </c>
       <c r="E425">
-        <v>3.7007920999999999E-2</v>
+        <v>3.5096822999999999E-2</v>
       </c>
       <c r="F425">
-        <v>0.100078431</v>
+        <v>9.8752940999999997E-2</v>
       </c>
       <c r="G425">
-        <v>0.116101996</v>
+        <v>0.11645707700000001</v>
       </c>
       <c r="H425">
-        <v>3.572927E-3</v>
+        <v>3.2281940000000002E-3</v>
       </c>
       <c r="I425">
-        <v>0.99376472100000002</v>
+        <v>0.99449141600000002</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
@@ -14744,28 +14742,28 @@
         <v>21</v>
       </c>
       <c r="B426">
-        <v>3.0890699999999998E-4</v>
+        <v>5.4922200000000003E-4</v>
       </c>
       <c r="C426">
-        <v>1245.5923170000001</v>
+        <v>1261.5673790000001</v>
       </c>
       <c r="D426">
-        <v>0.39975485500000002</v>
+        <v>0.49980048199999999</v>
       </c>
       <c r="E426">
-        <v>3.5096822999999999E-2</v>
+        <v>3.8351444999999998E-2</v>
       </c>
       <c r="F426">
-        <v>9.8752940999999997E-2</v>
+        <v>9.9968627000000004E-2</v>
       </c>
       <c r="G426">
-        <v>0.11645707700000001</v>
+        <v>0.105765605</v>
       </c>
       <c r="H426">
-        <v>3.2281940000000002E-3</v>
+        <v>4.2092989999999997E-3</v>
       </c>
       <c r="I426">
-        <v>0.99449141600000002</v>
+        <v>0.99262869300000001</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
@@ -14773,28 +14771,28 @@
         <v>21</v>
       </c>
       <c r="B427">
-        <v>5.4922200000000003E-4</v>
+        <v>5.5316299999999996E-4</v>
       </c>
       <c r="C427">
-        <v>1261.5673790000001</v>
+        <v>1246.3831640000001</v>
       </c>
       <c r="D427">
-        <v>0.49980048199999999</v>
+        <v>0.50032897399999998</v>
       </c>
       <c r="E427">
-        <v>3.8351444999999998E-2</v>
+        <v>3.8767682999999997E-2</v>
       </c>
       <c r="F427">
-        <v>9.9968627000000004E-2</v>
+        <v>9.9411764999999999E-2</v>
       </c>
       <c r="G427">
-        <v>0.105765605</v>
+        <v>0.105608667</v>
       </c>
       <c r="H427">
-        <v>4.2092989999999997E-3</v>
+        <v>4.2462159999999997E-3</v>
       </c>
       <c r="I427">
-        <v>0.99262869300000001</v>
+        <v>0.99061774400000002</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -14802,28 +14800,28 @@
         <v>21</v>
       </c>
       <c r="B428">
-        <v>5.5316299999999996E-4</v>
+        <v>5.5357200000000001E-4</v>
       </c>
       <c r="C428">
-        <v>1246.3831640000001</v>
+        <v>1251.06223</v>
       </c>
       <c r="D428">
-        <v>0.50032897399999998</v>
+        <v>0.49995863899999998</v>
       </c>
       <c r="E428">
-        <v>3.8767682999999997E-2</v>
+        <v>4.1497602000000001E-2</v>
       </c>
       <c r="F428">
-        <v>9.9411764999999999E-2</v>
+        <v>0.100290196</v>
       </c>
       <c r="G428">
-        <v>0.105608667</v>
+        <v>0.107865848</v>
       </c>
       <c r="H428">
-        <v>4.2462159999999997E-3</v>
+        <v>4.6644260000000002E-3</v>
       </c>
       <c r="I428">
-        <v>0.99061774400000002</v>
+        <v>0.99152034700000002</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -14831,28 +14829,28 @@
         <v>21</v>
       </c>
       <c r="B429">
-        <v>5.5357200000000001E-4</v>
+        <v>5.1459900000000002E-4</v>
       </c>
       <c r="C429">
-        <v>1251.06223</v>
+        <v>1273.9675669999999</v>
       </c>
       <c r="D429">
-        <v>0.49995863899999998</v>
+        <v>0.49924889700000002</v>
       </c>
       <c r="E429">
-        <v>4.1497602000000001E-2</v>
+        <v>7.3695811E-2</v>
       </c>
       <c r="F429">
-        <v>0.100290196</v>
+        <v>9.9788235000000003E-2</v>
       </c>
       <c r="G429">
-        <v>0.107865848</v>
+        <v>0.11089763900000001</v>
       </c>
       <c r="H429">
-        <v>4.6644260000000002E-3</v>
+        <v>7.2034719999999998E-3</v>
       </c>
       <c r="I429">
-        <v>0.99152034700000002</v>
+        <v>0.99253994000000001</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -14860,28 +14858,28 @@
         <v>21</v>
       </c>
       <c r="B430">
-        <v>5.1459900000000002E-4</v>
+        <v>4.2470700000000003E-4</v>
       </c>
       <c r="C430">
-        <v>1273.9675669999999</v>
+        <v>1251.4295139999999</v>
       </c>
       <c r="D430">
-        <v>0.49924889700000002</v>
+        <v>0.49989370999999999</v>
       </c>
       <c r="E430">
-        <v>7.3695811E-2</v>
+        <v>4.5768153999999998E-2</v>
       </c>
       <c r="F430">
-        <v>9.9788235000000003E-2</v>
+        <v>9.9741176000000001E-2</v>
       </c>
       <c r="G430">
-        <v>0.11089763900000001</v>
+        <v>0.116405312</v>
       </c>
       <c r="H430">
-        <v>7.2034719999999998E-3</v>
+        <v>4.1690850000000003E-3</v>
       </c>
       <c r="I430">
-        <v>0.99253994000000001</v>
+        <v>0.99401611099999998</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
@@ -14889,28 +14887,28 @@
         <v>21</v>
       </c>
       <c r="B431">
-        <v>4.2470700000000003E-4</v>
+        <v>3.68847E-4</v>
       </c>
       <c r="C431">
-        <v>1251.4295139999999</v>
+        <v>1212.9344450000001</v>
       </c>
       <c r="D431">
-        <v>0.49989370999999999</v>
+        <v>0.49769276600000001</v>
       </c>
       <c r="E431">
-        <v>4.5768153999999998E-2</v>
+        <v>3.9563547999999997E-2</v>
       </c>
       <c r="F431">
-        <v>9.9741176000000001E-2</v>
+        <v>9.9030074999999995E-2</v>
       </c>
       <c r="G431">
-        <v>0.116405312</v>
+        <v>0.115419568</v>
       </c>
       <c r="H431">
-        <v>4.1690850000000003E-3</v>
+        <v>3.377747E-3</v>
       </c>
       <c r="I431">
-        <v>0.99401611099999998</v>
+        <v>0.99505292499999998</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -14918,56 +14916,27 @@
         <v>21</v>
       </c>
       <c r="B432">
-        <v>3.68847E-4</v>
+        <v>3.3055999999999998E-4</v>
       </c>
       <c r="C432">
-        <v>1212.9344450000001</v>
+        <v>904.35236699999996</v>
       </c>
       <c r="D432">
-        <v>0.49769276600000001</v>
+        <v>0.59374902299999999</v>
       </c>
       <c r="E432">
-        <v>3.9563547999999997E-2</v>
+        <v>3.6715955000000002E-2</v>
       </c>
       <c r="F432">
-        <v>9.9030074999999995E-2</v>
+        <v>9.6949837999999997E-2</v>
       </c>
       <c r="G432">
-        <v>0.115419568</v>
+        <v>0.12346001199999999</v>
       </c>
       <c r="H432">
-        <v>3.377747E-3</v>
+        <v>2.5479740000000002E-3</v>
       </c>
       <c r="I432">
-        <v>0.99505292499999998</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>21</v>
-      </c>
-      <c r="B433">
-        <v>3.3055999999999998E-4</v>
-      </c>
-      <c r="C433">
-        <v>904.35236699999996</v>
-      </c>
-      <c r="D433">
-        <v>0.59374902299999999</v>
-      </c>
-      <c r="E433">
-        <v>3.6715955000000002E-2</v>
-      </c>
-      <c r="F433">
-        <v>9.6949837999999997E-2</v>
-      </c>
-      <c r="G433">
-        <v>0.12346001199999999</v>
-      </c>
-      <c r="H433">
-        <v>2.5479740000000002E-3</v>
-      </c>
-      <c r="I433">
         <v>0.996064803</v>
       </c>
     </row>

--- a/Input/data_main.xlsx
+++ b/Input/data_main.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagr9\Projekte\MA\MA-Model_1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795C143D-F066-4347-895F-021729FD00AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC797752-E661-4467-8C06-7D9671DE162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4620" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4620" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="sozh" sheetId="2" r:id="rId2"/>
+    <sheet name="detail_V_dis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="21">
   <si>
     <t>exp</t>
   </si>
@@ -104,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +127,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,15 +158,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2403,7 +2428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A9A0D0-FB24-4EE6-8EDD-B3A2672E503C}">
   <dimension ref="A1:H363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+    <sheetView topLeftCell="A328" workbookViewId="0">
       <selection activeCell="A364" sqref="A364"/>
     </sheetView>
   </sheetViews>
@@ -11850,4 +11875,2749 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB1C651-CEA7-476C-9320-11A618C37DF4}">
+  <dimension ref="A1:H105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2.0462099999999999E-4</v>
+      </c>
+      <c r="C2">
+        <v>743.10170100000005</v>
+      </c>
+      <c r="D2">
+        <v>0.29701893400000001</v>
+      </c>
+      <c r="E2">
+        <v>3.6502927999999997E-2</v>
+      </c>
+      <c r="F2">
+        <v>9.6633421999999997E-2</v>
+      </c>
+      <c r="G2">
+        <v>4.4652340000000002E-3</v>
+      </c>
+      <c r="H2">
+        <v>0.98750888400000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>6.5725699999999996E-4</v>
+      </c>
+      <c r="C3">
+        <v>748.36788460000002</v>
+      </c>
+      <c r="D3">
+        <v>0.50333939500000002</v>
+      </c>
+      <c r="E3">
+        <v>2.8484735000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>9.2660582000000005E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.528742E-3</v>
+      </c>
+      <c r="H3">
+        <v>0.99108918400000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>3.1127999999999999E-4</v>
+      </c>
+      <c r="C4">
+        <v>749.92972780000002</v>
+      </c>
+      <c r="D4">
+        <v>0.49988101000000001</v>
+      </c>
+      <c r="E4">
+        <v>3.8919571E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.10772396300000001</v>
+      </c>
+      <c r="G4">
+        <v>4.7552549999999999E-3</v>
+      </c>
+      <c r="H4">
+        <v>0.99268671900000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4.4927699999999999E-4</v>
+      </c>
+      <c r="C5">
+        <v>749.97402599999998</v>
+      </c>
+      <c r="D5">
+        <v>0.399764919</v>
+      </c>
+      <c r="E5">
+        <v>3.8463404E-2</v>
+      </c>
+      <c r="F5">
+        <v>9.5001253999999993E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.785549E-3</v>
+      </c>
+      <c r="H5">
+        <v>0.98653263199999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>5.4967899999999997E-4</v>
+      </c>
+      <c r="C6">
+        <v>750.02556879999997</v>
+      </c>
+      <c r="D6">
+        <v>0.50015754999999995</v>
+      </c>
+      <c r="E6">
+        <v>4.0361706999999997E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.101830843</v>
+      </c>
+      <c r="G6">
+        <v>5.2321299999999998E-3</v>
+      </c>
+      <c r="H6">
+        <v>0.99445781600000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>3.38769E-4</v>
+      </c>
+      <c r="C7">
+        <v>750.05733190000001</v>
+      </c>
+      <c r="D7">
+        <v>0.49989457599999998</v>
+      </c>
+      <c r="E7">
+        <v>3.8023349999999997E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.108397884</v>
+      </c>
+      <c r="G7">
+        <v>4.1389720000000003E-3</v>
+      </c>
+      <c r="H7">
+        <v>0.99176721899999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2.4194099999999999E-4</v>
+      </c>
+      <c r="C8">
+        <v>750.20782199999996</v>
+      </c>
+      <c r="D8">
+        <v>0.40002338700000001</v>
+      </c>
+      <c r="E8">
+        <v>6.6916982E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.106790285</v>
+      </c>
+      <c r="G8">
+        <v>5.2340670000000002E-3</v>
+      </c>
+      <c r="H8">
+        <v>0.99171526700000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>4.9274500000000005E-4</v>
+      </c>
+      <c r="C9">
+        <v>750.25178530000005</v>
+      </c>
+      <c r="D9">
+        <v>0.29988877800000002</v>
+      </c>
+      <c r="E9">
+        <v>3.6448479999999998E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.10019613600000001</v>
+      </c>
+      <c r="G9">
+        <v>2.8000159999999998E-3</v>
+      </c>
+      <c r="H9">
+        <v>0.98938694400000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>6.1183099999999996E-4</v>
+      </c>
+      <c r="C10">
+        <v>750.71744000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.50033280999999996</v>
+      </c>
+      <c r="E10">
+        <v>3.7521118999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>9.8495864000000002E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.1483090000000002E-3</v>
+      </c>
+      <c r="H10">
+        <v>0.99218971899999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>3.9097999999999997E-4</v>
+      </c>
+      <c r="C11">
+        <v>750.86723619999998</v>
+      </c>
+      <c r="D11">
+        <v>0.30092750000000001</v>
+      </c>
+      <c r="E11">
+        <v>3.3229887E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.100884113</v>
+      </c>
+      <c r="G11">
+        <v>3.2887580000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>0.99199386300000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2.2167000000000001E-4</v>
+      </c>
+      <c r="C12">
+        <v>751.48936860000003</v>
+      </c>
+      <c r="D12">
+        <v>0.40003253100000002</v>
+      </c>
+      <c r="E12">
+        <v>7.0955006000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.11041532699999999</v>
+      </c>
+      <c r="G12">
+        <v>4.5576050000000002E-3</v>
+      </c>
+      <c r="H12">
+        <v>0.99505433700000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>6.7796600000000001E-4</v>
+      </c>
+      <c r="C13">
+        <v>752.85933369999998</v>
+      </c>
+      <c r="D13">
+        <v>0.49949943499999999</v>
+      </c>
+      <c r="E13">
+        <v>4.2382797999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>9.7580385000000006E-2</v>
+      </c>
+      <c r="G13">
+        <v>3.6210349999999999E-3</v>
+      </c>
+      <c r="H13">
+        <v>0.99436792399999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2.54348E-4</v>
+      </c>
+      <c r="C14">
+        <v>908.35374130000002</v>
+      </c>
+      <c r="D14">
+        <v>0.27718706700000001</v>
+      </c>
+      <c r="E14">
+        <v>3.6368708E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.103970942</v>
+      </c>
+      <c r="G14">
+        <v>3.6805710000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.99263151500000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>8.0239500000000002E-4</v>
+      </c>
+      <c r="C15">
+        <v>998.44373169999994</v>
+      </c>
+      <c r="D15">
+        <v>0.499859416</v>
+      </c>
+      <c r="E15">
+        <v>1.8851822000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.10280117799999999</v>
+      </c>
+      <c r="G15">
+        <v>3.8602500000000002E-4</v>
+      </c>
+      <c r="H15">
+        <v>0.99546705300000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>5.0275999999999999E-4</v>
+      </c>
+      <c r="C16">
+        <v>999.40820970000004</v>
+      </c>
+      <c r="D16">
+        <v>0.29920427599999999</v>
+      </c>
+      <c r="E16">
+        <v>4.1816536000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.101860464</v>
+      </c>
+      <c r="G16">
+        <v>4.1493759999999998E-3</v>
+      </c>
+      <c r="H16">
+        <v>0.98989876499999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>5.9944000000000002E-4</v>
+      </c>
+      <c r="C17">
+        <v>999.59662909999997</v>
+      </c>
+      <c r="D17">
+        <v>0.40006547100000001</v>
+      </c>
+      <c r="E17">
+        <v>2.4784075999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>9.7689174000000004E-2</v>
+      </c>
+      <c r="G17">
+        <v>4.8635799999999999E-4</v>
+      </c>
+      <c r="H17">
+        <v>0.99499302099999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>7.1244500000000003E-4</v>
+      </c>
+      <c r="C18">
+        <v>999.64467930000001</v>
+      </c>
+      <c r="D18">
+        <v>0.49991358299999999</v>
+      </c>
+      <c r="E18">
+        <v>1.8550810000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>9.4884389999999999E-2</v>
+      </c>
+      <c r="G18">
+        <v>2.2179650000000001E-3</v>
+      </c>
+      <c r="H18">
+        <v>0.99704778699999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>3.7785800000000001E-4</v>
+      </c>
+      <c r="C19">
+        <v>999.67359969999995</v>
+      </c>
+      <c r="D19">
+        <v>0.30006925000000001</v>
+      </c>
+      <c r="E19">
+        <v>3.6809690999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.108183192</v>
+      </c>
+      <c r="G19">
+        <v>4.052745E-3</v>
+      </c>
+      <c r="H19">
+        <v>0.98579144299999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>5.6844399999999998E-4</v>
+      </c>
+      <c r="C20">
+        <v>1000.032227</v>
+      </c>
+      <c r="D20">
+        <v>0.29996158899999997</v>
+      </c>
+      <c r="E20">
+        <v>1.9367124999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>9.7314092000000005E-2</v>
+      </c>
+      <c r="G20">
+        <v>2.175696E-3</v>
+      </c>
+      <c r="H20">
+        <v>0.995888047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>6.5962200000000001E-4</v>
+      </c>
+      <c r="C21">
+        <v>1000.129858</v>
+      </c>
+      <c r="D21">
+        <v>0.49965211700000001</v>
+      </c>
+      <c r="E21">
+        <v>4.2670694000000002E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.10375522299999999</v>
+      </c>
+      <c r="G21">
+        <v>5.4323920000000003E-3</v>
+      </c>
+      <c r="H21">
+        <v>0.99410157700000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>7.5361500000000001E-4</v>
+      </c>
+      <c r="C22">
+        <v>1000.183129</v>
+      </c>
+      <c r="D22">
+        <v>0.50001522700000001</v>
+      </c>
+      <c r="E22">
+        <v>1.9893559000000002E-2</v>
+      </c>
+      <c r="F22">
+        <v>9.5239508E-2</v>
+      </c>
+      <c r="G22">
+        <v>2.0156449999999999E-3</v>
+      </c>
+      <c r="H22">
+        <v>0.99718886500000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>3.65507E-4</v>
+      </c>
+      <c r="C23">
+        <v>1000.201091</v>
+      </c>
+      <c r="D23">
+        <v>0.30000356700000003</v>
+      </c>
+      <c r="E23">
+        <v>5.1118615999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.114449734</v>
+      </c>
+      <c r="G23">
+        <v>4.440495E-3</v>
+      </c>
+      <c r="H23">
+        <v>0.99139601200000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>3.21902E-4</v>
+      </c>
+      <c r="C24">
+        <v>1000.303949</v>
+      </c>
+      <c r="D24">
+        <v>0.50013415000000006</v>
+      </c>
+      <c r="E24">
+        <v>5.7089112999999997E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.11521322000000001</v>
+      </c>
+      <c r="G24">
+        <v>4.8777610000000004E-3</v>
+      </c>
+      <c r="H24">
+        <v>0.99550441999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>4.4690600000000001E-4</v>
+      </c>
+      <c r="C25">
+        <v>1000.564352</v>
+      </c>
+      <c r="D25">
+        <v>0.40118413600000002</v>
+      </c>
+      <c r="E25">
+        <v>4.5435773999999998E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.10055367599999999</v>
+      </c>
+      <c r="G25">
+        <v>4.5400780000000003E-3</v>
+      </c>
+      <c r="H25">
+        <v>0.98875126400000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>2.6539199999999998E-4</v>
+      </c>
+      <c r="C26">
+        <v>1002.961609</v>
+      </c>
+      <c r="D26">
+        <v>0.30087852900000001</v>
+      </c>
+      <c r="E26">
+        <v>7.5760642000000003E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.10911349100000001</v>
+      </c>
+      <c r="G26">
+        <v>5.1225200000000002E-3</v>
+      </c>
+      <c r="H26">
+        <v>0.99228384400000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>2.7240599999999999E-4</v>
+      </c>
+      <c r="C27">
+        <v>1242.8563799999999</v>
+      </c>
+      <c r="D27">
+        <v>0.29883443599999998</v>
+      </c>
+      <c r="E27">
+        <v>6.6170259999999995E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.11349644</v>
+      </c>
+      <c r="G27">
+        <v>5.5628220000000003E-3</v>
+      </c>
+      <c r="H27">
+        <v>0.99175836900000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>5.6636299999999996E-4</v>
+      </c>
+      <c r="C28">
+        <v>1249.038305</v>
+      </c>
+      <c r="D28">
+        <v>0.50009379399999998</v>
+      </c>
+      <c r="E28">
+        <v>5.5513298000000003E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.114298685</v>
+      </c>
+      <c r="G28">
+        <v>5.8367810000000001E-3</v>
+      </c>
+      <c r="H28">
+        <v>0.99043759600000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>4.4455299999999998E-4</v>
+      </c>
+      <c r="C29">
+        <v>1249.8621929999999</v>
+      </c>
+      <c r="D29">
+        <v>0.29980042600000001</v>
+      </c>
+      <c r="E29">
+        <v>3.1885854999999998E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.10856081200000001</v>
+      </c>
+      <c r="G29">
+        <v>3.8722560000000001E-3</v>
+      </c>
+      <c r="H29">
+        <v>0.98956896599999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>3.4781999999999999E-4</v>
+      </c>
+      <c r="C30">
+        <v>1249.9720520000001</v>
+      </c>
+      <c r="D30">
+        <v>0.29999618500000003</v>
+      </c>
+      <c r="E30">
+        <v>4.7035642000000003E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.10975439100000001</v>
+      </c>
+      <c r="G30">
+        <v>4.7517119999999999E-3</v>
+      </c>
+      <c r="H30">
+        <v>0.98241363800000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>3.0862499999999998E-4</v>
+      </c>
+      <c r="C31">
+        <v>1250.009063</v>
+      </c>
+      <c r="D31">
+        <v>0.300016848</v>
+      </c>
+      <c r="E31">
+        <v>4.267257E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.107568497</v>
+      </c>
+      <c r="G31">
+        <v>4.6496790000000003E-3</v>
+      </c>
+      <c r="H31">
+        <v>0.98361751799999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>3.9580799999999999E-4</v>
+      </c>
+      <c r="C32">
+        <v>1250.0364039999999</v>
+      </c>
+      <c r="D32">
+        <v>0.29999587</v>
+      </c>
+      <c r="E32">
+        <v>4.6113999000000003E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.11548971800000001</v>
+      </c>
+      <c r="G32">
+        <v>4.2850120000000004E-3</v>
+      </c>
+      <c r="H32">
+        <v>0.99005631800000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>4.85129E-4</v>
+      </c>
+      <c r="C33">
+        <v>1250.056002</v>
+      </c>
+      <c r="D33">
+        <v>0.30007985999999998</v>
+      </c>
+      <c r="E33">
+        <v>3.1432143000000003E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.11381099</v>
+      </c>
+      <c r="G33">
+        <v>4.0394979999999999E-3</v>
+      </c>
+      <c r="H33">
+        <v>0.99273382399999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>4.7428800000000001E-4</v>
+      </c>
+      <c r="C34">
+        <v>1250.0886849999999</v>
+      </c>
+      <c r="D34">
+        <v>0.30001281800000001</v>
+      </c>
+      <c r="E34">
+        <v>3.3010744000000002E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.11308117199999999</v>
+      </c>
+      <c r="G34">
+        <v>5.2047889999999996E-3</v>
+      </c>
+      <c r="H34">
+        <v>0.99108814999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>3.4672300000000001E-4</v>
+      </c>
+      <c r="C35">
+        <v>1250.9434040000001</v>
+      </c>
+      <c r="D35">
+        <v>0.39999618199999998</v>
+      </c>
+      <c r="E35">
+        <v>6.9506928999999995E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.110695898</v>
+      </c>
+      <c r="G35">
+        <v>6.4767380000000001E-3</v>
+      </c>
+      <c r="H35">
+        <v>0.99251876100000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>5.7827599999999996E-4</v>
+      </c>
+      <c r="C36">
+        <v>1252.670832</v>
+      </c>
+      <c r="D36">
+        <v>0.49995556099999999</v>
+      </c>
+      <c r="E36">
+        <v>4.8558603999999998E-2</v>
+      </c>
+      <c r="F36">
+        <v>9.5985962999999994E-2</v>
+      </c>
+      <c r="G36">
+        <v>5.6972220000000001E-3</v>
+      </c>
+      <c r="H36">
+        <v>0.98525604600000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>4.6433100000000001E-4</v>
+      </c>
+      <c r="C37">
+        <v>1255.424561</v>
+      </c>
+      <c r="D37">
+        <v>0.39989443400000002</v>
+      </c>
+      <c r="E37">
+        <v>4.1705930000000002E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.10475915299999999</v>
+      </c>
+      <c r="G37">
+        <v>4.4100290000000002E-3</v>
+      </c>
+      <c r="H37">
+        <v>0.98489914300000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>4.11395E-4</v>
+      </c>
+      <c r="C38">
+        <v>1267.5140690000001</v>
+      </c>
+      <c r="D38">
+        <v>0.49920661399999999</v>
+      </c>
+      <c r="E38">
+        <v>4.8344787E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.12562072899999999</v>
+      </c>
+      <c r="G38">
+        <v>3.9256580000000003E-3</v>
+      </c>
+      <c r="H38">
+        <v>0.99312282299999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>3.13467E-4</v>
+      </c>
+      <c r="C39">
+        <v>1271.3936630000001</v>
+      </c>
+      <c r="D39">
+        <v>0.40056073800000003</v>
+      </c>
+      <c r="E39">
+        <v>7.1139833E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.11312243299999999</v>
+      </c>
+      <c r="G39">
+        <v>5.9295399999999996E-3</v>
+      </c>
+      <c r="H39">
+        <v>0.99374623100000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>7.2654800000000004E-4</v>
+      </c>
+      <c r="C40">
+        <v>1455.6305829999999</v>
+      </c>
+      <c r="D40">
+        <v>0.49692148400000002</v>
+      </c>
+      <c r="E40">
+        <v>2.3973168999999999E-2</v>
+      </c>
+      <c r="F40">
+        <v>9.1711663999999998E-2</v>
+      </c>
+      <c r="G40">
+        <v>2.966729E-3</v>
+      </c>
+      <c r="H40">
+        <v>0.99718670099999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>8.1662800000000002E-4</v>
+      </c>
+      <c r="C41">
+        <v>1492.737848</v>
+      </c>
+      <c r="D41">
+        <v>0.50025813699999999</v>
+      </c>
+      <c r="E41">
+        <v>2.6577284999999999E-2</v>
+      </c>
+      <c r="F41">
+        <v>9.2475197999999995E-2</v>
+      </c>
+      <c r="G41">
+        <v>2.9827109999999999E-3</v>
+      </c>
+      <c r="H41">
+        <v>0.99533773199999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>8.5975099999999996E-4</v>
+      </c>
+      <c r="C42">
+        <v>1494.673636</v>
+      </c>
+      <c r="D42">
+        <v>0.50000099099999995</v>
+      </c>
+      <c r="E42">
+        <v>2.6915963000000001E-2</v>
+      </c>
+      <c r="F42">
+        <v>9.1934420000000003E-2</v>
+      </c>
+      <c r="G42">
+        <v>2.846627E-3</v>
+      </c>
+      <c r="H42">
+        <v>0.99697522500000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>7.0617800000000001E-4</v>
+      </c>
+      <c r="C43">
+        <v>1497.1705119999999</v>
+      </c>
+      <c r="D43">
+        <v>0.49990232400000001</v>
+      </c>
+      <c r="E43">
+        <v>2.4668497000000001E-2</v>
+      </c>
+      <c r="F43">
+        <v>9.1588153000000005E-2</v>
+      </c>
+      <c r="G43">
+        <v>3.0430520000000001E-3</v>
+      </c>
+      <c r="H43">
+        <v>0.99707969600000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>6.3737199999999998E-4</v>
+      </c>
+      <c r="C44">
+        <v>1500.051467</v>
+      </c>
+      <c r="D44">
+        <v>0.29994249899999997</v>
+      </c>
+      <c r="E44">
+        <v>2.6047677000000002E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.10857765</v>
+      </c>
+      <c r="G44">
+        <v>7.1048200000000002E-4</v>
+      </c>
+      <c r="H44">
+        <v>0.99349073799999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>5.2616900000000005E-4</v>
+      </c>
+      <c r="C45">
+        <v>1500.0874120000001</v>
+      </c>
+      <c r="D45">
+        <v>0.30007125099999998</v>
+      </c>
+      <c r="E45">
+        <v>1.9110674000000001E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.12915310899999999</v>
+      </c>
+      <c r="G45">
+        <v>7.8471699999999999E-4</v>
+      </c>
+      <c r="H45">
+        <v>0.99525415699999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>7.4180700000000003E-4</v>
+      </c>
+      <c r="C46">
+        <v>1500.215265</v>
+      </c>
+      <c r="D46">
+        <v>0.39993976599999997</v>
+      </c>
+      <c r="E46">
+        <v>2.7369943000000001E-2</v>
+      </c>
+      <c r="F46">
+        <v>9.7766817000000006E-2</v>
+      </c>
+      <c r="G46">
+        <v>4.3964299999999998E-4</v>
+      </c>
+      <c r="H46">
+        <v>0.99480906899999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>9.1292700000000001E-4</v>
+      </c>
+      <c r="C47">
+        <v>1500.5413000000001</v>
+      </c>
+      <c r="D47">
+        <v>0.50044513199999996</v>
+      </c>
+      <c r="E47">
+        <v>2.0620128000000001E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.103834646</v>
+      </c>
+      <c r="G47">
+        <v>4.4096199999999998E-4</v>
+      </c>
+      <c r="H47">
+        <v>0.99445706499999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>9.4360899999999998E-4</v>
+      </c>
+      <c r="C48">
+        <v>1500.993866</v>
+      </c>
+      <c r="D48">
+        <v>0.499986655</v>
+      </c>
+      <c r="E48">
+        <v>2.1720821000000001E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.103615651</v>
+      </c>
+      <c r="G48">
+        <v>8.3131500000000001E-4</v>
+      </c>
+      <c r="H48">
+        <v>0.99464200000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>6.1466400000000001E-4</v>
+      </c>
+      <c r="C49">
+        <v>1502.4972680000001</v>
+      </c>
+      <c r="D49">
+        <v>0.40017336999999997</v>
+      </c>
+      <c r="E49">
+        <v>2.0735538000000001E-2</v>
+      </c>
+      <c r="F49">
+        <v>9.4777095000000006E-2</v>
+      </c>
+      <c r="G49">
+        <v>2.47956E-3</v>
+      </c>
+      <c r="H49">
+        <v>0.99691817900000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>6.6162899999999995E-4</v>
+      </c>
+      <c r="C50">
+        <v>1504.5464079999999</v>
+      </c>
+      <c r="D50">
+        <v>0.40074769799999999</v>
+      </c>
+      <c r="E50">
+        <v>2.2464746000000001E-2</v>
+      </c>
+      <c r="F50">
+        <v>9.4852504000000004E-2</v>
+      </c>
+      <c r="G50">
+        <v>2.9607710000000001E-3</v>
+      </c>
+      <c r="H50">
+        <v>0.99641502000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>7.2370699999999997E-4</v>
+      </c>
+      <c r="C51">
+        <v>1752.5926159999999</v>
+      </c>
+      <c r="D51">
+        <v>0.50002069100000002</v>
+      </c>
+      <c r="E51">
+        <v>2.4334100000000001E-2</v>
+      </c>
+      <c r="F51">
+        <v>9.0262732999999998E-2</v>
+      </c>
+      <c r="G51">
+        <v>2.7651020000000002E-3</v>
+      </c>
+      <c r="H51">
+        <v>0.99688110399999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>8.0128199999999995E-4</v>
+      </c>
+      <c r="C52">
+        <v>1995.9935250000001</v>
+      </c>
+      <c r="D52">
+        <v>0.49970003499999999</v>
+      </c>
+      <c r="E52">
+        <v>2.3888031000000001E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.101849986</v>
+      </c>
+      <c r="G52">
+        <v>6.1271999999999997E-4</v>
+      </c>
+      <c r="H52">
+        <v>0.99330616800000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>6.8117199999999996E-4</v>
+      </c>
+      <c r="C53">
+        <v>1999.6194820000001</v>
+      </c>
+      <c r="D53">
+        <v>0.49998881699999997</v>
+      </c>
+      <c r="E53">
+        <v>2.6883537999999998E-2</v>
+      </c>
+      <c r="F53">
+        <v>8.8787929000000002E-2</v>
+      </c>
+      <c r="G53">
+        <v>2.7722139999999998E-3</v>
+      </c>
+      <c r="H53">
+        <v>0.99639685600000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>6.1575900000000001E-4</v>
+      </c>
+      <c r="C54">
+        <v>1999.9767119999999</v>
+      </c>
+      <c r="D54">
+        <v>0.40001579300000001</v>
+      </c>
+      <c r="E54">
+        <v>2.3810701E-2</v>
+      </c>
+      <c r="F54">
+        <v>9.3052383000000002E-2</v>
+      </c>
+      <c r="G54">
+        <v>1.4778720000000001E-3</v>
+      </c>
+      <c r="H54">
+        <v>0.99505876199999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>5.7284199999999995E-4</v>
+      </c>
+      <c r="C55">
+        <v>2000.4061589999999</v>
+      </c>
+      <c r="D55">
+        <v>0.40002267499999999</v>
+      </c>
+      <c r="E55">
+        <v>2.5438157999999999E-2</v>
+      </c>
+      <c r="F55">
+        <v>8.9342075000000007E-2</v>
+      </c>
+      <c r="G55">
+        <v>1.5362749999999999E-3</v>
+      </c>
+      <c r="H55">
+        <v>0.99545406299999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>7.3430900000000005E-4</v>
+      </c>
+      <c r="C56">
+        <v>2000.6603399999999</v>
+      </c>
+      <c r="D56">
+        <v>0.50012684799999996</v>
+      </c>
+      <c r="E56">
+        <v>2.6662858000000001E-2</v>
+      </c>
+      <c r="F56">
+        <v>8.9674559000000001E-2</v>
+      </c>
+      <c r="G56">
+        <v>3.0504239999999999E-3</v>
+      </c>
+      <c r="H56">
+        <v>0.99543250999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="C57">
+        <v>160</v>
+      </c>
+      <c r="D57">
+        <v>0.2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>9.6295699999999996E-4</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>2.81E-4</v>
+      </c>
+      <c r="C58">
+        <v>160</v>
+      </c>
+      <c r="D58">
+        <v>0.2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>5.4068499999999995E-4</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>3.0699999999999998E-4</v>
+      </c>
+      <c r="C59">
+        <v>160</v>
+      </c>
+      <c r="D59">
+        <v>0.2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>5.7356200000000001E-4</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="C60">
+        <v>160</v>
+      </c>
+      <c r="D60">
+        <v>0.2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1.609114E-3</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>4.3100000000000001E-4</v>
+      </c>
+      <c r="C61">
+        <v>160</v>
+      </c>
+      <c r="D61">
+        <v>0.2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>2.0221039999999998E-3</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="C62">
+        <v>160</v>
+      </c>
+      <c r="D62">
+        <v>0.2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1.858317E-3</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C63">
+        <v>160</v>
+      </c>
+      <c r="D63">
+        <v>0.2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1.541461E-3</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>1.281E-3</v>
+      </c>
+      <c r="C64">
+        <v>160</v>
+      </c>
+      <c r="D64">
+        <v>0.2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1.2030529999999999E-3</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>2.52E-4</v>
+      </c>
+      <c r="C65">
+        <v>200</v>
+      </c>
+      <c r="D65">
+        <v>0.2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>2.27729E-4</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C66">
+        <v>200</v>
+      </c>
+      <c r="D66">
+        <v>0.2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1.347741E-3</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>3.2499999999999999E-4</v>
+      </c>
+      <c r="C67">
+        <v>200</v>
+      </c>
+      <c r="D67">
+        <v>0.2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1.48168E-3</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>3.8299999999999999E-4</v>
+      </c>
+      <c r="C68">
+        <v>200</v>
+      </c>
+      <c r="D68">
+        <v>0.2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1.5823530000000001E-3</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>4.64E-4</v>
+      </c>
+      <c r="C69">
+        <v>200</v>
+      </c>
+      <c r="D69">
+        <v>0.2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1.264077E-3</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>5.8399999999999999E-4</v>
+      </c>
+      <c r="C70">
+        <v>200</v>
+      </c>
+      <c r="D70">
+        <v>0.2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1.7501089999999999E-3</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>7.8799999999999996E-4</v>
+      </c>
+      <c r="C71">
+        <v>200</v>
+      </c>
+      <c r="D71">
+        <v>0.2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1.2385709999999999E-3</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>1.0950000000000001E-3</v>
+      </c>
+      <c r="C72">
+        <v>200</v>
+      </c>
+      <c r="D72">
+        <v>0.2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>9.1166800000000003E-4</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C73">
+        <v>200</v>
+      </c>
+      <c r="D73">
+        <v>0.2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>4.5693399999999999E-4</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>2.7099999999999997E-4</v>
+      </c>
+      <c r="C74">
+        <v>240</v>
+      </c>
+      <c r="D74">
+        <v>0.2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>5.6943599999999999E-4</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>2.9799999999999998E-4</v>
+      </c>
+      <c r="C75">
+        <v>240</v>
+      </c>
+      <c r="D75">
+        <v>0.2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1.764112E-3</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>3.4299999999999999E-4</v>
+      </c>
+      <c r="C76">
+        <v>240</v>
+      </c>
+      <c r="D76">
+        <v>0.2</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>2.7815829999999998E-3</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>4.0400000000000001E-4</v>
+      </c>
+      <c r="C77">
+        <v>240</v>
+      </c>
+      <c r="D77">
+        <v>0.2</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>3.124384E-3</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>5.0299999999999997E-4</v>
+      </c>
+      <c r="C78">
+        <v>240</v>
+      </c>
+      <c r="D78">
+        <v>0.2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>3.5047860000000002E-3</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="C79">
+        <v>240</v>
+      </c>
+      <c r="D79">
+        <v>0.2</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>3.015471E-3</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>8.0400000000000003E-4</v>
+      </c>
+      <c r="C80">
+        <v>240</v>
+      </c>
+      <c r="D80">
+        <v>0.2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>2.3056370000000001E-3</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>1.0920000000000001E-3</v>
+      </c>
+      <c r="C81">
+        <v>240</v>
+      </c>
+      <c r="D81">
+        <v>0.2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1.8617429999999999E-3</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>1.4159999999999999E-3</v>
+      </c>
+      <c r="C82">
+        <v>240</v>
+      </c>
+      <c r="D82">
+        <v>0.2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>9.7170399999999999E-4</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>2.5399999999999999E-4</v>
+      </c>
+      <c r="C83">
+        <v>280</v>
+      </c>
+      <c r="D83">
+        <v>0.2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>6.6906099999999998E-4</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>2.9399999999999999E-4</v>
+      </c>
+      <c r="C84">
+        <v>280</v>
+      </c>
+      <c r="D84">
+        <v>0.2</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>2.4819130000000001E-3</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>3.3700000000000001E-4</v>
+      </c>
+      <c r="C85">
+        <v>280</v>
+      </c>
+      <c r="D85">
+        <v>0.2</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>3.5047860000000002E-3</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>4.0200000000000001E-4</v>
+      </c>
+      <c r="C86">
+        <v>280</v>
+      </c>
+      <c r="D86">
+        <v>0.2</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>3.5300269999999998E-3</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>4.9700000000000005E-4</v>
+      </c>
+      <c r="C87">
+        <v>280</v>
+      </c>
+      <c r="D87">
+        <v>0.2</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>3.7511160000000001E-3</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>6.1700000000000004E-4</v>
+      </c>
+      <c r="C88">
+        <v>280</v>
+      </c>
+      <c r="D88">
+        <v>0.2</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>3.7918209999999999E-3</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C89">
+        <v>280</v>
+      </c>
+      <c r="D89">
+        <v>0.2</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>2.9280959999999998E-3</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>1.0989999999999999E-3</v>
+      </c>
+      <c r="C90">
+        <v>280</v>
+      </c>
+      <c r="D90">
+        <v>0.2</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>2.4002030000000001E-3</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>1.2780000000000001E-3</v>
+      </c>
+      <c r="C91">
+        <v>280</v>
+      </c>
+      <c r="D91">
+        <v>0.2</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1.534342E-3</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C92">
+        <v>2050</v>
+      </c>
+      <c r="D92">
+        <v>0.3</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>9.0499999999999999E-4</v>
+      </c>
+      <c r="C93">
+        <v>2350</v>
+      </c>
+      <c r="D93">
+        <v>0.5</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>6.3250000000000003E-4</v>
+      </c>
+      <c r="C94">
+        <v>1600</v>
+      </c>
+      <c r="D94">
+        <v>0.3</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>6.0749999999999997E-4</v>
+      </c>
+      <c r="C95">
+        <v>1500</v>
+      </c>
+      <c r="D95">
+        <v>0.3</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>7.3800000000000005E-4</v>
+      </c>
+      <c r="C96">
+        <v>1450</v>
+      </c>
+      <c r="D96">
+        <v>0.5</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97">
+        <v>8.6499999999999999E-4</v>
+      </c>
+      <c r="C97">
+        <v>1850</v>
+      </c>
+      <c r="D97">
+        <v>0.5</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>6.2750000000000002E-4</v>
+      </c>
+      <c r="C98">
+        <v>1600</v>
+      </c>
+      <c r="D98">
+        <v>0.3</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>5.8500000000000002E-4</v>
+      </c>
+      <c r="C99">
+        <v>1450</v>
+      </c>
+      <c r="D99">
+        <v>0.3</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>7.0750000000000001E-4</v>
+      </c>
+      <c r="C100">
+        <v>1400</v>
+      </c>
+      <c r="D100">
+        <v>0.5</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <v>6.3500000000000004E-4</v>
+      </c>
+      <c r="C101">
+        <v>1150</v>
+      </c>
+      <c r="D101">
+        <v>0.5</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>6.6750000000000002E-4</v>
+      </c>
+      <c r="C102">
+        <v>1600</v>
+      </c>
+      <c r="D102">
+        <v>0.3</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>6.3029999999999998E-4</v>
+      </c>
+      <c r="C103">
+        <v>1500</v>
+      </c>
+      <c r="D103">
+        <v>0.3</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>7.2250000000000005E-4</v>
+      </c>
+      <c r="C104">
+        <v>1350</v>
+      </c>
+      <c r="D104">
+        <v>0.5</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>6.7250000000000003E-4</v>
+      </c>
+      <c r="C105">
+        <v>1200</v>
+      </c>
+      <c r="D105">
+        <v>0.5</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input/data_main.xlsx
+++ b/Input/data_main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagr9\Projekte\MA\MA-Model_1\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Projekte\MA-Model_1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC797752-E661-4467-8C06-7D9671DE162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA455C90-E940-42C9-B1E4-C562E51BE509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4620" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="2625" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="22">
   <si>
     <t>exp</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>h_c_0</t>
+  </si>
+  <si>
+    <t>h_dis_0</t>
   </si>
 </sst>
 </file>
@@ -11881,8 +11884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB1C651-CEA7-476C-9320-11A618C37DF4}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11901,7 +11904,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>20</v>
@@ -11927,7 +11930,7 @@
         <v>0.29701893400000001</v>
       </c>
       <c r="E2">
-        <v>3.6502927999999997E-2</v>
+        <v>3.55819E-2</v>
       </c>
       <c r="F2">
         <v>9.6633421999999997E-2</v>
@@ -11953,7 +11956,7 @@
         <v>0.50333939500000002</v>
       </c>
       <c r="E3">
-        <v>2.8484735000000001E-2</v>
+        <v>2.2846333E-2</v>
       </c>
       <c r="F3">
         <v>9.2660582000000005E-2</v>
@@ -11979,7 +11982,7 @@
         <v>0.49988101000000001</v>
       </c>
       <c r="E4">
-        <v>3.8919571E-2</v>
+        <v>3.3656999999999999E-2</v>
       </c>
       <c r="F4">
         <v>0.10772396300000001</v>
@@ -12005,7 +12008,7 @@
         <v>0.399764919</v>
       </c>
       <c r="E5">
-        <v>3.8463404E-2</v>
+        <v>3.2073999999999998E-2</v>
       </c>
       <c r="F5">
         <v>9.5001253999999993E-2</v>
@@ -12031,7 +12034,7 @@
         <v>0.50015754999999995</v>
       </c>
       <c r="E6">
-        <v>4.0361706999999997E-2</v>
+        <v>3.8374125000000002E-2</v>
       </c>
       <c r="F6">
         <v>0.101830843</v>
@@ -12057,7 +12060,7 @@
         <v>0.49989457599999998</v>
       </c>
       <c r="E7">
-        <v>3.8023349999999997E-2</v>
+        <v>3.2000428999999997E-2</v>
       </c>
       <c r="F7">
         <v>0.108397884</v>
@@ -12083,7 +12086,7 @@
         <v>0.40002338700000001</v>
       </c>
       <c r="E8">
-        <v>6.6916982E-2</v>
+        <v>2.9817666999999999E-2</v>
       </c>
       <c r="F8">
         <v>0.106790285</v>
@@ -12109,7 +12112,7 @@
         <v>0.29988877800000002</v>
       </c>
       <c r="E9">
-        <v>3.6448479999999998E-2</v>
+        <v>2.9670385000000001E-2</v>
       </c>
       <c r="F9">
         <v>0.10019613600000001</v>
@@ -12135,7 +12138,7 @@
         <v>0.50033280999999996</v>
       </c>
       <c r="E10">
-        <v>3.7521118999999999E-2</v>
+        <v>2.9766384999999999E-2</v>
       </c>
       <c r="F10">
         <v>9.8495864000000002E-2</v>
@@ -12161,7 +12164,7 @@
         <v>0.30092750000000001</v>
       </c>
       <c r="E11">
-        <v>3.3229887E-2</v>
+        <v>3.4920187999999998E-2</v>
       </c>
       <c r="F11">
         <v>0.100884113</v>
@@ -12187,7 +12190,7 @@
         <v>0.40003253100000002</v>
       </c>
       <c r="E12">
-        <v>7.0955006000000001E-2</v>
+        <v>1.9631529000000002E-2</v>
       </c>
       <c r="F12">
         <v>0.11041532699999999</v>
@@ -12213,7 +12216,7 @@
         <v>0.49949943499999999</v>
       </c>
       <c r="E13">
-        <v>4.2382797999999999E-2</v>
+        <v>4.1055332999999999E-2</v>
       </c>
       <c r="F13">
         <v>9.7580385000000006E-2</v>
@@ -12239,7 +12242,7 @@
         <v>0.27718706700000001</v>
       </c>
       <c r="E14">
-        <v>3.6368708E-2</v>
+        <v>1.9585846000000001E-2</v>
       </c>
       <c r="F14">
         <v>0.103970942</v>
@@ -12265,7 +12268,7 @@
         <v>0.499859416</v>
       </c>
       <c r="E15">
-        <v>1.8851822000000001E-2</v>
+        <v>1.5360333E-2</v>
       </c>
       <c r="F15">
         <v>0.10280117799999999</v>
@@ -12291,7 +12294,7 @@
         <v>0.29920427599999999</v>
       </c>
       <c r="E16">
-        <v>4.1816536000000001E-2</v>
+        <v>3.5955842000000002E-2</v>
       </c>
       <c r="F16">
         <v>0.101860464</v>
@@ -12317,7 +12320,7 @@
         <v>0.40006547100000001</v>
       </c>
       <c r="E17">
-        <v>2.4784075999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>9.7689174000000004E-2</v>
@@ -12343,7 +12346,7 @@
         <v>0.49991358299999999</v>
       </c>
       <c r="E18">
-        <v>1.8550810000000001E-2</v>
+        <v>1.5761217000000001E-2</v>
       </c>
       <c r="F18">
         <v>9.4884389999999999E-2</v>
@@ -12369,7 +12372,7 @@
         <v>0.30006925000000001</v>
       </c>
       <c r="E19">
-        <v>3.6809690999999999E-2</v>
+        <v>2.6276999999999998E-2</v>
       </c>
       <c r="F19">
         <v>0.108183192</v>
@@ -12395,7 +12398,7 @@
         <v>0.29996158899999997</v>
       </c>
       <c r="E20">
-        <v>1.9367124999999999E-2</v>
+        <v>1.6771635999999999E-2</v>
       </c>
       <c r="F20">
         <v>9.7314092000000005E-2</v>
@@ -12421,7 +12424,7 @@
         <v>0.49965211700000001</v>
       </c>
       <c r="E21">
-        <v>4.2670694000000002E-2</v>
+        <v>3.9373499999999999E-2</v>
       </c>
       <c r="F21">
         <v>0.10375522299999999</v>
@@ -12447,7 +12450,7 @@
         <v>0.50001522700000001</v>
       </c>
       <c r="E22">
-        <v>1.9893559000000002E-2</v>
+        <v>1.5923438000000002E-2</v>
       </c>
       <c r="F22">
         <v>9.5239508E-2</v>
@@ -12473,7 +12476,7 @@
         <v>0.30000356700000003</v>
       </c>
       <c r="E23">
-        <v>5.1118615999999999E-2</v>
+        <v>2.9010142999999999E-2</v>
       </c>
       <c r="F23">
         <v>0.114449734</v>
@@ -12499,7 +12502,7 @@
         <v>0.50013415000000006</v>
       </c>
       <c r="E24">
-        <v>5.7089112999999997E-2</v>
+        <v>2.9240461999999998E-2</v>
       </c>
       <c r="F24">
         <v>0.11521322000000001</v>
@@ -12525,7 +12528,7 @@
         <v>0.40118413600000002</v>
       </c>
       <c r="E25">
-        <v>4.5435773999999998E-2</v>
+        <v>3.6132938000000003E-2</v>
       </c>
       <c r="F25">
         <v>0.10055367599999999</v>
@@ -12551,7 +12554,7 @@
         <v>0.30087852900000001</v>
       </c>
       <c r="E26">
-        <v>7.5760642000000003E-2</v>
+        <v>2.4022870000000002E-2</v>
       </c>
       <c r="F26">
         <v>0.10911349100000001</v>
@@ -12577,7 +12580,7 @@
         <v>0.29883443599999998</v>
       </c>
       <c r="E27">
-        <v>6.6170259999999995E-2</v>
+        <v>2.9332111000000001E-2</v>
       </c>
       <c r="F27">
         <v>0.11349644</v>
@@ -12603,7 +12606,7 @@
         <v>0.50009379399999998</v>
       </c>
       <c r="E28">
-        <v>5.5513298000000003E-2</v>
+        <v>3.3174416999999998E-2</v>
       </c>
       <c r="F28">
         <v>0.114298685</v>
@@ -12629,7 +12632,7 @@
         <v>0.29980042600000001</v>
       </c>
       <c r="E29">
-        <v>3.1885854999999998E-2</v>
+        <v>2.8255058999999999E-2</v>
       </c>
       <c r="F29">
         <v>0.10856081200000001</v>
@@ -12655,7 +12658,7 @@
         <v>0.29999618500000003</v>
       </c>
       <c r="E30">
-        <v>4.7035642000000003E-2</v>
+        <v>4.2983100000000003E-2</v>
       </c>
       <c r="F30">
         <v>0.10975439100000001</v>
@@ -12681,7 +12684,7 @@
         <v>0.300016848</v>
       </c>
       <c r="E31">
-        <v>4.267257E-2</v>
+        <v>3.03678E-2</v>
       </c>
       <c r="F31">
         <v>0.107568497</v>
@@ -12707,7 +12710,7 @@
         <v>0.29999587</v>
       </c>
       <c r="E32">
-        <v>4.6113999000000003E-2</v>
+        <v>2.3775000000000001E-2</v>
       </c>
       <c r="F32">
         <v>0.11548971800000001</v>
@@ -12733,7 +12736,7 @@
         <v>0.30007985999999998</v>
       </c>
       <c r="E33">
-        <v>3.1432143000000003E-2</v>
+        <v>2.7580614999999999E-2</v>
       </c>
       <c r="F33">
         <v>0.11381099</v>
@@ -12759,7 +12762,7 @@
         <v>0.30001281800000001</v>
       </c>
       <c r="E34">
-        <v>3.3010744000000002E-2</v>
+        <v>2.8364166999999999E-2</v>
       </c>
       <c r="F34">
         <v>0.11308117199999999</v>
@@ -12785,7 +12788,7 @@
         <v>0.39999618199999998</v>
       </c>
       <c r="E35">
-        <v>6.9506928999999995E-2</v>
+        <v>3.9580443999999999E-2</v>
       </c>
       <c r="F35">
         <v>0.110695898</v>
@@ -12811,7 +12814,7 @@
         <v>0.49995556099999999</v>
       </c>
       <c r="E36">
-        <v>4.8558603999999998E-2</v>
+        <v>4.6688437999999999E-2</v>
       </c>
       <c r="F36">
         <v>9.5985962999999994E-2</v>
@@ -12837,7 +12840,7 @@
         <v>0.39989443400000002</v>
       </c>
       <c r="E37">
-        <v>4.1705930000000002E-2</v>
+        <v>3.2895832999999999E-2</v>
       </c>
       <c r="F37">
         <v>0.10475915299999999</v>
@@ -12863,7 +12866,7 @@
         <v>0.49920661399999999</v>
       </c>
       <c r="E38">
-        <v>4.8344787E-2</v>
+        <v>2.7389750000000001E-2</v>
       </c>
       <c r="F38">
         <v>0.12562072899999999</v>
@@ -12889,7 +12892,7 @@
         <v>0.40056073800000003</v>
       </c>
       <c r="E39">
-        <v>7.1139833E-2</v>
+        <v>3.3499599999999997E-2</v>
       </c>
       <c r="F39">
         <v>0.11312243299999999</v>
@@ -12915,7 +12918,7 @@
         <v>0.49692148400000002</v>
       </c>
       <c r="E40">
-        <v>2.3973168999999999E-2</v>
+        <v>1.6203833000000001E-2</v>
       </c>
       <c r="F40">
         <v>9.1711663999999998E-2</v>
@@ -12941,7 +12944,7 @@
         <v>0.50025813699999999</v>
       </c>
       <c r="E41">
-        <v>2.6577284999999999E-2</v>
+        <v>2.5555333E-2</v>
       </c>
       <c r="F41">
         <v>9.2475197999999995E-2</v>
@@ -12967,7 +12970,7 @@
         <v>0.50000099099999995</v>
       </c>
       <c r="E42">
-        <v>2.6915963000000001E-2</v>
+        <v>2.7710216999999999E-2</v>
       </c>
       <c r="F42">
         <v>9.1934420000000003E-2</v>
@@ -12993,7 +12996,7 @@
         <v>0.49990232400000001</v>
       </c>
       <c r="E43">
-        <v>2.4668497000000001E-2</v>
+        <v>1.9429286E-2</v>
       </c>
       <c r="F43">
         <v>9.1588153000000005E-2</v>
@@ -13019,7 +13022,7 @@
         <v>0.29994249899999997</v>
       </c>
       <c r="E44">
-        <v>2.6047677000000002E-2</v>
+        <v>2.6298999999999999E-2</v>
       </c>
       <c r="F44">
         <v>0.10857765</v>
@@ -13045,7 +13048,7 @@
         <v>0.30007125099999998</v>
       </c>
       <c r="E45">
-        <v>1.9110674000000001E-2</v>
+        <v>1.9176444000000001E-2</v>
       </c>
       <c r="F45">
         <v>0.12915310899999999</v>
@@ -13071,7 +13074,7 @@
         <v>0.39993976599999997</v>
       </c>
       <c r="E46">
-        <v>2.7369943000000001E-2</v>
+        <v>4.5705333000000001E-2</v>
       </c>
       <c r="F46">
         <v>9.7766817000000006E-2</v>
@@ -13097,7 +13100,7 @@
         <v>0.50044513199999996</v>
       </c>
       <c r="E47">
-        <v>2.0620128000000001E-2</v>
+        <v>2.2795666999999999E-2</v>
       </c>
       <c r="F47">
         <v>0.103834646</v>
@@ -13123,7 +13126,7 @@
         <v>0.499986655</v>
       </c>
       <c r="E48">
-        <v>2.1720821000000001E-2</v>
+        <v>2.3137000000000001E-2</v>
       </c>
       <c r="F48">
         <v>0.103615651</v>
@@ -13149,7 +13152,7 @@
         <v>0.40017336999999997</v>
       </c>
       <c r="E49">
-        <v>2.0735538000000001E-2</v>
+        <v>1.6598000000000002E-2</v>
       </c>
       <c r="F49">
         <v>9.4777095000000006E-2</v>
@@ -13175,7 +13178,7 @@
         <v>0.40074769799999999</v>
       </c>
       <c r="E50">
-        <v>2.2464746000000001E-2</v>
+        <v>1.9850666999999999E-2</v>
       </c>
       <c r="F50">
         <v>9.4852504000000004E-2</v>
@@ -13201,7 +13204,7 @@
         <v>0.50002069100000002</v>
       </c>
       <c r="E51">
-        <v>2.4334100000000001E-2</v>
+        <v>2.4327778000000001E-2</v>
       </c>
       <c r="F51">
         <v>9.0262732999999998E-2</v>
@@ -13227,7 +13230,7 @@
         <v>0.49970003499999999</v>
       </c>
       <c r="E52">
-        <v>2.3888031000000001E-2</v>
+        <v>2.9573833000000001E-2</v>
       </c>
       <c r="F52">
         <v>0.101849986</v>
@@ -13253,7 +13256,7 @@
         <v>0.49998881699999997</v>
       </c>
       <c r="E53">
-        <v>2.6883537999999998E-2</v>
+        <v>2.3282932999999999E-2</v>
       </c>
       <c r="F53">
         <v>8.8787929000000002E-2</v>
@@ -13279,7 +13282,7 @@
         <v>0.40001579300000001</v>
       </c>
       <c r="E54">
-        <v>2.3810701E-2</v>
+        <v>3.4569500000000003E-2</v>
       </c>
       <c r="F54">
         <v>9.3052383000000002E-2</v>
@@ -13305,7 +13308,7 @@
         <v>0.40002267499999999</v>
       </c>
       <c r="E55">
-        <v>2.5438157999999999E-2</v>
+        <v>2.1106E-2</v>
       </c>
       <c r="F55">
         <v>8.9342075000000007E-2</v>
@@ -13331,7 +13334,7 @@
         <v>0.50012684799999996</v>
       </c>
       <c r="E56">
-        <v>2.6662858000000001E-2</v>
+        <v>2.0743889000000001E-2</v>
       </c>
       <c r="F56">
         <v>8.9674559000000001E-2</v>

--- a/Input/data_main.xlsx
+++ b/Input/data_main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Projekte\MA-Model_1\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagr9\Projekte\MA\MA-Model_1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA455C90-E940-42C9-B1E4-C562E51BE509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD58180-3044-4FAC-8B3A-261AD69DD2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="2625" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="21">
   <si>
     <t>exp</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>lambda</t>
-  </si>
-  <si>
-    <t>h_dis_max</t>
   </si>
   <si>
     <t>2mmol_21C</t>
@@ -2431,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A9A0D0-FB24-4EE6-8EDD-B3A2672E503C}">
   <dimension ref="A1:H363"/>
   <sheetViews>
-    <sheetView topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="A364" sqref="A364"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,10 +2448,10 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2465,7 +2462,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>8.0239500000000002E-4</v>
@@ -2477,7 +2474,7 @@
         <v>0.499859416</v>
       </c>
       <c r="E2">
-        <v>1.8851822000000001E-2</v>
+        <v>2.1230160000000001E-2</v>
       </c>
       <c r="F2">
         <v>0.10280117799999999</v>
@@ -2491,7 +2488,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>6.91448E-4</v>
@@ -2503,7 +2500,7 @@
         <v>0.50028585699999994</v>
       </c>
       <c r="E3">
-        <v>1.3759564E-2</v>
+        <v>1.3507819000000001E-2</v>
       </c>
       <c r="F3">
         <v>0.10897448</v>
@@ -2517,7 +2514,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>5.95906E-4</v>
@@ -2529,7 +2526,7 @@
         <v>0.49989870199999997</v>
       </c>
       <c r="E4">
-        <v>1.88165E-2</v>
+        <v>2.9982749999999999E-2</v>
       </c>
       <c r="F4">
         <v>0.105020287</v>
@@ -2543,7 +2540,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>6.2088699999999998E-4</v>
@@ -2555,7 +2552,7 @@
         <v>0.39951593400000002</v>
       </c>
       <c r="E5">
-        <v>1.9607932000000002E-2</v>
+        <v>3.2247999999999999E-2</v>
       </c>
       <c r="F5">
         <v>0.101170475</v>
@@ -2569,7 +2566,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>5.9944000000000002E-4</v>
@@ -2581,7 +2578,7 @@
         <v>0.40006547100000001</v>
       </c>
       <c r="E6">
-        <v>2.4784075999999999E-2</v>
+        <v>2.9244124999999999E-2</v>
       </c>
       <c r="F6">
         <v>9.7689174000000004E-2</v>
@@ -2595,7 +2592,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>6.1677100000000001E-4</v>
@@ -2607,7 +2604,7 @@
         <v>0.40038251800000002</v>
       </c>
       <c r="E7">
-        <v>2.4416123000000001E-2</v>
+        <v>2.2417833000000002E-2</v>
       </c>
       <c r="F7">
         <v>0.10059602300000001</v>
@@ -2621,7 +2618,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>5.9561800000000002E-4</v>
@@ -2633,7 +2630,7 @@
         <v>0.30056323600000001</v>
       </c>
       <c r="E8">
-        <v>2.3324444999999999E-2</v>
+        <v>2.6593250999999998E-2</v>
       </c>
       <c r="F8">
         <v>0.10011885500000001</v>
@@ -2647,7 +2644,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>5.7893599999999995E-4</v>
@@ -2659,7 +2656,7 @@
         <v>0.29840094900000003</v>
       </c>
       <c r="E9">
-        <v>2.4321518E-2</v>
+        <v>3.2670375000000001E-2</v>
       </c>
       <c r="F9">
         <v>9.9362308999999996E-2</v>
@@ -2673,7 +2670,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>4.9265500000000005E-4</v>
@@ -2685,7 +2682,7 @@
         <v>0.29859516600000002</v>
       </c>
       <c r="E10">
-        <v>1.9255773E-2</v>
+        <v>2.7105875000000001E-2</v>
       </c>
       <c r="F10">
         <v>0.10421707400000001</v>
@@ -2699,7 +2696,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>9.1292700000000001E-4</v>
@@ -2711,7 +2708,7 @@
         <v>0.50044513199999996</v>
       </c>
       <c r="E11">
-        <v>2.0620128000000001E-2</v>
+        <v>1.7934950000000002E-2</v>
       </c>
       <c r="F11">
         <v>0.103834646</v>
@@ -2725,7 +2722,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>9.8825999999999992E-4</v>
@@ -2737,7 +2734,7 @@
         <v>0.50003061599999998</v>
       </c>
       <c r="E12">
-        <v>1.7689674999999998E-2</v>
+        <v>1.5783320999999999E-2</v>
       </c>
       <c r="F12">
         <v>0.105810825</v>
@@ -2751,7 +2748,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>9.4360899999999998E-4</v>
@@ -2763,7 +2760,7 @@
         <v>0.499986655</v>
       </c>
       <c r="E13">
-        <v>2.1720821000000001E-2</v>
+        <v>1.8001669000000001E-2</v>
       </c>
       <c r="F13">
         <v>0.103615651</v>
@@ -2777,7 +2774,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>7.7894200000000002E-4</v>
@@ -2789,7 +2786,7 @@
         <v>0.39986995600000003</v>
       </c>
       <c r="E14">
-        <v>2.3848424E-2</v>
+        <v>3.5990666999999997E-2</v>
       </c>
       <c r="F14">
         <v>9.8667576000000007E-2</v>
@@ -2803,7 +2800,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>7.8108599999999995E-4</v>
@@ -2815,7 +2812,7 @@
         <v>0.400039439</v>
       </c>
       <c r="E15">
-        <v>2.7791891999999999E-2</v>
+        <v>3.6748999999999997E-2</v>
       </c>
       <c r="F15">
         <v>9.5854441999999998E-2</v>
@@ -2829,7 +2826,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>7.4180700000000003E-4</v>
@@ -2841,7 +2838,7 @@
         <v>0.39993976599999997</v>
       </c>
       <c r="E16">
-        <v>2.7369943000000001E-2</v>
+        <v>3.4538167000000002E-2</v>
       </c>
       <c r="F16">
         <v>9.7766817000000006E-2</v>
@@ -2855,7 +2852,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>6.3737199999999998E-4</v>
@@ -2867,7 +2864,7 @@
         <v>0.29994249899999997</v>
       </c>
       <c r="E17">
-        <v>2.6047677000000002E-2</v>
+        <v>3.5846000000000003E-2</v>
       </c>
       <c r="F17">
         <v>0.10857765</v>
@@ -2881,7 +2878,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>6.3181200000000004E-4</v>
@@ -2893,7 +2890,7 @@
         <v>0.30004935199999999</v>
       </c>
       <c r="E18">
-        <v>4.0719331999999997E-2</v>
+        <v>4.6222433E-2</v>
       </c>
       <c r="F18">
         <v>0.11202986400000001</v>
@@ -2907,7 +2904,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>5.6106099999999996E-4</v>
@@ -2919,7 +2916,7 @@
         <v>0.29996400200000001</v>
       </c>
       <c r="E19">
-        <v>3.9184578999999997E-2</v>
+        <v>2.1847999999999999E-2</v>
       </c>
       <c r="F19">
         <v>0.118530145</v>
@@ -2933,7 +2930,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>8.0128199999999995E-4</v>
@@ -2945,7 +2942,7 @@
         <v>0.49970003499999999</v>
       </c>
       <c r="E20">
-        <v>2.3888031000000001E-2</v>
+        <v>2.58175E-2</v>
       </c>
       <c r="F20">
         <v>0.101849986</v>
@@ -2959,7 +2956,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>8.1002600000000004E-4</v>
@@ -2971,7 +2968,7 @@
         <v>0.499961184</v>
       </c>
       <c r="E21">
-        <v>2.9039611999999999E-2</v>
+        <v>3.2184616999999999E-2</v>
       </c>
       <c r="F21">
         <v>0.100430336</v>
@@ -2985,7 +2982,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>7.8814599999999999E-4</v>
@@ -2997,7 +2994,7 @@
         <v>0.49996919899999998</v>
       </c>
       <c r="E22">
-        <v>2.8992381000000001E-2</v>
+        <v>3.1879774999999999E-2</v>
       </c>
       <c r="F22">
         <v>0.10043384299999999</v>
@@ -3011,7 +3008,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>7.1302300000000002E-4</v>
@@ -3023,7 +3020,7 @@
         <v>0.39980531400000002</v>
       </c>
       <c r="E23">
-        <v>2.5204135999999999E-2</v>
+        <v>3.5233417000000003E-2</v>
       </c>
       <c r="F23">
         <v>0.10164448500000001</v>
@@ -3037,7 +3034,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>6.9510100000000005E-4</v>
@@ -3049,7 +3046,7 @@
         <v>0.40003263300000003</v>
       </c>
       <c r="E24">
-        <v>3.1842178999999998E-2</v>
+        <v>4.6955999999999998E-2</v>
       </c>
       <c r="F24">
         <v>9.9360454000000001E-2</v>
@@ -3063,7 +3060,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>7.0127399999999999E-4</v>
@@ -3075,7 +3072,7 @@
         <v>0.40519286300000001</v>
       </c>
       <c r="E25">
-        <v>3.2997344999999997E-2</v>
+        <v>4.4401749999999997E-2</v>
       </c>
       <c r="F25">
         <v>9.6816929999999995E-2</v>
@@ -3089,7 +3086,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>7.3645500000000001E-4</v>
@@ -3101,7 +3098,7 @@
         <v>0.499857828</v>
       </c>
       <c r="E26">
-        <v>1.7182822E-2</v>
+        <v>1.7695522000000002E-2</v>
       </c>
       <c r="F26">
         <v>9.4951860999999999E-2</v>
@@ -3115,7 +3112,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>7.2969899999999999E-4</v>
@@ -3127,7 +3124,7 @@
         <v>0.49970384000000001</v>
       </c>
       <c r="E27">
-        <v>1.8852822000000002E-2</v>
+        <v>2.0651935E-2</v>
       </c>
       <c r="F27">
         <v>9.4908577999999993E-2</v>
@@ -3141,7 +3138,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>6.9667700000000004E-4</v>
@@ -3153,7 +3150,7 @@
         <v>0.49938961599999998</v>
       </c>
       <c r="E28">
-        <v>2.2076011E-2</v>
+        <v>2.2757346000000001E-2</v>
       </c>
       <c r="F28">
         <v>9.4442905999999993E-2</v>
@@ -3167,7 +3164,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>6.4236199999999995E-4</v>
@@ -3179,7 +3176,7 @@
         <v>0.40010973</v>
       </c>
       <c r="E29">
-        <v>1.7214279999999998E-2</v>
+        <v>2.0670075E-2</v>
       </c>
       <c r="F29">
         <v>9.6245902999999994E-2</v>
@@ -3193,7 +3190,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>6.8012400000000005E-4</v>
@@ -3205,7 +3202,7 @@
         <v>0.39954061600000002</v>
       </c>
       <c r="E30">
-        <v>1.9736321000000001E-2</v>
+        <v>2.0283136E-2</v>
       </c>
       <c r="F30">
         <v>9.6185945999999994E-2</v>
@@ -3219,7 +3216,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31">
         <v>5.9216200000000003E-4</v>
@@ -3231,7 +3228,7 @@
         <v>0.40100802200000002</v>
       </c>
       <c r="E31">
-        <v>2.0059832E-2</v>
+        <v>1.9446093000000001E-2</v>
       </c>
       <c r="F31">
         <v>9.6083401999999998E-2</v>
@@ -3245,7 +3242,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>5.9390400000000002E-4</v>
@@ -3257,7 +3254,7 @@
         <v>0.30137491399999999</v>
       </c>
       <c r="E32">
-        <v>1.7153650999999999E-2</v>
+        <v>1.8841891999999999E-2</v>
       </c>
       <c r="F32">
         <v>9.7575882000000003E-2</v>
@@ -3271,7 +3268,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>5.8364699999999996E-4</v>
@@ -3283,7 +3280,7 @@
         <v>0.29930047500000001</v>
       </c>
       <c r="E33">
-        <v>1.9624798999999998E-2</v>
+        <v>2.1772928E-2</v>
       </c>
       <c r="F33">
         <v>9.6670351000000002E-2</v>
@@ -3297,7 +3294,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>5.1002800000000004E-4</v>
@@ -3309,7 +3306,7 @@
         <v>0.30168805199999998</v>
       </c>
       <c r="E34">
-        <v>1.704373E-2</v>
+        <v>1.7340412999999999E-2</v>
       </c>
       <c r="F34">
         <v>9.6635620000000005E-2</v>
@@ -3323,7 +3320,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>8.0508499999999998E-4</v>
@@ -3335,7 +3332,7 @@
         <v>0.50017696099999998</v>
       </c>
       <c r="E35">
-        <v>2.3555221000000001E-2</v>
+        <v>2.3462375000000001E-2</v>
       </c>
       <c r="F35">
         <v>9.2545870000000002E-2</v>
@@ -3349,7 +3346,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>7.6724599999999997E-4</v>
@@ -3361,7 +3358,7 @@
         <v>0.49995857100000002</v>
       </c>
       <c r="E36">
-        <v>2.3109550999999999E-2</v>
+        <v>2.4965339E-2</v>
       </c>
       <c r="F36">
         <v>9.2378648999999993E-2</v>
@@ -3375,7 +3372,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>7.0617800000000001E-4</v>
@@ -3387,7 +3384,7 @@
         <v>0.49990232400000001</v>
       </c>
       <c r="E37">
-        <v>2.4668497000000001E-2</v>
+        <v>2.6471788999999999E-2</v>
       </c>
       <c r="F37">
         <v>9.1588153000000005E-2</v>
@@ -3401,7 +3398,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>6.90491E-4</v>
@@ -3413,7 +3410,7 @@
         <v>0.39997470200000002</v>
       </c>
       <c r="E38">
-        <v>2.0796281999999999E-2</v>
+        <v>2.2536453000000001E-2</v>
       </c>
       <c r="F38">
         <v>9.4995364999999998E-2</v>
@@ -3427,7 +3424,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>6.6872600000000002E-4</v>
@@ -3439,7 +3436,7 @@
         <v>0.40031847300000001</v>
       </c>
       <c r="E39">
-        <v>2.0327868999999998E-2</v>
+        <v>2.0575774000000002E-2</v>
       </c>
       <c r="F39">
         <v>9.4793715000000001E-2</v>
@@ -3453,7 +3450,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>6.0886200000000005E-4</v>
@@ -3465,7 +3462,7 @@
         <v>0.40016497499999998</v>
       </c>
       <c r="E40">
-        <v>2.1022189E-2</v>
+        <v>1.9551636000000001E-2</v>
       </c>
       <c r="F40">
         <v>9.3850811000000006E-2</v>
@@ -3479,7 +3476,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>5.8638600000000005E-4</v>
@@ -3491,7 +3488,7 @@
         <v>0.299993344</v>
       </c>
       <c r="E41">
-        <v>1.8880043999999999E-2</v>
+        <v>2.0140444E-2</v>
       </c>
       <c r="F41">
         <v>0.106182606</v>
@@ -3505,7 +3502,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>5.8743599999999999E-4</v>
@@ -3517,7 +3514,7 @@
         <v>0.300089995</v>
       </c>
       <c r="E42">
-        <v>1.7454754999999999E-2</v>
+        <v>1.6236285999999999E-2</v>
       </c>
       <c r="F42">
         <v>0.117572011</v>
@@ -3531,7 +3528,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>5.2147200000000004E-4</v>
@@ -3543,7 +3540,7 @@
         <v>0.300294854</v>
       </c>
       <c r="E43">
-        <v>1.8037182999999998E-2</v>
+        <v>1.6603903E-2</v>
       </c>
       <c r="F43">
         <v>0.126666367</v>
@@ -3557,7 +3554,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>7.3430900000000005E-4</v>
@@ -3569,7 +3566,7 @@
         <v>0.50012684799999996</v>
       </c>
       <c r="E44">
-        <v>2.6662858000000001E-2</v>
+        <v>2.9320511E-2</v>
       </c>
       <c r="F44">
         <v>8.9674559000000001E-2</v>
@@ -3583,7 +3580,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>6.9824100000000005E-4</v>
@@ -3595,7 +3592,7 @@
         <v>0.50011176499999999</v>
       </c>
       <c r="E45">
-        <v>2.5932647999999999E-2</v>
+        <v>2.84383E-2</v>
       </c>
       <c r="F45">
         <v>8.9625669000000005E-2</v>
@@ -3609,7 +3606,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
         <v>6.8666599999999995E-4</v>
@@ -3621,7 +3618,7 @@
         <v>0.50005669699999999</v>
       </c>
       <c r="E46">
-        <v>2.5288621000000001E-2</v>
+        <v>2.5482570999999999E-2</v>
       </c>
       <c r="F46">
         <v>8.9115579E-2</v>
@@ -3635,7 +3632,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>6.0317599999999997E-4</v>
@@ -3647,7 +3644,7 @@
         <v>0.39983770499999999</v>
       </c>
       <c r="E47">
-        <v>2.3257283E-2</v>
+        <v>2.0828599999999999E-2</v>
       </c>
       <c r="F47">
         <v>9.2949599999999993E-2</v>
@@ -3661,7 +3658,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>6.0375999999999995E-4</v>
@@ -3673,7 +3670,7 @@
         <v>0.39993699799999999</v>
       </c>
       <c r="E48">
-        <v>2.3698462999999999E-2</v>
+        <v>2.4302250000000001E-2</v>
       </c>
       <c r="F48">
         <v>9.1868320000000003E-2</v>
@@ -3687,7 +3684,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>7.2423300000000002E-4</v>
@@ -3699,7 +3696,7 @@
         <v>0.50497902900000002</v>
       </c>
       <c r="E49">
-        <v>2.2361435999999998E-2</v>
+        <v>2.2087249999999999E-2</v>
       </c>
       <c r="F49">
         <v>9.4290947E-2</v>
@@ -3713,7 +3710,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50">
         <v>8.1175500000000005E-4</v>
@@ -3725,7 +3722,7 @@
         <v>0.50008189700000005</v>
       </c>
       <c r="E50">
-        <v>2.5173661999999999E-2</v>
+        <v>2.8558812999999999E-2</v>
       </c>
       <c r="F50">
         <v>9.1915671000000004E-2</v>
@@ -3739,7 +3736,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>7.9663900000000003E-4</v>
@@ -3751,7 +3748,7 @@
         <v>0.50001988399999997</v>
       </c>
       <c r="E51">
-        <v>2.4801119E-2</v>
+        <v>2.7923136000000001E-2</v>
       </c>
       <c r="F51">
         <v>9.2305313999999999E-2</v>
@@ -3765,7 +3762,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52">
         <v>7.5900900000000005E-4</v>
@@ -3777,7 +3774,7 @@
         <v>0.500010124</v>
       </c>
       <c r="E52">
-        <v>2.4511805000000001E-2</v>
+        <v>2.4887511000000001E-2</v>
       </c>
       <c r="F52">
         <v>9.1771162000000003E-2</v>
@@ -3791,7 +3788,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53">
         <v>7.5096099999999997E-4</v>
@@ -3803,7 +3800,7 @@
         <v>0.49999859899999999</v>
       </c>
       <c r="E53">
-        <v>2.4870665E-2</v>
+        <v>2.7336375999999999E-2</v>
       </c>
       <c r="F53">
         <v>9.0949002000000001E-2</v>
@@ -3817,7 +3814,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>7.63323E-4</v>
@@ -3829,7 +3826,7 @@
         <v>0.50006198700000004</v>
       </c>
       <c r="E54">
-        <v>2.5023548E-2</v>
+        <v>2.5250000000000002E-2</v>
       </c>
       <c r="F54">
         <v>9.1166435000000004E-2</v>
@@ -3843,7 +3840,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55">
         <v>7.2370699999999997E-4</v>
@@ -3855,7 +3852,7 @@
         <v>0.50002069100000002</v>
       </c>
       <c r="E55">
-        <v>2.4334100000000001E-2</v>
+        <v>2.9699555999999998E-2</v>
       </c>
       <c r="F55">
         <v>9.0262732999999998E-2</v>
@@ -3869,7 +3866,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>7.0107399999999999E-4</v>
@@ -3881,7 +3878,7 @@
         <v>0.49981435699999999</v>
       </c>
       <c r="E56">
-        <v>2.5514657E-2</v>
+        <v>2.8491307E-2</v>
       </c>
       <c r="F56">
         <v>8.9684443000000003E-2</v>
@@ -3895,7 +3892,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57">
         <v>7.1206199999999996E-4</v>
@@ -3907,7 +3904,7 @@
         <v>0.50008270300000002</v>
       </c>
       <c r="E57">
-        <v>2.5693543999999999E-2</v>
+        <v>2.7960022000000001E-2</v>
       </c>
       <c r="F57">
         <v>8.9956089000000003E-2</v>
@@ -3921,7 +3918,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58">
         <v>6.9931300000000002E-4</v>
@@ -3933,7 +3930,7 @@
         <v>0.49992769599999998</v>
       </c>
       <c r="E58">
-        <v>2.5077159000000002E-2</v>
+        <v>2.7482230999999999E-2</v>
       </c>
       <c r="F58">
         <v>8.9725541000000006E-2</v>
@@ -3947,7 +3944,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>7.7304999999999995E-4</v>
@@ -3959,7 +3956,7 @@
         <v>0.50006005200000003</v>
       </c>
       <c r="E59">
-        <v>2.6129478000000001E-2</v>
+        <v>2.6879742000000002E-2</v>
       </c>
       <c r="F59">
         <v>9.1026439000000001E-2</v>
@@ -3973,7 +3970,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60">
         <v>7.7200999999999995E-4</v>
@@ -3985,7 +3982,7 @@
         <v>0.5000675</v>
       </c>
       <c r="E60">
-        <v>2.5281590999999999E-2</v>
+        <v>2.7285421000000001E-2</v>
       </c>
       <c r="F60">
         <v>9.0902575999999999E-2</v>
@@ -3999,7 +3996,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61">
         <v>7.2866900000000004E-4</v>
@@ -4011,7 +4008,7 @@
         <v>0.50000592099999996</v>
       </c>
       <c r="E61">
-        <v>2.4421463000000001E-2</v>
+        <v>2.5060091999999999E-2</v>
       </c>
       <c r="F61">
         <v>9.0799087000000001E-2</v>
@@ -4025,7 +4022,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62">
         <v>7.7559000000000005E-4</v>
@@ -4037,7 +4034,7 @@
         <v>0.49981272100000002</v>
       </c>
       <c r="E62">
-        <v>2.4078116E-2</v>
+        <v>2.5000455000000001E-2</v>
       </c>
       <c r="F62">
         <v>9.1868149999999996E-2</v>
@@ -4051,7 +4048,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63">
         <v>7.6392500000000004E-4</v>
@@ -4063,7 +4060,7 @@
         <v>0.50003272799999998</v>
       </c>
       <c r="E63">
-        <v>2.4252689000000001E-2</v>
+        <v>2.4585493999999999E-2</v>
       </c>
       <c r="F63">
         <v>9.1987243999999996E-2</v>
@@ -4077,7 +4074,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64">
         <v>7.2654800000000004E-4</v>
@@ -4089,7 +4086,7 @@
         <v>0.49692148400000002</v>
       </c>
       <c r="E64">
-        <v>2.3973168999999999E-2</v>
+        <v>2.5115571E-2</v>
       </c>
       <c r="F64">
         <v>9.1711663999999998E-2</v>
@@ -4103,7 +4100,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65">
         <v>7.2222900000000001E-4</v>
@@ -4115,7 +4112,7 @@
         <v>0.499880084</v>
       </c>
       <c r="E65">
-        <v>1.7030178E-2</v>
+        <v>1.6913991E-2</v>
       </c>
       <c r="F65">
         <v>9.4883205999999998E-2</v>
@@ -4129,7 +4126,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>7.1244500000000003E-4</v>
@@ -4141,7 +4138,7 @@
         <v>0.49991358299999999</v>
       </c>
       <c r="E66">
-        <v>1.8550810000000001E-2</v>
+        <v>1.876069E-2</v>
       </c>
       <c r="F66">
         <v>9.4884389999999999E-2</v>
@@ -4155,7 +4152,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67">
         <v>7.1245100000000001E-4</v>
@@ -4167,7 +4164,7 @@
         <v>0.50002289600000005</v>
       </c>
       <c r="E67">
-        <v>2.3203320999999999E-2</v>
+        <v>2.2538355999999999E-2</v>
       </c>
       <c r="F67">
         <v>9.4996779000000003E-2</v>
@@ -4181,7 +4178,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68">
         <v>7.3421300000000005E-4</v>
@@ -4193,7 +4190,7 @@
         <v>0.49965712499999998</v>
       </c>
       <c r="E68">
-        <v>2.2879033999999999E-2</v>
+        <v>2.1872315E-2</v>
       </c>
       <c r="F68">
         <v>9.4441699000000004E-2</v>
@@ -4207,7 +4204,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>7.4564200000000003E-4</v>
@@ -4219,7 +4216,7 @@
         <v>0.49991707099999999</v>
       </c>
       <c r="E69">
-        <v>2.1350562999999999E-2</v>
+        <v>2.0420974000000001E-2</v>
       </c>
       <c r="F69">
         <v>9.4204745000000006E-2</v>
@@ -4233,7 +4230,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70">
         <v>7.5361500000000001E-4</v>
@@ -4245,7 +4242,7 @@
         <v>0.50001522700000001</v>
       </c>
       <c r="E70">
-        <v>1.9893559000000002E-2</v>
+        <v>1.8111566999999999E-2</v>
       </c>
       <c r="F70">
         <v>9.5239508E-2</v>
@@ -4259,7 +4256,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71">
         <v>6.6505100000000005E-4</v>
@@ -4271,7 +4268,7 @@
         <v>0.399215879</v>
       </c>
       <c r="E71">
-        <v>1.9550339999999999E-2</v>
+        <v>1.7216344000000001E-2</v>
       </c>
       <c r="F71">
         <v>9.5698076000000007E-2</v>
@@ -4285,7 +4282,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72">
         <v>6.3372099999999996E-4</v>
@@ -4297,7 +4294,7 @@
         <v>0.39906686200000002</v>
       </c>
       <c r="E72">
-        <v>1.9562685999999999E-2</v>
+        <v>1.8789934000000001E-2</v>
       </c>
       <c r="F72">
         <v>9.6278714000000001E-2</v>
@@ -4311,7 +4308,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>6.1875899999999998E-4</v>
@@ -4323,7 +4320,7 @@
         <v>0.39989831300000001</v>
       </c>
       <c r="E73">
-        <v>2.1604254999999999E-2</v>
+        <v>2.2025092999999999E-2</v>
       </c>
       <c r="F73">
         <v>9.5364194999999999E-2</v>
@@ -4337,7 +4334,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74">
         <v>6.2012899999999997E-4</v>
@@ -4349,7 +4346,7 @@
         <v>0.39928821199999998</v>
       </c>
       <c r="E74">
-        <v>2.2378535000000001E-2</v>
+        <v>2.1280207999999998E-2</v>
       </c>
       <c r="F74">
         <v>9.5441264999999997E-2</v>
@@ -4363,7 +4360,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75">
         <v>6.5113400000000004E-4</v>
@@ -4375,7 +4372,7 @@
         <v>0.39950756500000001</v>
       </c>
       <c r="E75">
-        <v>2.3494683999999998E-2</v>
+        <v>2.1074203999999999E-2</v>
       </c>
       <c r="F75">
         <v>9.5445799999999997E-2</v>
@@ -4389,7 +4386,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76">
         <v>6.6688800000000003E-4</v>
@@ -4401,7 +4398,7 @@
         <v>0.398774242</v>
       </c>
       <c r="E76">
-        <v>2.1653974999999999E-2</v>
+        <v>2.306619E-2</v>
       </c>
       <c r="F76">
         <v>9.5102975000000006E-2</v>
@@ -4415,7 +4412,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B77">
         <v>5.7892299999999996E-4</v>
@@ -4427,7 +4424,7 @@
         <v>0.29963859100000001</v>
       </c>
       <c r="E77">
-        <v>1.6896813E-2</v>
+        <v>1.8974015E-2</v>
       </c>
       <c r="F77">
         <v>9.7863836999999995E-2</v>
@@ -4441,7 +4438,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78">
         <v>5.6844399999999998E-4</v>
@@ -4453,7 +4450,7 @@
         <v>0.29996158899999997</v>
       </c>
       <c r="E78">
-        <v>1.9367124999999999E-2</v>
+        <v>1.9462601999999999E-2</v>
       </c>
       <c r="F78">
         <v>9.7314092000000005E-2</v>
@@ -4467,7 +4464,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79">
         <v>5.5183900000000004E-4</v>
@@ -4479,7 +4476,7 @@
         <v>0.30406831400000001</v>
       </c>
       <c r="E79">
-        <v>1.9188990999999999E-2</v>
+        <v>2.0564747000000001E-2</v>
       </c>
       <c r="F79">
         <v>9.7307075000000007E-2</v>
@@ -4493,7 +4490,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80">
         <v>5.2785099999999997E-4</v>
@@ -4505,7 +4502,7 @@
         <v>0.30089281899999998</v>
       </c>
       <c r="E80">
-        <v>1.8193810000000001E-2</v>
+        <v>1.9941581E-2</v>
       </c>
       <c r="F80">
         <v>9.7334873000000002E-2</v>
@@ -4519,7 +4516,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81">
         <v>5.4509199999999995E-4</v>
@@ -4531,7 +4528,7 @@
         <v>0.29742201299999999</v>
       </c>
       <c r="E81">
-        <v>2.0483014000000001E-2</v>
+        <v>2.2126839999999998E-2</v>
       </c>
       <c r="F81">
         <v>9.5757468999999998E-2</v>
@@ -4545,7 +4542,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>5.5842000000000001E-4</v>
@@ -4557,7 +4554,7 @@
         <v>0.299342948</v>
       </c>
       <c r="E82">
-        <v>2.0471765999999999E-2</v>
+        <v>2.1342367000000001E-2</v>
       </c>
       <c r="F82">
         <v>9.5767783999999995E-2</v>
@@ -4571,7 +4568,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83">
         <v>8.1662800000000002E-4</v>
@@ -4583,7 +4580,7 @@
         <v>0.50025813699999999</v>
       </c>
       <c r="E83">
-        <v>2.6577284999999999E-2</v>
+        <v>2.9359783E-2</v>
       </c>
       <c r="F83">
         <v>9.2475197999999995E-2</v>
@@ -4597,7 +4594,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>8.2480499999999996E-4</v>
@@ -4609,7 +4606,7 @@
         <v>0.50018586899999995</v>
       </c>
       <c r="E84">
-        <v>2.6404024000000002E-2</v>
+        <v>2.8518803999999998E-2</v>
       </c>
       <c r="F84">
         <v>9.2061076000000006E-2</v>
@@ -4623,7 +4620,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85">
         <v>7.6000999999999998E-4</v>
@@ -4635,7 +4632,7 @@
         <v>0.50004636899999999</v>
       </c>
       <c r="E85">
-        <v>2.4838368E-2</v>
+        <v>2.7907983000000001E-2</v>
       </c>
       <c r="F85">
         <v>9.2153499E-2</v>
@@ -4649,7 +4646,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86">
         <v>7.4356499999999996E-4</v>
@@ -4661,7 +4658,7 @@
         <v>0.50049595099999999</v>
       </c>
       <c r="E86">
-        <v>2.549999E-2</v>
+        <v>2.6673499999999999E-2</v>
       </c>
       <c r="F86">
         <v>9.1281444000000003E-2</v>
@@ -4675,7 +4672,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87">
         <v>7.9224700000000005E-4</v>
@@ -4687,7 +4684,7 @@
         <v>0.500037642</v>
       </c>
       <c r="E87">
-        <v>2.6181453E-2</v>
+        <v>2.7468919000000001E-2</v>
       </c>
       <c r="F87">
         <v>9.1722809000000002E-2</v>
@@ -4701,7 +4698,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88">
         <v>8.5975099999999996E-4</v>
@@ -4713,7 +4710,7 @@
         <v>0.50000099099999995</v>
       </c>
       <c r="E88">
-        <v>2.6915963000000001E-2</v>
+        <v>2.7848810000000002E-2</v>
       </c>
       <c r="F88">
         <v>9.1934420000000003E-2</v>
@@ -4727,7 +4724,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89">
         <v>7.0235800000000004E-4</v>
@@ -4739,7 +4736,7 @@
         <v>0.40077602200000001</v>
       </c>
       <c r="E89">
-        <v>2.0475185999999999E-2</v>
+        <v>2.3096966E-2</v>
       </c>
       <c r="F89">
         <v>9.5246530999999995E-2</v>
@@ -4753,7 +4750,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90">
         <v>6.7399699999999996E-4</v>
@@ -4765,7 +4762,7 @@
         <v>0.399699582</v>
       </c>
       <c r="E90">
-        <v>2.1077841999999999E-2</v>
+        <v>2.5790118000000001E-2</v>
       </c>
       <c r="F90">
         <v>9.4840091000000001E-2</v>
@@ -4779,7 +4776,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91">
         <v>6.1247500000000002E-4</v>
@@ -4791,7 +4788,7 @@
         <v>0.39970823500000002</v>
       </c>
       <c r="E91">
-        <v>2.0777276000000001E-2</v>
+        <v>2.6694748000000001E-2</v>
       </c>
       <c r="F91">
         <v>9.4596124000000004E-2</v>
@@ -4805,7 +4802,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>5.9411399999999997E-4</v>
@@ -4817,7 +4814,7 @@
         <v>0.39958102600000001</v>
       </c>
       <c r="E92">
-        <v>2.0836258999999999E-2</v>
+        <v>1.6276200000000001E-2</v>
       </c>
       <c r="F92">
         <v>9.4314624E-2</v>
@@ -4831,7 +4828,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <v>6.1466400000000001E-4</v>
@@ -4843,7 +4840,7 @@
         <v>0.40017336999999997</v>
       </c>
       <c r="E93">
-        <v>2.0735538000000001E-2</v>
+        <v>2.2372559E-2</v>
       </c>
       <c r="F93">
         <v>9.4777095000000006E-2</v>
@@ -4857,7 +4854,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>6.6162899999999995E-4</v>
@@ -4869,7 +4866,7 @@
         <v>0.40074769799999999</v>
       </c>
       <c r="E94">
-        <v>2.2464746000000001E-2</v>
+        <v>2.2298869999999998E-2</v>
       </c>
       <c r="F94">
         <v>9.4852504000000004E-2</v>
@@ -4883,7 +4880,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B95">
         <v>5.9813300000000004E-4</v>
@@ -4895,7 +4892,7 @@
         <v>0.30013885400000001</v>
       </c>
       <c r="E95">
-        <v>1.9020628000000001E-2</v>
+        <v>2.0460501999999998E-2</v>
       </c>
       <c r="F95">
         <v>0.105815622</v>
@@ -4909,7 +4906,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>5.8159900000000003E-4</v>
@@ -4921,7 +4918,7 @@
         <v>0.30050412700000001</v>
       </c>
       <c r="E96">
-        <v>2.4834759000000001E-2</v>
+        <v>3.3435341E-2</v>
       </c>
       <c r="F96">
         <v>0.11494191300000001</v>
@@ -4935,7 +4932,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97">
         <v>5.2616900000000005E-4</v>
@@ -4947,7 +4944,7 @@
         <v>0.30007125099999998</v>
       </c>
       <c r="E97">
-        <v>1.9110674000000001E-2</v>
+        <v>1.43962E-2</v>
       </c>
       <c r="F97">
         <v>0.12915310899999999</v>
@@ -4961,7 +4958,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98">
         <v>5.04985E-4</v>
@@ -4973,7 +4970,7 @@
         <v>0.300041644</v>
       </c>
       <c r="E98">
-        <v>2.1812228999999999E-2</v>
+        <v>2.4023714000000002E-2</v>
       </c>
       <c r="F98">
         <v>0.135209721</v>
@@ -4987,7 +4984,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B99">
         <v>5.1139399999999998E-4</v>
@@ -4999,7 +4996,7 @@
         <v>0.30000299000000002</v>
       </c>
       <c r="E99">
-        <v>2.5789294000000001E-2</v>
+        <v>2.0355875999999998E-2</v>
       </c>
       <c r="F99">
         <v>0.14187197200000001</v>
@@ -5013,7 +5010,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100">
         <v>5.3669500000000001E-4</v>
@@ -5025,7 +5022,7 @@
         <v>0.30005833100000001</v>
       </c>
       <c r="E100">
-        <v>2.6643176000000001E-2</v>
+        <v>2.4404681000000001E-2</v>
       </c>
       <c r="F100">
         <v>0.14897181500000001</v>
@@ -5039,7 +5036,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B101">
         <v>7.1749599999999998E-4</v>
@@ -5051,7 +5048,7 @@
         <v>0.50050467899999995</v>
       </c>
       <c r="E101">
-        <v>2.8744255E-2</v>
+        <v>2.8163105000000001E-2</v>
       </c>
       <c r="F101">
         <v>8.8546011999999993E-2</v>
@@ -5065,7 +5062,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B102">
         <v>7.0684700000000003E-4</v>
@@ -5077,7 +5074,7 @@
         <v>0.50011482500000004</v>
       </c>
       <c r="E102">
-        <v>2.7856384000000001E-2</v>
+        <v>3.0175171000000001E-2</v>
       </c>
       <c r="F102">
         <v>8.9643099000000004E-2</v>
@@ -5091,7 +5088,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B103">
         <v>6.9391699999999995E-4</v>
@@ -5103,7 +5100,7 @@
         <v>0.49996141900000002</v>
       </c>
       <c r="E103">
-        <v>2.7173981E-2</v>
+        <v>3.3903497999999997E-2</v>
       </c>
       <c r="F103">
         <v>8.9105503000000003E-2</v>
@@ -5117,7 +5114,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104">
         <v>6.8117199999999996E-4</v>
@@ -5129,7 +5126,7 @@
         <v>0.49998881699999997</v>
       </c>
       <c r="E104">
-        <v>2.6883537999999998E-2</v>
+        <v>3.0178110000000001E-2</v>
       </c>
       <c r="F104">
         <v>8.8787929000000002E-2</v>
@@ -5143,7 +5140,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B105">
         <v>6.7872799999999997E-4</v>
@@ -5155,7 +5152,7 @@
         <v>0.49983905899999997</v>
       </c>
       <c r="E105">
-        <v>2.6575871000000001E-2</v>
+        <v>2.8687727E-2</v>
       </c>
       <c r="F105">
         <v>8.8617395000000002E-2</v>
@@ -5169,7 +5166,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B106">
         <v>7.1950099999999999E-4</v>
@@ -5181,7 +5178,7 @@
         <v>0.50012871199999998</v>
       </c>
       <c r="E106">
-        <v>2.6791129E-2</v>
+        <v>2.8405264E-2</v>
       </c>
       <c r="F106">
         <v>8.9807804000000005E-2</v>
@@ -5195,7 +5192,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B107">
         <v>6.1575900000000001E-4</v>
@@ -5207,7 +5204,7 @@
         <v>0.40001579300000001</v>
       </c>
       <c r="E107">
-        <v>2.3810701E-2</v>
+        <v>3.2579062999999998E-2</v>
       </c>
       <c r="F107">
         <v>9.3052383000000002E-2</v>
@@ -5221,7 +5218,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B108">
         <v>6.0389799999999996E-4</v>
@@ -5233,7 +5230,7 @@
         <v>0.40011335199999998</v>
       </c>
       <c r="E108">
-        <v>2.3536505999999999E-2</v>
+        <v>2.7406429E-2</v>
       </c>
       <c r="F108">
         <v>9.0973494000000002E-2</v>
@@ -5247,7 +5244,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B109">
         <v>5.7284199999999995E-4</v>
@@ -5259,7 +5256,7 @@
         <v>0.40002267499999999</v>
       </c>
       <c r="E109">
-        <v>2.5438157999999999E-2</v>
+        <v>3.3192933000000001E-2</v>
       </c>
       <c r="F109">
         <v>8.9342075000000007E-2</v>
@@ -5273,7 +5270,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B110">
         <v>5.5556900000000001E-4</v>
@@ -5285,7 +5282,7 @@
         <v>0.39995072199999998</v>
       </c>
       <c r="E110">
-        <v>2.5517495000000001E-2</v>
+        <v>3.0516689999999999E-2</v>
       </c>
       <c r="F110">
         <v>8.9309071000000004E-2</v>
@@ -5299,7 +5296,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B111">
         <v>5.6215900000000001E-4</v>
@@ -5311,7 +5308,7 @@
         <v>0.39991206200000001</v>
       </c>
       <c r="E111">
-        <v>2.6224523999999999E-2</v>
+        <v>3.3594800000000001E-2</v>
       </c>
       <c r="F111">
         <v>8.8778441999999999E-2</v>
@@ -5325,7 +5322,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112">
         <v>5.4408699999999996E-4</v>
@@ -5337,7 +5334,7 @@
         <v>0.29846209099999998</v>
       </c>
       <c r="E112">
-        <v>3.9465617000000001E-2</v>
+        <v>3.6771788E-2</v>
       </c>
       <c r="F112">
         <v>9.1228983E-2</v>
@@ -5351,7 +5348,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113">
         <v>4.5836E-4</v>
@@ -5363,7 +5360,7 @@
         <v>0.30222506500000001</v>
       </c>
       <c r="E113">
-        <v>4.5065751000000001E-2</v>
+        <v>4.3851583E-2</v>
       </c>
       <c r="F113">
         <v>9.2706983000000007E-2</v>
@@ -5377,7 +5374,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B114">
         <v>3.0230799999999999E-4</v>
@@ -5389,7 +5386,7 @@
         <v>0.296834975</v>
       </c>
       <c r="E114">
-        <v>3.5464901E-2</v>
+        <v>3.5984049999999997E-2</v>
       </c>
       <c r="F114">
         <v>9.9475516E-2</v>
@@ -5403,7 +5400,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B115">
         <v>2.0462099999999999E-4</v>
@@ -5415,7 +5412,7 @@
         <v>0.29701893400000001</v>
       </c>
       <c r="E115">
-        <v>3.6502927999999997E-2</v>
+        <v>3.6558697000000001E-2</v>
       </c>
       <c r="F115">
         <v>9.6633421999999997E-2</v>
@@ -5429,7 +5426,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116">
         <v>5.2193699999999999E-4</v>
@@ -5441,7 +5438,7 @@
         <v>0.40036071000000001</v>
       </c>
       <c r="E116">
-        <v>3.5911619999999998E-2</v>
+        <v>3.2603696000000001E-2</v>
       </c>
       <c r="F116">
         <v>8.9501396999999996E-2</v>
@@ -5455,7 +5452,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117">
         <v>4.4927699999999999E-4</v>
@@ -5467,7 +5464,7 @@
         <v>0.399764919</v>
       </c>
       <c r="E117">
-        <v>3.8463404E-2</v>
+        <v>3.2396071999999998E-2</v>
       </c>
       <c r="F117">
         <v>9.5001253999999993E-2</v>
@@ -5481,7 +5478,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B118">
         <v>2.8546399999999998E-4</v>
@@ -5493,7 +5490,7 @@
         <v>0.399049243</v>
       </c>
       <c r="E118">
-        <v>3.5169270000000002E-2</v>
+        <v>3.0683358000000001E-2</v>
       </c>
       <c r="F118">
         <v>0.106014196</v>
@@ -5507,7 +5504,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B119">
         <v>2.4194099999999999E-4</v>
@@ -5519,7 +5516,7 @@
         <v>0.40002338700000001</v>
       </c>
       <c r="E119">
-        <v>6.6916982E-2</v>
+        <v>2.9894546000000001E-2</v>
       </c>
       <c r="F119">
         <v>0.106790285</v>
@@ -5533,7 +5530,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B120">
         <v>6.5725699999999996E-4</v>
@@ -5545,7 +5542,7 @@
         <v>0.50333939500000002</v>
       </c>
       <c r="E120">
-        <v>2.8484735000000001E-2</v>
+        <v>2.5148977999999999E-2</v>
       </c>
       <c r="F120">
         <v>9.2660582000000005E-2</v>
@@ -5559,7 +5556,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B121">
         <v>5.2808399999999995E-4</v>
@@ -5571,7 +5568,7 @@
         <v>0.50035887499999998</v>
       </c>
       <c r="E121">
-        <v>4.2228937000000001E-2</v>
+        <v>3.6052422000000001E-2</v>
       </c>
       <c r="F121">
         <v>9.9396029999999996E-2</v>
@@ -5585,7 +5582,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B122">
         <v>3.5915099999999999E-4</v>
@@ -5597,7 +5594,7 @@
         <v>0.49840438399999998</v>
       </c>
       <c r="E122">
-        <v>3.5165189999999999E-2</v>
+        <v>3.4000928E-2</v>
       </c>
       <c r="F122">
         <v>0.108600243</v>
@@ -5611,7 +5608,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B123">
         <v>3.1127999999999999E-4</v>
@@ -5623,7 +5620,7 @@
         <v>0.49988101000000001</v>
       </c>
       <c r="E123">
-        <v>3.8919571E-2</v>
+        <v>3.2927250999999998E-2</v>
       </c>
       <c r="F123">
         <v>0.10772396300000001</v>
@@ -5637,7 +5634,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B124">
         <v>4.7841700000000002E-4</v>
@@ -5649,7 +5646,7 @@
         <v>0.30053032600000001</v>
       </c>
       <c r="E124">
-        <v>4.2801569999999997E-2</v>
+        <v>3.6170202999999998E-2</v>
       </c>
       <c r="F124">
         <v>0.103238596</v>
@@ -5663,7 +5660,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B125">
         <v>4.9956000000000002E-4</v>
@@ -5675,7 +5672,7 @@
         <v>0.29977596000000001</v>
       </c>
       <c r="E125">
-        <v>4.0141706999999999E-2</v>
+        <v>3.4628844999999998E-2</v>
       </c>
       <c r="F125">
         <v>0.102442293</v>
@@ -5689,7 +5686,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B126">
         <v>3.2126799999999999E-4</v>
@@ -5701,7 +5698,7 @@
         <v>0.30118348099999998</v>
       </c>
       <c r="E126">
-        <v>3.4455592E-2</v>
+        <v>3.0989666999999999E-2</v>
       </c>
       <c r="F126">
         <v>0.10929739199999999</v>
@@ -5715,7 +5712,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B127">
         <v>2.7020599999999999E-4</v>
@@ -5727,7 +5724,7 @@
         <v>0.29982659</v>
       </c>
       <c r="E127">
-        <v>4.1210475000000003E-2</v>
+        <v>3.2594555999999997E-2</v>
       </c>
       <c r="F127">
         <v>0.107326958</v>
@@ -5741,7 +5738,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B128">
         <v>4.9661200000000001E-4</v>
@@ -5753,7 +5750,7 @@
         <v>0.40112509299999999</v>
       </c>
       <c r="E128">
-        <v>4.5082240000000003E-2</v>
+        <v>3.7916901000000003E-2</v>
       </c>
       <c r="F128">
         <v>0.100575394</v>
@@ -5767,7 +5764,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B129">
         <v>5.3819899999999995E-4</v>
@@ -5779,7 +5776,7 @@
         <v>0.400130769</v>
       </c>
       <c r="E129">
-        <v>4.503236E-2</v>
+        <v>3.8375550000000001E-2</v>
       </c>
       <c r="F129">
         <v>0.10001264</v>
@@ -5793,7 +5790,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B130">
         <v>3.5480499999999998E-4</v>
@@ -5805,7 +5802,7 @@
         <v>0.39987046199999998</v>
       </c>
       <c r="E130">
-        <v>4.3609781E-2</v>
+        <v>3.4675389000000001E-2</v>
       </c>
       <c r="F130">
         <v>0.110734652</v>
@@ -5819,7 +5816,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B131">
         <v>3.0498E-4</v>
@@ -5831,7 +5828,7 @@
         <v>0.39983951400000001</v>
       </c>
       <c r="E131">
-        <v>3.8087335E-2</v>
+        <v>3.4950776000000003E-2</v>
       </c>
       <c r="F131">
         <v>0.10964180599999999</v>
@@ -5845,7 +5842,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B132">
         <v>5.7161400000000002E-4</v>
@@ -5857,7 +5854,7 @@
         <v>0.49980213000000001</v>
       </c>
       <c r="E132">
-        <v>4.6878808000000001E-2</v>
+        <v>3.7310514000000003E-2</v>
       </c>
       <c r="F132">
         <v>0.100384342</v>
@@ -5871,7 +5868,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B133">
         <v>6.1787599999999995E-4</v>
@@ -5883,7 +5880,7 @@
         <v>0.500028205</v>
       </c>
       <c r="E133">
-        <v>4.9885762E-2</v>
+        <v>3.8094810999999999E-2</v>
       </c>
       <c r="F133">
         <v>9.9515904000000002E-2</v>
@@ -5897,7 +5894,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B134">
         <v>4.3410900000000001E-4</v>
@@ -5909,7 +5906,7 @@
         <v>0.49784190099999998</v>
       </c>
       <c r="E134">
-        <v>7.3446624000000002E-2</v>
+        <v>3.7069141E-2</v>
       </c>
       <c r="F134">
         <v>0.110014009</v>
@@ -5923,7 +5920,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B135">
         <v>3.79055E-4</v>
@@ -5935,7 +5932,7 @@
         <v>0.49926978</v>
       </c>
       <c r="E135">
-        <v>6.1689590000000002E-2</v>
+        <v>3.2560628000000001E-2</v>
       </c>
       <c r="F135">
         <v>0.10874370999999999</v>
@@ -5949,7 +5946,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B136">
         <v>5.0153199999999995E-4</v>
@@ -5961,7 +5958,7 @@
         <v>0.29999452700000001</v>
       </c>
       <c r="E136">
-        <v>3.9067486999999998E-2</v>
+        <v>3.3678996000000003E-2</v>
       </c>
       <c r="F136">
         <v>0.109497229</v>
@@ -5975,7 +5972,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B137">
         <v>5.0392299999999998E-4</v>
@@ -5987,7 +5984,7 @@
         <v>0.29948034400000001</v>
       </c>
       <c r="E137">
-        <v>4.7531764999999997E-2</v>
+        <v>3.5209544000000002E-2</v>
       </c>
       <c r="F137">
         <v>0.109779302</v>
@@ -6001,7 +5998,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B138">
         <v>3.4781999999999999E-4</v>
@@ -6013,7 +6010,7 @@
         <v>0.29999618500000003</v>
       </c>
       <c r="E138">
-        <v>4.7035642000000003E-2</v>
+        <v>3.7449899000000002E-2</v>
       </c>
       <c r="F138">
         <v>0.10975439100000001</v>
@@ -6027,7 +6024,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B139">
         <v>2.7612200000000001E-4</v>
@@ -6039,7 +6036,7 @@
         <v>0.300056612</v>
       </c>
       <c r="E139">
-        <v>4.5309544E-2</v>
+        <v>3.7161039999999999E-2</v>
       </c>
       <c r="F139">
         <v>0.111006706</v>
@@ -6053,7 +6050,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B140">
         <v>5.4036500000000001E-4</v>
@@ -6065,7 +6062,7 @@
         <v>0.40050686699999999</v>
       </c>
       <c r="E140">
-        <v>4.6744597999999998E-2</v>
+        <v>3.8979002999999998E-2</v>
       </c>
       <c r="F140">
         <v>9.8130669000000004E-2</v>
@@ -6079,7 +6076,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B141">
         <v>5.2480699999999996E-4</v>
@@ -6091,7 +6088,7 @@
         <v>0.401062998</v>
       </c>
       <c r="E141">
-        <v>3.7531783999999999E-2</v>
+        <v>3.1236511000000002E-2</v>
       </c>
       <c r="F141">
         <v>0.104900016</v>
@@ -6105,7 +6102,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B142">
         <v>3.9074900000000002E-4</v>
@@ -6117,7 +6114,7 @@
         <v>0.39881570100000002</v>
       </c>
       <c r="E142">
-        <v>4.2380693999999997E-2</v>
+        <v>3.3225333000000003E-2</v>
       </c>
       <c r="F142">
         <v>0.10894643900000001</v>
@@ -6131,7 +6128,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B143">
         <v>3.3084899999999998E-4</v>
@@ -6143,7 +6140,7 @@
         <v>0.39911565100000002</v>
       </c>
       <c r="E143">
-        <v>4.8708187999999999E-2</v>
+        <v>3.6519250000000003E-2</v>
       </c>
       <c r="F143">
         <v>0.108711746</v>
@@ -6157,7 +6154,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B144">
         <v>5.6678999999999996E-4</v>
@@ -6169,7 +6166,7 @@
         <v>0.50163681100000002</v>
       </c>
       <c r="E144">
-        <v>4.4913554000000001E-2</v>
+        <v>3.7039750000000003E-2</v>
       </c>
       <c r="F144">
         <v>9.8336361999999997E-2</v>
@@ -6183,7 +6180,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B145">
         <v>6.0097700000000004E-4</v>
@@ -6195,7 +6192,7 @@
         <v>0.49942540800000002</v>
       </c>
       <c r="E145">
-        <v>4.4640606999999999E-2</v>
+        <v>3.6877614000000003E-2</v>
       </c>
       <c r="F145">
         <v>9.8248176000000007E-2</v>
@@ -6209,7 +6206,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B146">
         <v>4.8327E-4</v>
@@ -6221,7 +6218,7 @@
         <v>0.50056330999999998</v>
       </c>
       <c r="E146">
-        <v>5.5029842000000002E-2</v>
+        <v>3.3496234999999999E-2</v>
       </c>
       <c r="F146">
         <v>0.102968558</v>
@@ -6235,7 +6232,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B147">
         <v>4.9274500000000005E-4</v>
@@ -6247,7 +6244,7 @@
         <v>0.29988877800000002</v>
       </c>
       <c r="E147">
-        <v>3.6448479999999998E-2</v>
+        <v>3.3134829999999997E-2</v>
       </c>
       <c r="F147">
         <v>0.10019613600000001</v>
@@ -6261,7 +6258,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B148">
         <v>3.2658299999999997E-4</v>
@@ -6273,7 +6270,7 @@
         <v>0.29819178499999999</v>
       </c>
       <c r="E148">
-        <v>3.5661086000000002E-2</v>
+        <v>3.3243096E-2</v>
       </c>
       <c r="F148">
         <v>0.10441104800000001</v>
@@ -6287,7 +6284,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B149">
         <v>2.25011E-4</v>
@@ -6299,7 +6296,7 @@
         <v>0.29830796199999998</v>
       </c>
       <c r="E149">
-        <v>3.2729743999999998E-2</v>
+        <v>2.8524424999999999E-2</v>
       </c>
       <c r="F149">
         <v>0.107690773</v>
@@ -6313,7 +6310,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B150">
         <v>5.0822400000000005E-4</v>
@@ -6325,7 +6322,7 @@
         <v>0.39998064300000002</v>
       </c>
       <c r="E150">
-        <v>3.5481061000000001E-2</v>
+        <v>2.8374363E-2</v>
       </c>
       <c r="F150">
         <v>9.7909154999999998E-2</v>
@@ -6339,7 +6336,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B151">
         <v>3.85542E-4</v>
@@ -6351,7 +6348,7 @@
         <v>0.40142784199999998</v>
       </c>
       <c r="E151">
-        <v>3.7443071000000001E-2</v>
+        <v>3.2418615999999997E-2</v>
       </c>
       <c r="F151">
         <v>0.104410629</v>
@@ -6365,7 +6362,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B152">
         <v>2.7817599999999999E-4</v>
@@ -6377,7 +6374,7 @@
         <v>0.40073868600000001</v>
       </c>
       <c r="E152">
-        <v>4.8454603999999998E-2</v>
+        <v>2.9233142E-2</v>
       </c>
       <c r="F152">
         <v>0.108353029</v>
@@ -6391,7 +6388,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B153">
         <v>5.7829300000000001E-4</v>
@@ -6403,7 +6400,7 @@
         <v>0.49932425499999999</v>
       </c>
       <c r="E153">
-        <v>3.3814474999999997E-2</v>
+        <v>2.2336103E-2</v>
       </c>
       <c r="F153">
         <v>9.9111609000000003E-2</v>
@@ -6417,7 +6414,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B154">
         <v>4.49791E-4</v>
@@ -6429,7 +6426,7 @@
         <v>0.49965446800000002</v>
       </c>
       <c r="E154">
-        <v>4.3603258999999998E-2</v>
+        <v>3.5048993000000001E-2</v>
       </c>
       <c r="F154">
         <v>0.10304944100000001</v>
@@ -6443,7 +6440,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B155">
         <v>3.38769E-4</v>
@@ -6455,7 +6452,7 @@
         <v>0.49989457599999998</v>
       </c>
       <c r="E155">
-        <v>3.8023349999999997E-2</v>
+        <v>3.2506526000000001E-2</v>
       </c>
       <c r="F155">
         <v>0.108397884</v>
@@ -6469,7 +6466,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B156">
         <v>5.0523799999999998E-4</v>
@@ -6481,7 +6478,7 @@
         <v>0.30028363699999999</v>
       </c>
       <c r="E156">
-        <v>4.1271736000000003E-2</v>
+        <v>3.2856110000000001E-2</v>
       </c>
       <c r="F156">
         <v>0.102398581</v>
@@ -6495,7 +6492,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B157">
         <v>3.7785800000000001E-4</v>
@@ -6507,7 +6504,7 @@
         <v>0.30006925000000001</v>
       </c>
       <c r="E157">
-        <v>3.6809690999999999E-2</v>
+        <v>2.8938051999999999E-2</v>
       </c>
       <c r="F157">
         <v>0.108183192</v>
@@ -6521,7 +6518,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B158">
         <v>2.8554999999999997E-4</v>
@@ -6533,7 +6530,7 @@
         <v>0.300038366</v>
       </c>
       <c r="E158">
-        <v>3.8511337E-2</v>
+        <v>2.9716191999999999E-2</v>
       </c>
       <c r="F158">
         <v>0.107811647</v>
@@ -6547,7 +6544,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B159">
         <v>4.70111E-4</v>
@@ -6559,7 +6556,7 @@
         <v>0.401582726</v>
       </c>
       <c r="E159">
-        <v>4.3640801999999999E-2</v>
+        <v>3.5263436000000002E-2</v>
       </c>
       <c r="F159">
         <v>0.101165298</v>
@@ -6573,7 +6570,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B160">
         <v>4.27133E-4</v>
@@ -6585,7 +6582,7 @@
         <v>0.39933699</v>
       </c>
       <c r="E160">
-        <v>4.1300086E-2</v>
+        <v>3.2918416999999998E-2</v>
       </c>
       <c r="F160">
         <v>0.10437996400000001</v>
@@ -6599,7 +6596,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B161">
         <v>3.3823700000000002E-4</v>
@@ -6611,7 +6608,7 @@
         <v>0.40005315400000002</v>
       </c>
       <c r="E161">
-        <v>4.5480125000000003E-2</v>
+        <v>3.0640058000000001E-2</v>
       </c>
       <c r="F161">
         <v>0.108152225</v>
@@ -6625,7 +6622,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B162">
         <v>5.7063399999999998E-4</v>
@@ -6637,7 +6634,7 @@
         <v>0.50041046</v>
       </c>
       <c r="E162">
-        <v>4.6042647999999999E-2</v>
+        <v>3.2445148E-2</v>
       </c>
       <c r="F162">
         <v>0.100247435</v>
@@ -6651,7 +6648,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B163">
         <v>5.2623700000000004E-4</v>
@@ -6663,7 +6660,7 @@
         <v>0.49990065900000002</v>
       </c>
       <c r="E163">
-        <v>5.1275907000000003E-2</v>
+        <v>4.1581205000000003E-2</v>
       </c>
       <c r="F163">
         <v>9.9901226999999995E-2</v>
@@ -6677,7 +6674,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B164">
         <v>3.8766700000000001E-4</v>
@@ -6689,7 +6686,7 @@
         <v>0.50011976599999997</v>
       </c>
       <c r="E164">
-        <v>5.4014270000000003E-2</v>
+        <v>2.8642780999999999E-2</v>
       </c>
       <c r="F164">
         <v>0.108257747</v>
@@ -6703,7 +6700,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B165">
         <v>4.8464800000000001E-4</v>
@@ -6715,7 +6712,7 @@
         <v>0.30006123899999998</v>
       </c>
       <c r="E165">
-        <v>3.8515338000000003E-2</v>
+        <v>2.9416213E-2</v>
       </c>
       <c r="F165">
         <v>0.107851928</v>
@@ -6729,7 +6726,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B166">
         <v>4.0982300000000002E-4</v>
@@ -6741,7 +6738,7 @@
         <v>0.30000044100000001</v>
       </c>
       <c r="E166">
-        <v>3.9715410999999999E-2</v>
+        <v>3.1521225E-2</v>
       </c>
       <c r="F166">
         <v>0.113022656</v>
@@ -6755,7 +6752,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B167">
         <v>3.1294599999999998E-4</v>
@@ -6767,7 +6764,7 @@
         <v>0.30003166100000001</v>
       </c>
       <c r="E167">
-        <v>4.9237347000000001E-2</v>
+        <v>3.5077997999999999E-2</v>
       </c>
       <c r="F167">
         <v>0.11181050300000001</v>
@@ -6781,7 +6778,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B168">
         <v>5.2144500000000005E-4</v>
@@ -6793,7 +6790,7 @@
         <v>0.40037684400000001</v>
       </c>
       <c r="E168">
-        <v>4.5546267000000001E-2</v>
+        <v>3.9031063999999997E-2</v>
       </c>
       <c r="F168">
         <v>9.4369333E-2</v>
@@ -6807,7 +6804,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B169">
         <v>4.6947900000000002E-4</v>
@@ -6819,7 +6816,7 @@
         <v>0.39994793499999998</v>
       </c>
       <c r="E169">
-        <v>3.7810668999999998E-2</v>
+        <v>2.8204534E-2</v>
       </c>
       <c r="F169">
         <v>9.1765380999999993E-2</v>
@@ -6833,7 +6830,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B170">
         <v>3.4246299999999999E-4</v>
@@ -6845,7 +6842,7 @@
         <v>0.39314682299999998</v>
       </c>
       <c r="E170">
-        <v>3.3905121000000003E-2</v>
+        <v>3.3906947E-2</v>
       </c>
       <c r="F170">
         <v>9.3838846000000004E-2</v>
@@ -6859,7 +6856,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B171">
         <v>5.7827599999999996E-4</v>
@@ -6871,7 +6868,7 @@
         <v>0.49995556099999999</v>
       </c>
       <c r="E171">
-        <v>4.8558603999999998E-2</v>
+        <v>3.7198548999999997E-2</v>
       </c>
       <c r="F171">
         <v>9.5985962999999994E-2</v>
@@ -6885,7 +6882,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B172">
         <v>5.4361800000000005E-4</v>
@@ -6897,7 +6894,7 @@
         <v>0.50145735700000005</v>
       </c>
       <c r="E172">
-        <v>4.8427867999999999E-2</v>
+        <v>3.2468634000000003E-2</v>
       </c>
       <c r="F172">
         <v>0.101831532</v>
@@ -6911,7 +6908,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B173">
         <v>3.1115599999999999E-4</v>
@@ -6923,7 +6920,7 @@
         <v>0.63610518599999999</v>
       </c>
       <c r="E173">
-        <v>4.8044137000000001E-2</v>
+        <v>3.2970342E-2</v>
       </c>
       <c r="F173">
         <v>0.10235364600000001</v>
@@ -6937,7 +6934,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B174">
         <v>4.84589E-4</v>
@@ -6949,7 +6946,7 @@
         <v>0.29996972900000002</v>
       </c>
       <c r="E174">
-        <v>2.7657220999999999E-2</v>
+        <v>2.5996668000000001E-2</v>
       </c>
       <c r="F174">
         <v>0.10192069600000001</v>
@@ -6963,7 +6960,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B175">
         <v>4.84723E-4</v>
@@ -6975,7 +6972,7 @@
         <v>0.30086995999999999</v>
       </c>
       <c r="E175">
-        <v>2.9996608000000001E-2</v>
+        <v>2.8763354000000001E-2</v>
       </c>
       <c r="F175">
         <v>0.100728892</v>
@@ -6989,7 +6986,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B176">
         <v>4.2448600000000001E-4</v>
@@ -7001,7 +6998,7 @@
         <v>0.30027710699999999</v>
       </c>
       <c r="E176">
-        <v>3.3680896000000002E-2</v>
+        <v>3.3740159999999998E-2</v>
       </c>
       <c r="F176">
         <v>0.101963254</v>
@@ -7015,7 +7012,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B177">
         <v>3.21245E-4</v>
@@ -7027,7 +7024,7 @@
         <v>0.30165437000000001</v>
       </c>
       <c r="E177">
-        <v>2.8404616000000001E-2</v>
+        <v>2.7233378999999999E-2</v>
       </c>
       <c r="F177">
         <v>0.106520084</v>
@@ -7041,7 +7038,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B178">
         <v>2.53766E-4</v>
@@ -7053,7 +7050,7 @@
         <v>0.30044469600000001</v>
       </c>
       <c r="E178">
-        <v>2.9515776000000001E-2</v>
+        <v>2.0616160000000001E-2</v>
       </c>
       <c r="F178">
         <v>0.110764391</v>
@@ -7067,7 +7064,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B179">
         <v>2.18042E-4</v>
@@ -7079,7 +7076,7 @@
         <v>0.29925571200000001</v>
       </c>
       <c r="E179">
-        <v>4.0818380000000001E-2</v>
+        <v>1.8358867000000001E-2</v>
       </c>
       <c r="F179">
         <v>0.112600636</v>
@@ -7093,7 +7090,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B180">
         <v>2.04692E-4</v>
@@ -7105,7 +7102,7 @@
         <v>0.30026093500000001</v>
       </c>
       <c r="E180">
-        <v>2.8816622E-2</v>
+        <v>2.1651783000000001E-2</v>
       </c>
       <c r="F180">
         <v>0.108112661</v>
@@ -7119,7 +7116,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B181">
         <v>5.2550700000000004E-4</v>
@@ -7131,7 +7128,7 @@
         <v>0.40456734900000002</v>
       </c>
       <c r="E181">
-        <v>3.485328E-2</v>
+        <v>3.3982204000000002E-2</v>
       </c>
       <c r="F181">
         <v>0.100120453</v>
@@ -7145,7 +7142,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B182">
         <v>5.3621300000000001E-4</v>
@@ -7157,7 +7154,7 @@
         <v>0.40080857199999997</v>
       </c>
       <c r="E182">
-        <v>3.6146741000000003E-2</v>
+        <v>3.5946688999999997E-2</v>
       </c>
       <c r="F182">
         <v>9.9449108999999994E-2</v>
@@ -7171,7 +7168,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B183">
         <v>4.7342700000000001E-4</v>
@@ -7183,7 +7180,7 @@
         <v>0.39943406199999998</v>
       </c>
       <c r="E183">
-        <v>3.4894360999999999E-2</v>
+        <v>3.4410559E-2</v>
       </c>
       <c r="F183">
         <v>0.103465405</v>
@@ -7197,7 +7194,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B184">
         <v>3.60226E-4</v>
@@ -7209,7 +7206,7 @@
         <v>0.39901998599999999</v>
       </c>
       <c r="E184">
-        <v>3.1833512000000001E-2</v>
+        <v>2.698455E-2</v>
       </c>
       <c r="F184">
         <v>0.110368597</v>
@@ -7223,7 +7220,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B185">
         <v>2.6574900000000002E-4</v>
@@ -7235,7 +7232,7 @@
         <v>0.40128135700000001</v>
       </c>
       <c r="E185">
-        <v>4.7793125999999998E-2</v>
+        <v>2.6107383000000001E-2</v>
       </c>
       <c r="F185">
         <v>0.10981632400000001</v>
@@ -7249,7 +7246,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B186">
         <v>2.40091E-4</v>
@@ -7261,7 +7258,7 @@
         <v>0.398708968</v>
       </c>
       <c r="E186">
-        <v>7.3278926999999994E-2</v>
+        <v>2.5653498E-2</v>
       </c>
       <c r="F186">
         <v>0.109913707</v>
@@ -7275,7 +7272,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B187">
         <v>2.2167000000000001E-4</v>
@@ -7287,7 +7284,7 @@
         <v>0.40003253100000002</v>
       </c>
       <c r="E187">
-        <v>7.0955006000000001E-2</v>
+        <v>1.8274945000000001E-2</v>
       </c>
       <c r="F187">
         <v>0.11041532699999999</v>
@@ -7301,7 +7298,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B188">
         <v>6.5489400000000005E-4</v>
@@ -7313,7 +7310,7 @@
         <v>0.50102734100000001</v>
       </c>
       <c r="E188">
-        <v>4.0853266999999999E-2</v>
+        <v>3.9141698000000003E-2</v>
       </c>
       <c r="F188">
         <v>9.9028083000000003E-2</v>
@@ -7327,7 +7324,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B189">
         <v>6.7796600000000001E-4</v>
@@ -7339,7 +7336,7 @@
         <v>0.49949943499999999</v>
       </c>
       <c r="E189">
-        <v>4.2382797999999999E-2</v>
+        <v>4.1188469999999998E-2</v>
       </c>
       <c r="F189">
         <v>9.7580385000000006E-2</v>
@@ -7353,7 +7350,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B190">
         <v>5.4967899999999997E-4</v>
@@ -7365,7 +7362,7 @@
         <v>0.50015754999999995</v>
       </c>
       <c r="E190">
-        <v>4.0361706999999997E-2</v>
+        <v>4.1100949999999997E-2</v>
       </c>
       <c r="F190">
         <v>0.101830843</v>
@@ -7379,7 +7376,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B191">
         <v>3.9895000000000002E-4</v>
@@ -7391,7 +7388,7 @@
         <v>0.49934918099999998</v>
       </c>
       <c r="E191">
-        <v>4.7611008000000003E-2</v>
+        <v>2.8115138000000001E-2</v>
       </c>
       <c r="F191">
         <v>0.111231076</v>
@@ -7405,7 +7402,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B192">
         <v>3.54428E-4</v>
@@ -7417,7 +7414,7 @@
         <v>0.50286452199999998</v>
       </c>
       <c r="E192">
-        <v>7.4892011999999994E-2</v>
+        <v>2.5991879999999998E-2</v>
       </c>
       <c r="F192">
         <v>0.108552304</v>
@@ -7431,7 +7428,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B193">
         <v>3.3188100000000002E-4</v>
@@ -7443,7 +7440,7 @@
         <v>0.49958002400000001</v>
       </c>
       <c r="E193">
-        <v>6.5147737999999997E-2</v>
+        <v>2.5567070000000001E-2</v>
       </c>
       <c r="F193">
         <v>0.111880279</v>
@@ -7457,7 +7454,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B194">
         <v>3.1751099999999998E-4</v>
@@ -7469,7 +7466,7 @@
         <v>0.50318848900000002</v>
       </c>
       <c r="E194">
-        <v>6.8701842999999999E-2</v>
+        <v>2.5804876000000001E-2</v>
       </c>
       <c r="F194">
         <v>0.110167457</v>
@@ -7483,7 +7480,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B195">
         <v>5.18681E-4</v>
@@ -7495,7 +7492,7 @@
         <v>0.29919042400000001</v>
       </c>
       <c r="E195">
-        <v>3.9886977999999997E-2</v>
+        <v>4.0519695000000001E-2</v>
       </c>
       <c r="F195">
         <v>0.102206272</v>
@@ -7509,7 +7506,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B196">
         <v>4.9001800000000005E-4</v>
@@ -7521,7 +7518,7 @@
         <v>0.30003544999999998</v>
       </c>
       <c r="E196">
-        <v>3.5557048000000001E-2</v>
+        <v>3.5539057999999998E-2</v>
       </c>
       <c r="F196">
         <v>0.108222652</v>
@@ -7535,7 +7532,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B197">
         <v>5.0937400000000005E-4</v>
@@ -7547,7 +7544,7 @@
         <v>0.29971783400000002</v>
       </c>
       <c r="E197">
-        <v>3.4331379000000002E-2</v>
+        <v>3.1520261000000001E-2</v>
       </c>
       <c r="F197">
         <v>0.109312838</v>
@@ -7561,7 +7558,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B198">
         <v>3.65507E-4</v>
@@ -7573,7 +7570,7 @@
         <v>0.30000356700000003</v>
       </c>
       <c r="E198">
-        <v>5.1118615999999999E-2</v>
+        <v>2.52023E-2</v>
       </c>
       <c r="F198">
         <v>0.114449734</v>
@@ -7587,7 +7584,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B199">
         <v>3.0124600000000002E-4</v>
@@ -7599,7 +7596,7 @@
         <v>0.29861169900000001</v>
       </c>
       <c r="E199">
-        <v>6.6413747999999995E-2</v>
+        <v>2.5660776E-2</v>
       </c>
       <c r="F199">
         <v>0.115184302</v>
@@ -7613,7 +7610,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B200">
         <v>2.8024199999999999E-4</v>
@@ -7625,7 +7622,7 @@
         <v>0.29985795599999998</v>
       </c>
       <c r="E200">
-        <v>6.6196255999999995E-2</v>
+        <v>2.3959202999999998E-2</v>
       </c>
       <c r="F200">
         <v>0.114170378</v>
@@ -7639,7 +7636,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B201">
         <v>2.7145000000000001E-4</v>
@@ -7651,7 +7648,7 @@
         <v>0.29980958600000002</v>
       </c>
       <c r="E201">
-        <v>6.1389894E-2</v>
+        <v>2.4672979000000001E-2</v>
       </c>
       <c r="F201">
         <v>0.114551606</v>
@@ -7665,7 +7662,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B202">
         <v>4.9716300000000001E-4</v>
@@ -7677,7 +7674,7 @@
         <v>0.39820402900000001</v>
       </c>
       <c r="E202">
-        <v>3.9495048999999997E-2</v>
+        <v>4.0553687999999997E-2</v>
       </c>
       <c r="F202">
         <v>0.107373751</v>
@@ -7691,7 +7688,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B203">
         <v>4.92466E-4</v>
@@ -7703,7 +7700,7 @@
         <v>0.39896216099999998</v>
       </c>
       <c r="E203">
-        <v>3.8421223999999997E-2</v>
+        <v>3.7943923999999997E-2</v>
       </c>
       <c r="F203">
         <v>0.106738518</v>
@@ -7717,7 +7714,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B204">
         <v>5.3962499999999996E-4</v>
@@ -7729,7 +7726,7 @@
         <v>0.39933082600000003</v>
       </c>
       <c r="E204">
-        <v>4.0525404000000001E-2</v>
+        <v>3.9118199999999999E-2</v>
       </c>
       <c r="F204">
         <v>0.108351713</v>
@@ -7743,7 +7740,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B205">
         <v>4.2028999999999998E-4</v>
@@ -7755,7 +7752,7 @@
         <v>0.40105601099999999</v>
       </c>
       <c r="E205">
-        <v>6.8845437999999995E-2</v>
+        <v>2.8223287999999999E-2</v>
       </c>
       <c r="F205">
         <v>0.116344845</v>
@@ -7769,7 +7766,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B206">
         <v>3.3060400000000002E-4</v>
@@ -7781,7 +7778,7 @@
         <v>0.39966170000000001</v>
       </c>
       <c r="E206">
-        <v>4.3627777999999999E-2</v>
+        <v>2.8835245999999998E-2</v>
       </c>
       <c r="F206">
         <v>0.11832458899999999</v>
@@ -7795,7 +7792,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B207">
         <v>3.0584500000000001E-4</v>
@@ -7807,7 +7804,7 @@
         <v>0.401437606</v>
       </c>
       <c r="E207">
-        <v>3.6550775000000001E-2</v>
+        <v>2.7479773999999998E-2</v>
       </c>
       <c r="F207">
         <v>0.119888392</v>
@@ -7821,7 +7818,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B208">
         <v>2.9125199999999998E-4</v>
@@ -7833,7 +7830,7 @@
         <v>0.40070955899999999</v>
       </c>
       <c r="E208">
-        <v>5.3149543E-2</v>
+        <v>3.0562319000000001E-2</v>
       </c>
       <c r="F208">
         <v>0.114329707</v>
@@ -7847,7 +7844,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B209">
         <v>5.6804700000000002E-4</v>
@@ -7859,7 +7856,7 @@
         <v>0.50076906200000004</v>
       </c>
       <c r="E209">
-        <v>4.2668380999999998E-2</v>
+        <v>4.1167963000000002E-2</v>
       </c>
       <c r="F209">
         <v>0.103836703</v>
@@ -7873,7 +7870,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B210">
         <v>5.8126300000000005E-4</v>
@@ -7885,7 +7882,7 @@
         <v>0.49977500800000002</v>
       </c>
       <c r="E210">
-        <v>4.4473360000000003E-2</v>
+        <v>4.1036514000000003E-2</v>
       </c>
       <c r="F210">
         <v>0.10628235699999999</v>
@@ -7899,7 +7896,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B211">
         <v>6.2164100000000003E-4</v>
@@ -7911,7 +7908,7 @@
         <v>0.499679392</v>
       </c>
       <c r="E211">
-        <v>4.0051691E-2</v>
+        <v>4.1156499999999999E-2</v>
       </c>
       <c r="F211">
         <v>0.110220675</v>
@@ -7925,7 +7922,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B212">
         <v>4.8212199999999998E-4</v>
@@ -7937,7 +7934,7 @@
         <v>0.499367542</v>
       </c>
       <c r="E212">
-        <v>6.9093981999999998E-2</v>
+        <v>3.0501744000000001E-2</v>
       </c>
       <c r="F212">
         <v>0.116096568</v>
@@ -7951,7 +7948,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B213">
         <v>3.6832299999999999E-4</v>
@@ -7963,7 +7960,7 @@
         <v>0.50092015999999995</v>
       </c>
       <c r="E213">
-        <v>3.8758915999999997E-2</v>
+        <v>2.9811035E-2</v>
       </c>
       <c r="F213">
         <v>0.122499317</v>
@@ -7977,7 +7974,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B214">
         <v>3.2732300000000002E-4</v>
@@ -7989,7 +7986,7 @@
         <v>0.49992052799999998</v>
       </c>
       <c r="E214">
-        <v>4.0073879999999999E-2</v>
+        <v>2.0171081E-2</v>
       </c>
       <c r="F214">
         <v>0.12782097000000001</v>
@@ -8003,7 +8000,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B215">
         <v>3.2196200000000002E-4</v>
@@ -8015,7 +8012,7 @@
         <v>0.49934297</v>
       </c>
       <c r="E215">
-        <v>6.0286174999999997E-2</v>
+        <v>2.8582026E-2</v>
       </c>
       <c r="F215">
         <v>0.11676415800000001</v>
@@ -8029,7 +8026,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B216">
         <v>4.8343099999999999E-4</v>
@@ -8041,7 +8038,7 @@
         <v>0.30003924100000001</v>
       </c>
       <c r="E216">
-        <v>3.2509215000000001E-2</v>
+        <v>2.9279166999999998E-2</v>
       </c>
       <c r="F216">
         <v>0.114784118</v>
@@ -8055,7 +8052,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B217">
         <v>4.7872600000000001E-4</v>
@@ -8067,7 +8064,7 @@
         <v>0.29903062699999999</v>
       </c>
       <c r="E217">
-        <v>3.2588632999999999E-2</v>
+        <v>2.5857577999999999E-2</v>
       </c>
       <c r="F217">
         <v>0.10958135099999999</v>
@@ -8081,7 +8078,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B218">
         <v>4.4455299999999998E-4</v>
@@ -8093,7 +8090,7 @@
         <v>0.29980042600000001</v>
       </c>
       <c r="E218">
-        <v>3.1885854999999998E-2</v>
+        <v>2.689706E-2</v>
       </c>
       <c r="F218">
         <v>0.10856081200000001</v>
@@ -8107,7 +8104,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B219">
         <v>3.8442400000000002E-4</v>
@@ -8119,7 +8116,7 @@
         <v>0.300352656</v>
       </c>
       <c r="E219">
-        <v>3.7383800000000002E-2</v>
+        <v>2.7090680999999998E-2</v>
       </c>
       <c r="F219">
         <v>0.108928434</v>
@@ -8133,7 +8130,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B220">
         <v>3.2228600000000002E-4</v>
@@ -8145,7 +8142,7 @@
         <v>0.29982069500000003</v>
       </c>
       <c r="E220">
-        <v>4.3492595000000002E-2</v>
+        <v>2.6526444999999999E-2</v>
       </c>
       <c r="F220">
         <v>0.110902872</v>
@@ -8159,7 +8156,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B221">
         <v>2.9366100000000002E-4</v>
@@ -8171,7 +8168,7 @@
         <v>0.30012657700000001</v>
       </c>
       <c r="E221">
-        <v>6.1729950999999998E-2</v>
+        <v>3.2150801999999999E-2</v>
       </c>
       <c r="F221">
         <v>0.115226499</v>
@@ -8185,7 +8182,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B222">
         <v>2.7240599999999999E-4</v>
@@ -8197,7 +8194,7 @@
         <v>0.29883443599999998</v>
       </c>
       <c r="E222">
-        <v>6.6170259999999995E-2</v>
+        <v>3.1520719000000003E-2</v>
       </c>
       <c r="F222">
         <v>0.11349644</v>
@@ -8211,7 +8208,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B223">
         <v>5.1822599999999999E-4</v>
@@ -8223,7 +8220,7 @@
         <v>0.40103576400000002</v>
       </c>
       <c r="E223">
-        <v>3.7581605999999997E-2</v>
+        <v>2.8851980999999999E-2</v>
       </c>
       <c r="F223">
         <v>0.109166028</v>
@@ -8237,7 +8234,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B224">
         <v>5.0449399999999997E-4</v>
@@ -8249,7 +8246,7 @@
         <v>0.40004508500000002</v>
       </c>
       <c r="E224">
-        <v>3.8170769E-2</v>
+        <v>3.0098415E-2</v>
       </c>
       <c r="F224">
         <v>0.109666481</v>
@@ -8263,7 +8260,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B225">
         <v>5.07009E-4</v>
@@ -8275,7 +8272,7 @@
         <v>0.39886264100000002</v>
       </c>
       <c r="E225">
-        <v>4.0584954999999999E-2</v>
+        <v>3.4996043999999997E-2</v>
       </c>
       <c r="F225">
         <v>0.109285695</v>
@@ -8289,7 +8286,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B226">
         <v>4.29863E-4</v>
@@ -8301,7 +8298,7 @@
         <v>0.39965901199999998</v>
       </c>
       <c r="E226">
-        <v>7.1105811000000005E-2</v>
+        <v>3.5208625E-2</v>
       </c>
       <c r="F226">
         <v>0.110949139</v>
@@ -8315,7 +8312,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B227">
         <v>3.4672300000000001E-4</v>
@@ -8327,7 +8324,7 @@
         <v>0.39999618199999998</v>
       </c>
       <c r="E227">
-        <v>6.9506928999999995E-2</v>
+        <v>4.0058535999999999E-2</v>
       </c>
       <c r="F227">
         <v>0.110695898</v>
@@ -8341,7 +8338,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B228">
         <v>3.13467E-4</v>
@@ -8353,7 +8350,7 @@
         <v>0.40056073800000003</v>
       </c>
       <c r="E228">
-        <v>7.1139833E-2</v>
+        <v>3.0372111E-2</v>
       </c>
       <c r="F228">
         <v>0.11312243299999999</v>
@@ -8367,7 +8364,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B229">
         <v>3.0008900000000002E-4</v>
@@ -8379,7 +8376,7 @@
         <v>0.39697400300000002</v>
       </c>
       <c r="E229">
-        <v>6.8165431999999998E-2</v>
+        <v>3.0062344000000001E-2</v>
       </c>
       <c r="F229">
         <v>0.11259936800000001</v>
@@ -8393,7 +8390,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B230">
         <v>5.6569300000000003E-4</v>
@@ -8405,7 +8402,7 @@
         <v>0.50014953600000001</v>
       </c>
       <c r="E230">
-        <v>6.9078813000000003E-2</v>
+        <v>3.2101386000000003E-2</v>
       </c>
       <c r="F230">
         <v>0.11520121999999999</v>
@@ -8419,7 +8416,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B231">
         <v>5.6636299999999996E-4</v>
@@ -8431,7 +8428,7 @@
         <v>0.50009379399999998</v>
       </c>
       <c r="E231">
-        <v>5.5513298000000003E-2</v>
+        <v>3.3790003999999998E-2</v>
       </c>
       <c r="F231">
         <v>0.114298685</v>
@@ -8445,7 +8442,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B232">
         <v>5.5780800000000002E-4</v>
@@ -8457,7 +8454,7 @@
         <v>0.49851990699999998</v>
       </c>
       <c r="E232">
-        <v>6.8876906000000002E-2</v>
+        <v>3.0070327000000001E-2</v>
       </c>
       <c r="F232">
         <v>0.116313977</v>
@@ -8471,7 +8468,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B233">
         <v>4.9915300000000001E-4</v>
@@ -8483,7 +8480,7 @@
         <v>0.49927363899999999</v>
       </c>
       <c r="E233">
-        <v>6.1411471000000002E-2</v>
+        <v>3.2267628E-2</v>
       </c>
       <c r="F233">
         <v>0.11773539500000001</v>
@@ -8497,7 +8494,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B234">
         <v>4.11395E-4</v>
@@ -8509,7 +8506,7 @@
         <v>0.49920661399999999</v>
       </c>
       <c r="E234">
-        <v>4.8344787E-2</v>
+        <v>2.7664886999999999E-2</v>
       </c>
       <c r="F234">
         <v>0.12562072899999999</v>
@@ -8523,7 +8520,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B235">
         <v>3.53161E-4</v>
@@ -8535,7 +8532,7 @@
         <v>0.49958985500000003</v>
       </c>
       <c r="E235">
-        <v>3.7024263000000002E-2</v>
+        <v>3.2011471E-2</v>
       </c>
       <c r="F235">
         <v>0.11188050300000001</v>
@@ -8549,7 +8546,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B236">
         <v>4.7270299999999999E-4</v>
@@ -8561,7 +8558,7 @@
         <v>0.30055517599999998</v>
       </c>
       <c r="E236">
-        <v>3.0824668E-2</v>
+        <v>2.9953827999999998E-2</v>
       </c>
       <c r="F236">
         <v>9.8189598000000003E-2</v>
@@ -8575,7 +8572,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B237">
         <v>4.6852800000000001E-4</v>
@@ -8587,7 +8584,7 @@
         <v>0.30032410799999998</v>
       </c>
       <c r="E237">
-        <v>3.3418607000000003E-2</v>
+        <v>3.2612093000000002E-2</v>
       </c>
       <c r="F237">
         <v>9.5314093000000003E-2</v>
@@ -8601,7 +8598,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B238">
         <v>4.1679199999999998E-4</v>
@@ -8613,7 +8610,7 @@
         <v>0.30124453200000001</v>
       </c>
       <c r="E238">
-        <v>3.7811510999999999E-2</v>
+        <v>3.8066342000000003E-2</v>
       </c>
       <c r="F238">
         <v>9.8369604999999999E-2</v>
@@ -8627,7 +8624,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B239">
         <v>3.2306400000000002E-4</v>
@@ -8639,7 +8636,7 @@
         <v>0.29904739499999999</v>
       </c>
       <c r="E239">
-        <v>3.5929846000000001E-2</v>
+        <v>3.5776985999999997E-2</v>
       </c>
       <c r="F239">
         <v>9.9846620999999997E-2</v>
@@ -8653,7 +8650,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B240">
         <v>2.6293600000000002E-4</v>
@@ -8665,7 +8662,7 @@
         <v>0.30047309999999999</v>
       </c>
       <c r="E240">
-        <v>3.3267286E-2</v>
+        <v>2.8083650000000002E-2</v>
       </c>
       <c r="F240">
         <v>0.10603617999999999</v>
@@ -8679,7 +8676,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B241">
         <v>2.2804999999999999E-4</v>
@@ -8691,7 +8688,7 @@
         <v>0.30166880499999998</v>
       </c>
       <c r="E241">
-        <v>3.1315015000000002E-2</v>
+        <v>2.919161E-2</v>
       </c>
       <c r="F241">
         <v>0.10724196799999999</v>
@@ -8705,7 +8702,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B242">
         <v>2.0938099999999999E-4</v>
@@ -8717,7 +8714,7 @@
         <v>0.29948566300000001</v>
       </c>
       <c r="E242">
-        <v>3.6314119999999998E-2</v>
+        <v>2.7488122E-2</v>
       </c>
       <c r="F242">
         <v>0.104573546</v>
@@ -8731,7 +8728,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B243">
         <v>5.0179900000000004E-4</v>
@@ -8743,7 +8740,7 @@
         <v>0.39968498499999999</v>
       </c>
       <c r="E243">
-        <v>2.9392582E-2</v>
+        <v>2.7075848E-2</v>
       </c>
       <c r="F243">
         <v>0.100459284</v>
@@ -8757,7 +8754,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B244">
         <v>5.1192700000000002E-4</v>
@@ -8769,7 +8766,7 @@
         <v>0.39811110900000002</v>
       </c>
       <c r="E244">
-        <v>3.2175303000000002E-2</v>
+        <v>2.7941183000000001E-2</v>
       </c>
       <c r="F244">
         <v>9.9352846999999994E-2</v>
@@ -8783,7 +8780,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B245">
         <v>4.3557999999999997E-4</v>
@@ -8795,7 +8792,7 @@
         <v>0.40116832899999999</v>
       </c>
       <c r="E245">
-        <v>3.9693225999999998E-2</v>
+        <v>3.6700075999999998E-2</v>
       </c>
       <c r="F245">
         <v>0.10021440700000001</v>
@@ -8809,7 +8806,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B246">
         <v>3.5768399999999999E-4</v>
@@ -8821,7 +8818,7 @@
         <v>0.39981008400000001</v>
       </c>
       <c r="E246">
-        <v>3.5477432000000003E-2</v>
+        <v>3.2424057999999999E-2</v>
       </c>
       <c r="F246">
         <v>0.105138485</v>
@@ -8835,7 +8832,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B247">
         <v>2.76524E-4</v>
@@ -8847,7 +8844,7 @@
         <v>0.39963096399999998</v>
       </c>
       <c r="E247">
-        <v>4.1707279E-2</v>
+        <v>2.8262046999999998E-2</v>
       </c>
       <c r="F247">
         <v>0.10851050399999999</v>
@@ -8861,7 +8858,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B248">
         <v>2.5828500000000002E-4</v>
@@ -8873,7 +8870,7 @@
         <v>0.39990617699999997</v>
       </c>
       <c r="E248">
-        <v>6.2740635000000003E-2</v>
+        <v>2.8981139E-2</v>
       </c>
       <c r="F248">
         <v>0.107568398</v>
@@ -8887,7 +8884,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B249">
         <v>2.3551900000000001E-4</v>
@@ -8899,7 +8896,7 @@
         <v>0.39852104300000002</v>
       </c>
       <c r="E249">
-        <v>5.7989448999999998E-2</v>
+        <v>2.6817901000000002E-2</v>
       </c>
       <c r="F249">
         <v>0.108287201</v>
@@ -8913,7 +8910,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B250">
         <v>6.48955E-4</v>
@@ -8925,7 +8922,7 @@
         <v>0.49962082099999999</v>
       </c>
       <c r="E250">
-        <v>3.4657304E-2</v>
+        <v>2.4963539999999999E-2</v>
       </c>
       <c r="F250">
         <v>9.9429778999999996E-2</v>
@@ -8939,7 +8936,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B251">
         <v>6.1183099999999996E-4</v>
@@ -8951,7 +8948,7 @@
         <v>0.50033280999999996</v>
       </c>
       <c r="E251">
-        <v>3.7521118999999999E-2</v>
+        <v>2.7673001999999999E-2</v>
       </c>
       <c r="F251">
         <v>9.8495864000000002E-2</v>
@@ -8965,7 +8962,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B252">
         <v>5.1377200000000001E-4</v>
@@ -8977,7 +8974,7 @@
         <v>0.50024451299999995</v>
       </c>
       <c r="E252">
-        <v>4.4029801E-2</v>
+        <v>3.9128736999999997E-2</v>
       </c>
       <c r="F252">
         <v>0.100396349</v>
@@ -8991,7 +8988,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B253">
         <v>4.3876499999999998E-4</v>
@@ -9003,7 +9000,7 @@
         <v>0.49925901499999997</v>
       </c>
       <c r="E253">
-        <v>3.9294586999999999E-2</v>
+        <v>3.4625995999999999E-2</v>
       </c>
       <c r="F253">
         <v>0.10699968</v>
@@ -9017,7 +9014,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B254">
         <v>3.4390000000000001E-4</v>
@@ -9029,7 +9026,7 @@
         <v>0.50068191399999995</v>
       </c>
       <c r="E254">
-        <v>6.5830854999999994E-2</v>
+        <v>3.0414301000000001E-2</v>
       </c>
       <c r="F254">
         <v>0.109581978</v>
@@ -9043,7 +9040,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B255">
         <v>3.10771E-4</v>
@@ -9055,7 +9052,7 @@
         <v>0.50035387600000003</v>
       </c>
       <c r="E255">
-        <v>7.3258196999999997E-2</v>
+        <v>2.9485480000000001E-2</v>
       </c>
       <c r="F255">
         <v>0.10888812</v>
@@ -9069,7 +9066,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B256">
         <v>3.0146300000000002E-4</v>
@@ -9081,7 +9078,7 @@
         <v>0.49992013899999999</v>
       </c>
       <c r="E256">
-        <v>5.1725806999999999E-2</v>
+        <v>2.8539121000000001E-2</v>
       </c>
       <c r="F256">
         <v>0.10817375999999999</v>
@@ -9095,7 +9092,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B257">
         <v>4.7849500000000001E-4</v>
@@ -9107,7 +9104,7 @@
         <v>0.30004532699999997</v>
       </c>
       <c r="E257">
-        <v>4.0780660000000003E-2</v>
+        <v>3.5949209000000003E-2</v>
       </c>
       <c r="F257">
         <v>0.103141573</v>
@@ -9121,7 +9118,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B258">
         <v>5.0275999999999999E-4</v>
@@ -9133,7 +9130,7 @@
         <v>0.29920427599999999</v>
       </c>
       <c r="E258">
-        <v>4.1816536000000001E-2</v>
+        <v>3.4553436E-2</v>
       </c>
       <c r="F258">
         <v>0.101860464</v>
@@ -9147,7 +9144,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B259">
         <v>5.1740599999999999E-4</v>
@@ -9159,7 +9156,7 @@
         <v>0.30149447299999999</v>
       </c>
       <c r="E259">
-        <v>4.1015214000000001E-2</v>
+        <v>3.4323686999999999E-2</v>
       </c>
       <c r="F259">
         <v>0.10246135300000001</v>
@@ -9173,7 +9170,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B260">
         <v>3.7951899999999998E-4</v>
@@ -9185,7 +9182,7 @@
         <v>0.29935602700000002</v>
       </c>
       <c r="E260">
-        <v>3.2089376000000003E-2</v>
+        <v>2.8244406999999999E-2</v>
       </c>
       <c r="F260">
         <v>0.107956841</v>
@@ -9199,7 +9196,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B261">
         <v>3.2461399999999998E-4</v>
@@ -9211,7 +9208,7 @@
         <v>0.298850589</v>
       </c>
       <c r="E261">
-        <v>7.0884645999999996E-2</v>
+        <v>2.7735271999999998E-2</v>
       </c>
       <c r="F261">
         <v>0.109011937</v>
@@ -9225,7 +9222,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B262">
         <v>2.92262E-4</v>
@@ -9237,7 +9234,7 @@
         <v>0.30029543199999997</v>
       </c>
       <c r="E262">
-        <v>7.4512727000000001E-2</v>
+        <v>2.7834968000000002E-2</v>
       </c>
       <c r="F262">
         <v>0.108335639</v>
@@ -9251,7 +9248,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B263">
         <v>2.7891199999999998E-4</v>
@@ -9263,7 +9260,7 @@
         <v>0.29951224900000001</v>
       </c>
       <c r="E263">
-        <v>6.4799326000000004E-2</v>
+        <v>2.8513480000000001E-2</v>
       </c>
       <c r="F263">
         <v>0.107322791</v>
@@ -9277,7 +9274,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B264">
         <v>4.4690600000000001E-4</v>
@@ -9289,7 +9286,7 @@
         <v>0.40118413600000002</v>
       </c>
       <c r="E264">
-        <v>4.5435773999999998E-2</v>
+        <v>3.8519957000000001E-2</v>
       </c>
       <c r="F264">
         <v>0.10055367599999999</v>
@@ -9303,7 +9300,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B265">
         <v>4.50968E-4</v>
@@ -9315,7 +9312,7 @@
         <v>0.40014166899999998</v>
       </c>
       <c r="E265">
-        <v>4.2461959000000001E-2</v>
+        <v>3.6762580000000003E-2</v>
       </c>
       <c r="F265">
         <v>9.9674258000000002E-2</v>
@@ -9329,7 +9326,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B266">
         <v>4.99166E-4</v>
@@ -9341,7 +9338,7 @@
         <v>0.40072669900000002</v>
       </c>
       <c r="E266">
-        <v>4.6791843999999999E-2</v>
+        <v>4.1438547999999999E-2</v>
       </c>
       <c r="F266">
         <v>0.100050923</v>
@@ -9355,7 +9352,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B267">
         <v>4.3689199999999998E-4</v>
@@ -9367,7 +9364,7 @@
         <v>0.39974975899999998</v>
       </c>
       <c r="E267">
-        <v>3.7030752E-2</v>
+        <v>3.1148538E-2</v>
       </c>
       <c r="F267">
         <v>0.108159581</v>
@@ -9381,7 +9378,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B268">
         <v>3.6157600000000001E-4</v>
@@ -9393,7 +9390,7 @@
         <v>0.400765488</v>
       </c>
       <c r="E268">
-        <v>6.5080570000000004E-2</v>
+        <v>2.9858714000000001E-2</v>
       </c>
       <c r="F268">
         <v>0.109293213</v>
@@ -9407,7 +9404,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B269">
         <v>3.40119E-4</v>
@@ -9419,7 +9416,7 @@
         <v>0.40009669599999997</v>
       </c>
       <c r="E269">
-        <v>7.3524844000000006E-2</v>
+        <v>2.9213735000000001E-2</v>
       </c>
       <c r="F269">
         <v>0.10913827299999999</v>
@@ -9433,7 +9430,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B270">
         <v>3.23025E-4</v>
@@ -9445,7 +9442,7 @@
         <v>0.40044863800000002</v>
       </c>
       <c r="E270">
-        <v>7.6759078999999994E-2</v>
+        <v>2.8591861E-2</v>
       </c>
       <c r="F270">
         <v>0.10835315500000001</v>
@@ -9459,7 +9456,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B271">
         <v>5.6255699999999999E-4</v>
@@ -9471,7 +9468,7 @@
         <v>0.49986556300000001</v>
       </c>
       <c r="E271">
-        <v>4.3558463999999998E-2</v>
+        <v>3.3598491000000001E-2</v>
       </c>
       <c r="F271">
         <v>0.10062673599999999</v>
@@ -9485,7 +9482,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B272">
         <v>5.7886999999999999E-4</v>
@@ -9497,7 +9494,7 @@
         <v>0.49958438500000002</v>
       </c>
       <c r="E272">
-        <v>4.4103181999999998E-2</v>
+        <v>3.3946135000000002E-2</v>
       </c>
       <c r="F272">
         <v>9.9812217999999994E-2</v>
@@ -9511,7 +9508,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B273">
         <v>6.3783199999999996E-4</v>
@@ -9523,7 +9520,7 @@
         <v>0.49801411899999998</v>
       </c>
       <c r="E273">
-        <v>4.2463493999999997E-2</v>
+        <v>3.3256761000000003E-2</v>
       </c>
       <c r="F273">
         <v>0.100906723</v>
@@ -9537,7 +9534,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B274">
         <v>5.2629499999999997E-4</v>
@@ -9549,7 +9546,7 @@
         <v>0.50003780099999995</v>
       </c>
       <c r="E274">
-        <v>4.5139868E-2</v>
+        <v>3.8036022000000003E-2</v>
       </c>
       <c r="F274">
         <v>0.101938865</v>
@@ -9563,7 +9560,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B275">
         <v>4.5853300000000001E-4</v>
@@ -9575,7 +9572,7 @@
         <v>0.499705173</v>
       </c>
       <c r="E275">
-        <v>4.4022573000000002E-2</v>
+        <v>3.3203124000000001E-2</v>
       </c>
       <c r="F275">
         <v>0.106222393</v>
@@ -9589,7 +9586,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B276">
         <v>4.09391E-4</v>
@@ -9601,7 +9598,7 @@
         <v>0.49964764900000003</v>
       </c>
       <c r="E276">
-        <v>6.8103606999999997E-2</v>
+        <v>2.8537580999999999E-2</v>
       </c>
       <c r="F276">
         <v>0.10792351</v>
@@ -9615,7 +9612,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B277">
         <v>4.1426199999999999E-4</v>
@@ -9627,7 +9624,7 @@
         <v>0.50079021499999998</v>
       </c>
       <c r="E277">
-        <v>5.6538620999999997E-2</v>
+        <v>3.0278824999999999E-2</v>
       </c>
       <c r="F277">
         <v>0.108647546</v>
@@ -9641,7 +9638,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B278">
         <v>4.8616099999999998E-4</v>
@@ -9653,7 +9650,7 @@
         <v>0.29988949399999998</v>
       </c>
       <c r="E278">
-        <v>4.0868091000000002E-2</v>
+        <v>3.4821600000000001E-2</v>
       </c>
       <c r="F278">
         <v>0.102740609</v>
@@ -9667,7 +9664,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B279">
         <v>4.9223300000000002E-4</v>
@@ -9679,7 +9676,7 @@
         <v>0.29991707200000001</v>
       </c>
       <c r="E279">
-        <v>3.9588467000000002E-2</v>
+        <v>3.5770488000000003E-2</v>
       </c>
       <c r="F279">
         <v>9.9979082999999996E-2</v>
@@ -9693,7 +9690,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B280">
         <v>4.8966000000000005E-4</v>
@@ -9705,7 +9702,7 @@
         <v>0.299807559</v>
       </c>
       <c r="E280">
-        <v>4.2113662000000003E-2</v>
+        <v>3.5374483999999998E-2</v>
       </c>
       <c r="F280">
         <v>9.8520637999999994E-2</v>
@@ -9719,7 +9716,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B281">
         <v>4.1326699999999999E-4</v>
@@ -9731,7 +9728,7 @@
         <v>0.30008244499999998</v>
       </c>
       <c r="E281">
-        <v>3.8818410999999997E-2</v>
+        <v>3.1020714000000001E-2</v>
       </c>
       <c r="F281">
         <v>0.104997322</v>
@@ -9745,7 +9742,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B282">
         <v>3.5472599999999998E-4</v>
@@ -9757,7 +9754,7 @@
         <v>0.299649999</v>
       </c>
       <c r="E282">
-        <v>3.805335E-2</v>
+        <v>3.0169298000000001E-2</v>
       </c>
       <c r="F282">
         <v>0.106645016</v>
@@ -9771,7 +9768,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B283">
         <v>3.0862499999999998E-4</v>
@@ -9783,7 +9780,7 @@
         <v>0.300016848</v>
       </c>
       <c r="E283">
-        <v>4.267257E-2</v>
+        <v>2.9701722E-2</v>
       </c>
       <c r="F283">
         <v>0.107568497</v>
@@ -9797,7 +9794,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B284">
         <v>2.9086800000000001E-4</v>
@@ -9809,7 +9806,7 @@
         <v>0.30050387099999998</v>
       </c>
       <c r="E284">
-        <v>4.7419393999999997E-2</v>
+        <v>3.1289824000000001E-2</v>
       </c>
       <c r="F284">
         <v>0.10544677199999999</v>
@@ -9823,7 +9820,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B285">
         <v>5.3141199999999999E-4</v>
@@ -9835,7 +9832,7 @@
         <v>0.40096458800000001</v>
       </c>
       <c r="E285">
-        <v>3.9940086E-2</v>
+        <v>3.6926992999999998E-2</v>
       </c>
       <c r="F285">
         <v>0.100374031</v>
@@ -9849,7 +9846,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B286">
         <v>4.9130500000000004E-4</v>
@@ -9861,7 +9858,7 @@
         <v>0.39783279599999999</v>
       </c>
       <c r="E286">
-        <v>3.9921999999999999E-2</v>
+        <v>3.4722467E-2</v>
       </c>
       <c r="F286">
         <v>0.100867067</v>
@@ -9875,7 +9872,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B287">
         <v>4.9682100000000005E-4</v>
@@ -9887,7 +9884,7 @@
         <v>0.39957826800000001</v>
       </c>
       <c r="E287">
-        <v>3.5337199999999999E-2</v>
+        <v>3.3049200000000001E-2</v>
       </c>
       <c r="F287">
         <v>0.10193480000000001</v>
@@ -9901,7 +9898,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B288">
         <v>4.6433100000000001E-4</v>
@@ -9913,7 +9910,7 @@
         <v>0.39989443400000002</v>
       </c>
       <c r="E288">
-        <v>4.1705930000000002E-2</v>
+        <v>3.1602706000000001E-2</v>
       </c>
       <c r="F288">
         <v>0.10475915299999999</v>
@@ -9927,7 +9924,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B289">
         <v>4.0902799999999997E-4</v>
@@ -9939,7 +9936,7 @@
         <v>0.40126719</v>
       </c>
       <c r="E289">
-        <v>6.0387098E-2</v>
+        <v>3.1978808999999997E-2</v>
       </c>
       <c r="F289">
         <v>0.10727930199999999</v>
@@ -9953,7 +9950,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B290">
         <v>3.7444099999999999E-4</v>
@@ -9965,7 +9962,7 @@
         <v>0.40043706899999998</v>
       </c>
       <c r="E290">
-        <v>7.2278722000000004E-2</v>
+        <v>3.0790000000000001E-2</v>
       </c>
       <c r="F290">
         <v>0.10862016200000001</v>
@@ -9979,7 +9976,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B291">
         <v>3.3825899999999999E-4</v>
@@ -9991,7 +9988,7 @@
         <v>0.39960972299999997</v>
       </c>
       <c r="E291">
-        <v>5.0731548000000001E-2</v>
+        <v>3.2077708000000003E-2</v>
       </c>
       <c r="F291">
         <v>0.109580419</v>
@@ -10005,7 +10002,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B292">
         <v>5.5933100000000004E-4</v>
@@ -10017,7 +10014,7 @@
         <v>0.499773087</v>
       </c>
       <c r="E292">
-        <v>4.3240530999999999E-2</v>
+        <v>3.1987520999999998E-2</v>
       </c>
       <c r="F292">
         <v>9.6250286000000004E-2</v>
@@ -10031,7 +10028,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B293">
         <v>5.6149699999999999E-4</v>
@@ -10043,7 +10040,7 @@
         <v>0.49969234000000001</v>
       </c>
       <c r="E293">
-        <v>4.6532391999999999E-2</v>
+        <v>3.4721224000000002E-2</v>
       </c>
       <c r="F293">
         <v>9.3758707999999996E-2</v>
@@ -10057,7 +10054,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B294">
         <v>5.6852900000000002E-4</v>
@@ -10069,7 +10066,7 @@
         <v>0.49999912200000002</v>
       </c>
       <c r="E294">
-        <v>4.8635330999999997E-2</v>
+        <v>3.8079976000000001E-2</v>
       </c>
       <c r="F294">
         <v>9.3466701999999999E-2</v>
@@ -10083,7 +10080,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B295">
         <v>5.5993099999999995E-4</v>
@@ -10095,7 +10092,7 @@
         <v>0.50000105500000003</v>
       </c>
       <c r="E295">
-        <v>4.9490144999999999E-2</v>
+        <v>3.3559245000000001E-2</v>
       </c>
       <c r="F295">
         <v>9.5530058000000001E-2</v>
@@ -10109,7 +10106,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B296">
         <v>4.9463399999999998E-4</v>
@@ -10121,7 +10118,7 @@
         <v>0.50235871200000004</v>
       </c>
       <c r="E296">
-        <v>3.7902236999999998E-2</v>
+        <v>2.8625714E-2</v>
       </c>
       <c r="F296">
         <v>0.104715946</v>
@@ -10135,7 +10132,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B297">
         <v>4.6393200000000002E-4</v>
@@ -10147,7 +10144,7 @@
         <v>0.49960959599999999</v>
       </c>
       <c r="E297">
-        <v>4.5027570000000003E-2</v>
+        <v>2.7584549E-2</v>
       </c>
       <c r="F297">
         <v>0.105402013</v>
@@ -10161,7 +10158,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B298">
         <v>3.34135E-4</v>
@@ -10173,7 +10170,7 @@
         <v>0.58694023799999995</v>
       </c>
       <c r="E298">
-        <v>4.2935114000000003E-2</v>
+        <v>2.5076272E-2</v>
       </c>
       <c r="F298">
         <v>0.102427253</v>
@@ -10187,7 +10184,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B299">
         <v>4.2709099999999999E-4</v>
@@ -10199,7 +10196,7 @@
         <v>0.300595785</v>
       </c>
       <c r="E299">
-        <v>2.0250721999999999E-2</v>
+        <v>1.8875831999999999E-2</v>
       </c>
       <c r="F299">
         <v>0.102772961</v>
@@ -10213,7 +10210,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B300">
         <v>4.3149099999999999E-4</v>
@@ -10225,7 +10222,7 @@
         <v>0.30079881800000002</v>
       </c>
       <c r="E300">
-        <v>2.1508796E-2</v>
+        <v>2.0397160000000001E-2</v>
       </c>
       <c r="F300">
         <v>0.10339688700000001</v>
@@ -10239,7 +10236,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B301">
         <v>3.9097999999999997E-4</v>
@@ -10251,7 +10248,7 @@
         <v>0.30092750000000001</v>
       </c>
       <c r="E301">
-        <v>3.3229887E-2</v>
+        <v>3.2527309999999997E-2</v>
       </c>
       <c r="F301">
         <v>0.100884113</v>
@@ -10265,7 +10262,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B302">
         <v>3.3918300000000001E-4</v>
@@ -10277,7 +10274,7 @@
         <v>0.29819463800000001</v>
       </c>
       <c r="E302">
-        <v>2.8830732000000001E-2</v>
+        <v>2.6236393E-2</v>
       </c>
       <c r="F302">
         <v>0.103947435</v>
@@ -10291,7 +10288,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B303">
         <v>2.9627499999999998E-4</v>
@@ -10303,7 +10300,7 @@
         <v>0.29996649600000003</v>
       </c>
       <c r="E303">
-        <v>2.8150482000000001E-2</v>
+        <v>2.2631852000000001E-2</v>
       </c>
       <c r="F303">
         <v>0.10510950099999999</v>
@@ -10317,7 +10314,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B304">
         <v>2.7603600000000001E-4</v>
@@ -10329,7 +10326,7 @@
         <v>0.29922444599999998</v>
       </c>
       <c r="E304">
-        <v>2.8260444999999999E-2</v>
+        <v>2.1853049999999999E-2</v>
       </c>
       <c r="F304">
         <v>0.105832572</v>
@@ -10343,7 +10340,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B305">
         <v>2.64763E-4</v>
@@ -10355,7 +10352,7 @@
         <v>0.29931229500000001</v>
       </c>
       <c r="E305">
-        <v>3.1558317000000002E-2</v>
+        <v>2.2081080999999999E-2</v>
       </c>
       <c r="F305">
         <v>0.10425438300000001</v>
@@ -10369,7 +10366,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B306">
         <v>4.6320699999999999E-4</v>
@@ -10381,7 +10378,7 @@
         <v>0.39906417700000002</v>
       </c>
       <c r="E306">
-        <v>2.7279082999999999E-2</v>
+        <v>2.6606799E-2</v>
       </c>
       <c r="F306">
         <v>0.100653384</v>
@@ -10395,7 +10392,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B307">
         <v>4.5498799999999997E-4</v>
@@ -10407,7 +10404,7 @@
         <v>0.39925735299999998</v>
       </c>
       <c r="E307">
-        <v>3.0386533E-2</v>
+        <v>2.8405099999999999E-2</v>
       </c>
       <c r="F307">
         <v>9.8851866999999996E-2</v>
@@ -10421,7 +10418,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B308">
         <v>4.3629200000000002E-4</v>
@@ -10433,7 +10430,7 @@
         <v>0.398908343</v>
       </c>
       <c r="E308">
-        <v>3.6496613999999997E-2</v>
+        <v>3.6396097000000002E-2</v>
       </c>
       <c r="F308">
         <v>0.100735436</v>
@@ -10447,7 +10444,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B309">
         <v>3.9866700000000001E-4</v>
@@ -10459,7 +10456,7 @@
         <v>0.39891339799999997</v>
       </c>
       <c r="E309">
-        <v>3.0948234000000002E-2</v>
+        <v>2.8173764E-2</v>
       </c>
       <c r="F309">
         <v>0.10731945</v>
@@ -10473,7 +10470,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B310">
         <v>3.3655799999999999E-4</v>
@@ -10485,7 +10482,7 @@
         <v>0.40106589199999998</v>
       </c>
       <c r="E310">
-        <v>3.6833079999999997E-2</v>
+        <v>2.7300264000000001E-2</v>
       </c>
       <c r="F310">
         <v>0.104447937</v>
@@ -10499,7 +10496,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B311">
         <v>3.0972699999999998E-4</v>
@@ -10511,7 +10508,7 @@
         <v>0.39997719900000001</v>
       </c>
       <c r="E311">
-        <v>3.7491233999999998E-2</v>
+        <v>2.4306024999999998E-2</v>
       </c>
       <c r="F311">
         <v>0.100064399</v>
@@ -10525,7 +10522,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B312">
         <v>2.9860200000000003E-4</v>
@@ -10537,7 +10534,7 @@
         <v>0.399170462</v>
       </c>
       <c r="E312">
-        <v>3.4313367999999997E-2</v>
+        <v>2.4034926000000002E-2</v>
       </c>
       <c r="F312">
         <v>9.9761053000000002E-2</v>
@@ -10551,7 +10548,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B313">
         <v>5.8556899999999998E-4</v>
@@ -10563,7 +10560,7 @@
         <v>0.50132858499999999</v>
       </c>
       <c r="E313">
-        <v>3.9261512999999998E-2</v>
+        <v>3.5760098999999997E-2</v>
       </c>
       <c r="F313">
         <v>9.2089454000000001E-2</v>
@@ -10577,7 +10574,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B314">
         <v>5.4085199999999998E-4</v>
@@ -10589,7 +10586,7 @@
         <v>0.50137097799999997</v>
       </c>
       <c r="E314">
-        <v>4.1191199999999997E-2</v>
+        <v>4.0050941999999999E-2</v>
       </c>
       <c r="F314">
         <v>9.2783633000000004E-2</v>
@@ -10603,7 +10600,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B315">
         <v>5.2526299999999999E-4</v>
@@ -10615,7 +10612,7 @@
         <v>0.49945460400000002</v>
       </c>
       <c r="E315">
-        <v>4.7282786E-2</v>
+        <v>4.6477519000000002E-2</v>
       </c>
       <c r="F315">
         <v>9.3627264000000002E-2</v>
@@ -10629,7 +10626,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B316">
         <v>4.62764E-4</v>
@@ -10641,7 +10638,7 @@
         <v>0.50061619400000001</v>
       </c>
       <c r="E316">
-        <v>5.2233031999999999E-2</v>
+        <v>4.3855742000000003E-2</v>
       </c>
       <c r="F316">
         <v>9.3554020000000002E-2</v>
@@ -10655,7 +10652,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B317">
         <v>3.65235E-4</v>
@@ -10667,7 +10664,7 @@
         <v>0.50027888099999995</v>
       </c>
       <c r="E317">
-        <v>4.1933915000000002E-2</v>
+        <v>2.7426127000000002E-2</v>
       </c>
       <c r="F317">
         <v>0.101548746</v>
@@ -10681,7 +10678,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B318">
         <v>3.27277E-4</v>
@@ -10693,7 +10690,7 @@
         <v>0.49991671900000001</v>
       </c>
       <c r="E318">
-        <v>6.4726811999999995E-2</v>
+        <v>2.5266204E-2</v>
       </c>
       <c r="F318">
         <v>0.110354388</v>
@@ -10707,7 +10704,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B319">
         <v>3.14875E-4</v>
@@ -10719,7 +10716,7 @@
         <v>0.50003056499999998</v>
       </c>
       <c r="E319">
-        <v>6.8702416000000002E-2</v>
+        <v>2.4889184000000002E-2</v>
       </c>
       <c r="F319">
         <v>0.109727409</v>
@@ -10733,7 +10730,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B320">
         <v>5.3314300000000003E-4</v>
@@ -10745,7 +10742,7 @@
         <v>0.298486943</v>
       </c>
       <c r="E320">
-        <v>3.7798134999999997E-2</v>
+        <v>3.6146156999999998E-2</v>
       </c>
       <c r="F320">
         <v>0.102955349</v>
@@ -10759,7 +10756,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B321">
         <v>5.1531000000000005E-4</v>
@@ -10771,7 +10768,7 @@
         <v>0.29985018800000002</v>
       </c>
       <c r="E321">
-        <v>4.0141284999999999E-2</v>
+        <v>3.7439083999999997E-2</v>
       </c>
       <c r="F321">
         <v>0.10231591499999999</v>
@@ -10785,7 +10782,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B322">
         <v>4.7795299999999998E-4</v>
@@ -10797,7 +10794,7 @@
         <v>0.30006054700000001</v>
       </c>
       <c r="E322">
-        <v>3.3727591000000001E-2</v>
+        <v>3.1618561000000003E-2</v>
       </c>
       <c r="F322">
         <v>0.105785476</v>
@@ -10811,7 +10808,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B323">
         <v>3.6146000000000003E-4</v>
@@ -10823,7 +10820,7 @@
         <v>0.29996759200000001</v>
       </c>
       <c r="E323">
-        <v>3.9639283999999997E-2</v>
+        <v>2.4192293E-2</v>
       </c>
       <c r="F323">
         <v>0.10970555</v>
@@ -10837,7 +10834,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B324">
         <v>2.9615000000000002E-4</v>
@@ -10849,7 +10846,7 @@
         <v>0.29927169599999998</v>
       </c>
       <c r="E324">
-        <v>6.0865677E-2</v>
+        <v>2.6010675E-2</v>
       </c>
       <c r="F324">
         <v>0.109082656</v>
@@ -10863,7 +10860,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B325">
         <v>2.6539199999999998E-4</v>
@@ -10875,7 +10872,7 @@
         <v>0.30087852900000001</v>
       </c>
       <c r="E325">
-        <v>7.5760642000000003E-2</v>
+        <v>2.4306310000000001E-2</v>
       </c>
       <c r="F325">
         <v>0.10911349100000001</v>
@@ -10889,7 +10886,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B326">
         <v>2.54348E-4</v>
@@ -10901,7 +10898,7 @@
         <v>0.27718706700000001</v>
       </c>
       <c r="E326">
-        <v>3.6368708E-2</v>
+        <v>2.3473473000000002E-2</v>
       </c>
       <c r="F326">
         <v>0.103970942</v>
@@ -10915,7 +10912,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B327">
         <v>5.5100500000000003E-4</v>
@@ -10927,7 +10924,7 @@
         <v>0.401205753</v>
       </c>
       <c r="E327">
-        <v>4.0367198999999999E-2</v>
+        <v>3.7712063999999997E-2</v>
       </c>
       <c r="F327">
         <v>0.10470025099999999</v>
@@ -10941,7 +10938,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B328">
         <v>5.6732099999999997E-4</v>
@@ -10953,7 +10950,7 @@
         <v>0.40160295099999999</v>
       </c>
       <c r="E328">
-        <v>4.0969556999999997E-2</v>
+        <v>4.1222267E-2</v>
       </c>
       <c r="F328">
         <v>0.105206543</v>
@@ -10967,7 +10964,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B329">
         <v>5.3201699999999997E-4</v>
@@ -10979,7 +10976,7 @@
         <v>0.40022643899999999</v>
       </c>
       <c r="E329">
-        <v>3.5358458000000002E-2</v>
+        <v>3.4129283000000003E-2</v>
       </c>
       <c r="F329">
         <v>0.110609967</v>
@@ -10993,7 +10990,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B330">
         <v>4.2268500000000001E-4</v>
@@ -11005,7 +11002,7 @@
         <v>0.39981734200000002</v>
       </c>
       <c r="E330">
-        <v>7.1620111E-2</v>
+        <v>2.5461850000000001E-2</v>
       </c>
       <c r="F330">
         <v>0.113427005</v>
@@ -11019,7 +11016,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B331">
         <v>3.2515300000000001E-4</v>
@@ -11031,7 +11028,7 @@
         <v>0.39902740599999997</v>
       </c>
       <c r="E331">
-        <v>7.3646951000000002E-2</v>
+        <v>2.9937952E-2</v>
       </c>
       <c r="F331">
         <v>0.11154404900000001</v>
@@ -11045,7 +11042,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B332">
         <v>3.0033399999999997E-4</v>
@@ -11057,7 +11054,7 @@
         <v>0.399791332</v>
       </c>
       <c r="E332">
-        <v>7.0960326000000004E-2</v>
+        <v>2.5111034000000001E-2</v>
       </c>
       <c r="F332">
         <v>0.11136420700000001</v>
@@ -11071,7 +11068,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B333">
         <v>2.8682499999999999E-4</v>
@@ -11083,7 +11080,7 @@
         <v>0.39983521399999999</v>
       </c>
       <c r="E333">
-        <v>6.7126547999999994E-2</v>
+        <v>2.4440446000000001E-2</v>
       </c>
       <c r="F333">
         <v>0.110826652</v>
@@ -11097,7 +11094,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B334">
         <v>6.5962200000000001E-4</v>
@@ -11109,7 +11106,7 @@
         <v>0.49965211700000001</v>
       </c>
       <c r="E334">
-        <v>4.2670694000000002E-2</v>
+        <v>3.8939330000000001E-2</v>
       </c>
       <c r="F334">
         <v>0.10375522299999999</v>
@@ -11123,7 +11120,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B335">
         <v>6.4296000000000004E-4</v>
@@ -11135,7 +11132,7 @@
         <v>0.49918752599999999</v>
       </c>
       <c r="E335">
-        <v>4.1950378000000003E-2</v>
+        <v>3.7288868000000003E-2</v>
       </c>
       <c r="F335">
         <v>0.106407322</v>
@@ -11149,7 +11146,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B336">
         <v>6.3665800000000002E-4</v>
@@ -11161,7 +11158,7 @@
         <v>0.53332581999999995</v>
       </c>
       <c r="E336">
-        <v>4.0856731E-2</v>
+        <v>3.6855077E-2</v>
       </c>
       <c r="F336">
         <v>0.104040328</v>
@@ -11175,7 +11172,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B337">
         <v>6.3738399999999995E-4</v>
@@ -11187,7 +11184,7 @@
         <v>0.49974123100000001</v>
       </c>
       <c r="E337">
-        <v>4.2100723E-2</v>
+        <v>3.9244738000000001E-2</v>
       </c>
       <c r="F337">
         <v>0.10597546100000001</v>
@@ -11201,7 +11198,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B338">
         <v>6.19449E-4</v>
@@ -11213,7 +11210,7 @@
         <v>0.50026277399999997</v>
       </c>
       <c r="E338">
-        <v>4.1591356000000003E-2</v>
+        <v>3.4016498999999999E-2</v>
       </c>
       <c r="F338">
         <v>0.109977661</v>
@@ -11227,7 +11224,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B339">
         <v>4.9860200000000001E-4</v>
@@ -11239,7 +11236,7 @@
         <v>0.50027971900000001</v>
       </c>
       <c r="E339">
-        <v>7.0967073000000006E-2</v>
+        <v>2.3932939E-2</v>
       </c>
       <c r="F339">
         <v>0.11422294400000001</v>
@@ -11253,7 +11250,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B340">
         <v>3.6904199999999998E-4</v>
@@ -11265,7 +11262,7 @@
         <v>0.50030577499999995</v>
       </c>
       <c r="E340">
-        <v>6.6469704000000004E-2</v>
+        <v>2.6483E-2</v>
       </c>
       <c r="F340">
         <v>0.116510979</v>
@@ -11279,7 +11276,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B341">
         <v>3.21902E-4</v>
@@ -11291,7 +11288,7 @@
         <v>0.50013415000000006</v>
       </c>
       <c r="E341">
-        <v>5.7089112999999997E-2</v>
+        <v>2.9292808E-2</v>
       </c>
       <c r="F341">
         <v>0.11521322000000001</v>
@@ -11305,7 +11302,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B342">
         <v>3.0918599999999998E-4</v>
@@ -11317,7 +11314,7 @@
         <v>0.49975158200000003</v>
       </c>
       <c r="E342">
-        <v>5.5146272000000003E-2</v>
+        <v>2.4939234000000001E-2</v>
       </c>
       <c r="F342">
         <v>0.114309811</v>
@@ -11331,7 +11328,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B343">
         <v>4.85129E-4</v>
@@ -11343,7 +11340,7 @@
         <v>0.30007985999999998</v>
       </c>
       <c r="E343">
-        <v>3.1432143000000003E-2</v>
+        <v>2.9019796E-2</v>
       </c>
       <c r="F343">
         <v>0.11381099</v>
@@ -11357,7 +11354,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B344">
         <v>4.7428800000000001E-4</v>
@@ -11369,7 +11366,7 @@
         <v>0.30001281800000001</v>
       </c>
       <c r="E344">
-        <v>3.3010744000000002E-2</v>
+        <v>3.1406066000000003E-2</v>
       </c>
       <c r="F344">
         <v>0.11308117199999999</v>
@@ -11383,7 +11380,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B345">
         <v>4.58329E-4</v>
@@ -11395,7 +11392,7 @@
         <v>0.29983200300000001</v>
       </c>
       <c r="E345">
-        <v>3.3648738999999997E-2</v>
+        <v>2.7470317000000001E-2</v>
       </c>
       <c r="F345">
         <v>0.113457661</v>
@@ -11409,7 +11406,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B346">
         <v>3.9580799999999999E-4</v>
@@ -11421,7 +11418,7 @@
         <v>0.29999587</v>
       </c>
       <c r="E346">
-        <v>4.6113999000000003E-2</v>
+        <v>2.5909682999999999E-2</v>
       </c>
       <c r="F346">
         <v>0.11548971800000001</v>
@@ -11435,7 +11432,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B347">
         <v>3.3780799999999999E-4</v>
@@ -11447,7 +11444,7 @@
         <v>0.29984454500000002</v>
       </c>
       <c r="E347">
-        <v>7.0016203999999999E-2</v>
+        <v>2.6734391E-2</v>
       </c>
       <c r="F347">
         <v>0.114565863</v>
@@ -11461,7 +11458,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B348">
         <v>2.9499700000000002E-4</v>
@@ -11473,7 +11470,7 @@
         <v>0.29999497400000003</v>
       </c>
       <c r="E348">
-        <v>5.1478729000000001E-2</v>
+        <v>2.6031990000000001E-2</v>
       </c>
       <c r="F348">
         <v>0.113484838</v>
@@ -11487,7 +11484,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B349">
         <v>2.7738399999999999E-4</v>
@@ -11499,7 +11496,7 @@
         <v>0.299965806</v>
       </c>
       <c r="E349">
-        <v>6.8609329999999996E-2</v>
+        <v>2.5472035000000001E-2</v>
       </c>
       <c r="F349">
         <v>0.110792153</v>
@@ -11513,7 +11510,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B350">
         <v>5.13668E-4</v>
@@ -11525,7 +11522,7 @@
         <v>0.40181292899999999</v>
       </c>
       <c r="E350">
-        <v>3.3861730999999999E-2</v>
+        <v>2.8976854E-2</v>
       </c>
       <c r="F350">
         <v>0.108200269</v>
@@ -11539,7 +11536,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B351">
         <v>5.3114999999999998E-4</v>
@@ -11551,7 +11548,7 @@
         <v>0.40075802599999999</v>
       </c>
       <c r="E351">
-        <v>3.5328396999999997E-2</v>
+        <v>3.0165536E-2</v>
       </c>
       <c r="F351">
         <v>0.10805416900000001</v>
@@ -11565,7 +11562,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B352">
         <v>5.0897099999999999E-4</v>
@@ -11577,7 +11574,7 @@
         <v>0.39980108800000003</v>
       </c>
       <c r="E352">
-        <v>4.0676258999999999E-2</v>
+        <v>2.8191463E-2</v>
       </c>
       <c r="F352">
         <v>0.109044108</v>
@@ -11591,7 +11588,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B353">
         <v>4.3509100000000003E-4</v>
@@ -11603,7 +11600,7 @@
         <v>0.3997909</v>
       </c>
       <c r="E353">
-        <v>6.4119865999999998E-2</v>
+        <v>2.6927901000000001E-2</v>
       </c>
       <c r="F353">
         <v>0.111962584</v>
@@ -11617,7 +11614,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B354">
         <v>3.6169799999999998E-4</v>
@@ -11629,7 +11626,7 @@
         <v>0.39989279700000002</v>
       </c>
       <c r="E354">
-        <v>4.0492685E-2</v>
+        <v>2.9547614999999999E-2</v>
       </c>
       <c r="F354">
         <v>0.115546248</v>
@@ -11643,7 +11640,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B355">
         <v>3.3175099999999998E-4</v>
@@ -11655,7 +11652,7 @@
         <v>0.399759647</v>
       </c>
       <c r="E355">
-        <v>3.7007920999999999E-2</v>
+        <v>2.8581051E-2</v>
       </c>
       <c r="F355">
         <v>0.116101996</v>
@@ -11669,7 +11666,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B356">
         <v>3.0890699999999998E-4</v>
@@ -11681,7 +11678,7 @@
         <v>0.39975485500000002</v>
       </c>
       <c r="E356">
-        <v>3.5096822999999999E-2</v>
+        <v>2.2202800000000002E-2</v>
       </c>
       <c r="F356">
         <v>0.11645707700000001</v>
@@ -11695,7 +11692,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B357">
         <v>5.4922200000000003E-4</v>
@@ -11707,7 +11704,7 @@
         <v>0.49980048199999999</v>
       </c>
       <c r="E357">
-        <v>3.8351444999999998E-2</v>
+        <v>3.0615773999999998E-2</v>
       </c>
       <c r="F357">
         <v>0.105765605</v>
@@ -11721,7 +11718,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B358">
         <v>5.5316299999999996E-4</v>
@@ -11733,7 +11730,7 @@
         <v>0.50032897399999998</v>
       </c>
       <c r="E358">
-        <v>3.8767682999999997E-2</v>
+        <v>3.1153771E-2</v>
       </c>
       <c r="F358">
         <v>0.105608667</v>
@@ -11747,7 +11744,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B359">
         <v>5.5357200000000001E-4</v>
@@ -11759,7 +11756,7 @@
         <v>0.49995863899999998</v>
       </c>
       <c r="E359">
-        <v>4.1497602000000001E-2</v>
+        <v>2.9911225999999999E-2</v>
       </c>
       <c r="F359">
         <v>0.107865848</v>
@@ -11773,7 +11770,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B360">
         <v>5.1459900000000002E-4</v>
@@ -11785,7 +11782,7 @@
         <v>0.49924889700000002</v>
       </c>
       <c r="E360">
-        <v>7.3695811E-2</v>
+        <v>2.7726224000000001E-2</v>
       </c>
       <c r="F360">
         <v>0.11089763900000001</v>
@@ -11799,7 +11796,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B361">
         <v>4.2470700000000003E-4</v>
@@ -11811,7 +11808,7 @@
         <v>0.49989370999999999</v>
       </c>
       <c r="E361">
-        <v>4.5768153999999998E-2</v>
+        <v>2.8382245E-2</v>
       </c>
       <c r="F361">
         <v>0.116405312</v>
@@ -11825,7 +11822,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B362">
         <v>3.68847E-4</v>
@@ -11837,7 +11834,7 @@
         <v>0.49769276600000001</v>
       </c>
       <c r="E362">
-        <v>3.9563547999999997E-2</v>
+        <v>2.2175271999999999E-2</v>
       </c>
       <c r="F362">
         <v>0.115419568</v>
@@ -11851,7 +11848,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B363">
         <v>3.3055999999999998E-4</v>
@@ -11863,7 +11860,7 @@
         <v>0.59374902299999999</v>
       </c>
       <c r="E363">
-        <v>3.6715955000000002E-2</v>
+        <v>3.1967387999999999E-2</v>
       </c>
       <c r="F363">
         <v>0.12346001199999999</v>
@@ -11884,7 +11881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB1C651-CEA7-476C-9320-11A618C37DF4}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E105"/>
     </sheetView>
   </sheetViews>
@@ -11904,10 +11901,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -11918,7 +11915,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>2.0462099999999999E-4</v>
@@ -11944,7 +11941,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>6.5725699999999996E-4</v>
@@ -11970,7 +11967,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>3.1127999999999999E-4</v>
@@ -11996,7 +11993,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4.4927699999999999E-4</v>
@@ -12022,7 +12019,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>5.4967899999999997E-4</v>
@@ -12048,7 +12045,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>3.38769E-4</v>
@@ -12074,7 +12071,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2.4194099999999999E-4</v>
@@ -12100,7 +12097,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>4.9274500000000005E-4</v>
@@ -12126,7 +12123,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>6.1183099999999996E-4</v>
@@ -12152,7 +12149,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>3.9097999999999997E-4</v>
@@ -12178,7 +12175,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2.2167000000000001E-4</v>
@@ -12204,7 +12201,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>6.7796600000000001E-4</v>
@@ -12230,7 +12227,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>2.54348E-4</v>
@@ -12256,7 +12253,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>8.0239500000000002E-4</v>
@@ -12282,7 +12279,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>5.0275999999999999E-4</v>
@@ -12308,7 +12305,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>5.9944000000000002E-4</v>
@@ -12334,7 +12331,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>7.1244500000000003E-4</v>
@@ -12360,7 +12357,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>3.7785800000000001E-4</v>
@@ -12386,7 +12383,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>5.6844399999999998E-4</v>
@@ -12412,7 +12409,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>6.5962200000000001E-4</v>
@@ -12438,7 +12435,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>7.5361500000000001E-4</v>
@@ -12464,7 +12461,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>3.65507E-4</v>
@@ -12490,7 +12487,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>3.21902E-4</v>
@@ -12516,7 +12513,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>4.4690600000000001E-4</v>
@@ -12542,7 +12539,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>2.6539199999999998E-4</v>
@@ -12568,7 +12565,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>2.7240599999999999E-4</v>
@@ -12594,7 +12591,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>5.6636299999999996E-4</v>
@@ -12620,7 +12617,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>4.4455299999999998E-4</v>
@@ -12646,7 +12643,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>3.4781999999999999E-4</v>
@@ -12672,7 +12669,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>3.0862499999999998E-4</v>
@@ -12698,7 +12695,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>3.9580799999999999E-4</v>
@@ -12724,7 +12721,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>4.85129E-4</v>
@@ -12750,7 +12747,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>4.7428800000000001E-4</v>
@@ -12776,7 +12773,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>3.4672300000000001E-4</v>
@@ -12802,7 +12799,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>5.7827599999999996E-4</v>
@@ -12828,7 +12825,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>4.6433100000000001E-4</v>
@@ -12854,7 +12851,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>4.11395E-4</v>
@@ -12880,7 +12877,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>3.13467E-4</v>
@@ -12906,7 +12903,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>7.2654800000000004E-4</v>
@@ -12932,7 +12929,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>8.1662800000000002E-4</v>
@@ -12958,7 +12955,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>8.5975099999999996E-4</v>
@@ -12984,7 +12981,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>7.0617800000000001E-4</v>
@@ -13010,7 +13007,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>6.3737199999999998E-4</v>
@@ -13036,7 +13033,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <v>5.2616900000000005E-4</v>
@@ -13062,7 +13059,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>7.4180700000000003E-4</v>
@@ -13088,7 +13085,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>9.1292700000000001E-4</v>
@@ -13114,7 +13111,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>9.4360899999999998E-4</v>
@@ -13140,7 +13137,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>6.1466400000000001E-4</v>
@@ -13166,7 +13163,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50">
         <v>6.6162899999999995E-4</v>
@@ -13192,7 +13189,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>7.2370699999999997E-4</v>
@@ -13218,7 +13215,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>8.0128199999999995E-4</v>
@@ -13244,7 +13241,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53">
         <v>6.8117199999999996E-4</v>
@@ -13270,7 +13267,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54">
         <v>6.1575900000000001E-4</v>
@@ -13296,7 +13293,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55">
         <v>5.7284199999999995E-4</v>
@@ -13322,7 +13319,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>7.3430900000000005E-4</v>

--- a/Input/data_main.xlsx
+++ b/Input/data_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagr9\Projekte\MA\MA-Model_1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD58180-3044-4FAC-8B3A-261AD69DD2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F2A443-A27A-4A4C-A339-E0C07219808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="23">
   <si>
     <t>exp</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>ye</t>
-  </si>
-  <si>
-    <t>ratio</t>
   </si>
   <si>
     <t>niba1</t>
@@ -100,6 +97,15 @@
   <si>
     <t>h_dis_0</t>
   </si>
+  <si>
+    <t>H_DPZ</t>
+  </si>
+  <si>
+    <t>L_DPZ</t>
+  </si>
+  <si>
+    <t>dpz_flooded</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,12 +183,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -463,345 +470,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection sqref="A1:I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>160</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>0.2</v>
       </c>
-      <c r="E2" s="1">
-        <v>9.6295716614565059E-4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.1823660146057291</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="4">
+        <v>9.6295699999999996E-4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>2.81E-4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>160</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>0.2</v>
       </c>
-      <c r="E3" s="1">
-        <v>5.4068508635758987E-4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.21301483549235181</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="4">
+        <v>5.4068499999999995E-4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>3.0699999999999998E-4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>160</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>0.2</v>
       </c>
-      <c r="E4" s="1">
-        <v>5.7356177557115905E-4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.25425761110318579</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="4">
+        <v>5.7356200000000001E-4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>160</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>0.2</v>
       </c>
-      <c r="E5" s="1">
-        <v>1.6091137159752529E-3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.36931815679769697</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="4">
+        <v>1.609114E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>4.3100000000000001E-4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>160</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>0.2</v>
       </c>
-      <c r="E6" s="1">
-        <v>2.022104184845368E-3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.50113155679252741</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="4">
+        <v>2.0221039999999998E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.36980000000000002</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>5.3200000000000003E-4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>160</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>0.2</v>
       </c>
-      <c r="E7" s="1">
-        <v>1.8583168791360669E-3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.76352010233390366</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E7" s="4">
+        <v>1.858317E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
-        <v>6.8899999999999994E-4</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="4">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C8" s="4">
         <v>160</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>0.2</v>
       </c>
-      <c r="E8" s="1">
-        <v>1.5414611966421831E-3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.2806653375687329</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="E8" s="4">
+        <v>1.541461E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>1.281E-3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>160</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>0.2</v>
       </c>
-      <c r="E9" s="1">
-        <v>1.203053031576804E-3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4.4268567706128978</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E9" s="4">
+        <v>1.2030529999999999E-3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
-        <f>0.00018</f>
+      <c r="B10" s="4">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>160</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>0.2</v>
       </c>
-      <c r="E10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.99572192513368896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.99572192500000001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
-        <f>0.0002</f>
+      <c r="B11" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>160</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>0.2</v>
       </c>
-      <c r="E11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.99572192513368896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="E11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.99572192500000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
-        <f>0.00025</f>
+      <c r="B12" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>160</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>0.2</v>
       </c>
-      <c r="E12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.99572192513368896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.99572192500000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
-        <f>0.0003</f>
+      <c r="B13" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>160</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>0.2</v>
       </c>
-      <c r="E13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.99625668449197802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="E13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.996256684</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1">
-        <f>0.00035</f>
+      <c r="B14" s="4">
         <v>3.5E-4</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>160</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>0.2</v>
       </c>
-      <c r="E14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.99625668449197802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.996256684</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -815,16 +902,22 @@
         <v>0.2</v>
       </c>
       <c r="E15">
-        <v>2.2772938978669619E-4</v>
+        <v>2.27729E-4</v>
       </c>
       <c r="F15">
-        <v>0.1370529158760026</v>
+        <v>-1</v>
       </c>
       <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="H15">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -838,13 +931,19 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>1.3477410867637691E-3</v>
+        <v>1.347741E-3</v>
       </c>
       <c r="F16">
-        <v>0.17284629282554129</v>
+        <v>-1</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>2.18E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.498</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -861,13 +960,19 @@
         <v>0.2</v>
       </c>
       <c r="E17">
-        <v>1.48167952704679E-3</v>
+        <v>1.48168E-3</v>
       </c>
       <c r="F17">
-        <v>0.2279575182571614</v>
+        <v>-1</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.45</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -884,13 +989,19 @@
         <v>0.2</v>
       </c>
       <c r="E18">
-        <v>1.5823525896206921E-3</v>
+        <v>1.5823530000000001E-3</v>
       </c>
       <c r="F18">
-        <v>0.31658092682248279</v>
+        <v>-1</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>0.03</v>
+      </c>
+      <c r="H18">
+        <v>0.43</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -907,13 +1018,19 @@
         <v>0.2</v>
       </c>
       <c r="E19">
-        <v>1.2640770242587729E-3</v>
+        <v>1.264077E-3</v>
       </c>
       <c r="F19">
-        <v>0.46464702343852138</v>
+        <v>-1</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.33</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -930,13 +1047,19 @@
         <v>0.2</v>
       </c>
       <c r="E20">
-        <v>1.750109021017441E-3</v>
+        <v>1.7501089999999999E-3</v>
       </c>
       <c r="F20">
-        <v>0.73605944943634971</v>
+        <v>-1</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -953,13 +1076,19 @@
         <v>0.2</v>
       </c>
       <c r="E21">
-        <v>1.238571092807607E-3</v>
+        <v>1.2385709999999999E-3</v>
       </c>
       <c r="F21">
-        <v>1.3401074860750279</v>
+        <v>-1</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -976,13 +1105,19 @@
         <v>0.2</v>
       </c>
       <c r="E22">
-        <v>9.1166767204117576E-4</v>
+        <v>9.1166800000000003E-4</v>
       </c>
       <c r="F22">
-        <v>2.5877090019246669</v>
+        <v>-1</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -999,13 +1134,19 @@
         <v>0.2</v>
       </c>
       <c r="E23">
-        <v>4.5693419373077951E-4</v>
+        <v>4.5693399999999999E-4</v>
       </c>
       <c r="F23">
-        <v>4.8558997971939712</v>
+        <v>-1</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1013,7 +1154,6 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <f>0.00018</f>
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="C24">
@@ -1026,10 +1166,16 @@
         <v>-1</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>0.95080213899999999</v>
       </c>
       <c r="G24">
-        <v>0.95080213903743305</v>
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1037,7 +1183,6 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <f>0.0002</f>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C25">
@@ -1050,10 +1195,16 @@
         <v>-1</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>0.98930481299999995</v>
       </c>
       <c r="G25">
-        <v>0.989304812834224</v>
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1061,7 +1212,6 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <f>0.00025</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="C26">
@@ -1074,10 +1224,16 @@
         <v>-1</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>0.99358288800000005</v>
       </c>
       <c r="G26">
-        <v>0.99358288770053405</v>
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1085,7 +1241,6 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <f>0.0003</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="C27">
@@ -1098,10 +1253,16 @@
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>0.99518716600000001</v>
       </c>
       <c r="G27">
-        <v>0.99518716577540101</v>
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -1109,7 +1270,6 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <f>0.00035</f>
         <v>3.5E-4</v>
       </c>
       <c r="C28">
@@ -1122,10 +1282,16 @@
         <v>-1</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>0.99732620299999997</v>
       </c>
       <c r="G28">
-        <v>0.99732620320855603</v>
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1133,7 +1299,6 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <f>0.00018</f>
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="C29">
@@ -1146,485 +1311,600 @@
         <v>-1</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>0.96243386200000003</v>
       </c>
       <c r="G29">
-        <v>0.96243386243386198</v>
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>2.7099999999999997E-4</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>240</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>0.2</v>
       </c>
-      <c r="E30" s="1">
-        <v>5.6943586866757242E-4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.1320822729650824</v>
-      </c>
-      <c r="G30" s="1">
-        <v>-1</v>
+      <c r="E30" s="4">
+        <v>5.6943599999999999E-4</v>
+      </c>
+      <c r="F30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>2.9799999999999998E-4</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>240</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>0.2</v>
       </c>
-      <c r="E31" s="1">
-        <v>1.7641118244044319E-3</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.1597123428111161</v>
-      </c>
-      <c r="G31" s="1">
-        <v>-1</v>
+      <c r="E31" s="4">
+        <v>1.764112E-3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <v>3.4299999999999999E-4</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>240</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>0.2</v>
       </c>
-      <c r="E32" s="1">
-        <v>2.7815827299968472E-3</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.211589538977805</v>
-      </c>
-      <c r="G32" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="E32" s="4">
+        <v>2.7815829999999998E-3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>4.0400000000000001E-4</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>240</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <v>0.2</v>
       </c>
-      <c r="E33" s="1">
-        <v>3.1243836337864731E-3</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.29354094122178198</v>
-      </c>
-      <c r="G33" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="E33" s="4">
+        <v>3.124384E-3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>5.0299999999999997E-4</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>240</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>0.2</v>
       </c>
-      <c r="E34" s="1">
-        <v>3.5047858321507158E-3</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.45503198214379609</v>
-      </c>
-      <c r="G34" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="E34" s="4">
+        <v>3.5047860000000002E-3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5.45E-2</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>6.0999999999999997E-4</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>240</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <v>0.2</v>
       </c>
-      <c r="E35" s="1">
-        <v>3.0154706835275259E-3</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.66921493130958387</v>
-      </c>
-      <c r="G35" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="E35" s="4">
+        <v>3.015471E-3</v>
+      </c>
+      <c r="F35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="1">
-        <v>8.0399999999999992E-4</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36" s="4">
+        <v>8.0400000000000003E-4</v>
+      </c>
+      <c r="C36" s="4">
         <v>240</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="4">
         <v>0.2</v>
       </c>
-      <c r="E36" s="1">
-        <v>2.3056367382307788E-3</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.162567156778866</v>
-      </c>
-      <c r="G36" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="E36" s="4">
+        <v>2.3056370000000001E-3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="4">
         <v>1.0920000000000001E-3</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="4">
         <v>240</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="4">
         <v>0.2</v>
       </c>
-      <c r="E37" s="1">
-        <v>1.8617433763087039E-3</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2.1446243317633749</v>
-      </c>
-      <c r="G37" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="E37" s="4">
+        <v>1.8617429999999999E-3</v>
+      </c>
+      <c r="F37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>1.4159999999999999E-3</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <v>240</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <v>0.2</v>
       </c>
-      <c r="E38" s="1">
-        <v>9.7170389896743172E-4</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3.606055934726871</v>
-      </c>
-      <c r="G38" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="E38" s="4">
+        <v>9.7170399999999999E-4</v>
+      </c>
+      <c r="F38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.26240000000000002</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="1">
-        <f>0.00018</f>
+      <c r="B39" s="4">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="4">
         <v>240</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4">
         <v>0.2</v>
       </c>
-      <c r="E39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.74973262032085497</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="E39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.74973261999999996</v>
+      </c>
+      <c r="G39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="1">
-        <f>0.0002</f>
+      <c r="B40" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="4">
         <v>240</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4">
         <v>0.2</v>
       </c>
-      <c r="E40" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.97433155080213896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="E40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.97433155100000002</v>
+      </c>
+      <c r="G40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="1">
-        <f>0.00025</f>
+      <c r="B41" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="4">
         <v>240</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="4">
         <v>0.2</v>
       </c>
-      <c r="E41" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.98609625668449197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="E41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.98609625700000003</v>
+      </c>
+      <c r="G41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="1">
-        <f>0.0003</f>
+      <c r="B42" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="4">
         <v>240</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="4">
         <v>0.2</v>
       </c>
-      <c r="E42" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.99144385026737902</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="E42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.99144385000000002</v>
+      </c>
+      <c r="G42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="1">
-        <f>0.00035</f>
+      <c r="B43" s="4">
         <v>3.5E-4</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="4">
         <v>240</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="4">
         <v>0.2</v>
       </c>
-      <c r="E43" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.99518716577540101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="E43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.99518716600000001</v>
+      </c>
+      <c r="G43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="1">
-        <f>0.00018</f>
+      <c r="B44" s="4">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="4">
         <v>240</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="4">
         <v>0.05</v>
       </c>
-      <c r="E44" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.93015873015872996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="E44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.93015873000000004</v>
+      </c>
+      <c r="G44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="1">
-        <f>0.0002</f>
+      <c r="B45" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="4">
         <v>240</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="4">
         <v>0.05</v>
       </c>
-      <c r="E45" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.94973544973544899</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="E45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.94973545000000004</v>
+      </c>
+      <c r="G45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="1">
-        <f>0.00025</f>
+      <c r="B46" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="4">
         <v>240</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="4">
         <v>0.05</v>
       </c>
-      <c r="E46" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.97566137566137501</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="E46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.97566137600000002</v>
+      </c>
+      <c r="G46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="1">
-        <f>0.0003</f>
+      <c r="B47" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="4">
         <v>240</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="4">
         <v>0.05</v>
       </c>
-      <c r="E47" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.98783068783068695</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="E47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.98783068799999996</v>
+      </c>
+      <c r="G47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="1">
-        <f>0.00035</f>
+      <c r="B48" s="4">
         <v>3.5E-4</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="4">
         <v>240</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="4">
         <v>0.05</v>
       </c>
-      <c r="E48" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.99523809523809503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="E48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.99523809500000004</v>
+      </c>
+      <c r="G48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="1">
-        <f>0.00018</f>
+      <c r="B49" s="4">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="4">
         <v>240</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="4">
         <v>0.1</v>
       </c>
-      <c r="E49" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.92751322751322696</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.92751322800000002</v>
+      </c>
+      <c r="G49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I49" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1638,16 +1918,22 @@
         <v>0.2</v>
       </c>
       <c r="E50">
-        <v>6.6906144476863239E-4</v>
+        <v>6.6906099999999998E-4</v>
       </c>
       <c r="F50">
-        <v>9.9454994068497199E-2</v>
+        <v>-1</v>
       </c>
       <c r="G50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H50">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1661,16 +1947,22 @@
         <v>0.2</v>
       </c>
       <c r="E51">
-        <v>2.481912581033939E-3</v>
+        <v>2.4819130000000001E-3</v>
       </c>
       <c r="F51">
-        <v>0.13324589043500251</v>
+        <v>-1</v>
       </c>
       <c r="G51">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1684,16 +1976,22 @@
         <v>0.2</v>
       </c>
       <c r="E52">
-        <v>3.5047858321507158E-3</v>
+        <v>3.5047860000000002E-3</v>
       </c>
       <c r="F52">
-        <v>0.17507291557699109</v>
+        <v>-1</v>
       </c>
       <c r="G52">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.45E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1707,16 +2005,22 @@
         <v>0.2</v>
       </c>
       <c r="E53">
-        <v>3.5300274842651859E-3</v>
+        <v>3.5300269999999998E-3</v>
       </c>
       <c r="F53">
-        <v>0.24912153359547129</v>
+        <v>-1</v>
       </c>
       <c r="G53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1730,16 +2034,22 @@
         <v>0.2</v>
       </c>
       <c r="E54">
-        <v>3.7511155850126609E-3</v>
+        <v>3.7511160000000001E-3</v>
       </c>
       <c r="F54">
-        <v>0.38077808031907501</v>
+        <v>-1</v>
       </c>
       <c r="G54">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.96E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1753,16 +2063,22 @@
         <v>0.2</v>
       </c>
       <c r="E55">
-        <v>3.7918205784826329E-3</v>
+        <v>3.7918209999999999E-3</v>
       </c>
       <c r="F55">
-        <v>0.58685321837904003</v>
+        <v>-1</v>
       </c>
       <c r="G55">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="H55">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1776,16 +2092,22 @@
         <v>0.2</v>
       </c>
       <c r="E56">
-        <v>2.9280961559260119E-3</v>
+        <v>2.9280959999999998E-3</v>
       </c>
       <c r="F56">
-        <v>0.98659551435052129</v>
+        <v>-1</v>
       </c>
       <c r="G56">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="H56">
+        <v>0.42</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1799,16 +2121,22 @@
         <v>0.2</v>
       </c>
       <c r="E57">
-        <v>2.4002025628507462E-3</v>
+        <v>2.4002030000000001E-3</v>
       </c>
       <c r="F57">
-        <v>1.8618922637938651</v>
+        <v>-1</v>
       </c>
       <c r="G57">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="H57">
+        <v>0.35</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1822,28 +2150,33 @@
         <v>0.2</v>
       </c>
       <c r="E58">
-        <v>1.53434215541255E-3</v>
+        <v>1.534342E-3</v>
       </c>
       <c r="F58">
-        <v>2.5177979188444941</v>
+        <v>-1</v>
       </c>
       <c r="G58">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="H58">
+        <v>0.32</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
       <c r="B59">
-        <f>0.00018</f>
-        <v>1.8000000000000001E-4</v>
+        <v>2.2510799999999999E-4</v>
       </c>
       <c r="C59">
         <v>280</v>
       </c>
       <c r="D59">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E59">
         <v>-1</v>
@@ -1852,22 +2185,27 @@
         <v>-1</v>
       </c>
       <c r="G59">
-        <v>0.64973262032085499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
       <c r="B60">
-        <f>0.0002</f>
-        <v>2.0000000000000001E-4</v>
+        <v>2.5108200000000002E-4</v>
       </c>
       <c r="C60">
         <v>280</v>
       </c>
       <c r="D60">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E60">
         <v>-1</v>
@@ -1876,22 +2214,27 @@
         <v>-1</v>
       </c>
       <c r="G60">
-        <v>0.91657754010695103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
       <c r="B61">
-        <f>0.00025</f>
-        <v>2.5000000000000001E-4</v>
+        <v>2.8571400000000001E-4</v>
       </c>
       <c r="C61">
         <v>280</v>
       </c>
       <c r="D61">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E61">
         <v>-1</v>
@@ -1900,22 +2243,27 @@
         <v>-1</v>
       </c>
       <c r="G61">
-        <v>0.97754010695187099</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
       <c r="B62">
-        <f>0.0003</f>
-        <v>2.9999999999999997E-4</v>
+        <v>3.3419899999999998E-4</v>
       </c>
       <c r="C62">
         <v>280</v>
       </c>
       <c r="D62">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E62">
         <v>-1</v>
@@ -1924,22 +2272,27 @@
         <v>-1</v>
       </c>
       <c r="G62">
-        <v>0.98716577540106898</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
       <c r="B63">
-        <f>0.00035</f>
-        <v>3.5E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C63">
         <v>280</v>
       </c>
       <c r="D63">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E63">
         <v>-1</v>
@@ -1948,16 +2301,21 @@
         <v>-1</v>
       </c>
       <c r="G63">
-        <v>0.99251336898395703</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
       <c r="B64">
-        <f>0.00018</f>
-        <v>1.8000000000000001E-4</v>
+        <v>5.0216499999999995E-4</v>
       </c>
       <c r="C64">
         <v>280</v>
@@ -1972,16 +2330,21 @@
         <v>-1</v>
       </c>
       <c r="G64">
-        <v>0.89470899470899401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
       <c r="B65">
-        <f>0.0002</f>
-        <v>2.0000000000000001E-4</v>
+        <v>6.44156E-4</v>
       </c>
       <c r="C65">
         <v>280</v>
@@ -1996,16 +2359,21 @@
         <v>-1</v>
       </c>
       <c r="G65">
-        <v>0.91216931216931196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
       <c r="B66">
-        <f>0.00025</f>
-        <v>2.5000000000000001E-4</v>
+        <v>9.904759999999999E-4</v>
       </c>
       <c r="C66">
         <v>280</v>
@@ -2020,16 +2388,21 @@
         <v>-1</v>
       </c>
       <c r="G66">
-        <v>0.96137566137566099</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
       <c r="B67">
-        <f>0.0003</f>
-        <v>2.9999999999999997E-4</v>
+        <v>1.4112549999999999E-3</v>
       </c>
       <c r="C67">
         <v>280</v>
@@ -2044,22 +2417,27 @@
         <v>-1</v>
       </c>
       <c r="G67">
-        <v>0.98148148148148096</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68">
-        <f>0.00035</f>
-        <v>3.5E-4</v>
+        <v>2.4242400000000001E-4</v>
       </c>
       <c r="C68">
         <v>280</v>
       </c>
       <c r="D68">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E68">
         <v>-1</v>
@@ -2068,16 +2446,21 @@
         <v>-1</v>
       </c>
       <c r="G68">
-        <v>0.98994708994708902</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.4723619999999997E-3</v>
+      </c>
+      <c r="H68">
+        <v>0.236398467</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69">
-        <f>0.00018</f>
-        <v>1.8000000000000001E-4</v>
+        <v>2.7186099999999998E-4</v>
       </c>
       <c r="C69">
         <v>280</v>
@@ -2092,328 +2475,1201 @@
         <v>-1</v>
       </c>
       <c r="G69">
-        <v>0.89894179894179804</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+        <v>4.0201009999999999E-3</v>
+      </c>
+      <c r="H69">
+        <v>0.236398467</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="5">
+        <v>3.0995699999999997E-4</v>
+      </c>
+      <c r="C70" s="5">
+        <v>280</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G70" s="5">
+        <v>4.773869E-3</v>
+      </c>
+      <c r="H70">
+        <v>0.222605364</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="5">
+        <v>3.6017299999999998E-4</v>
+      </c>
+      <c r="C71" s="5">
+        <v>280</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E71" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G71" s="5">
+        <v>5.3768840000000002E-3</v>
+      </c>
+      <c r="H71">
+        <v>0.188888889</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="5">
+        <v>4.3636400000000001E-4</v>
+      </c>
+      <c r="C72" s="5">
+        <v>280</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E72" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G72" s="5">
+        <v>8.2412059999999992E-3</v>
+      </c>
+      <c r="H72">
+        <v>0.215708812</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="5">
+        <v>5.4891800000000002E-4</v>
+      </c>
+      <c r="C73" s="5">
+        <v>280</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E73" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1.0502513E-2</v>
+      </c>
+      <c r="H73">
+        <v>0.215708812</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5">
+        <v>7.1515200000000004E-4</v>
+      </c>
+      <c r="C74" s="5">
+        <v>280</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E74" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F74" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1.201005E-2</v>
+      </c>
+      <c r="H74">
+        <v>0.195019157</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1.0147190000000001E-3</v>
+      </c>
+      <c r="C75" s="5">
+        <v>280</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E75" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G75" s="5">
+        <v>1.201005E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.18735632199999999</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1.4943720000000001E-3</v>
+      </c>
+      <c r="C76" s="5">
+        <v>280</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E76" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G76" s="5">
+        <v>1.1708543E-2</v>
+      </c>
+      <c r="H76">
+        <v>0.18429118799999999</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="5">
+        <v>2.5800900000000002E-4</v>
+      </c>
+      <c r="C77" s="5">
+        <v>280</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E77" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1.1557789000000001E-2</v>
+      </c>
+      <c r="H77">
+        <v>0.44636015299999998</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="5">
+        <v>2.90909E-4</v>
+      </c>
+      <c r="C78" s="5">
+        <v>280</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E78" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F78" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1.2462312E-2</v>
+      </c>
+      <c r="H78">
+        <v>0.51685823799999997</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="5">
+        <v>3.3419899999999998E-4</v>
+      </c>
+      <c r="C79" s="5">
+        <v>280</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E79" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G79" s="5">
+        <v>1.8643216000000001E-2</v>
+      </c>
+      <c r="H79">
+        <v>0.46015325699999998</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="5">
+        <v>3.9307399999999998E-4</v>
+      </c>
+      <c r="C80" s="5">
+        <v>280</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E80" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F80" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G80" s="5">
+        <v>2.9346733999999999E-2</v>
+      </c>
+      <c r="H80">
+        <v>0.493103448</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="5">
+        <v>4.7445899999999999E-4</v>
+      </c>
+      <c r="C81" s="5">
+        <v>280</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E81" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F81" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G81" s="5">
+        <v>2.6783919999999999E-2</v>
+      </c>
+      <c r="H81">
+        <v>0.46015325699999998</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="5">
+        <v>5.9913399999999997E-4</v>
+      </c>
+      <c r="C82" s="5">
+        <v>280</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E82" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F82" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="5">
+        <v>2.6783919999999999E-2</v>
+      </c>
+      <c r="H82">
+        <v>0.37739463600000001</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="5">
+        <v>7.7229399999999998E-4</v>
+      </c>
+      <c r="C83" s="5">
+        <v>280</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E83" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F83" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G83" s="5">
+        <v>2.6633166E-2</v>
+      </c>
+      <c r="H83">
+        <v>0.29310344799999999</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>1.0320349999999999E-3</v>
+      </c>
+      <c r="C84">
+        <v>280</v>
+      </c>
+      <c r="D84">
+        <v>0.15</v>
+      </c>
+      <c r="E84">
+        <v>-1</v>
+      </c>
+      <c r="F84">
+        <v>-1</v>
+      </c>
+      <c r="G84">
+        <v>2.3316582999999998E-2</v>
+      </c>
+      <c r="H84">
+        <v>0.236398467</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>1.314286E-3</v>
+      </c>
+      <c r="C85">
+        <v>280</v>
+      </c>
+      <c r="D85">
+        <v>0.15</v>
+      </c>
+      <c r="E85">
+        <v>-1</v>
+      </c>
+      <c r="F85">
+        <v>-1</v>
+      </c>
+      <c r="G85">
+        <v>1.8492462000000001E-2</v>
+      </c>
+      <c r="H85">
+        <v>0.21340996200000001</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C86">
+        <v>280</v>
+      </c>
+      <c r="D86">
+        <v>0.2</v>
+      </c>
+      <c r="E86">
+        <v>-1</v>
+      </c>
+      <c r="F86">
+        <v>0.64973261999999998</v>
+      </c>
+      <c r="G86">
+        <v>-1</v>
+      </c>
+      <c r="H86">
+        <v>-1</v>
+      </c>
+      <c r="I86">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C87">
+        <v>280</v>
+      </c>
+      <c r="D87">
+        <v>0.2</v>
+      </c>
+      <c r="E87">
+        <v>-1</v>
+      </c>
+      <c r="F87">
+        <v>0.91657754000000002</v>
+      </c>
+      <c r="G87">
+        <v>-1</v>
+      </c>
+      <c r="H87">
+        <v>-1</v>
+      </c>
+      <c r="I87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C88">
+        <v>280</v>
+      </c>
+      <c r="D88">
+        <v>0.2</v>
+      </c>
+      <c r="E88">
+        <v>-1</v>
+      </c>
+      <c r="F88">
+        <v>0.97754010700000005</v>
+      </c>
+      <c r="G88">
+        <v>-1</v>
+      </c>
+      <c r="H88">
+        <v>-1</v>
+      </c>
+      <c r="I88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C89">
+        <v>280</v>
+      </c>
+      <c r="D89">
+        <v>0.2</v>
+      </c>
+      <c r="E89">
+        <v>-1</v>
+      </c>
+      <c r="F89">
+        <v>0.98716577500000002</v>
+      </c>
+      <c r="G89">
+        <v>-1</v>
+      </c>
+      <c r="H89">
+        <v>-1</v>
+      </c>
+      <c r="I89">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>3.5E-4</v>
+      </c>
+      <c r="C90">
+        <v>280</v>
+      </c>
+      <c r="D90">
+        <v>0.2</v>
+      </c>
+      <c r="E90">
+        <v>-1</v>
+      </c>
+      <c r="F90">
+        <v>0.99251336899999998</v>
+      </c>
+      <c r="G90">
+        <v>-1</v>
+      </c>
+      <c r="H90">
+        <v>-1</v>
+      </c>
+      <c r="I90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C91">
+        <v>280</v>
+      </c>
+      <c r="D91">
+        <v>0.05</v>
+      </c>
+      <c r="E91">
+        <v>-1</v>
+      </c>
+      <c r="F91">
+        <v>0.89470899500000001</v>
+      </c>
+      <c r="G91">
+        <v>-1</v>
+      </c>
+      <c r="H91">
+        <v>-1</v>
+      </c>
+      <c r="I91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C92">
+        <v>280</v>
+      </c>
+      <c r="D92">
+        <v>0.05</v>
+      </c>
+      <c r="E92">
+        <v>-1</v>
+      </c>
+      <c r="F92">
+        <v>0.91216931199999995</v>
+      </c>
+      <c r="G92">
+        <v>-1</v>
+      </c>
+      <c r="H92">
+        <v>-1</v>
+      </c>
+      <c r="I92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="C93">
+        <v>280</v>
+      </c>
+      <c r="D93">
+        <v>0.05</v>
+      </c>
+      <c r="E93">
+        <v>-1</v>
+      </c>
+      <c r="F93">
+        <v>0.96137566100000005</v>
+      </c>
+      <c r="G93">
+        <v>-1</v>
+      </c>
+      <c r="H93">
+        <v>-1</v>
+      </c>
+      <c r="I93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C94">
+        <v>280</v>
+      </c>
+      <c r="D94">
+        <v>0.05</v>
+      </c>
+      <c r="E94">
+        <v>-1</v>
+      </c>
+      <c r="F94">
+        <v>0.98148148099999999</v>
+      </c>
+      <c r="G94">
+        <v>-1</v>
+      </c>
+      <c r="H94">
+        <v>-1</v>
+      </c>
+      <c r="I94">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>3.5E-4</v>
+      </c>
+      <c r="C95">
+        <v>280</v>
+      </c>
+      <c r="D95">
+        <v>0.05</v>
+      </c>
+      <c r="E95">
+        <v>-1</v>
+      </c>
+      <c r="F95">
+        <v>0.98994709000000003</v>
+      </c>
+      <c r="G95">
+        <v>-1</v>
+      </c>
+      <c r="H95">
+        <v>-1</v>
+      </c>
+      <c r="I95">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="C96">
+        <v>280</v>
+      </c>
+      <c r="D96">
+        <v>0.1</v>
+      </c>
+      <c r="E96">
+        <v>-1</v>
+      </c>
+      <c r="F96">
+        <v>0.89894179900000004</v>
+      </c>
+      <c r="G96">
+        <v>-1</v>
+      </c>
+      <c r="H96">
+        <v>-1</v>
+      </c>
+      <c r="I96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C97">
+        <v>2050</v>
+      </c>
+      <c r="D97">
+        <v>0.3</v>
+      </c>
+      <c r="E97">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F97">
+        <v>-1</v>
+      </c>
+      <c r="G97">
+        <v>-1</v>
+      </c>
+      <c r="H97">
+        <v>-1</v>
+      </c>
+      <c r="I97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>9.0499999999999999E-4</v>
+      </c>
+      <c r="C98">
+        <v>2350</v>
+      </c>
+      <c r="D98">
+        <v>0.5</v>
+      </c>
+      <c r="E98">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F98">
+        <v>-1</v>
+      </c>
+      <c r="G98">
+        <v>-1</v>
+      </c>
+      <c r="H98">
+        <v>-1</v>
+      </c>
+      <c r="I98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="1">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2050</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="B99">
+        <v>6.3250000000000003E-4</v>
+      </c>
+      <c r="C99">
+        <v>1600</v>
+      </c>
+      <c r="D99">
         <v>0.3</v>
       </c>
-      <c r="E70" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F70" s="1">
-        <v>0</v>
-      </c>
-      <c r="G70" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="E99">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F99">
+        <v>-1</v>
+      </c>
+      <c r="G99">
+        <v>-1</v>
+      </c>
+      <c r="H99">
+        <v>-1</v>
+      </c>
+      <c r="I99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="1">
-        <v>9.0499999999999999E-4</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2350</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="B100">
+        <v>6.0749999999999997E-4</v>
+      </c>
+      <c r="C100">
+        <v>1500</v>
+      </c>
+      <c r="D100">
+        <v>0.3</v>
+      </c>
+      <c r="E100">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F100">
+        <v>-1</v>
+      </c>
+      <c r="G100">
+        <v>-1</v>
+      </c>
+      <c r="H100">
+        <v>-1</v>
+      </c>
+      <c r="I100">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>7.3800000000000005E-4</v>
+      </c>
+      <c r="C101">
+        <v>1450</v>
+      </c>
+      <c r="D101">
         <v>0.5</v>
       </c>
-      <c r="E71" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F71" s="1">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="E101">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F101">
+        <v>-1</v>
+      </c>
+      <c r="G101">
+        <v>-1</v>
+      </c>
+      <c r="H101">
+        <v>-1</v>
+      </c>
+      <c r="I101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>8.6499999999999999E-4</v>
+      </c>
+      <c r="C102">
+        <v>1850</v>
+      </c>
+      <c r="D102">
+        <v>0.5</v>
+      </c>
+      <c r="E102">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F102">
+        <v>-1</v>
+      </c>
+      <c r="G102">
+        <v>-1</v>
+      </c>
+      <c r="H102">
+        <v>-1</v>
+      </c>
+      <c r="I102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="1">
-        <v>6.3250000000000003E-4</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="B103">
+        <v>6.2750000000000002E-4</v>
+      </c>
+      <c r="C103">
         <v>1600</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D103">
         <v>0.3</v>
       </c>
-      <c r="E72" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F72" s="1">
-        <v>0</v>
-      </c>
-      <c r="G72" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="E103">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F103">
+        <v>-1</v>
+      </c>
+      <c r="G103">
+        <v>-1</v>
+      </c>
+      <c r="H103">
+        <v>-1</v>
+      </c>
+      <c r="I103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="1">
-        <v>6.0749999999999997E-4</v>
-      </c>
-      <c r="C73" s="1">
+      <c r="B104">
+        <v>5.8500000000000002E-4</v>
+      </c>
+      <c r="C104">
+        <v>1450</v>
+      </c>
+      <c r="D104">
+        <v>0.3</v>
+      </c>
+      <c r="E104">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F104">
+        <v>-1</v>
+      </c>
+      <c r="G104">
+        <v>-1</v>
+      </c>
+      <c r="H104">
+        <v>-1</v>
+      </c>
+      <c r="I104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <v>7.0750000000000001E-4</v>
+      </c>
+      <c r="C105">
+        <v>1400</v>
+      </c>
+      <c r="D105">
+        <v>0.5</v>
+      </c>
+      <c r="E105">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F105">
+        <v>-1</v>
+      </c>
+      <c r="G105">
+        <v>-1</v>
+      </c>
+      <c r="H105">
+        <v>-1</v>
+      </c>
+      <c r="I105">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>6.3500000000000004E-4</v>
+      </c>
+      <c r="C106">
+        <v>1150</v>
+      </c>
+      <c r="D106">
+        <v>0.5</v>
+      </c>
+      <c r="E106">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F106">
+        <v>-1</v>
+      </c>
+      <c r="G106">
+        <v>-1</v>
+      </c>
+      <c r="H106">
+        <v>-1</v>
+      </c>
+      <c r="I106">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>6.6750000000000002E-4</v>
+      </c>
+      <c r="C107">
+        <v>1600</v>
+      </c>
+      <c r="D107">
+        <v>0.3</v>
+      </c>
+      <c r="E107">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F107">
+        <v>-1</v>
+      </c>
+      <c r="G107">
+        <v>-1</v>
+      </c>
+      <c r="H107">
+        <v>-1</v>
+      </c>
+      <c r="I107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>6.3029999999999998E-4</v>
+      </c>
+      <c r="C108">
         <v>1500</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D108">
         <v>0.3</v>
       </c>
-      <c r="E73" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="1">
-        <v>7.3800000000000005E-4</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1450</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="E108">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F108">
+        <v>-1</v>
+      </c>
+      <c r="G108">
+        <v>-1</v>
+      </c>
+      <c r="H108">
+        <v>-1</v>
+      </c>
+      <c r="I108">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>7.2250000000000005E-4</v>
+      </c>
+      <c r="C109">
+        <v>1350</v>
+      </c>
+      <c r="D109">
         <v>0.5</v>
       </c>
-      <c r="E74" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F74" s="1">
-        <v>0</v>
-      </c>
-      <c r="G74" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="1">
-        <v>8.6499999999999999E-4</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1850</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="E109">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F109">
+        <v>-1</v>
+      </c>
+      <c r="G109">
+        <v>-1</v>
+      </c>
+      <c r="H109">
+        <v>-1</v>
+      </c>
+      <c r="I109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>6.7250000000000003E-4</v>
+      </c>
+      <c r="C110">
+        <v>1200</v>
+      </c>
+      <c r="D110">
         <v>0.5</v>
       </c>
-      <c r="E75" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="1">
-        <v>6.2750000000000002E-4</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E76" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F76" s="1">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="1">
-        <v>5.8500000000000002E-4</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1450</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E77" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F77" s="1">
-        <v>0</v>
-      </c>
-      <c r="G77" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="1">
-        <v>7.0750000000000001E-4</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1400</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E78" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F78" s="1">
-        <v>0</v>
-      </c>
-      <c r="G78" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="1">
-        <v>6.3500000000000004E-4</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1150</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E79" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F79" s="1">
-        <v>0</v>
-      </c>
-      <c r="G79" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="1">
-        <v>6.6750000000000002E-4</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E80" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F80" s="1">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="1">
-        <v>6.3029999999999998E-4</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E81" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F81" s="1">
-        <v>0</v>
-      </c>
-      <c r="G81" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="1">
-        <v>7.2250000000000005E-4</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1350</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E82" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="1">
-        <v>6.7250000000000003E-4</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1200</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E83" s="1">
-        <v>5.9087441444048081E-3</v>
-      </c>
-      <c r="F83" s="1">
-        <v>0</v>
-      </c>
-      <c r="G83" s="1">
+      <c r="E110">
+        <v>5.9087439999999996E-3</v>
+      </c>
+      <c r="F110">
+        <v>-1</v>
+      </c>
+      <c r="G110">
+        <v>-1</v>
+      </c>
+      <c r="H110">
+        <v>-1</v>
+      </c>
+      <c r="I110">
         <v>-1</v>
       </c>
     </row>
@@ -2428,7 +3684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A9A0D0-FB24-4EE6-8EDD-B3A2672E503C}">
   <dimension ref="A1:H363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -2439,30 +3695,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>8.0239500000000002E-4</v>
@@ -2488,7 +3744,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>6.91448E-4</v>
@@ -2514,7 +3770,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>5.95906E-4</v>
@@ -2540,7 +3796,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>6.2088699999999998E-4</v>
@@ -2566,7 +3822,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>5.9944000000000002E-4</v>
@@ -2592,7 +3848,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6.1677100000000001E-4</v>
@@ -2618,7 +3874,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>5.9561800000000002E-4</v>
@@ -2644,7 +3900,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>5.7893599999999995E-4</v>
@@ -2670,7 +3926,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>4.9265500000000005E-4</v>
@@ -2696,7 +3952,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>9.1292700000000001E-4</v>
@@ -2722,7 +3978,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>9.8825999999999992E-4</v>
@@ -2748,7 +4004,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>9.4360899999999998E-4</v>
@@ -2774,7 +4030,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>7.7894200000000002E-4</v>
@@ -2800,7 +4056,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>7.8108599999999995E-4</v>
@@ -2826,7 +4082,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>7.4180700000000003E-4</v>
@@ -2852,7 +4108,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>6.3737199999999998E-4</v>
@@ -2878,7 +4134,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>6.3181200000000004E-4</v>
@@ -2904,7 +4160,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>5.6106099999999996E-4</v>
@@ -2930,7 +4186,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>8.0128199999999995E-4</v>
@@ -2956,7 +4212,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>8.1002600000000004E-4</v>
@@ -2982,7 +4238,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>7.8814599999999999E-4</v>
@@ -3008,7 +4264,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>7.1302300000000002E-4</v>
@@ -3034,7 +4290,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>6.9510100000000005E-4</v>
@@ -3060,7 +4316,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>7.0127399999999999E-4</v>
@@ -3086,7 +4342,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>7.3645500000000001E-4</v>
@@ -3112,7 +4368,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>7.2969899999999999E-4</v>
@@ -3138,7 +4394,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>6.9667700000000004E-4</v>
@@ -3164,7 +4420,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>6.4236199999999995E-4</v>
@@ -3190,7 +4446,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>6.8012400000000005E-4</v>
@@ -3216,7 +4472,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>5.9216200000000003E-4</v>
@@ -3242,7 +4498,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>5.9390400000000002E-4</v>
@@ -3268,7 +4524,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>5.8364699999999996E-4</v>
@@ -3294,7 +4550,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>5.1002800000000004E-4</v>
@@ -3320,7 +4576,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>8.0508499999999998E-4</v>
@@ -3346,7 +4602,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>7.6724599999999997E-4</v>
@@ -3372,7 +4628,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>7.0617800000000001E-4</v>
@@ -3398,7 +4654,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>6.90491E-4</v>
@@ -3424,7 +4680,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>6.6872600000000002E-4</v>
@@ -3450,7 +4706,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>6.0886200000000005E-4</v>
@@ -3476,7 +4732,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>5.8638600000000005E-4</v>
@@ -3502,7 +4758,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>5.8743599999999999E-4</v>
@@ -3528,7 +4784,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>5.2147200000000004E-4</v>
@@ -3554,7 +4810,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>7.3430900000000005E-4</v>
@@ -3580,7 +4836,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>6.9824100000000005E-4</v>
@@ -3606,7 +4862,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>6.8666599999999995E-4</v>
@@ -3632,7 +4888,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>6.0317599999999997E-4</v>
@@ -3658,7 +4914,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>6.0375999999999995E-4</v>
@@ -3684,7 +4940,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>7.2423300000000002E-4</v>
@@ -3710,7 +4966,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>8.1175500000000005E-4</v>
@@ -3736,7 +4992,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>7.9663900000000003E-4</v>
@@ -3762,7 +5018,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>7.5900900000000005E-4</v>
@@ -3788,7 +5044,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>7.5096099999999997E-4</v>
@@ -3814,7 +5070,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>7.63323E-4</v>
@@ -3840,7 +5096,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>7.2370699999999997E-4</v>
@@ -3866,7 +5122,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>7.0107399999999999E-4</v>
@@ -3892,7 +5148,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>7.1206199999999996E-4</v>
@@ -3918,7 +5174,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>6.9931300000000002E-4</v>
@@ -3944,7 +5200,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59">
         <v>7.7304999999999995E-4</v>
@@ -3970,7 +5226,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60">
         <v>7.7200999999999995E-4</v>
@@ -3996,7 +5252,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61">
         <v>7.2866900000000004E-4</v>
@@ -4022,7 +5278,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62">
         <v>7.7559000000000005E-4</v>
@@ -4048,7 +5304,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63">
         <v>7.6392500000000004E-4</v>
@@ -4074,7 +5330,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64">
         <v>7.2654800000000004E-4</v>
@@ -4100,7 +5356,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>7.2222900000000001E-4</v>
@@ -4126,7 +5382,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66">
         <v>7.1244500000000003E-4</v>
@@ -4152,7 +5408,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67">
         <v>7.1245100000000001E-4</v>
@@ -4178,7 +5434,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68">
         <v>7.3421300000000005E-4</v>
@@ -4204,7 +5460,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69">
         <v>7.4564200000000003E-4</v>
@@ -4230,7 +5486,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70">
         <v>7.5361500000000001E-4</v>
@@ -4256,7 +5512,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>6.6505100000000005E-4</v>
@@ -4282,7 +5538,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72">
         <v>6.3372099999999996E-4</v>
@@ -4308,7 +5564,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73">
         <v>6.1875899999999998E-4</v>
@@ -4334,7 +5590,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B74">
         <v>6.2012899999999997E-4</v>
@@ -4360,7 +5616,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75">
         <v>6.5113400000000004E-4</v>
@@ -4386,7 +5642,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B76">
         <v>6.6688800000000003E-4</v>
@@ -4406,13 +5662,13 @@
       <c r="G76">
         <v>1.968296E-3</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="2">
         <v>0.996412199</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77">
         <v>5.7892299999999996E-4</v>
@@ -4438,7 +5694,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B78">
         <v>5.6844399999999998E-4</v>
@@ -4464,7 +5720,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79">
         <v>5.5183900000000004E-4</v>
@@ -4484,13 +5740,13 @@
       <c r="G79">
         <v>2.425885E-3</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="2">
         <v>0.99622264800000004</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80">
         <v>5.2785099999999997E-4</v>
@@ -4510,13 +5766,13 @@
       <c r="G80">
         <v>2.3180470000000002E-3</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="2">
         <v>0.99609953200000001</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81">
         <v>5.4509199999999995E-4</v>
@@ -4536,13 +5792,13 @@
       <c r="G81">
         <v>2.1854880000000002E-3</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="2">
         <v>0.99525829799999999</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B82">
         <v>5.5842000000000001E-4</v>
@@ -4562,13 +5818,13 @@
       <c r="G82">
         <v>2.0659419999999999E-3</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="2">
         <v>0.99497245599999995</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>8.1662800000000002E-4</v>
@@ -4594,7 +5850,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84">
         <v>8.2480499999999996E-4</v>
@@ -4614,13 +5870,13 @@
       <c r="G84">
         <v>2.8027099999999999E-3</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="2">
         <v>0.99563806799999999</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85">
         <v>7.6000999999999998E-4</v>
@@ -4640,13 +5896,13 @@
       <c r="G85">
         <v>3.1417229999999999E-3</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="2">
         <v>0.99673559199999995</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86">
         <v>7.4356499999999996E-4</v>
@@ -4666,13 +5922,13 @@
       <c r="G86">
         <v>3.1763809999999998E-3</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="2">
         <v>0.99708318100000004</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87">
         <v>7.9224700000000005E-4</v>
@@ -4698,7 +5954,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88">
         <v>8.5975099999999996E-4</v>
@@ -4718,13 +5974,13 @@
       <c r="G88">
         <v>2.846627E-3</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="2">
         <v>0.99697522500000002</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89">
         <v>7.0235800000000004E-4</v>
@@ -4744,13 +6000,13 @@
       <c r="G89">
         <v>2.464819E-3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="2">
         <v>0.99536107500000004</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B90">
         <v>6.7399699999999996E-4</v>
@@ -4776,7 +6032,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91">
         <v>6.1247500000000002E-4</v>
@@ -4802,7 +6058,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92">
         <v>5.9411399999999997E-4</v>
@@ -4828,7 +6084,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B93">
         <v>6.1466400000000001E-4</v>
@@ -4854,7 +6110,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B94">
         <v>6.6162899999999995E-4</v>
@@ -4880,7 +6136,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95">
         <v>5.9813300000000004E-4</v>
@@ -4906,7 +6162,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B96">
         <v>5.8159900000000003E-4</v>
@@ -4932,7 +6188,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97">
         <v>5.2616900000000005E-4</v>
@@ -4958,7 +6214,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B98">
         <v>5.04985E-4</v>
@@ -4984,7 +6240,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99">
         <v>5.1139399999999998E-4</v>
@@ -5010,7 +6266,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B100">
         <v>5.3669500000000001E-4</v>
@@ -5036,7 +6292,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B101">
         <v>7.1749599999999998E-4</v>
@@ -5062,7 +6318,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B102">
         <v>7.0684700000000003E-4</v>
@@ -5088,7 +6344,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103">
         <v>6.9391699999999995E-4</v>
@@ -5114,7 +6370,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104">
         <v>6.8117199999999996E-4</v>
@@ -5140,7 +6396,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B105">
         <v>6.7872799999999997E-4</v>
@@ -5166,7 +6422,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106">
         <v>7.1950099999999999E-4</v>
@@ -5186,13 +6442,13 @@
       <c r="G106">
         <v>3.195069E-3</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="2">
         <v>0.99635281099999995</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107">
         <v>6.1575900000000001E-4</v>
@@ -5218,7 +6474,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B108">
         <v>6.0389799999999996E-4</v>
@@ -5244,7 +6500,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109">
         <v>5.7284199999999995E-4</v>
@@ -5270,7 +6526,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110">
         <v>5.5556900000000001E-4</v>
@@ -5296,7 +6552,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B111">
         <v>5.6215900000000001E-4</v>
@@ -5322,7 +6578,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B112">
         <v>5.4408699999999996E-4</v>
@@ -5348,7 +6604,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B113">
         <v>4.5836E-4</v>
@@ -5374,7 +6630,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B114">
         <v>3.0230799999999999E-4</v>
@@ -5400,7 +6656,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115">
         <v>2.0462099999999999E-4</v>
@@ -5426,7 +6682,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116">
         <v>5.2193699999999999E-4</v>
@@ -5452,7 +6708,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117">
         <v>4.4927699999999999E-4</v>
@@ -5478,7 +6734,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B118">
         <v>2.8546399999999998E-4</v>
@@ -5504,7 +6760,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B119">
         <v>2.4194099999999999E-4</v>
@@ -5530,7 +6786,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B120">
         <v>6.5725699999999996E-4</v>
@@ -5556,7 +6812,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121">
         <v>5.2808399999999995E-4</v>
@@ -5582,7 +6838,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B122">
         <v>3.5915099999999999E-4</v>
@@ -5608,7 +6864,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B123">
         <v>3.1127999999999999E-4</v>
@@ -5634,7 +6890,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B124">
         <v>4.7841700000000002E-4</v>
@@ -5660,7 +6916,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B125">
         <v>4.9956000000000002E-4</v>
@@ -5686,7 +6942,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B126">
         <v>3.2126799999999999E-4</v>
@@ -5712,7 +6968,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B127">
         <v>2.7020599999999999E-4</v>
@@ -5738,7 +6994,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B128">
         <v>4.9661200000000001E-4</v>
@@ -5764,7 +7020,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B129">
         <v>5.3819899999999995E-4</v>
@@ -5790,7 +7046,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B130">
         <v>3.5480499999999998E-4</v>
@@ -5816,7 +7072,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B131">
         <v>3.0498E-4</v>
@@ -5842,7 +7098,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B132">
         <v>5.7161400000000002E-4</v>
@@ -5868,7 +7124,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B133">
         <v>6.1787599999999995E-4</v>
@@ -5894,7 +7150,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B134">
         <v>4.3410900000000001E-4</v>
@@ -5920,7 +7176,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B135">
         <v>3.79055E-4</v>
@@ -5946,7 +7202,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B136">
         <v>5.0153199999999995E-4</v>
@@ -5972,7 +7228,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B137">
         <v>5.0392299999999998E-4</v>
@@ -5998,7 +7254,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B138">
         <v>3.4781999999999999E-4</v>
@@ -6024,7 +7280,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B139">
         <v>2.7612200000000001E-4</v>
@@ -6050,7 +7306,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B140">
         <v>5.4036500000000001E-4</v>
@@ -6076,7 +7332,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B141">
         <v>5.2480699999999996E-4</v>
@@ -6102,7 +7358,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B142">
         <v>3.9074900000000002E-4</v>
@@ -6128,7 +7384,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B143">
         <v>3.3084899999999998E-4</v>
@@ -6154,7 +7410,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B144">
         <v>5.6678999999999996E-4</v>
@@ -6180,7 +7436,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B145">
         <v>6.0097700000000004E-4</v>
@@ -6206,7 +7462,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B146">
         <v>4.8327E-4</v>
@@ -6232,7 +7488,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B147">
         <v>4.9274500000000005E-4</v>
@@ -6258,7 +7514,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B148">
         <v>3.2658299999999997E-4</v>
@@ -6284,7 +7540,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B149">
         <v>2.25011E-4</v>
@@ -6310,7 +7566,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B150">
         <v>5.0822400000000005E-4</v>
@@ -6336,7 +7592,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B151">
         <v>3.85542E-4</v>
@@ -6362,7 +7618,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B152">
         <v>2.7817599999999999E-4</v>
@@ -6388,7 +7644,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B153">
         <v>5.7829300000000001E-4</v>
@@ -6414,7 +7670,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B154">
         <v>4.49791E-4</v>
@@ -6440,7 +7696,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B155">
         <v>3.38769E-4</v>
@@ -6466,7 +7722,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B156">
         <v>5.0523799999999998E-4</v>
@@ -6492,7 +7748,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B157">
         <v>3.7785800000000001E-4</v>
@@ -6518,7 +7774,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B158">
         <v>2.8554999999999997E-4</v>
@@ -6544,7 +7800,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B159">
         <v>4.70111E-4</v>
@@ -6570,7 +7826,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B160">
         <v>4.27133E-4</v>
@@ -6596,7 +7852,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B161">
         <v>3.3823700000000002E-4</v>
@@ -6622,7 +7878,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B162">
         <v>5.7063399999999998E-4</v>
@@ -6648,7 +7904,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B163">
         <v>5.2623700000000004E-4</v>
@@ -6674,7 +7930,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B164">
         <v>3.8766700000000001E-4</v>
@@ -6700,7 +7956,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B165">
         <v>4.8464800000000001E-4</v>
@@ -6726,7 +7982,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B166">
         <v>4.0982300000000002E-4</v>
@@ -6752,7 +8008,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B167">
         <v>3.1294599999999998E-4</v>
@@ -6778,7 +8034,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B168">
         <v>5.2144500000000005E-4</v>
@@ -6804,7 +8060,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B169">
         <v>4.6947900000000002E-4</v>
@@ -6830,7 +8086,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B170">
         <v>3.4246299999999999E-4</v>
@@ -6856,7 +8112,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B171">
         <v>5.7827599999999996E-4</v>
@@ -6882,7 +8138,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B172">
         <v>5.4361800000000005E-4</v>
@@ -6908,7 +8164,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B173">
         <v>3.1115599999999999E-4</v>
@@ -6934,7 +8190,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B174">
         <v>4.84589E-4</v>
@@ -6960,7 +8216,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B175">
         <v>4.84723E-4</v>
@@ -6986,7 +8242,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B176">
         <v>4.2448600000000001E-4</v>
@@ -7012,7 +8268,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B177">
         <v>3.21245E-4</v>
@@ -7038,7 +8294,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B178">
         <v>2.53766E-4</v>
@@ -7064,7 +8320,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B179">
         <v>2.18042E-4</v>
@@ -7090,7 +8346,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B180">
         <v>2.04692E-4</v>
@@ -7116,7 +8372,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B181">
         <v>5.2550700000000004E-4</v>
@@ -7142,7 +8398,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B182">
         <v>5.3621300000000001E-4</v>
@@ -7168,7 +8424,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B183">
         <v>4.7342700000000001E-4</v>
@@ -7194,7 +8450,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B184">
         <v>3.60226E-4</v>
@@ -7220,7 +8476,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B185">
         <v>2.6574900000000002E-4</v>
@@ -7246,7 +8502,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B186">
         <v>2.40091E-4</v>
@@ -7272,7 +8528,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B187">
         <v>2.2167000000000001E-4</v>
@@ -7298,7 +8554,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B188">
         <v>6.5489400000000005E-4</v>
@@ -7324,7 +8580,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B189">
         <v>6.7796600000000001E-4</v>
@@ -7350,7 +8606,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B190">
         <v>5.4967899999999997E-4</v>
@@ -7376,7 +8632,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B191">
         <v>3.9895000000000002E-4</v>
@@ -7402,7 +8658,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B192">
         <v>3.54428E-4</v>
@@ -7428,7 +8684,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B193">
         <v>3.3188100000000002E-4</v>
@@ -7454,7 +8710,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B194">
         <v>3.1751099999999998E-4</v>
@@ -7480,7 +8736,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B195">
         <v>5.18681E-4</v>
@@ -7506,7 +8762,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B196">
         <v>4.9001800000000005E-4</v>
@@ -7532,7 +8788,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B197">
         <v>5.0937400000000005E-4</v>
@@ -7558,7 +8814,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B198">
         <v>3.65507E-4</v>
@@ -7584,7 +8840,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B199">
         <v>3.0124600000000002E-4</v>
@@ -7610,7 +8866,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B200">
         <v>2.8024199999999999E-4</v>
@@ -7636,7 +8892,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B201">
         <v>2.7145000000000001E-4</v>
@@ -7662,7 +8918,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B202">
         <v>4.9716300000000001E-4</v>
@@ -7688,7 +8944,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B203">
         <v>4.92466E-4</v>
@@ -7714,7 +8970,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B204">
         <v>5.3962499999999996E-4</v>
@@ -7740,7 +8996,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B205">
         <v>4.2028999999999998E-4</v>
@@ -7766,7 +9022,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B206">
         <v>3.3060400000000002E-4</v>
@@ -7792,7 +9048,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B207">
         <v>3.0584500000000001E-4</v>
@@ -7818,7 +9074,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B208">
         <v>2.9125199999999998E-4</v>
@@ -7844,7 +9100,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B209">
         <v>5.6804700000000002E-4</v>
@@ -7870,7 +9126,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B210">
         <v>5.8126300000000005E-4</v>
@@ -7896,7 +9152,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B211">
         <v>6.2164100000000003E-4</v>
@@ -7922,7 +9178,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B212">
         <v>4.8212199999999998E-4</v>
@@ -7948,7 +9204,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B213">
         <v>3.6832299999999999E-4</v>
@@ -7974,7 +9230,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B214">
         <v>3.2732300000000002E-4</v>
@@ -8000,7 +9256,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B215">
         <v>3.2196200000000002E-4</v>
@@ -8026,7 +9282,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B216">
         <v>4.8343099999999999E-4</v>
@@ -8052,7 +9308,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B217">
         <v>4.7872600000000001E-4</v>
@@ -8078,7 +9334,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B218">
         <v>4.4455299999999998E-4</v>
@@ -8104,7 +9360,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B219">
         <v>3.8442400000000002E-4</v>
@@ -8130,7 +9386,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B220">
         <v>3.2228600000000002E-4</v>
@@ -8156,7 +9412,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B221">
         <v>2.9366100000000002E-4</v>
@@ -8182,7 +9438,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B222">
         <v>2.7240599999999999E-4</v>
@@ -8208,7 +9464,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B223">
         <v>5.1822599999999999E-4</v>
@@ -8234,7 +9490,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B224">
         <v>5.0449399999999997E-4</v>
@@ -8260,7 +9516,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B225">
         <v>5.07009E-4</v>
@@ -8286,7 +9542,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B226">
         <v>4.29863E-4</v>
@@ -8312,7 +9568,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B227">
         <v>3.4672300000000001E-4</v>
@@ -8338,7 +9594,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B228">
         <v>3.13467E-4</v>
@@ -8364,7 +9620,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B229">
         <v>3.0008900000000002E-4</v>
@@ -8390,7 +9646,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B230">
         <v>5.6569300000000003E-4</v>
@@ -8416,7 +9672,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B231">
         <v>5.6636299999999996E-4</v>
@@ -8442,7 +9698,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B232">
         <v>5.5780800000000002E-4</v>
@@ -8468,7 +9724,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B233">
         <v>4.9915300000000001E-4</v>
@@ -8494,7 +9750,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B234">
         <v>4.11395E-4</v>
@@ -8520,7 +9776,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B235">
         <v>3.53161E-4</v>
@@ -8546,7 +9802,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B236">
         <v>4.7270299999999999E-4</v>
@@ -8572,7 +9828,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B237">
         <v>4.6852800000000001E-4</v>
@@ -8598,7 +9854,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B238">
         <v>4.1679199999999998E-4</v>
@@ -8624,7 +9880,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B239">
         <v>3.2306400000000002E-4</v>
@@ -8650,7 +9906,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B240">
         <v>2.6293600000000002E-4</v>
@@ -8676,7 +9932,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B241">
         <v>2.2804999999999999E-4</v>
@@ -8702,7 +9958,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B242">
         <v>2.0938099999999999E-4</v>
@@ -8728,7 +9984,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B243">
         <v>5.0179900000000004E-4</v>
@@ -8754,7 +10010,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B244">
         <v>5.1192700000000002E-4</v>
@@ -8780,7 +10036,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B245">
         <v>4.3557999999999997E-4</v>
@@ -8806,7 +10062,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B246">
         <v>3.5768399999999999E-4</v>
@@ -8832,7 +10088,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B247">
         <v>2.76524E-4</v>
@@ -8858,7 +10114,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B248">
         <v>2.5828500000000002E-4</v>
@@ -8884,7 +10140,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B249">
         <v>2.3551900000000001E-4</v>
@@ -8910,7 +10166,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B250">
         <v>6.48955E-4</v>
@@ -8936,7 +10192,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B251">
         <v>6.1183099999999996E-4</v>
@@ -8962,7 +10218,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B252">
         <v>5.1377200000000001E-4</v>
@@ -8988,7 +10244,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B253">
         <v>4.3876499999999998E-4</v>
@@ -9014,7 +10270,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B254">
         <v>3.4390000000000001E-4</v>
@@ -9040,7 +10296,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B255">
         <v>3.10771E-4</v>
@@ -9066,7 +10322,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B256">
         <v>3.0146300000000002E-4</v>
@@ -9092,7 +10348,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B257">
         <v>4.7849500000000001E-4</v>
@@ -9118,7 +10374,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B258">
         <v>5.0275999999999999E-4</v>
@@ -9144,7 +10400,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B259">
         <v>5.1740599999999999E-4</v>
@@ -9170,7 +10426,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B260">
         <v>3.7951899999999998E-4</v>
@@ -9196,7 +10452,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B261">
         <v>3.2461399999999998E-4</v>
@@ -9222,7 +10478,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B262">
         <v>2.92262E-4</v>
@@ -9248,7 +10504,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B263">
         <v>2.7891199999999998E-4</v>
@@ -9274,7 +10530,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B264">
         <v>4.4690600000000001E-4</v>
@@ -9300,7 +10556,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B265">
         <v>4.50968E-4</v>
@@ -9326,7 +10582,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B266">
         <v>4.99166E-4</v>
@@ -9352,7 +10608,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B267">
         <v>4.3689199999999998E-4</v>
@@ -9378,7 +10634,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B268">
         <v>3.6157600000000001E-4</v>
@@ -9404,7 +10660,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B269">
         <v>3.40119E-4</v>
@@ -9430,7 +10686,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B270">
         <v>3.23025E-4</v>
@@ -9456,7 +10712,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B271">
         <v>5.6255699999999999E-4</v>
@@ -9482,7 +10738,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B272">
         <v>5.7886999999999999E-4</v>
@@ -9508,7 +10764,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B273">
         <v>6.3783199999999996E-4</v>
@@ -9534,7 +10790,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B274">
         <v>5.2629499999999997E-4</v>
@@ -9560,7 +10816,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B275">
         <v>4.5853300000000001E-4</v>
@@ -9586,7 +10842,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B276">
         <v>4.09391E-4</v>
@@ -9612,7 +10868,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B277">
         <v>4.1426199999999999E-4</v>
@@ -9638,7 +10894,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B278">
         <v>4.8616099999999998E-4</v>
@@ -9664,7 +10920,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B279">
         <v>4.9223300000000002E-4</v>
@@ -9690,7 +10946,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B280">
         <v>4.8966000000000005E-4</v>
@@ -9716,7 +10972,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B281">
         <v>4.1326699999999999E-4</v>
@@ -9742,7 +10998,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B282">
         <v>3.5472599999999998E-4</v>
@@ -9768,7 +11024,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B283">
         <v>3.0862499999999998E-4</v>
@@ -9794,7 +11050,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B284">
         <v>2.9086800000000001E-4</v>
@@ -9820,7 +11076,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B285">
         <v>5.3141199999999999E-4</v>
@@ -9846,7 +11102,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B286">
         <v>4.9130500000000004E-4</v>
@@ -9872,7 +11128,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B287">
         <v>4.9682100000000005E-4</v>
@@ -9898,7 +11154,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B288">
         <v>4.6433100000000001E-4</v>
@@ -9924,7 +11180,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B289">
         <v>4.0902799999999997E-4</v>
@@ -9950,7 +11206,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B290">
         <v>3.7444099999999999E-4</v>
@@ -9976,7 +11232,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B291">
         <v>3.3825899999999999E-4</v>
@@ -10002,7 +11258,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B292">
         <v>5.5933100000000004E-4</v>
@@ -10028,7 +11284,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B293">
         <v>5.6149699999999999E-4</v>
@@ -10054,7 +11310,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B294">
         <v>5.6852900000000002E-4</v>
@@ -10080,7 +11336,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B295">
         <v>5.5993099999999995E-4</v>
@@ -10106,7 +11362,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B296">
         <v>4.9463399999999998E-4</v>
@@ -10132,7 +11388,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B297">
         <v>4.6393200000000002E-4</v>
@@ -10158,7 +11414,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B298">
         <v>3.34135E-4</v>
@@ -10184,7 +11440,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B299">
         <v>4.2709099999999999E-4</v>
@@ -10210,7 +11466,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B300">
         <v>4.3149099999999999E-4</v>
@@ -10236,7 +11492,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B301">
         <v>3.9097999999999997E-4</v>
@@ -10262,7 +11518,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B302">
         <v>3.3918300000000001E-4</v>
@@ -10288,7 +11544,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B303">
         <v>2.9627499999999998E-4</v>
@@ -10314,7 +11570,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B304">
         <v>2.7603600000000001E-4</v>
@@ -10340,7 +11596,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B305">
         <v>2.64763E-4</v>
@@ -10366,7 +11622,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B306">
         <v>4.6320699999999999E-4</v>
@@ -10392,7 +11648,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B307">
         <v>4.5498799999999997E-4</v>
@@ -10418,7 +11674,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B308">
         <v>4.3629200000000002E-4</v>
@@ -10444,7 +11700,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B309">
         <v>3.9866700000000001E-4</v>
@@ -10470,7 +11726,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B310">
         <v>3.3655799999999999E-4</v>
@@ -10496,7 +11752,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B311">
         <v>3.0972699999999998E-4</v>
@@ -10522,7 +11778,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B312">
         <v>2.9860200000000003E-4</v>
@@ -10548,7 +11804,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B313">
         <v>5.8556899999999998E-4</v>
@@ -10574,7 +11830,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B314">
         <v>5.4085199999999998E-4</v>
@@ -10600,7 +11856,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B315">
         <v>5.2526299999999999E-4</v>
@@ -10626,7 +11882,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B316">
         <v>4.62764E-4</v>
@@ -10652,7 +11908,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B317">
         <v>3.65235E-4</v>
@@ -10678,7 +11934,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B318">
         <v>3.27277E-4</v>
@@ -10704,7 +11960,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B319">
         <v>3.14875E-4</v>
@@ -10730,7 +11986,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B320">
         <v>5.3314300000000003E-4</v>
@@ -10756,7 +12012,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B321">
         <v>5.1531000000000005E-4</v>
@@ -10782,7 +12038,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B322">
         <v>4.7795299999999998E-4</v>
@@ -10808,7 +12064,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B323">
         <v>3.6146000000000003E-4</v>
@@ -10834,7 +12090,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B324">
         <v>2.9615000000000002E-4</v>
@@ -10860,7 +12116,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B325">
         <v>2.6539199999999998E-4</v>
@@ -10886,7 +12142,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B326">
         <v>2.54348E-4</v>
@@ -10912,7 +12168,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B327">
         <v>5.5100500000000003E-4</v>
@@ -10938,7 +12194,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B328">
         <v>5.6732099999999997E-4</v>
@@ -10964,7 +12220,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B329">
         <v>5.3201699999999997E-4</v>
@@ -10990,7 +12246,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B330">
         <v>4.2268500000000001E-4</v>
@@ -11016,7 +12272,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B331">
         <v>3.2515300000000001E-4</v>
@@ -11042,7 +12298,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B332">
         <v>3.0033399999999997E-4</v>
@@ -11068,7 +12324,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B333">
         <v>2.8682499999999999E-4</v>
@@ -11094,7 +12350,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B334">
         <v>6.5962200000000001E-4</v>
@@ -11120,7 +12376,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B335">
         <v>6.4296000000000004E-4</v>
@@ -11146,7 +12402,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B336">
         <v>6.3665800000000002E-4</v>
@@ -11172,7 +12428,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B337">
         <v>6.3738399999999995E-4</v>
@@ -11198,7 +12454,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B338">
         <v>6.19449E-4</v>
@@ -11224,7 +12480,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B339">
         <v>4.9860200000000001E-4</v>
@@ -11250,7 +12506,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B340">
         <v>3.6904199999999998E-4</v>
@@ -11276,7 +12532,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B341">
         <v>3.21902E-4</v>
@@ -11302,7 +12558,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B342">
         <v>3.0918599999999998E-4</v>
@@ -11328,7 +12584,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B343">
         <v>4.85129E-4</v>
@@ -11354,7 +12610,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B344">
         <v>4.7428800000000001E-4</v>
@@ -11380,7 +12636,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B345">
         <v>4.58329E-4</v>
@@ -11406,7 +12662,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B346">
         <v>3.9580799999999999E-4</v>
@@ -11432,7 +12688,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B347">
         <v>3.3780799999999999E-4</v>
@@ -11458,7 +12714,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B348">
         <v>2.9499700000000002E-4</v>
@@ -11484,7 +12740,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B349">
         <v>2.7738399999999999E-4</v>
@@ -11510,7 +12766,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B350">
         <v>5.13668E-4</v>
@@ -11536,7 +12792,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B351">
         <v>5.3114999999999998E-4</v>
@@ -11562,7 +12818,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B352">
         <v>5.0897099999999999E-4</v>
@@ -11588,7 +12844,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B353">
         <v>4.3509100000000003E-4</v>
@@ -11614,7 +12870,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B354">
         <v>3.6169799999999998E-4</v>
@@ -11640,7 +12896,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B355">
         <v>3.3175099999999998E-4</v>
@@ -11666,7 +12922,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B356">
         <v>3.0890699999999998E-4</v>
@@ -11692,7 +12948,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B357">
         <v>5.4922200000000003E-4</v>
@@ -11718,7 +12974,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B358">
         <v>5.5316299999999996E-4</v>
@@ -11744,7 +13000,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B359">
         <v>5.5357200000000001E-4</v>
@@ -11770,7 +13026,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B360">
         <v>5.1459900000000002E-4</v>
@@ -11796,7 +13052,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B361">
         <v>4.2470700000000003E-4</v>
@@ -11822,7 +13078,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B362">
         <v>3.68847E-4</v>
@@ -11848,7 +13104,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B363">
         <v>3.3055999999999998E-4</v>
@@ -11888,34 +13144,34 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>2.0462099999999999E-4</v>
@@ -11941,7 +13197,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>6.5725699999999996E-4</v>
@@ -11967,7 +13223,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>3.1127999999999999E-4</v>
@@ -11993,7 +13249,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>4.4927699999999999E-4</v>
@@ -12019,7 +13275,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>5.4967899999999997E-4</v>
@@ -12045,7 +13301,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3.38769E-4</v>
@@ -12071,7 +13327,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2.4194099999999999E-4</v>
@@ -12097,7 +13353,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>4.9274500000000005E-4</v>
@@ -12123,7 +13379,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>6.1183099999999996E-4</v>
@@ -12149,7 +13405,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>3.9097999999999997E-4</v>
@@ -12175,7 +13431,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2.2167000000000001E-4</v>
@@ -12201,7 +13457,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>6.7796600000000001E-4</v>
@@ -12227,7 +13483,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>2.54348E-4</v>
@@ -12253,7 +13509,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>8.0239500000000002E-4</v>
@@ -12279,7 +13535,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>5.0275999999999999E-4</v>
@@ -12305,7 +13561,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>5.9944000000000002E-4</v>
@@ -12331,7 +13587,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>7.1244500000000003E-4</v>
@@ -12357,7 +13613,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>3.7785800000000001E-4</v>
@@ -12383,7 +13639,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>5.6844399999999998E-4</v>
@@ -12409,7 +13665,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>6.5962200000000001E-4</v>
@@ -12435,7 +13691,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>7.5361500000000001E-4</v>
@@ -12461,7 +13717,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>3.65507E-4</v>
@@ -12487,7 +13743,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>3.21902E-4</v>
@@ -12513,7 +13769,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>4.4690600000000001E-4</v>
@@ -12539,7 +13795,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>2.6539199999999998E-4</v>
@@ -12565,7 +13821,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27">
         <v>2.7240599999999999E-4</v>
@@ -12591,7 +13847,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>5.6636299999999996E-4</v>
@@ -12617,7 +13873,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29">
         <v>4.4455299999999998E-4</v>
@@ -12643,7 +13899,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>3.4781999999999999E-4</v>
@@ -12669,7 +13925,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>3.0862499999999998E-4</v>
@@ -12695,7 +13951,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>3.9580799999999999E-4</v>
@@ -12721,7 +13977,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>4.85129E-4</v>
@@ -12747,7 +14003,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>4.7428800000000001E-4</v>
@@ -12773,7 +14029,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35">
         <v>3.4672300000000001E-4</v>
@@ -12799,7 +14055,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>5.7827599999999996E-4</v>
@@ -12825,7 +14081,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>4.6433100000000001E-4</v>
@@ -12851,7 +14107,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>4.11395E-4</v>
@@ -12877,7 +14133,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>3.13467E-4</v>
@@ -12903,7 +14159,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>7.2654800000000004E-4</v>
@@ -12929,7 +14185,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>8.1662800000000002E-4</v>
@@ -12955,7 +14211,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>8.5975099999999996E-4</v>
@@ -12981,7 +14237,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>7.0617800000000001E-4</v>
@@ -13007,7 +14263,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>6.3737199999999998E-4</v>
@@ -13033,7 +14289,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>5.2616900000000005E-4</v>
@@ -13059,7 +14315,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>7.4180700000000003E-4</v>
@@ -13085,7 +14341,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>9.1292700000000001E-4</v>
@@ -13111,7 +14367,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>9.4360899999999998E-4</v>
@@ -13137,7 +14393,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>6.1466400000000001E-4</v>
@@ -13163,7 +14419,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>6.6162899999999995E-4</v>
@@ -13189,7 +14445,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>7.2370699999999997E-4</v>
@@ -13215,7 +14471,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>8.0128199999999995E-4</v>
@@ -13241,7 +14497,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>6.8117199999999996E-4</v>
@@ -13267,7 +14523,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>6.1575900000000001E-4</v>
@@ -13293,7 +14549,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>5.7284199999999995E-4</v>
@@ -13319,7 +14575,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>7.3430900000000005E-4</v>
@@ -14255,7 +15511,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92">
         <v>6.9999999999999999E-4</v>
@@ -14281,7 +15537,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93">
         <v>9.0499999999999999E-4</v>
@@ -14307,7 +15563,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <v>6.3250000000000003E-4</v>
@@ -14333,7 +15589,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95">
         <v>6.0749999999999997E-4</v>
@@ -14359,7 +15615,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B96">
         <v>7.3800000000000005E-4</v>
@@ -14385,7 +15641,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97">
         <v>8.6499999999999999E-4</v>
@@ -14411,7 +15667,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B98">
         <v>6.2750000000000002E-4</v>
@@ -14437,7 +15693,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99">
         <v>5.8500000000000002E-4</v>
@@ -14463,7 +15719,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100">
         <v>7.0750000000000001E-4</v>
@@ -14489,7 +15745,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B101">
         <v>6.3500000000000004E-4</v>
@@ -14515,7 +15771,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102">
         <v>6.6750000000000002E-4</v>
@@ -14541,7 +15797,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103">
         <v>6.3029999999999998E-4</v>
@@ -14567,7 +15823,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104">
         <v>7.2250000000000005E-4</v>
@@ -14593,7 +15849,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105">
         <v>6.7250000000000003E-4</v>
